--- a/etc/Acceptance_Test_Plan.xlsx
+++ b/etc/Acceptance_Test_Plan.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girls Who Code\IdeaProjects\team-project-2195-swen-261-08-c-hess\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3585571-4217-44A9-834A-15FC29A7352B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" r:id="rId4"/>
-    <sheet name="Test Plan" sheetId="2" r:id="rId5"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
   <si>
     <t>Instructions</t>
   </si>
@@ -231,9 +240,6 @@
     <t xml:space="preserve">As a Player, I want to be able to move my king in any direction (diagonally) so that I can capture more pieces. </t>
   </si>
   <si>
-    <t xml:space="preserve">Given that my piece has become a king when I make a move then I expect to be able to simple more in any diagonal direction. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Given that my piece has become a king when I make multiple jumps then I expect to be able jump in any direction. </t>
   </si>
   <si>
@@ -271,28 +277,84 @@
   </si>
   <si>
     <t xml:space="preserve">Given that I am unable to make a move when it is my turn then I expect a message to pop up saying I lost the game and a button to redirect myself back to the homepage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that my piece has become a king when I make a move then I expect to be able to make a simple move in any diagonal direction. </t>
+  </si>
+  <si>
+    <t>no message</t>
+  </si>
+  <si>
+    <t>MW; 3/30/2020; PASS</t>
+  </si>
+  <si>
+    <t>ED; 3/30/2020; PASS</t>
+  </si>
+  <si>
+    <t>NL; 4/5/2020; PASS RM; 4/5/2020; PASS</t>
+  </si>
+  <si>
+    <t>WH; 2/29/2020; PASS</t>
+  </si>
+  <si>
+    <t>MW; 2/29/2020; PASS</t>
+  </si>
+  <si>
+    <t>NL; 3/30/2020; PASS</t>
+  </si>
+  <si>
+    <t>ED; 4/1/2020; PASS</t>
+  </si>
+  <si>
+    <t>WH;4/1/2020; PASS</t>
+  </si>
+  <si>
+    <t>RM; 4/5/2020; We catch this error, but so does the javascript which throws it's own error.</t>
+  </si>
+  <si>
+    <t>WH; 4/5/2020: PASS</t>
+  </si>
+  <si>
+    <t>NL; 4/2/2020: PASS</t>
+  </si>
+  <si>
+    <t>WH; 4/2/2020: PASS</t>
+  </si>
+  <si>
+    <t>ED; 4/3/2020; PASS</t>
+  </si>
+  <si>
+    <t>WH; 4/4/2020; PASS</t>
+  </si>
+  <si>
+    <t>NL; 4/4/2020; PASS</t>
+  </si>
+  <si>
+    <t>MW; 4/2/2020; PASS</t>
+  </si>
+  <si>
+    <t>RM; 4/2/2020; PASS</t>
+  </si>
+  <si>
+    <t>RM; 4/3/2020; PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW; 4/3/2020; PASS </t>
+  </si>
+  <si>
+    <t>ED; 3/31/2020; PASS</t>
+  </si>
+  <si>
+    <t>MW; 4/5/2020; PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -302,25 +364,25 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +413,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -534,130 +608,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +771,18 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="ff006100"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -674,48 +791,89 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff00b050"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ff9c0006"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -841,7 +999,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -850,7 +1008,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -859,7 +1017,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -933,7 +1091,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -941,7 +1099,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -960,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,9 +1369,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1228,7 +1392,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1236,7 +1400,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1255,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,7 +1601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,7 +1627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1489,7 +1653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,9 +1666,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1518,7 +1688,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1537,7 +1707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1567,7 +1737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,7 +1763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1619,7 +1789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1645,7 +1815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1671,7 +1841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1697,7 +1867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1723,7 +1893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1749,7 +1919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1775,7 +1945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1788,106 +1958,112 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.852" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="256" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="106.875" style="1" customWidth="1"/>
+    <col min="3" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="220.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1896,7 +2072,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1904,12 +2080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H602"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV602"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="54" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="30" style="8" customWidth="1"/>
     <col min="2" max="2" width="60" style="8" customWidth="1"/>
@@ -1919,748 +2097,934 @@
     <col min="6" max="6" width="60" style="8" customWidth="1"/>
     <col min="7" max="7" width="9" style="8" customWidth="1"/>
     <col min="8" max="8" width="60" style="8" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="8" customWidth="1"/>
+    <col min="9" max="256" width="10.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" t="s" s="10">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" t="s" s="13">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" ht="47.25" customHeight="1">
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="16"/>
-      <c r="B3" t="s" s="11">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" t="s" s="13">
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" ht="63" customHeight="1">
+    <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="16"/>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" t="s" s="13">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" ht="78.75" customHeight="1">
+    <row r="5" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="16"/>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" t="s" s="13">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" ht="63" customHeight="1">
+    <row r="6" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="16"/>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" t="s" s="13">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" ht="47.25" customHeight="1">
+    <row r="7" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="16"/>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" t="s" s="13">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" ht="47.65" customHeight="1">
+    <row r="8" spans="1:8" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17"/>
-      <c r="B8" t="s" s="18">
+      <c r="B8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" t="s" s="20">
+      <c r="D8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" ht="40.5" customHeight="1">
-      <c r="A9" t="s" s="23">
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="24">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="E9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" ht="47.25" customHeight="1">
+    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="16"/>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" ht="47.25" customHeight="1">
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="16"/>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="31"/>
-      <c r="D11" t="s" s="13">
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" ht="94.5" customHeight="1">
+    <row r="12" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16"/>
-      <c r="B12" t="s" s="11">
+      <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" ht="31.5" customHeight="1">
+    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="16"/>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" ht="31.5" customHeight="1">
+    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="16"/>
-      <c r="B14" t="s" s="11">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" ht="63" customHeight="1">
+    <row r="15" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="16"/>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" ht="47.65" customHeight="1">
+    <row r="16" spans="1:8" ht="47.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17"/>
-      <c r="B16" t="s" s="18">
+      <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" t="s" s="13">
+      <c r="D16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" t="s" s="34">
+    <row r="17" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s" s="24">
+      <c r="B17" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" t="s" s="13">
+      <c r="D17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" ht="31.5" customHeight="1">
+    <row r="18" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="15"/>
-      <c r="B18" t="s" s="11">
+      <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" t="s" s="13">
+      <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" ht="45" customHeight="1">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s" s="35">
+      <c r="C19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" t="s" s="36">
+      <c r="D19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" t="s" s="36">
+      <c r="F19" s="46"/>
+      <c r="G19" s="43" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" ht="45" customHeight="1">
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="15"/>
-      <c r="B20" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s" s="36">
+      <c r="C20" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" t="s" s="36">
+      <c r="D20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" t="s" s="36">
+      <c r="F20" s="46"/>
+      <c r="G20" s="43" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" ht="31" customHeight="1">
+    <row r="21" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15"/>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s" s="36">
+      <c r="C21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" t="s" s="36">
+      <c r="D21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" t="s" s="36">
+      <c r="F21" s="46"/>
+      <c r="G21" s="43" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" ht="45" customHeight="1">
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="15"/>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s" s="36">
+      <c r="C22" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" t="s" s="36">
+      <c r="D22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" t="s" s="36">
+      <c r="F22" s="46"/>
+      <c r="G22" s="43" t="s">
         <v>41</v>
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" ht="31" customHeight="1">
+    <row r="23" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="15"/>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s" s="37">
+      <c r="C23" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" t="s" s="36">
+      <c r="D23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" t="s" s="36">
+      <c r="F23" s="46"/>
+      <c r="G23" s="43" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="45" customHeight="1">
-      <c r="A24" t="s" s="3">
+    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s" s="11">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>91</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="31" customHeight="1">
+    <row r="25" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
-      <c r="B25" t="s" s="11">
+      <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="31" customHeight="1">
+    <row r="26" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="15"/>
-      <c r="B26" t="s" s="11">
+      <c r="B26" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="31" customHeight="1">
+    <row r="27" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="15"/>
-      <c r="B27" t="s" s="11">
+      <c r="B27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="31" customHeight="1">
+    <row r="28" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="15"/>
-      <c r="B28" t="s" s="11">
+      <c r="B28" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="31" customHeight="1">
+    <row r="29" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
-      <c r="B29" t="s" s="11">
+      <c r="B29" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="31" customHeight="1">
+    <row r="30" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="15"/>
-      <c r="B30" t="s" s="11">
+      <c r="B30" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="30"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="59" customHeight="1">
-      <c r="A31" t="s" s="3">
+    <row r="31" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s" s="11">
+      <c r="B31" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="31" customHeight="1">
+    <row r="32" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="15"/>
-      <c r="B32" t="s" s="11">
+      <c r="B32" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="45" customHeight="1">
+    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15"/>
-      <c r="B33" t="s" s="11">
+      <c r="B33" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="45" customHeight="1">
+    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="15"/>
-      <c r="B34" t="s" s="11">
+      <c r="B34" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
+      <c r="E34" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="31" customHeight="1">
+    <row r="35" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="15"/>
-      <c r="B35" t="s" s="11">
+      <c r="B35" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="31" customHeight="1">
+    <row r="36" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="15"/>
-      <c r="B36" t="s" s="11">
+      <c r="B36" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="31" customHeight="1">
+    <row r="37" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
-      <c r="B37" t="s" s="11">
+      <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="59" customHeight="1">
-      <c r="A38" t="s" s="3">
+    <row r="38" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B38" t="s" s="11">
+      <c r="B38" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="31" customHeight="1">
+    <row r="39" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="15"/>
-      <c r="B39" t="s" s="11">
+      <c r="B39" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="31" customHeight="1">
+    <row r="40" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="15"/>
-      <c r="B40" t="s" s="11">
+      <c r="B40" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="30"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="45" customHeight="1">
+    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="15"/>
-      <c r="B41" t="s" s="11">
+      <c r="B41" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
+      <c r="E41" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="31" customHeight="1">
+    <row r="42" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="15"/>
-      <c r="B42" t="s" s="11">
+      <c r="B42" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="30"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
+      <c r="E42" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="59" customHeight="1">
-      <c r="A43" t="s" s="3">
+    <row r="43" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B43" t="s" s="11">
+      <c r="B43" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
+      <c r="E43" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="59" customHeight="1">
-      <c r="A44" t="s" s="3">
+    <row r="44" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B44" t="s" s="11">
-        <v>71</v>
+      <c r="B44" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="30"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
+      <c r="E44" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="31" customHeight="1">
+    <row r="45" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="15"/>
-      <c r="B45" t="s" s="11">
-        <v>72</v>
+      <c r="B45" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="31" customHeight="1">
+    <row r="46" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="15"/>
-      <c r="B46" t="s" s="11">
-        <v>73</v>
+      <c r="B46" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="30"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
+      <c r="E46" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="45" customHeight="1">
-      <c r="A47" t="s" s="3">
+    <row r="47" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="B47" t="s" s="11">
-        <v>75</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="30"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
+      <c r="E47" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="31" customHeight="1">
+    <row r="48" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
-      <c r="B48" t="s" s="11">
-        <v>76</v>
+      <c r="B48" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
+      <c r="E48" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="31" customHeight="1">
+    <row r="49" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="15"/>
-      <c r="B49" t="s" s="11">
-        <v>77</v>
+      <c r="B49" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="30"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
+      <c r="E49" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="45" customHeight="1">
+    <row r="50" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="15"/>
-      <c r="B50" t="s" s="11">
-        <v>78</v>
+      <c r="B50" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="30"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+      <c r="E50" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="59" customHeight="1">
-      <c r="A51" t="s" s="3">
+    <row r="51" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="B51" t="s" s="11">
-        <v>80</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="30"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="45" customHeight="1">
+    <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="15"/>
-      <c r="B52" t="s" s="11">
-        <v>81</v>
+      <c r="B52" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="14"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="15"/>
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="59" customHeight="1">
-      <c r="A53" t="s" s="3">
+    <row r="53" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="B53" t="s" s="11">
-        <v>83</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="30"/>
-      <c r="E53" s="14"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="15"/>
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="45" customHeight="1">
+    <row r="54" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="15"/>
-      <c r="B54" t="s" s="11">
-        <v>84</v>
+      <c r="B54" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="14"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="15"/>
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="17" customHeight="1">
+    <row r="55" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="38"/>
@@ -2670,7 +3034,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="17" customHeight="1">
+    <row r="56" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="14"/>
@@ -2680,7 +3044,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="17" customHeight="1">
+    <row r="57" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="14"/>
@@ -2690,7 +3054,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="17" customHeight="1">
+    <row r="58" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="14"/>
@@ -2700,7 +3064,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="17" customHeight="1">
+    <row r="59" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="14"/>
@@ -2710,7 +3074,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="17" customHeight="1">
+    <row r="60" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="14"/>
@@ -2720,7 +3084,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="17" customHeight="1">
+    <row r="61" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="14"/>
@@ -2730,7 +3094,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="17" customHeight="1">
+    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="14"/>
@@ -2740,7 +3104,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="17" customHeight="1">
+    <row r="63" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="14"/>
@@ -2750,7 +3114,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="17" customHeight="1">
+    <row r="64" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="14"/>
@@ -2760,7 +3124,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="17" customHeight="1">
+    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="14"/>
@@ -2770,7 +3134,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="17" customHeight="1">
+    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="14"/>
@@ -2780,7 +3144,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="17" customHeight="1">
+    <row r="67" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="14"/>
@@ -2790,7 +3154,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="17" customHeight="1">
+    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="14"/>
@@ -2800,7 +3164,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="17" customHeight="1">
+    <row r="69" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="14"/>
@@ -2810,7 +3174,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="17" customHeight="1">
+    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="14"/>
@@ -2820,7 +3184,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="17" customHeight="1">
+    <row r="71" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="14"/>
@@ -2830,7 +3194,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="17" customHeight="1">
+    <row r="72" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="14"/>
@@ -2840,7 +3204,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="17" customHeight="1">
+    <row r="73" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="14"/>
@@ -2850,7 +3214,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="17" customHeight="1">
+    <row r="74" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="14"/>
@@ -2860,7 +3224,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="17" customHeight="1">
+    <row r="75" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="14"/>
@@ -2870,7 +3234,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="17" customHeight="1">
+    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="14"/>
@@ -2880,7 +3244,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="17" customHeight="1">
+    <row r="77" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="14"/>
@@ -2890,7 +3254,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="17" customHeight="1">
+    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="14"/>
@@ -2900,7 +3264,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="17" customHeight="1">
+    <row r="79" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="14"/>
@@ -2910,7 +3274,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="17" customHeight="1">
+    <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="14"/>
@@ -2920,7 +3284,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="17" customHeight="1">
+    <row r="81" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="14"/>
@@ -2930,7 +3294,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="17" customHeight="1">
+    <row r="82" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="14"/>
@@ -2940,7 +3304,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="17" customHeight="1">
+    <row r="83" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="14"/>
@@ -2950,7 +3314,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="17" customHeight="1">
+    <row r="84" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="14"/>
@@ -2960,7 +3324,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="17" customHeight="1">
+    <row r="85" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="14"/>
@@ -2970,7 +3334,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="17" customHeight="1">
+    <row r="86" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="14"/>
@@ -2980,7 +3344,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="17" customHeight="1">
+    <row r="87" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="14"/>
@@ -2990,7 +3354,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="17" customHeight="1">
+    <row r="88" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="14"/>
@@ -3000,7 +3364,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="17" customHeight="1">
+    <row r="89" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="14"/>
@@ -3010,7 +3374,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="17" customHeight="1">
+    <row r="90" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="14"/>
@@ -3020,7 +3384,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="17" customHeight="1">
+    <row r="91" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="14"/>
@@ -3030,7 +3394,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="17" customHeight="1">
+    <row r="92" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="14"/>
@@ -3040,7 +3404,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="17" customHeight="1">
+    <row r="93" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="14"/>
@@ -3050,7 +3414,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="17" customHeight="1">
+    <row r="94" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="14"/>
@@ -3060,7 +3424,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="17" customHeight="1">
+    <row r="95" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="14"/>
@@ -3070,7 +3434,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="17" customHeight="1">
+    <row r="96" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="14"/>
@@ -3080,7 +3444,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="17" customHeight="1">
+    <row r="97" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="14"/>
@@ -3090,7 +3454,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="17" customHeight="1">
+    <row r="98" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="14"/>
@@ -3100,7 +3464,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="17" customHeight="1">
+    <row r="99" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="14"/>
@@ -3110,7 +3474,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="17" customHeight="1">
+    <row r="100" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="14"/>
@@ -3120,7 +3484,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="17" customHeight="1">
+    <row r="101" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="14"/>
@@ -3130,7 +3494,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="17" customHeight="1">
+    <row r="102" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="14"/>
@@ -3140,7 +3504,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="17" customHeight="1">
+    <row r="103" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="14"/>
@@ -3150,7 +3514,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="17" customHeight="1">
+    <row r="104" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="14"/>
@@ -3160,7 +3524,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="17" customHeight="1">
+    <row r="105" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="14"/>
@@ -3170,7 +3534,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="17" customHeight="1">
+    <row r="106" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="14"/>
@@ -3180,7 +3544,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="17" customHeight="1">
+    <row r="107" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="14"/>
@@ -3190,7 +3554,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="17" customHeight="1">
+    <row r="108" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="14"/>
@@ -3200,7 +3564,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="17" customHeight="1">
+    <row r="109" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="14"/>
@@ -3210,7 +3574,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="17" customHeight="1">
+    <row r="110" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="14"/>
@@ -3220,7 +3584,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="17" customHeight="1">
+    <row r="111" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="14"/>
@@ -3230,7 +3594,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="17" customHeight="1">
+    <row r="112" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="14"/>
@@ -3240,7 +3604,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="17" customHeight="1">
+    <row r="113" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="14"/>
@@ -3250,7 +3614,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="17" customHeight="1">
+    <row r="114" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="14"/>
@@ -3260,7 +3624,7 @@
       <c r="G114" s="14"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="17" customHeight="1">
+    <row r="115" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="14"/>
@@ -3270,7 +3634,7 @@
       <c r="G115" s="14"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="17" customHeight="1">
+    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="14"/>
@@ -3280,7 +3644,7 @@
       <c r="G116" s="14"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="17" customHeight="1">
+    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="14"/>
@@ -3290,7 +3654,7 @@
       <c r="G117" s="14"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="17" customHeight="1">
+    <row r="118" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="14"/>
@@ -3300,7 +3664,7 @@
       <c r="G118" s="14"/>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" ht="17" customHeight="1">
+    <row r="119" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="14"/>
@@ -3310,7 +3674,7 @@
       <c r="G119" s="14"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" ht="17" customHeight="1">
+    <row r="120" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="14"/>
@@ -3320,7 +3684,7 @@
       <c r="G120" s="14"/>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" ht="17" customHeight="1">
+    <row r="121" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="14"/>
@@ -3330,7 +3694,7 @@
       <c r="G121" s="14"/>
       <c r="H121" s="15"/>
     </row>
-    <row r="122" ht="17" customHeight="1">
+    <row r="122" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="14"/>
@@ -3340,7 +3704,7 @@
       <c r="G122" s="14"/>
       <c r="H122" s="15"/>
     </row>
-    <row r="123" ht="17" customHeight="1">
+    <row r="123" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="14"/>
@@ -3350,7 +3714,7 @@
       <c r="G123" s="14"/>
       <c r="H123" s="15"/>
     </row>
-    <row r="124" ht="17" customHeight="1">
+    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="14"/>
@@ -3360,7 +3724,7 @@
       <c r="G124" s="14"/>
       <c r="H124" s="15"/>
     </row>
-    <row r="125" ht="17" customHeight="1">
+    <row r="125" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="14"/>
@@ -3370,7 +3734,7 @@
       <c r="G125" s="14"/>
       <c r="H125" s="15"/>
     </row>
-    <row r="126" ht="17" customHeight="1">
+    <row r="126" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="14"/>
@@ -3380,7 +3744,7 @@
       <c r="G126" s="14"/>
       <c r="H126" s="15"/>
     </row>
-    <row r="127" ht="17" customHeight="1">
+    <row r="127" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="14"/>
@@ -3390,7 +3754,7 @@
       <c r="G127" s="14"/>
       <c r="H127" s="15"/>
     </row>
-    <row r="128" ht="17" customHeight="1">
+    <row r="128" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="14"/>
@@ -3400,7 +3764,7 @@
       <c r="G128" s="14"/>
       <c r="H128" s="15"/>
     </row>
-    <row r="129" ht="17" customHeight="1">
+    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="14"/>
@@ -3410,7 +3774,7 @@
       <c r="G129" s="14"/>
       <c r="H129" s="15"/>
     </row>
-    <row r="130" ht="17" customHeight="1">
+    <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="14"/>
@@ -3420,7 +3784,7 @@
       <c r="G130" s="14"/>
       <c r="H130" s="15"/>
     </row>
-    <row r="131" ht="17" customHeight="1">
+    <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="14"/>
@@ -3430,7 +3794,7 @@
       <c r="G131" s="14"/>
       <c r="H131" s="15"/>
     </row>
-    <row r="132" ht="17" customHeight="1">
+    <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="14"/>
@@ -3440,7 +3804,7 @@
       <c r="G132" s="14"/>
       <c r="H132" s="15"/>
     </row>
-    <row r="133" ht="17" customHeight="1">
+    <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="14"/>
@@ -3450,7 +3814,7 @@
       <c r="G133" s="14"/>
       <c r="H133" s="15"/>
     </row>
-    <row r="134" ht="17" customHeight="1">
+    <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="14"/>
@@ -3460,7 +3824,7 @@
       <c r="G134" s="14"/>
       <c r="H134" s="15"/>
     </row>
-    <row r="135" ht="17" customHeight="1">
+    <row r="135" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="14"/>
@@ -3470,7 +3834,7 @@
       <c r="G135" s="14"/>
       <c r="H135" s="15"/>
     </row>
-    <row r="136" ht="17" customHeight="1">
+    <row r="136" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="14"/>
@@ -3480,7 +3844,7 @@
       <c r="G136" s="14"/>
       <c r="H136" s="15"/>
     </row>
-    <row r="137" ht="17" customHeight="1">
+    <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="14"/>
@@ -3490,7 +3854,7 @@
       <c r="G137" s="14"/>
       <c r="H137" s="15"/>
     </row>
-    <row r="138" ht="17" customHeight="1">
+    <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="14"/>
@@ -3500,7 +3864,7 @@
       <c r="G138" s="14"/>
       <c r="H138" s="15"/>
     </row>
-    <row r="139" ht="17" customHeight="1">
+    <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="14"/>
@@ -3510,7 +3874,7 @@
       <c r="G139" s="14"/>
       <c r="H139" s="15"/>
     </row>
-    <row r="140" ht="17" customHeight="1">
+    <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="14"/>
@@ -3520,7 +3884,7 @@
       <c r="G140" s="14"/>
       <c r="H140" s="15"/>
     </row>
-    <row r="141" ht="17" customHeight="1">
+    <row r="141" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="14"/>
@@ -3530,7 +3894,7 @@
       <c r="G141" s="14"/>
       <c r="H141" s="15"/>
     </row>
-    <row r="142" ht="17" customHeight="1">
+    <row r="142" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="14"/>
@@ -3540,7 +3904,7 @@
       <c r="G142" s="14"/>
       <c r="H142" s="15"/>
     </row>
-    <row r="143" ht="17" customHeight="1">
+    <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="14"/>
@@ -3550,7 +3914,7 @@
       <c r="G143" s="14"/>
       <c r="H143" s="15"/>
     </row>
-    <row r="144" ht="17" customHeight="1">
+    <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="14"/>
@@ -3560,7 +3924,7 @@
       <c r="G144" s="14"/>
       <c r="H144" s="15"/>
     </row>
-    <row r="145" ht="17" customHeight="1">
+    <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="14"/>
@@ -3570,7 +3934,7 @@
       <c r="G145" s="14"/>
       <c r="H145" s="15"/>
     </row>
-    <row r="146" ht="17" customHeight="1">
+    <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="14"/>
@@ -3580,7 +3944,7 @@
       <c r="G146" s="14"/>
       <c r="H146" s="15"/>
     </row>
-    <row r="147" ht="17" customHeight="1">
+    <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="14"/>
@@ -3590,7 +3954,7 @@
       <c r="G147" s="14"/>
       <c r="H147" s="15"/>
     </row>
-    <row r="148" ht="17" customHeight="1">
+    <row r="148" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="14"/>
@@ -3600,7 +3964,7 @@
       <c r="G148" s="14"/>
       <c r="H148" s="15"/>
     </row>
-    <row r="149" ht="17" customHeight="1">
+    <row r="149" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="14"/>
@@ -3610,7 +3974,7 @@
       <c r="G149" s="14"/>
       <c r="H149" s="15"/>
     </row>
-    <row r="150" ht="17" customHeight="1">
+    <row r="150" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="14"/>
@@ -3620,7 +3984,7 @@
       <c r="G150" s="14"/>
       <c r="H150" s="15"/>
     </row>
-    <row r="151" ht="17" customHeight="1">
+    <row r="151" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="14"/>
@@ -3630,7 +3994,7 @@
       <c r="G151" s="14"/>
       <c r="H151" s="15"/>
     </row>
-    <row r="152" ht="17" customHeight="1">
+    <row r="152" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="14"/>
@@ -3640,7 +4004,7 @@
       <c r="G152" s="14"/>
       <c r="H152" s="15"/>
     </row>
-    <row r="153" ht="17" customHeight="1">
+    <row r="153" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="14"/>
@@ -3650,7 +4014,7 @@
       <c r="G153" s="14"/>
       <c r="H153" s="15"/>
     </row>
-    <row r="154" ht="17" customHeight="1">
+    <row r="154" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="14"/>
@@ -3660,7 +4024,7 @@
       <c r="G154" s="14"/>
       <c r="H154" s="15"/>
     </row>
-    <row r="155" ht="17" customHeight="1">
+    <row r="155" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="14"/>
@@ -3670,7 +4034,7 @@
       <c r="G155" s="14"/>
       <c r="H155" s="15"/>
     </row>
-    <row r="156" ht="17" customHeight="1">
+    <row r="156" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="14"/>
@@ -3680,7 +4044,7 @@
       <c r="G156" s="14"/>
       <c r="H156" s="15"/>
     </row>
-    <row r="157" ht="17" customHeight="1">
+    <row r="157" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="14"/>
@@ -3690,7 +4054,7 @@
       <c r="G157" s="14"/>
       <c r="H157" s="15"/>
     </row>
-    <row r="158" ht="17" customHeight="1">
+    <row r="158" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="14"/>
@@ -3700,7 +4064,7 @@
       <c r="G158" s="14"/>
       <c r="H158" s="15"/>
     </row>
-    <row r="159" ht="17" customHeight="1">
+    <row r="159" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="14"/>
@@ -3710,7 +4074,7 @@
       <c r="G159" s="14"/>
       <c r="H159" s="15"/>
     </row>
-    <row r="160" ht="17" customHeight="1">
+    <row r="160" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="14"/>
@@ -3720,7 +4084,7 @@
       <c r="G160" s="14"/>
       <c r="H160" s="15"/>
     </row>
-    <row r="161" ht="17" customHeight="1">
+    <row r="161" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="14"/>
@@ -3730,7 +4094,7 @@
       <c r="G161" s="14"/>
       <c r="H161" s="15"/>
     </row>
-    <row r="162" ht="17" customHeight="1">
+    <row r="162" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="14"/>
@@ -3740,7 +4104,7 @@
       <c r="G162" s="14"/>
       <c r="H162" s="15"/>
     </row>
-    <row r="163" ht="17" customHeight="1">
+    <row r="163" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="14"/>
@@ -3750,7 +4114,7 @@
       <c r="G163" s="14"/>
       <c r="H163" s="15"/>
     </row>
-    <row r="164" ht="17" customHeight="1">
+    <row r="164" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="14"/>
@@ -3760,7 +4124,7 @@
       <c r="G164" s="14"/>
       <c r="H164" s="15"/>
     </row>
-    <row r="165" ht="17" customHeight="1">
+    <row r="165" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="14"/>
@@ -3770,7 +4134,7 @@
       <c r="G165" s="14"/>
       <c r="H165" s="15"/>
     </row>
-    <row r="166" ht="17" customHeight="1">
+    <row r="166" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="14"/>
@@ -3780,7 +4144,7 @@
       <c r="G166" s="14"/>
       <c r="H166" s="15"/>
     </row>
-    <row r="167" ht="17" customHeight="1">
+    <row r="167" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="14"/>
@@ -3790,7 +4154,7 @@
       <c r="G167" s="14"/>
       <c r="H167" s="15"/>
     </row>
-    <row r="168" ht="17" customHeight="1">
+    <row r="168" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="14"/>
@@ -3800,7 +4164,7 @@
       <c r="G168" s="14"/>
       <c r="H168" s="15"/>
     </row>
-    <row r="169" ht="17" customHeight="1">
+    <row r="169" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="14"/>
@@ -3810,7 +4174,7 @@
       <c r="G169" s="14"/>
       <c r="H169" s="15"/>
     </row>
-    <row r="170" ht="17" customHeight="1">
+    <row r="170" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="14"/>
@@ -3820,7 +4184,7 @@
       <c r="G170" s="14"/>
       <c r="H170" s="15"/>
     </row>
-    <row r="171" ht="17" customHeight="1">
+    <row r="171" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="14"/>
@@ -3830,7 +4194,7 @@
       <c r="G171" s="14"/>
       <c r="H171" s="15"/>
     </row>
-    <row r="172" ht="17" customHeight="1">
+    <row r="172" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="14"/>
@@ -3840,7 +4204,7 @@
       <c r="G172" s="14"/>
       <c r="H172" s="15"/>
     </row>
-    <row r="173" ht="17" customHeight="1">
+    <row r="173" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="14"/>
@@ -3850,7 +4214,7 @@
       <c r="G173" s="14"/>
       <c r="H173" s="15"/>
     </row>
-    <row r="174" ht="17" customHeight="1">
+    <row r="174" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="14"/>
@@ -3860,7 +4224,7 @@
       <c r="G174" s="14"/>
       <c r="H174" s="15"/>
     </row>
-    <row r="175" ht="17" customHeight="1">
+    <row r="175" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="14"/>
@@ -3870,7 +4234,7 @@
       <c r="G175" s="14"/>
       <c r="H175" s="15"/>
     </row>
-    <row r="176" ht="17" customHeight="1">
+    <row r="176" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="14"/>
@@ -3880,7 +4244,7 @@
       <c r="G176" s="14"/>
       <c r="H176" s="15"/>
     </row>
-    <row r="177" ht="17" customHeight="1">
+    <row r="177" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="14"/>
@@ -3890,7 +4254,7 @@
       <c r="G177" s="14"/>
       <c r="H177" s="15"/>
     </row>
-    <row r="178" ht="17" customHeight="1">
+    <row r="178" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="14"/>
@@ -3900,7 +4264,7 @@
       <c r="G178" s="14"/>
       <c r="H178" s="15"/>
     </row>
-    <row r="179" ht="17" customHeight="1">
+    <row r="179" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="14"/>
@@ -3910,7 +4274,7 @@
       <c r="G179" s="14"/>
       <c r="H179" s="15"/>
     </row>
-    <row r="180" ht="17" customHeight="1">
+    <row r="180" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="14"/>
@@ -3920,7 +4284,7 @@
       <c r="G180" s="14"/>
       <c r="H180" s="15"/>
     </row>
-    <row r="181" ht="17" customHeight="1">
+    <row r="181" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="14"/>
@@ -3930,7 +4294,7 @@
       <c r="G181" s="14"/>
       <c r="H181" s="15"/>
     </row>
-    <row r="182" ht="17" customHeight="1">
+    <row r="182" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="14"/>
@@ -3940,7 +4304,7 @@
       <c r="G182" s="14"/>
       <c r="H182" s="15"/>
     </row>
-    <row r="183" ht="17" customHeight="1">
+    <row r="183" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="14"/>
@@ -3950,7 +4314,7 @@
       <c r="G183" s="14"/>
       <c r="H183" s="15"/>
     </row>
-    <row r="184" ht="17" customHeight="1">
+    <row r="184" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="14"/>
@@ -3960,7 +4324,7 @@
       <c r="G184" s="14"/>
       <c r="H184" s="15"/>
     </row>
-    <row r="185" ht="17" customHeight="1">
+    <row r="185" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="14"/>
@@ -3970,7 +4334,7 @@
       <c r="G185" s="14"/>
       <c r="H185" s="15"/>
     </row>
-    <row r="186" ht="17" customHeight="1">
+    <row r="186" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="14"/>
@@ -3980,7 +4344,7 @@
       <c r="G186" s="14"/>
       <c r="H186" s="15"/>
     </row>
-    <row r="187" ht="17" customHeight="1">
+    <row r="187" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="14"/>
@@ -3990,7 +4354,7 @@
       <c r="G187" s="14"/>
       <c r="H187" s="15"/>
     </row>
-    <row r="188" ht="17" customHeight="1">
+    <row r="188" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="14"/>
@@ -4000,7 +4364,7 @@
       <c r="G188" s="14"/>
       <c r="H188" s="15"/>
     </row>
-    <row r="189" ht="17" customHeight="1">
+    <row r="189" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="14"/>
@@ -4010,7 +4374,7 @@
       <c r="G189" s="14"/>
       <c r="H189" s="15"/>
     </row>
-    <row r="190" ht="17" customHeight="1">
+    <row r="190" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="14"/>
@@ -4020,7 +4384,7 @@
       <c r="G190" s="14"/>
       <c r="H190" s="15"/>
     </row>
-    <row r="191" ht="17" customHeight="1">
+    <row r="191" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="14"/>
@@ -4030,7 +4394,7 @@
       <c r="G191" s="14"/>
       <c r="H191" s="15"/>
     </row>
-    <row r="192" ht="17" customHeight="1">
+    <row r="192" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="14"/>
@@ -4040,7 +4404,7 @@
       <c r="G192" s="14"/>
       <c r="H192" s="15"/>
     </row>
-    <row r="193" ht="17" customHeight="1">
+    <row r="193" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="14"/>
@@ -4050,7 +4414,7 @@
       <c r="G193" s="14"/>
       <c r="H193" s="15"/>
     </row>
-    <row r="194" ht="17" customHeight="1">
+    <row r="194" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="14"/>
@@ -4060,7 +4424,7 @@
       <c r="G194" s="14"/>
       <c r="H194" s="15"/>
     </row>
-    <row r="195" ht="17" customHeight="1">
+    <row r="195" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="14"/>
@@ -4070,7 +4434,7 @@
       <c r="G195" s="14"/>
       <c r="H195" s="15"/>
     </row>
-    <row r="196" ht="17" customHeight="1">
+    <row r="196" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="14"/>
@@ -4080,7 +4444,7 @@
       <c r="G196" s="14"/>
       <c r="H196" s="15"/>
     </row>
-    <row r="197" ht="17" customHeight="1">
+    <row r="197" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="14"/>
@@ -4090,7 +4454,7 @@
       <c r="G197" s="14"/>
       <c r="H197" s="15"/>
     </row>
-    <row r="198" ht="17" customHeight="1">
+    <row r="198" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="14"/>
@@ -4100,7 +4464,7 @@
       <c r="G198" s="14"/>
       <c r="H198" s="15"/>
     </row>
-    <row r="199" ht="17" customHeight="1">
+    <row r="199" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="14"/>
@@ -4110,7 +4474,7 @@
       <c r="G199" s="14"/>
       <c r="H199" s="15"/>
     </row>
-    <row r="200" ht="17" customHeight="1">
+    <row r="200" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="14"/>
@@ -4120,7 +4484,7 @@
       <c r="G200" s="14"/>
       <c r="H200" s="15"/>
     </row>
-    <row r="201" ht="17" customHeight="1">
+    <row r="201" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="14"/>
@@ -4130,7 +4494,7 @@
       <c r="G201" s="14"/>
       <c r="H201" s="15"/>
     </row>
-    <row r="202" ht="17" customHeight="1">
+    <row r="202" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="14"/>
@@ -4140,7 +4504,7 @@
       <c r="G202" s="14"/>
       <c r="H202" s="15"/>
     </row>
-    <row r="203" ht="17" customHeight="1">
+    <row r="203" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="14"/>
@@ -4150,7 +4514,7 @@
       <c r="G203" s="14"/>
       <c r="H203" s="15"/>
     </row>
-    <row r="204" ht="17" customHeight="1">
+    <row r="204" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="14"/>
@@ -4160,7 +4524,7 @@
       <c r="G204" s="14"/>
       <c r="H204" s="15"/>
     </row>
-    <row r="205" ht="17" customHeight="1">
+    <row r="205" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="14"/>
@@ -4170,7 +4534,7 @@
       <c r="G205" s="14"/>
       <c r="H205" s="15"/>
     </row>
-    <row r="206" ht="17" customHeight="1">
+    <row r="206" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="14"/>
@@ -4180,7 +4544,7 @@
       <c r="G206" s="14"/>
       <c r="H206" s="15"/>
     </row>
-    <row r="207" ht="17" customHeight="1">
+    <row r="207" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="14"/>
@@ -4190,7 +4554,7 @@
       <c r="G207" s="14"/>
       <c r="H207" s="15"/>
     </row>
-    <row r="208" ht="17" customHeight="1">
+    <row r="208" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="14"/>
@@ -4200,7 +4564,7 @@
       <c r="G208" s="14"/>
       <c r="H208" s="15"/>
     </row>
-    <row r="209" ht="17" customHeight="1">
+    <row r="209" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="14"/>
@@ -4210,7 +4574,7 @@
       <c r="G209" s="14"/>
       <c r="H209" s="15"/>
     </row>
-    <row r="210" ht="17" customHeight="1">
+    <row r="210" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="14"/>
@@ -4220,7 +4584,7 @@
       <c r="G210" s="14"/>
       <c r="H210" s="15"/>
     </row>
-    <row r="211" ht="17" customHeight="1">
+    <row r="211" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
       <c r="C211" s="14"/>
@@ -4230,7 +4594,7 @@
       <c r="G211" s="14"/>
       <c r="H211" s="15"/>
     </row>
-    <row r="212" ht="17" customHeight="1">
+    <row r="212" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="14"/>
@@ -4240,7 +4604,7 @@
       <c r="G212" s="14"/>
       <c r="H212" s="15"/>
     </row>
-    <row r="213" ht="17" customHeight="1">
+    <row r="213" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="14"/>
@@ -4250,7 +4614,7 @@
       <c r="G213" s="14"/>
       <c r="H213" s="15"/>
     </row>
-    <row r="214" ht="17" customHeight="1">
+    <row r="214" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="14"/>
@@ -4260,7 +4624,7 @@
       <c r="G214" s="14"/>
       <c r="H214" s="15"/>
     </row>
-    <row r="215" ht="17" customHeight="1">
+    <row r="215" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="14"/>
@@ -4270,7 +4634,7 @@
       <c r="G215" s="14"/>
       <c r="H215" s="15"/>
     </row>
-    <row r="216" ht="17" customHeight="1">
+    <row r="216" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="14"/>
@@ -4280,7 +4644,7 @@
       <c r="G216" s="14"/>
       <c r="H216" s="15"/>
     </row>
-    <row r="217" ht="17" customHeight="1">
+    <row r="217" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="14"/>
@@ -4290,7 +4654,7 @@
       <c r="G217" s="14"/>
       <c r="H217" s="15"/>
     </row>
-    <row r="218" ht="17" customHeight="1">
+    <row r="218" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="14"/>
@@ -4300,7 +4664,7 @@
       <c r="G218" s="14"/>
       <c r="H218" s="15"/>
     </row>
-    <row r="219" ht="17" customHeight="1">
+    <row r="219" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="14"/>
@@ -4310,7 +4674,7 @@
       <c r="G219" s="14"/>
       <c r="H219" s="15"/>
     </row>
-    <row r="220" ht="17" customHeight="1">
+    <row r="220" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="14"/>
@@ -4320,7 +4684,7 @@
       <c r="G220" s="14"/>
       <c r="H220" s="15"/>
     </row>
-    <row r="221" ht="17" customHeight="1">
+    <row r="221" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="14"/>
@@ -4330,7 +4694,7 @@
       <c r="G221" s="14"/>
       <c r="H221" s="15"/>
     </row>
-    <row r="222" ht="17" customHeight="1">
+    <row r="222" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="14"/>
@@ -4340,7 +4704,7 @@
       <c r="G222" s="14"/>
       <c r="H222" s="15"/>
     </row>
-    <row r="223" ht="17" customHeight="1">
+    <row r="223" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="14"/>
@@ -4350,7 +4714,7 @@
       <c r="G223" s="14"/>
       <c r="H223" s="15"/>
     </row>
-    <row r="224" ht="17" customHeight="1">
+    <row r="224" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="14"/>
@@ -4360,7 +4724,7 @@
       <c r="G224" s="14"/>
       <c r="H224" s="15"/>
     </row>
-    <row r="225" ht="17" customHeight="1">
+    <row r="225" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="14"/>
@@ -4370,7 +4734,7 @@
       <c r="G225" s="14"/>
       <c r="H225" s="15"/>
     </row>
-    <row r="226" ht="17" customHeight="1">
+    <row r="226" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="14"/>
@@ -4380,7 +4744,7 @@
       <c r="G226" s="14"/>
       <c r="H226" s="15"/>
     </row>
-    <row r="227" ht="17" customHeight="1">
+    <row r="227" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="14"/>
@@ -4390,7 +4754,7 @@
       <c r="G227" s="14"/>
       <c r="H227" s="15"/>
     </row>
-    <row r="228" ht="17" customHeight="1">
+    <row r="228" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="14"/>
@@ -4400,7 +4764,7 @@
       <c r="G228" s="14"/>
       <c r="H228" s="15"/>
     </row>
-    <row r="229" ht="17" customHeight="1">
+    <row r="229" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="14"/>
@@ -4410,7 +4774,7 @@
       <c r="G229" s="14"/>
       <c r="H229" s="15"/>
     </row>
-    <row r="230" ht="17" customHeight="1">
+    <row r="230" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="14"/>
@@ -4420,7 +4784,7 @@
       <c r="G230" s="14"/>
       <c r="H230" s="15"/>
     </row>
-    <row r="231" ht="17" customHeight="1">
+    <row r="231" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="14"/>
@@ -4430,7 +4794,7 @@
       <c r="G231" s="14"/>
       <c r="H231" s="15"/>
     </row>
-    <row r="232" ht="17" customHeight="1">
+    <row r="232" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="14"/>
@@ -4440,7 +4804,7 @@
       <c r="G232" s="14"/>
       <c r="H232" s="15"/>
     </row>
-    <row r="233" ht="17" customHeight="1">
+    <row r="233" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="14"/>
@@ -4450,7 +4814,7 @@
       <c r="G233" s="14"/>
       <c r="H233" s="15"/>
     </row>
-    <row r="234" ht="17" customHeight="1">
+    <row r="234" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="14"/>
@@ -4460,7 +4824,7 @@
       <c r="G234" s="14"/>
       <c r="H234" s="15"/>
     </row>
-    <row r="235" ht="17" customHeight="1">
+    <row r="235" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="14"/>
@@ -4470,7 +4834,7 @@
       <c r="G235" s="14"/>
       <c r="H235" s="15"/>
     </row>
-    <row r="236" ht="17" customHeight="1">
+    <row r="236" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="14"/>
@@ -4480,7 +4844,7 @@
       <c r="G236" s="14"/>
       <c r="H236" s="15"/>
     </row>
-    <row r="237" ht="17" customHeight="1">
+    <row r="237" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="14"/>
@@ -4490,7 +4854,7 @@
       <c r="G237" s="14"/>
       <c r="H237" s="15"/>
     </row>
-    <row r="238" ht="17" customHeight="1">
+    <row r="238" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="14"/>
@@ -4500,7 +4864,7 @@
       <c r="G238" s="14"/>
       <c r="H238" s="15"/>
     </row>
-    <row r="239" ht="17" customHeight="1">
+    <row r="239" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="14"/>
@@ -4510,7 +4874,7 @@
       <c r="G239" s="14"/>
       <c r="H239" s="15"/>
     </row>
-    <row r="240" ht="17" customHeight="1">
+    <row r="240" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="14"/>
@@ -4520,7 +4884,7 @@
       <c r="G240" s="14"/>
       <c r="H240" s="15"/>
     </row>
-    <row r="241" ht="17" customHeight="1">
+    <row r="241" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="14"/>
@@ -4530,7 +4894,7 @@
       <c r="G241" s="14"/>
       <c r="H241" s="15"/>
     </row>
-    <row r="242" ht="17" customHeight="1">
+    <row r="242" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="14"/>
@@ -4540,7 +4904,7 @@
       <c r="G242" s="14"/>
       <c r="H242" s="15"/>
     </row>
-    <row r="243" ht="17" customHeight="1">
+    <row r="243" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="14"/>
@@ -4550,7 +4914,7 @@
       <c r="G243" s="14"/>
       <c r="H243" s="15"/>
     </row>
-    <row r="244" ht="17" customHeight="1">
+    <row r="244" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="14"/>
@@ -4560,7 +4924,7 @@
       <c r="G244" s="14"/>
       <c r="H244" s="15"/>
     </row>
-    <row r="245" ht="17" customHeight="1">
+    <row r="245" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="14"/>
@@ -4570,7 +4934,7 @@
       <c r="G245" s="14"/>
       <c r="H245" s="15"/>
     </row>
-    <row r="246" ht="17" customHeight="1">
+    <row r="246" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="14"/>
@@ -4580,7 +4944,7 @@
       <c r="G246" s="14"/>
       <c r="H246" s="15"/>
     </row>
-    <row r="247" ht="17" customHeight="1">
+    <row r="247" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="14"/>
@@ -4590,7 +4954,7 @@
       <c r="G247" s="14"/>
       <c r="H247" s="15"/>
     </row>
-    <row r="248" ht="17" customHeight="1">
+    <row r="248" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="14"/>
@@ -4600,7 +4964,7 @@
       <c r="G248" s="14"/>
       <c r="H248" s="15"/>
     </row>
-    <row r="249" ht="17" customHeight="1">
+    <row r="249" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="14"/>
@@ -4610,7 +4974,7 @@
       <c r="G249" s="14"/>
       <c r="H249" s="15"/>
     </row>
-    <row r="250" ht="17" customHeight="1">
+    <row r="250" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="14"/>
@@ -4620,7 +4984,7 @@
       <c r="G250" s="14"/>
       <c r="H250" s="15"/>
     </row>
-    <row r="251" ht="17" customHeight="1">
+    <row r="251" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="14"/>
@@ -4630,7 +4994,7 @@
       <c r="G251" s="14"/>
       <c r="H251" s="15"/>
     </row>
-    <row r="252" ht="17" customHeight="1">
+    <row r="252" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="14"/>
@@ -4640,7 +5004,7 @@
       <c r="G252" s="14"/>
       <c r="H252" s="15"/>
     </row>
-    <row r="253" ht="17" customHeight="1">
+    <row r="253" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="14"/>
@@ -4650,7 +5014,7 @@
       <c r="G253" s="14"/>
       <c r="H253" s="15"/>
     </row>
-    <row r="254" ht="17" customHeight="1">
+    <row r="254" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="14"/>
@@ -4660,7 +5024,7 @@
       <c r="G254" s="14"/>
       <c r="H254" s="15"/>
     </row>
-    <row r="255" ht="17" customHeight="1">
+    <row r="255" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="14"/>
@@ -4670,7 +5034,7 @@
       <c r="G255" s="14"/>
       <c r="H255" s="15"/>
     </row>
-    <row r="256" ht="17" customHeight="1">
+    <row r="256" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="14"/>
@@ -4680,7 +5044,7 @@
       <c r="G256" s="14"/>
       <c r="H256" s="15"/>
     </row>
-    <row r="257" ht="17" customHeight="1">
+    <row r="257" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="14"/>
@@ -4690,7 +5054,7 @@
       <c r="G257" s="14"/>
       <c r="H257" s="15"/>
     </row>
-    <row r="258" ht="17" customHeight="1">
+    <row r="258" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="14"/>
@@ -4700,7 +5064,7 @@
       <c r="G258" s="14"/>
       <c r="H258" s="15"/>
     </row>
-    <row r="259" ht="17" customHeight="1">
+    <row r="259" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="14"/>
@@ -4710,7 +5074,7 @@
       <c r="G259" s="14"/>
       <c r="H259" s="15"/>
     </row>
-    <row r="260" ht="17" customHeight="1">
+    <row r="260" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="14"/>
@@ -4720,7 +5084,7 @@
       <c r="G260" s="14"/>
       <c r="H260" s="15"/>
     </row>
-    <row r="261" ht="17" customHeight="1">
+    <row r="261" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="14"/>
@@ -4730,7 +5094,7 @@
       <c r="G261" s="14"/>
       <c r="H261" s="15"/>
     </row>
-    <row r="262" ht="17" customHeight="1">
+    <row r="262" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="14"/>
@@ -4740,7 +5104,7 @@
       <c r="G262" s="14"/>
       <c r="H262" s="15"/>
     </row>
-    <row r="263" ht="17" customHeight="1">
+    <row r="263" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="14"/>
@@ -4750,7 +5114,7 @@
       <c r="G263" s="14"/>
       <c r="H263" s="15"/>
     </row>
-    <row r="264" ht="17" customHeight="1">
+    <row r="264" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="14"/>
@@ -4760,7 +5124,7 @@
       <c r="G264" s="14"/>
       <c r="H264" s="15"/>
     </row>
-    <row r="265" ht="17" customHeight="1">
+    <row r="265" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="14"/>
@@ -4770,7 +5134,7 @@
       <c r="G265" s="14"/>
       <c r="H265" s="15"/>
     </row>
-    <row r="266" ht="17" customHeight="1">
+    <row r="266" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A266" s="15"/>
       <c r="B266" s="15"/>
       <c r="C266" s="14"/>
@@ -4780,7 +5144,7 @@
       <c r="G266" s="14"/>
       <c r="H266" s="15"/>
     </row>
-    <row r="267" ht="17" customHeight="1">
+    <row r="267" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A267" s="15"/>
       <c r="B267" s="15"/>
       <c r="C267" s="14"/>
@@ -4790,7 +5154,7 @@
       <c r="G267" s="14"/>
       <c r="H267" s="15"/>
     </row>
-    <row r="268" ht="17" customHeight="1">
+    <row r="268" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A268" s="15"/>
       <c r="B268" s="15"/>
       <c r="C268" s="14"/>
@@ -4800,7 +5164,7 @@
       <c r="G268" s="14"/>
       <c r="H268" s="15"/>
     </row>
-    <row r="269" ht="17" customHeight="1">
+    <row r="269" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A269" s="15"/>
       <c r="B269" s="15"/>
       <c r="C269" s="14"/>
@@ -4810,7 +5174,7 @@
       <c r="G269" s="14"/>
       <c r="H269" s="15"/>
     </row>
-    <row r="270" ht="17" customHeight="1">
+    <row r="270" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A270" s="15"/>
       <c r="B270" s="15"/>
       <c r="C270" s="14"/>
@@ -4820,7 +5184,7 @@
       <c r="G270" s="14"/>
       <c r="H270" s="15"/>
     </row>
-    <row r="271" ht="17" customHeight="1">
+    <row r="271" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A271" s="15"/>
       <c r="B271" s="15"/>
       <c r="C271" s="14"/>
@@ -4830,7 +5194,7 @@
       <c r="G271" s="14"/>
       <c r="H271" s="15"/>
     </row>
-    <row r="272" ht="17" customHeight="1">
+    <row r="272" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A272" s="15"/>
       <c r="B272" s="15"/>
       <c r="C272" s="14"/>
@@ -4840,7 +5204,7 @@
       <c r="G272" s="14"/>
       <c r="H272" s="15"/>
     </row>
-    <row r="273" ht="17" customHeight="1">
+    <row r="273" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A273" s="15"/>
       <c r="B273" s="15"/>
       <c r="C273" s="14"/>
@@ -4850,7 +5214,7 @@
       <c r="G273" s="14"/>
       <c r="H273" s="15"/>
     </row>
-    <row r="274" ht="17" customHeight="1">
+    <row r="274" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A274" s="15"/>
       <c r="B274" s="15"/>
       <c r="C274" s="14"/>
@@ -4860,7 +5224,7 @@
       <c r="G274" s="14"/>
       <c r="H274" s="15"/>
     </row>
-    <row r="275" ht="17" customHeight="1">
+    <row r="275" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A275" s="15"/>
       <c r="B275" s="15"/>
       <c r="C275" s="14"/>
@@ -4870,7 +5234,7 @@
       <c r="G275" s="14"/>
       <c r="H275" s="15"/>
     </row>
-    <row r="276" ht="17" customHeight="1">
+    <row r="276" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A276" s="15"/>
       <c r="B276" s="15"/>
       <c r="C276" s="14"/>
@@ -4880,7 +5244,7 @@
       <c r="G276" s="14"/>
       <c r="H276" s="15"/>
     </row>
-    <row r="277" ht="17" customHeight="1">
+    <row r="277" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A277" s="15"/>
       <c r="B277" s="15"/>
       <c r="C277" s="14"/>
@@ -4890,7 +5254,7 @@
       <c r="G277" s="14"/>
       <c r="H277" s="15"/>
     </row>
-    <row r="278" ht="17" customHeight="1">
+    <row r="278" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A278" s="15"/>
       <c r="B278" s="15"/>
       <c r="C278" s="14"/>
@@ -4900,7 +5264,7 @@
       <c r="G278" s="14"/>
       <c r="H278" s="15"/>
     </row>
-    <row r="279" ht="17" customHeight="1">
+    <row r="279" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A279" s="15"/>
       <c r="B279" s="15"/>
       <c r="C279" s="14"/>
@@ -4910,7 +5274,7 @@
       <c r="G279" s="14"/>
       <c r="H279" s="15"/>
     </row>
-    <row r="280" ht="17" customHeight="1">
+    <row r="280" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A280" s="15"/>
       <c r="B280" s="15"/>
       <c r="C280" s="14"/>
@@ -4920,7 +5284,7 @@
       <c r="G280" s="14"/>
       <c r="H280" s="15"/>
     </row>
-    <row r="281" ht="17" customHeight="1">
+    <row r="281" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A281" s="15"/>
       <c r="B281" s="15"/>
       <c r="C281" s="14"/>
@@ -4930,7 +5294,7 @@
       <c r="G281" s="14"/>
       <c r="H281" s="15"/>
     </row>
-    <row r="282" ht="17" customHeight="1">
+    <row r="282" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A282" s="15"/>
       <c r="B282" s="15"/>
       <c r="C282" s="14"/>
@@ -4940,7 +5304,7 @@
       <c r="G282" s="14"/>
       <c r="H282" s="15"/>
     </row>
-    <row r="283" ht="17" customHeight="1">
+    <row r="283" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A283" s="15"/>
       <c r="B283" s="15"/>
       <c r="C283" s="14"/>
@@ -4950,7 +5314,7 @@
       <c r="G283" s="14"/>
       <c r="H283" s="15"/>
     </row>
-    <row r="284" ht="17" customHeight="1">
+    <row r="284" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A284" s="15"/>
       <c r="B284" s="15"/>
       <c r="C284" s="14"/>
@@ -4960,7 +5324,7 @@
       <c r="G284" s="14"/>
       <c r="H284" s="15"/>
     </row>
-    <row r="285" ht="17" customHeight="1">
+    <row r="285" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A285" s="15"/>
       <c r="B285" s="15"/>
       <c r="C285" s="14"/>
@@ -4970,7 +5334,7 @@
       <c r="G285" s="14"/>
       <c r="H285" s="15"/>
     </row>
-    <row r="286" ht="17" customHeight="1">
+    <row r="286" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A286" s="15"/>
       <c r="B286" s="15"/>
       <c r="C286" s="14"/>
@@ -4980,7 +5344,7 @@
       <c r="G286" s="14"/>
       <c r="H286" s="15"/>
     </row>
-    <row r="287" ht="17" customHeight="1">
+    <row r="287" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A287" s="15"/>
       <c r="B287" s="15"/>
       <c r="C287" s="14"/>
@@ -4990,7 +5354,7 @@
       <c r="G287" s="14"/>
       <c r="H287" s="15"/>
     </row>
-    <row r="288" ht="17" customHeight="1">
+    <row r="288" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A288" s="15"/>
       <c r="B288" s="15"/>
       <c r="C288" s="14"/>
@@ -5000,7 +5364,7 @@
       <c r="G288" s="14"/>
       <c r="H288" s="15"/>
     </row>
-    <row r="289" ht="17" customHeight="1">
+    <row r="289" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A289" s="15"/>
       <c r="B289" s="15"/>
       <c r="C289" s="14"/>
@@ -5010,7 +5374,7 @@
       <c r="G289" s="14"/>
       <c r="H289" s="15"/>
     </row>
-    <row r="290" ht="17" customHeight="1">
+    <row r="290" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A290" s="15"/>
       <c r="B290" s="15"/>
       <c r="C290" s="14"/>
@@ -5020,7 +5384,7 @@
       <c r="G290" s="14"/>
       <c r="H290" s="15"/>
     </row>
-    <row r="291" ht="17" customHeight="1">
+    <row r="291" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A291" s="15"/>
       <c r="B291" s="15"/>
       <c r="C291" s="14"/>
@@ -5030,7 +5394,7 @@
       <c r="G291" s="14"/>
       <c r="H291" s="15"/>
     </row>
-    <row r="292" ht="17" customHeight="1">
+    <row r="292" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A292" s="15"/>
       <c r="B292" s="15"/>
       <c r="C292" s="14"/>
@@ -5040,7 +5404,7 @@
       <c r="G292" s="14"/>
       <c r="H292" s="15"/>
     </row>
-    <row r="293" ht="17" customHeight="1">
+    <row r="293" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A293" s="15"/>
       <c r="B293" s="15"/>
       <c r="C293" s="14"/>
@@ -5050,7 +5414,7 @@
       <c r="G293" s="14"/>
       <c r="H293" s="15"/>
     </row>
-    <row r="294" ht="17" customHeight="1">
+    <row r="294" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A294" s="15"/>
       <c r="B294" s="15"/>
       <c r="C294" s="14"/>
@@ -5060,7 +5424,7 @@
       <c r="G294" s="14"/>
       <c r="H294" s="15"/>
     </row>
-    <row r="295" ht="17" customHeight="1">
+    <row r="295" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A295" s="15"/>
       <c r="B295" s="15"/>
       <c r="C295" s="14"/>
@@ -5070,7 +5434,7 @@
       <c r="G295" s="14"/>
       <c r="H295" s="15"/>
     </row>
-    <row r="296" ht="17" customHeight="1">
+    <row r="296" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A296" s="15"/>
       <c r="B296" s="15"/>
       <c r="C296" s="14"/>
@@ -5080,7 +5444,7 @@
       <c r="G296" s="14"/>
       <c r="H296" s="15"/>
     </row>
-    <row r="297" ht="17" customHeight="1">
+    <row r="297" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A297" s="15"/>
       <c r="B297" s="15"/>
       <c r="C297" s="14"/>
@@ -5090,7 +5454,7 @@
       <c r="G297" s="14"/>
       <c r="H297" s="15"/>
     </row>
-    <row r="298" ht="17" customHeight="1">
+    <row r="298" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A298" s="15"/>
       <c r="B298" s="15"/>
       <c r="C298" s="14"/>
@@ -5100,7 +5464,7 @@
       <c r="G298" s="14"/>
       <c r="H298" s="15"/>
     </row>
-    <row r="299" ht="17" customHeight="1">
+    <row r="299" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A299" s="15"/>
       <c r="B299" s="15"/>
       <c r="C299" s="14"/>
@@ -5110,7 +5474,7 @@
       <c r="G299" s="14"/>
       <c r="H299" s="15"/>
     </row>
-    <row r="300" ht="17" customHeight="1">
+    <row r="300" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A300" s="15"/>
       <c r="B300" s="15"/>
       <c r="C300" s="14"/>
@@ -5120,7 +5484,7 @@
       <c r="G300" s="14"/>
       <c r="H300" s="15"/>
     </row>
-    <row r="301" ht="17" customHeight="1">
+    <row r="301" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="14"/>
@@ -5130,7 +5494,7 @@
       <c r="G301" s="14"/>
       <c r="H301" s="15"/>
     </row>
-    <row r="302" ht="17" customHeight="1">
+    <row r="302" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A302" s="15"/>
       <c r="B302" s="15"/>
       <c r="C302" s="14"/>
@@ -5140,7 +5504,7 @@
       <c r="G302" s="14"/>
       <c r="H302" s="15"/>
     </row>
-    <row r="303" ht="17" customHeight="1">
+    <row r="303" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A303" s="15"/>
       <c r="B303" s="15"/>
       <c r="C303" s="14"/>
@@ -5150,7 +5514,7 @@
       <c r="G303" s="14"/>
       <c r="H303" s="15"/>
     </row>
-    <row r="304" ht="17" customHeight="1">
+    <row r="304" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A304" s="15"/>
       <c r="B304" s="15"/>
       <c r="C304" s="14"/>
@@ -5160,7 +5524,7 @@
       <c r="G304" s="14"/>
       <c r="H304" s="15"/>
     </row>
-    <row r="305" ht="17" customHeight="1">
+    <row r="305" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A305" s="15"/>
       <c r="B305" s="15"/>
       <c r="C305" s="14"/>
@@ -5170,7 +5534,7 @@
       <c r="G305" s="14"/>
       <c r="H305" s="15"/>
     </row>
-    <row r="306" ht="17" customHeight="1">
+    <row r="306" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A306" s="15"/>
       <c r="B306" s="15"/>
       <c r="C306" s="14"/>
@@ -5180,7 +5544,7 @@
       <c r="G306" s="14"/>
       <c r="H306" s="15"/>
     </row>
-    <row r="307" ht="17" customHeight="1">
+    <row r="307" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A307" s="15"/>
       <c r="B307" s="15"/>
       <c r="C307" s="14"/>
@@ -5190,7 +5554,7 @@
       <c r="G307" s="14"/>
       <c r="H307" s="15"/>
     </row>
-    <row r="308" ht="17" customHeight="1">
+    <row r="308" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A308" s="15"/>
       <c r="B308" s="15"/>
       <c r="C308" s="14"/>
@@ -5200,7 +5564,7 @@
       <c r="G308" s="14"/>
       <c r="H308" s="15"/>
     </row>
-    <row r="309" ht="17" customHeight="1">
+    <row r="309" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A309" s="15"/>
       <c r="B309" s="15"/>
       <c r="C309" s="14"/>
@@ -5210,7 +5574,7 @@
       <c r="G309" s="14"/>
       <c r="H309" s="15"/>
     </row>
-    <row r="310" ht="17" customHeight="1">
+    <row r="310" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A310" s="15"/>
       <c r="B310" s="15"/>
       <c r="C310" s="14"/>
@@ -5220,7 +5584,7 @@
       <c r="G310" s="14"/>
       <c r="H310" s="15"/>
     </row>
-    <row r="311" ht="17" customHeight="1">
+    <row r="311" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A311" s="15"/>
       <c r="B311" s="15"/>
       <c r="C311" s="14"/>
@@ -5230,7 +5594,7 @@
       <c r="G311" s="14"/>
       <c r="H311" s="15"/>
     </row>
-    <row r="312" ht="17" customHeight="1">
+    <row r="312" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A312" s="15"/>
       <c r="B312" s="15"/>
       <c r="C312" s="14"/>
@@ -5240,7 +5604,7 @@
       <c r="G312" s="14"/>
       <c r="H312" s="15"/>
     </row>
-    <row r="313" ht="17" customHeight="1">
+    <row r="313" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A313" s="15"/>
       <c r="B313" s="15"/>
       <c r="C313" s="14"/>
@@ -5250,7 +5614,7 @@
       <c r="G313" s="14"/>
       <c r="H313" s="15"/>
     </row>
-    <row r="314" ht="17" customHeight="1">
+    <row r="314" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A314" s="15"/>
       <c r="B314" s="15"/>
       <c r="C314" s="14"/>
@@ -5260,7 +5624,7 @@
       <c r="G314" s="14"/>
       <c r="H314" s="15"/>
     </row>
-    <row r="315" ht="17" customHeight="1">
+    <row r="315" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A315" s="15"/>
       <c r="B315" s="15"/>
       <c r="C315" s="14"/>
@@ -5270,7 +5634,7 @@
       <c r="G315" s="14"/>
       <c r="H315" s="15"/>
     </row>
-    <row r="316" ht="17" customHeight="1">
+    <row r="316" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A316" s="15"/>
       <c r="B316" s="15"/>
       <c r="C316" s="14"/>
@@ -5280,7 +5644,7 @@
       <c r="G316" s="14"/>
       <c r="H316" s="15"/>
     </row>
-    <row r="317" ht="17" customHeight="1">
+    <row r="317" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A317" s="15"/>
       <c r="B317" s="15"/>
       <c r="C317" s="14"/>
@@ -5290,7 +5654,7 @@
       <c r="G317" s="14"/>
       <c r="H317" s="15"/>
     </row>
-    <row r="318" ht="17" customHeight="1">
+    <row r="318" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A318" s="15"/>
       <c r="B318" s="15"/>
       <c r="C318" s="14"/>
@@ -5300,7 +5664,7 @@
       <c r="G318" s="14"/>
       <c r="H318" s="15"/>
     </row>
-    <row r="319" ht="17" customHeight="1">
+    <row r="319" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A319" s="15"/>
       <c r="B319" s="15"/>
       <c r="C319" s="14"/>
@@ -5310,7 +5674,7 @@
       <c r="G319" s="14"/>
       <c r="H319" s="15"/>
     </row>
-    <row r="320" ht="17" customHeight="1">
+    <row r="320" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A320" s="15"/>
       <c r="B320" s="15"/>
       <c r="C320" s="14"/>
@@ -5320,7 +5684,7 @@
       <c r="G320" s="14"/>
       <c r="H320" s="15"/>
     </row>
-    <row r="321" ht="17" customHeight="1">
+    <row r="321" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A321" s="15"/>
       <c r="B321" s="15"/>
       <c r="C321" s="14"/>
@@ -5330,7 +5694,7 @@
       <c r="G321" s="14"/>
       <c r="H321" s="15"/>
     </row>
-    <row r="322" ht="17" customHeight="1">
+    <row r="322" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A322" s="15"/>
       <c r="B322" s="15"/>
       <c r="C322" s="14"/>
@@ -5340,7 +5704,7 @@
       <c r="G322" s="14"/>
       <c r="H322" s="15"/>
     </row>
-    <row r="323" ht="17" customHeight="1">
+    <row r="323" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A323" s="15"/>
       <c r="B323" s="15"/>
       <c r="C323" s="14"/>
@@ -5350,7 +5714,7 @@
       <c r="G323" s="14"/>
       <c r="H323" s="15"/>
     </row>
-    <row r="324" ht="17" customHeight="1">
+    <row r="324" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A324" s="15"/>
       <c r="B324" s="15"/>
       <c r="C324" s="14"/>
@@ -5360,7 +5724,7 @@
       <c r="G324" s="14"/>
       <c r="H324" s="15"/>
     </row>
-    <row r="325" ht="17" customHeight="1">
+    <row r="325" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A325" s="15"/>
       <c r="B325" s="15"/>
       <c r="C325" s="14"/>
@@ -5370,7 +5734,7 @@
       <c r="G325" s="14"/>
       <c r="H325" s="15"/>
     </row>
-    <row r="326" ht="17" customHeight="1">
+    <row r="326" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A326" s="15"/>
       <c r="B326" s="15"/>
       <c r="C326" s="14"/>
@@ -5380,7 +5744,7 @@
       <c r="G326" s="14"/>
       <c r="H326" s="15"/>
     </row>
-    <row r="327" ht="17" customHeight="1">
+    <row r="327" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A327" s="15"/>
       <c r="B327" s="15"/>
       <c r="C327" s="14"/>
@@ -5390,7 +5754,7 @@
       <c r="G327" s="14"/>
       <c r="H327" s="15"/>
     </row>
-    <row r="328" ht="17" customHeight="1">
+    <row r="328" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A328" s="15"/>
       <c r="B328" s="15"/>
       <c r="C328" s="14"/>
@@ -5400,7 +5764,7 @@
       <c r="G328" s="14"/>
       <c r="H328" s="15"/>
     </row>
-    <row r="329" ht="17" customHeight="1">
+    <row r="329" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A329" s="15"/>
       <c r="B329" s="15"/>
       <c r="C329" s="14"/>
@@ -5410,7 +5774,7 @@
       <c r="G329" s="14"/>
       <c r="H329" s="15"/>
     </row>
-    <row r="330" ht="17" customHeight="1">
+    <row r="330" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A330" s="15"/>
       <c r="B330" s="15"/>
       <c r="C330" s="14"/>
@@ -5420,7 +5784,7 @@
       <c r="G330" s="14"/>
       <c r="H330" s="15"/>
     </row>
-    <row r="331" ht="17" customHeight="1">
+    <row r="331" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A331" s="15"/>
       <c r="B331" s="15"/>
       <c r="C331" s="14"/>
@@ -5430,7 +5794,7 @@
       <c r="G331" s="14"/>
       <c r="H331" s="15"/>
     </row>
-    <row r="332" ht="17" customHeight="1">
+    <row r="332" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A332" s="15"/>
       <c r="B332" s="15"/>
       <c r="C332" s="14"/>
@@ -5440,7 +5804,7 @@
       <c r="G332" s="14"/>
       <c r="H332" s="15"/>
     </row>
-    <row r="333" ht="17" customHeight="1">
+    <row r="333" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A333" s="15"/>
       <c r="B333" s="15"/>
       <c r="C333" s="14"/>
@@ -5450,7 +5814,7 @@
       <c r="G333" s="14"/>
       <c r="H333" s="15"/>
     </row>
-    <row r="334" ht="17" customHeight="1">
+    <row r="334" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A334" s="15"/>
       <c r="B334" s="15"/>
       <c r="C334" s="14"/>
@@ -5460,7 +5824,7 @@
       <c r="G334" s="14"/>
       <c r="H334" s="15"/>
     </row>
-    <row r="335" ht="17" customHeight="1">
+    <row r="335" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A335" s="15"/>
       <c r="B335" s="15"/>
       <c r="C335" s="14"/>
@@ -5470,7 +5834,7 @@
       <c r="G335" s="14"/>
       <c r="H335" s="15"/>
     </row>
-    <row r="336" ht="17" customHeight="1">
+    <row r="336" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A336" s="15"/>
       <c r="B336" s="15"/>
       <c r="C336" s="14"/>
@@ -5480,7 +5844,7 @@
       <c r="G336" s="14"/>
       <c r="H336" s="15"/>
     </row>
-    <row r="337" ht="17" customHeight="1">
+    <row r="337" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A337" s="15"/>
       <c r="B337" s="15"/>
       <c r="C337" s="14"/>
@@ -5490,7 +5854,7 @@
       <c r="G337" s="14"/>
       <c r="H337" s="15"/>
     </row>
-    <row r="338" ht="17" customHeight="1">
+    <row r="338" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A338" s="15"/>
       <c r="B338" s="15"/>
       <c r="C338" s="14"/>
@@ -5500,7 +5864,7 @@
       <c r="G338" s="14"/>
       <c r="H338" s="15"/>
     </row>
-    <row r="339" ht="17" customHeight="1">
+    <row r="339" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A339" s="15"/>
       <c r="B339" s="15"/>
       <c r="C339" s="14"/>
@@ -5510,7 +5874,7 @@
       <c r="G339" s="14"/>
       <c r="H339" s="15"/>
     </row>
-    <row r="340" ht="17" customHeight="1">
+    <row r="340" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A340" s="15"/>
       <c r="B340" s="15"/>
       <c r="C340" s="14"/>
@@ -5520,7 +5884,7 @@
       <c r="G340" s="14"/>
       <c r="H340" s="15"/>
     </row>
-    <row r="341" ht="17" customHeight="1">
+    <row r="341" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A341" s="15"/>
       <c r="B341" s="15"/>
       <c r="C341" s="14"/>
@@ -5530,7 +5894,7 @@
       <c r="G341" s="14"/>
       <c r="H341" s="15"/>
     </row>
-    <row r="342" ht="17" customHeight="1">
+    <row r="342" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A342" s="15"/>
       <c r="B342" s="15"/>
       <c r="C342" s="14"/>
@@ -5540,7 +5904,7 @@
       <c r="G342" s="14"/>
       <c r="H342" s="15"/>
     </row>
-    <row r="343" ht="17" customHeight="1">
+    <row r="343" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A343" s="15"/>
       <c r="B343" s="15"/>
       <c r="C343" s="14"/>
@@ -5550,7 +5914,7 @@
       <c r="G343" s="14"/>
       <c r="H343" s="15"/>
     </row>
-    <row r="344" ht="17" customHeight="1">
+    <row r="344" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A344" s="15"/>
       <c r="B344" s="15"/>
       <c r="C344" s="14"/>
@@ -5560,7 +5924,7 @@
       <c r="G344" s="14"/>
       <c r="H344" s="15"/>
     </row>
-    <row r="345" ht="17" customHeight="1">
+    <row r="345" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A345" s="15"/>
       <c r="B345" s="15"/>
       <c r="C345" s="14"/>
@@ -5570,7 +5934,7 @@
       <c r="G345" s="14"/>
       <c r="H345" s="15"/>
     </row>
-    <row r="346" ht="17" customHeight="1">
+    <row r="346" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A346" s="15"/>
       <c r="B346" s="15"/>
       <c r="C346" s="14"/>
@@ -5580,7 +5944,7 @@
       <c r="G346" s="14"/>
       <c r="H346" s="15"/>
     </row>
-    <row r="347" ht="17" customHeight="1">
+    <row r="347" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A347" s="15"/>
       <c r="B347" s="15"/>
       <c r="C347" s="14"/>
@@ -5590,7 +5954,7 @@
       <c r="G347" s="14"/>
       <c r="H347" s="15"/>
     </row>
-    <row r="348" ht="17" customHeight="1">
+    <row r="348" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A348" s="15"/>
       <c r="B348" s="15"/>
       <c r="C348" s="14"/>
@@ -5600,7 +5964,7 @@
       <c r="G348" s="14"/>
       <c r="H348" s="15"/>
     </row>
-    <row r="349" ht="17" customHeight="1">
+    <row r="349" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A349" s="15"/>
       <c r="B349" s="15"/>
       <c r="C349" s="14"/>
@@ -5610,7 +5974,7 @@
       <c r="G349" s="14"/>
       <c r="H349" s="15"/>
     </row>
-    <row r="350" ht="17" customHeight="1">
+    <row r="350" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A350" s="15"/>
       <c r="B350" s="15"/>
       <c r="C350" s="14"/>
@@ -5620,7 +5984,7 @@
       <c r="G350" s="14"/>
       <c r="H350" s="15"/>
     </row>
-    <row r="351" ht="17" customHeight="1">
+    <row r="351" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A351" s="15"/>
       <c r="B351" s="15"/>
       <c r="C351" s="14"/>
@@ -5630,7 +5994,7 @@
       <c r="G351" s="14"/>
       <c r="H351" s="15"/>
     </row>
-    <row r="352" ht="17" customHeight="1">
+    <row r="352" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A352" s="15"/>
       <c r="B352" s="15"/>
       <c r="C352" s="14"/>
@@ -5640,7 +6004,7 @@
       <c r="G352" s="14"/>
       <c r="H352" s="15"/>
     </row>
-    <row r="353" ht="17" customHeight="1">
+    <row r="353" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A353" s="15"/>
       <c r="B353" s="15"/>
       <c r="C353" s="14"/>
@@ -5650,7 +6014,7 @@
       <c r="G353" s="14"/>
       <c r="H353" s="15"/>
     </row>
-    <row r="354" ht="17" customHeight="1">
+    <row r="354" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A354" s="15"/>
       <c r="B354" s="15"/>
       <c r="C354" s="14"/>
@@ -5660,7 +6024,7 @@
       <c r="G354" s="14"/>
       <c r="H354" s="15"/>
     </row>
-    <row r="355" ht="17" customHeight="1">
+    <row r="355" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A355" s="15"/>
       <c r="B355" s="15"/>
       <c r="C355" s="14"/>
@@ -5670,7 +6034,7 @@
       <c r="G355" s="14"/>
       <c r="H355" s="15"/>
     </row>
-    <row r="356" ht="17" customHeight="1">
+    <row r="356" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A356" s="15"/>
       <c r="B356" s="15"/>
       <c r="C356" s="14"/>
@@ -5680,7 +6044,7 @@
       <c r="G356" s="14"/>
       <c r="H356" s="15"/>
     </row>
-    <row r="357" ht="17" customHeight="1">
+    <row r="357" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A357" s="15"/>
       <c r="B357" s="15"/>
       <c r="C357" s="14"/>
@@ -5690,7 +6054,7 @@
       <c r="G357" s="14"/>
       <c r="H357" s="15"/>
     </row>
-    <row r="358" ht="17" customHeight="1">
+    <row r="358" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A358" s="15"/>
       <c r="B358" s="15"/>
       <c r="C358" s="14"/>
@@ -5700,7 +6064,7 @@
       <c r="G358" s="14"/>
       <c r="H358" s="15"/>
     </row>
-    <row r="359" ht="17" customHeight="1">
+    <row r="359" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A359" s="15"/>
       <c r="B359" s="15"/>
       <c r="C359" s="14"/>
@@ -5710,7 +6074,7 @@
       <c r="G359" s="14"/>
       <c r="H359" s="15"/>
     </row>
-    <row r="360" ht="17" customHeight="1">
+    <row r="360" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A360" s="15"/>
       <c r="B360" s="15"/>
       <c r="C360" s="14"/>
@@ -5720,7 +6084,7 @@
       <c r="G360" s="14"/>
       <c r="H360" s="15"/>
     </row>
-    <row r="361" ht="17" customHeight="1">
+    <row r="361" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A361" s="15"/>
       <c r="B361" s="15"/>
       <c r="C361" s="14"/>
@@ -5730,7 +6094,7 @@
       <c r="G361" s="14"/>
       <c r="H361" s="15"/>
     </row>
-    <row r="362" ht="17" customHeight="1">
+    <row r="362" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A362" s="15"/>
       <c r="B362" s="15"/>
       <c r="C362" s="14"/>
@@ -5740,7 +6104,7 @@
       <c r="G362" s="14"/>
       <c r="H362" s="15"/>
     </row>
-    <row r="363" ht="17" customHeight="1">
+    <row r="363" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A363" s="15"/>
       <c r="B363" s="15"/>
       <c r="C363" s="14"/>
@@ -5750,7 +6114,7 @@
       <c r="G363" s="14"/>
       <c r="H363" s="15"/>
     </row>
-    <row r="364" ht="17" customHeight="1">
+    <row r="364" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A364" s="15"/>
       <c r="B364" s="15"/>
       <c r="C364" s="14"/>
@@ -5760,7 +6124,7 @@
       <c r="G364" s="14"/>
       <c r="H364" s="15"/>
     </row>
-    <row r="365" ht="17" customHeight="1">
+    <row r="365" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A365" s="15"/>
       <c r="B365" s="15"/>
       <c r="C365" s="14"/>
@@ -5770,7 +6134,7 @@
       <c r="G365" s="14"/>
       <c r="H365" s="15"/>
     </row>
-    <row r="366" ht="17" customHeight="1">
+    <row r="366" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A366" s="15"/>
       <c r="B366" s="15"/>
       <c r="C366" s="14"/>
@@ -5780,7 +6144,7 @@
       <c r="G366" s="14"/>
       <c r="H366" s="15"/>
     </row>
-    <row r="367" ht="17" customHeight="1">
+    <row r="367" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A367" s="15"/>
       <c r="B367" s="15"/>
       <c r="C367" s="14"/>
@@ -5790,7 +6154,7 @@
       <c r="G367" s="14"/>
       <c r="H367" s="15"/>
     </row>
-    <row r="368" ht="17" customHeight="1">
+    <row r="368" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A368" s="15"/>
       <c r="B368" s="15"/>
       <c r="C368" s="14"/>
@@ -5800,7 +6164,7 @@
       <c r="G368" s="14"/>
       <c r="H368" s="15"/>
     </row>
-    <row r="369" ht="17" customHeight="1">
+    <row r="369" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A369" s="15"/>
       <c r="B369" s="15"/>
       <c r="C369" s="14"/>
@@ -5810,7 +6174,7 @@
       <c r="G369" s="14"/>
       <c r="H369" s="15"/>
     </row>
-    <row r="370" ht="17" customHeight="1">
+    <row r="370" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A370" s="15"/>
       <c r="B370" s="15"/>
       <c r="C370" s="14"/>
@@ -5820,7 +6184,7 @@
       <c r="G370" s="14"/>
       <c r="H370" s="15"/>
     </row>
-    <row r="371" ht="17" customHeight="1">
+    <row r="371" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A371" s="15"/>
       <c r="B371" s="15"/>
       <c r="C371" s="14"/>
@@ -5830,7 +6194,7 @@
       <c r="G371" s="14"/>
       <c r="H371" s="15"/>
     </row>
-    <row r="372" ht="17" customHeight="1">
+    <row r="372" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A372" s="15"/>
       <c r="B372" s="15"/>
       <c r="C372" s="14"/>
@@ -5840,7 +6204,7 @@
       <c r="G372" s="14"/>
       <c r="H372" s="15"/>
     </row>
-    <row r="373" ht="17" customHeight="1">
+    <row r="373" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A373" s="15"/>
       <c r="B373" s="15"/>
       <c r="C373" s="14"/>
@@ -5850,7 +6214,7 @@
       <c r="G373" s="14"/>
       <c r="H373" s="15"/>
     </row>
-    <row r="374" ht="17" customHeight="1">
+    <row r="374" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A374" s="15"/>
       <c r="B374" s="15"/>
       <c r="C374" s="14"/>
@@ -5860,7 +6224,7 @@
       <c r="G374" s="14"/>
       <c r="H374" s="15"/>
     </row>
-    <row r="375" ht="17" customHeight="1">
+    <row r="375" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A375" s="15"/>
       <c r="B375" s="15"/>
       <c r="C375" s="14"/>
@@ -5870,7 +6234,7 @@
       <c r="G375" s="14"/>
       <c r="H375" s="15"/>
     </row>
-    <row r="376" ht="17" customHeight="1">
+    <row r="376" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A376" s="15"/>
       <c r="B376" s="15"/>
       <c r="C376" s="14"/>
@@ -5880,7 +6244,7 @@
       <c r="G376" s="14"/>
       <c r="H376" s="15"/>
     </row>
-    <row r="377" ht="17" customHeight="1">
+    <row r="377" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A377" s="15"/>
       <c r="B377" s="15"/>
       <c r="C377" s="14"/>
@@ -5890,7 +6254,7 @@
       <c r="G377" s="14"/>
       <c r="H377" s="15"/>
     </row>
-    <row r="378" ht="17" customHeight="1">
+    <row r="378" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A378" s="15"/>
       <c r="B378" s="15"/>
       <c r="C378" s="14"/>
@@ -5900,7 +6264,7 @@
       <c r="G378" s="14"/>
       <c r="H378" s="15"/>
     </row>
-    <row r="379" ht="17" customHeight="1">
+    <row r="379" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A379" s="15"/>
       <c r="B379" s="15"/>
       <c r="C379" s="14"/>
@@ -5910,7 +6274,7 @@
       <c r="G379" s="14"/>
       <c r="H379" s="15"/>
     </row>
-    <row r="380" ht="17" customHeight="1">
+    <row r="380" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A380" s="15"/>
       <c r="B380" s="15"/>
       <c r="C380" s="14"/>
@@ -5920,7 +6284,7 @@
       <c r="G380" s="14"/>
       <c r="H380" s="15"/>
     </row>
-    <row r="381" ht="17" customHeight="1">
+    <row r="381" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A381" s="15"/>
       <c r="B381" s="15"/>
       <c r="C381" s="14"/>
@@ -5930,7 +6294,7 @@
       <c r="G381" s="14"/>
       <c r="H381" s="15"/>
     </row>
-    <row r="382" ht="17" customHeight="1">
+    <row r="382" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A382" s="15"/>
       <c r="B382" s="15"/>
       <c r="C382" s="14"/>
@@ -5940,7 +6304,7 @@
       <c r="G382" s="14"/>
       <c r="H382" s="15"/>
     </row>
-    <row r="383" ht="17" customHeight="1">
+    <row r="383" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A383" s="15"/>
       <c r="B383" s="15"/>
       <c r="C383" s="14"/>
@@ -5950,7 +6314,7 @@
       <c r="G383" s="14"/>
       <c r="H383" s="15"/>
     </row>
-    <row r="384" ht="17" customHeight="1">
+    <row r="384" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A384" s="15"/>
       <c r="B384" s="15"/>
       <c r="C384" s="14"/>
@@ -5960,7 +6324,7 @@
       <c r="G384" s="14"/>
       <c r="H384" s="15"/>
     </row>
-    <row r="385" ht="17" customHeight="1">
+    <row r="385" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A385" s="15"/>
       <c r="B385" s="15"/>
       <c r="C385" s="14"/>
@@ -5970,7 +6334,7 @@
       <c r="G385" s="14"/>
       <c r="H385" s="15"/>
     </row>
-    <row r="386" ht="17" customHeight="1">
+    <row r="386" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A386" s="15"/>
       <c r="B386" s="15"/>
       <c r="C386" s="14"/>
@@ -5980,7 +6344,7 @@
       <c r="G386" s="14"/>
       <c r="H386" s="15"/>
     </row>
-    <row r="387" ht="17" customHeight="1">
+    <row r="387" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A387" s="15"/>
       <c r="B387" s="15"/>
       <c r="C387" s="14"/>
@@ -5990,7 +6354,7 @@
       <c r="G387" s="14"/>
       <c r="H387" s="15"/>
     </row>
-    <row r="388" ht="17" customHeight="1">
+    <row r="388" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A388" s="15"/>
       <c r="B388" s="15"/>
       <c r="C388" s="14"/>
@@ -6000,7 +6364,7 @@
       <c r="G388" s="14"/>
       <c r="H388" s="15"/>
     </row>
-    <row r="389" ht="17" customHeight="1">
+    <row r="389" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A389" s="15"/>
       <c r="B389" s="15"/>
       <c r="C389" s="14"/>
@@ -6010,7 +6374,7 @@
       <c r="G389" s="14"/>
       <c r="H389" s="15"/>
     </row>
-    <row r="390" ht="17" customHeight="1">
+    <row r="390" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A390" s="15"/>
       <c r="B390" s="15"/>
       <c r="C390" s="14"/>
@@ -6020,7 +6384,7 @@
       <c r="G390" s="14"/>
       <c r="H390" s="15"/>
     </row>
-    <row r="391" ht="17" customHeight="1">
+    <row r="391" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A391" s="15"/>
       <c r="B391" s="15"/>
       <c r="C391" s="14"/>
@@ -6030,7 +6394,7 @@
       <c r="G391" s="14"/>
       <c r="H391" s="15"/>
     </row>
-    <row r="392" ht="17" customHeight="1">
+    <row r="392" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A392" s="15"/>
       <c r="B392" s="15"/>
       <c r="C392" s="14"/>
@@ -6040,7 +6404,7 @@
       <c r="G392" s="14"/>
       <c r="H392" s="15"/>
     </row>
-    <row r="393" ht="17" customHeight="1">
+    <row r="393" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A393" s="15"/>
       <c r="B393" s="15"/>
       <c r="C393" s="14"/>
@@ -6050,7 +6414,7 @@
       <c r="G393" s="14"/>
       <c r="H393" s="15"/>
     </row>
-    <row r="394" ht="17" customHeight="1">
+    <row r="394" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A394" s="15"/>
       <c r="B394" s="15"/>
       <c r="C394" s="14"/>
@@ -6060,7 +6424,7 @@
       <c r="G394" s="14"/>
       <c r="H394" s="15"/>
     </row>
-    <row r="395" ht="17" customHeight="1">
+    <row r="395" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A395" s="15"/>
       <c r="B395" s="15"/>
       <c r="C395" s="14"/>
@@ -6070,7 +6434,7 @@
       <c r="G395" s="14"/>
       <c r="H395" s="15"/>
     </row>
-    <row r="396" ht="17" customHeight="1">
+    <row r="396" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A396" s="15"/>
       <c r="B396" s="15"/>
       <c r="C396" s="14"/>
@@ -6080,7 +6444,7 @@
       <c r="G396" s="14"/>
       <c r="H396" s="15"/>
     </row>
-    <row r="397" ht="17" customHeight="1">
+    <row r="397" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A397" s="15"/>
       <c r="B397" s="15"/>
       <c r="C397" s="14"/>
@@ -6090,7 +6454,7 @@
       <c r="G397" s="14"/>
       <c r="H397" s="15"/>
     </row>
-    <row r="398" ht="17" customHeight="1">
+    <row r="398" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A398" s="15"/>
       <c r="B398" s="15"/>
       <c r="C398" s="14"/>
@@ -6100,7 +6464,7 @@
       <c r="G398" s="14"/>
       <c r="H398" s="15"/>
     </row>
-    <row r="399" ht="17" customHeight="1">
+    <row r="399" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A399" s="15"/>
       <c r="B399" s="15"/>
       <c r="C399" s="14"/>
@@ -6110,7 +6474,7 @@
       <c r="G399" s="14"/>
       <c r="H399" s="15"/>
     </row>
-    <row r="400" ht="17" customHeight="1">
+    <row r="400" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A400" s="15"/>
       <c r="B400" s="15"/>
       <c r="C400" s="14"/>
@@ -6120,7 +6484,7 @@
       <c r="G400" s="14"/>
       <c r="H400" s="15"/>
     </row>
-    <row r="401" ht="17" customHeight="1">
+    <row r="401" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A401" s="15"/>
       <c r="B401" s="15"/>
       <c r="C401" s="14"/>
@@ -6130,7 +6494,7 @@
       <c r="G401" s="14"/>
       <c r="H401" s="15"/>
     </row>
-    <row r="402" ht="17" customHeight="1">
+    <row r="402" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A402" s="15"/>
       <c r="B402" s="15"/>
       <c r="C402" s="14"/>
@@ -6140,7 +6504,7 @@
       <c r="G402" s="14"/>
       <c r="H402" s="15"/>
     </row>
-    <row r="403" ht="17" customHeight="1">
+    <row r="403" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A403" s="15"/>
       <c r="B403" s="15"/>
       <c r="C403" s="14"/>
@@ -6150,7 +6514,7 @@
       <c r="G403" s="14"/>
       <c r="H403" s="15"/>
     </row>
-    <row r="404" ht="17" customHeight="1">
+    <row r="404" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A404" s="15"/>
       <c r="B404" s="15"/>
       <c r="C404" s="14"/>
@@ -6160,7 +6524,7 @@
       <c r="G404" s="14"/>
       <c r="H404" s="15"/>
     </row>
-    <row r="405" ht="17" customHeight="1">
+    <row r="405" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A405" s="15"/>
       <c r="B405" s="15"/>
       <c r="C405" s="14"/>
@@ -6170,7 +6534,7 @@
       <c r="G405" s="14"/>
       <c r="H405" s="15"/>
     </row>
-    <row r="406" ht="17" customHeight="1">
+    <row r="406" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A406" s="15"/>
       <c r="B406" s="15"/>
       <c r="C406" s="14"/>
@@ -6180,7 +6544,7 @@
       <c r="G406" s="14"/>
       <c r="H406" s="15"/>
     </row>
-    <row r="407" ht="17" customHeight="1">
+    <row r="407" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A407" s="15"/>
       <c r="B407" s="15"/>
       <c r="C407" s="14"/>
@@ -6190,7 +6554,7 @@
       <c r="G407" s="14"/>
       <c r="H407" s="15"/>
     </row>
-    <row r="408" ht="17" customHeight="1">
+    <row r="408" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A408" s="15"/>
       <c r="B408" s="15"/>
       <c r="C408" s="14"/>
@@ -6200,7 +6564,7 @@
       <c r="G408" s="14"/>
       <c r="H408" s="15"/>
     </row>
-    <row r="409" ht="17" customHeight="1">
+    <row r="409" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A409" s="15"/>
       <c r="B409" s="15"/>
       <c r="C409" s="14"/>
@@ -6210,7 +6574,7 @@
       <c r="G409" s="14"/>
       <c r="H409" s="15"/>
     </row>
-    <row r="410" ht="17" customHeight="1">
+    <row r="410" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A410" s="15"/>
       <c r="B410" s="15"/>
       <c r="C410" s="14"/>
@@ -6220,7 +6584,7 @@
       <c r="G410" s="14"/>
       <c r="H410" s="15"/>
     </row>
-    <row r="411" ht="17" customHeight="1">
+    <row r="411" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A411" s="15"/>
       <c r="B411" s="15"/>
       <c r="C411" s="14"/>
@@ -6230,7 +6594,7 @@
       <c r="G411" s="14"/>
       <c r="H411" s="15"/>
     </row>
-    <row r="412" ht="17" customHeight="1">
+    <row r="412" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A412" s="15"/>
       <c r="B412" s="15"/>
       <c r="C412" s="14"/>
@@ -6240,7 +6604,7 @@
       <c r="G412" s="14"/>
       <c r="H412" s="15"/>
     </row>
-    <row r="413" ht="17" customHeight="1">
+    <row r="413" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A413" s="15"/>
       <c r="B413" s="15"/>
       <c r="C413" s="14"/>
@@ -6250,7 +6614,7 @@
       <c r="G413" s="14"/>
       <c r="H413" s="15"/>
     </row>
-    <row r="414" ht="17" customHeight="1">
+    <row r="414" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A414" s="15"/>
       <c r="B414" s="15"/>
       <c r="C414" s="14"/>
@@ -6260,7 +6624,7 @@
       <c r="G414" s="14"/>
       <c r="H414" s="15"/>
     </row>
-    <row r="415" ht="17" customHeight="1">
+    <row r="415" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A415" s="15"/>
       <c r="B415" s="15"/>
       <c r="C415" s="14"/>
@@ -6270,7 +6634,7 @@
       <c r="G415" s="14"/>
       <c r="H415" s="15"/>
     </row>
-    <row r="416" ht="17" customHeight="1">
+    <row r="416" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A416" s="15"/>
       <c r="B416" s="15"/>
       <c r="C416" s="14"/>
@@ -6280,7 +6644,7 @@
       <c r="G416" s="14"/>
       <c r="H416" s="15"/>
     </row>
-    <row r="417" ht="17" customHeight="1">
+    <row r="417" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A417" s="15"/>
       <c r="B417" s="15"/>
       <c r="C417" s="14"/>
@@ -6290,7 +6654,7 @@
       <c r="G417" s="14"/>
       <c r="H417" s="15"/>
     </row>
-    <row r="418" ht="17" customHeight="1">
+    <row r="418" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="14"/>
@@ -6300,7 +6664,7 @@
       <c r="G418" s="14"/>
       <c r="H418" s="15"/>
     </row>
-    <row r="419" ht="17" customHeight="1">
+    <row r="419" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A419" s="15"/>
       <c r="B419" s="15"/>
       <c r="C419" s="14"/>
@@ -6310,7 +6674,7 @@
       <c r="G419" s="14"/>
       <c r="H419" s="15"/>
     </row>
-    <row r="420" ht="17" customHeight="1">
+    <row r="420" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A420" s="15"/>
       <c r="B420" s="15"/>
       <c r="C420" s="14"/>
@@ -6320,7 +6684,7 @@
       <c r="G420" s="14"/>
       <c r="H420" s="15"/>
     </row>
-    <row r="421" ht="17" customHeight="1">
+    <row r="421" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A421" s="15"/>
       <c r="B421" s="15"/>
       <c r="C421" s="14"/>
@@ -6330,7 +6694,7 @@
       <c r="G421" s="14"/>
       <c r="H421" s="15"/>
     </row>
-    <row r="422" ht="17" customHeight="1">
+    <row r="422" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A422" s="15"/>
       <c r="B422" s="15"/>
       <c r="C422" s="14"/>
@@ -6340,7 +6704,7 @@
       <c r="G422" s="14"/>
       <c r="H422" s="15"/>
     </row>
-    <row r="423" ht="17" customHeight="1">
+    <row r="423" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A423" s="15"/>
       <c r="B423" s="15"/>
       <c r="C423" s="14"/>
@@ -6350,7 +6714,7 @@
       <c r="G423" s="14"/>
       <c r="H423" s="15"/>
     </row>
-    <row r="424" ht="17" customHeight="1">
+    <row r="424" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A424" s="15"/>
       <c r="B424" s="15"/>
       <c r="C424" s="14"/>
@@ -6360,7 +6724,7 @@
       <c r="G424" s="14"/>
       <c r="H424" s="15"/>
     </row>
-    <row r="425" ht="17" customHeight="1">
+    <row r="425" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A425" s="15"/>
       <c r="B425" s="15"/>
       <c r="C425" s="14"/>
@@ -6370,7 +6734,7 @@
       <c r="G425" s="14"/>
       <c r="H425" s="15"/>
     </row>
-    <row r="426" ht="17" customHeight="1">
+    <row r="426" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A426" s="15"/>
       <c r="B426" s="15"/>
       <c r="C426" s="14"/>
@@ -6380,7 +6744,7 @@
       <c r="G426" s="14"/>
       <c r="H426" s="15"/>
     </row>
-    <row r="427" ht="17" customHeight="1">
+    <row r="427" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A427" s="15"/>
       <c r="B427" s="15"/>
       <c r="C427" s="14"/>
@@ -6390,7 +6754,7 @@
       <c r="G427" s="14"/>
       <c r="H427" s="15"/>
     </row>
-    <row r="428" ht="17" customHeight="1">
+    <row r="428" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A428" s="15"/>
       <c r="B428" s="15"/>
       <c r="C428" s="14"/>
@@ -6400,7 +6764,7 @@
       <c r="G428" s="14"/>
       <c r="H428" s="15"/>
     </row>
-    <row r="429" ht="17" customHeight="1">
+    <row r="429" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A429" s="15"/>
       <c r="B429" s="15"/>
       <c r="C429" s="14"/>
@@ -6410,7 +6774,7 @@
       <c r="G429" s="14"/>
       <c r="H429" s="15"/>
     </row>
-    <row r="430" ht="17" customHeight="1">
+    <row r="430" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A430" s="15"/>
       <c r="B430" s="15"/>
       <c r="C430" s="14"/>
@@ -6420,7 +6784,7 @@
       <c r="G430" s="14"/>
       <c r="H430" s="15"/>
     </row>
-    <row r="431" ht="17" customHeight="1">
+    <row r="431" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A431" s="15"/>
       <c r="B431" s="15"/>
       <c r="C431" s="14"/>
@@ -6430,7 +6794,7 @@
       <c r="G431" s="14"/>
       <c r="H431" s="15"/>
     </row>
-    <row r="432" ht="17" customHeight="1">
+    <row r="432" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A432" s="15"/>
       <c r="B432" s="15"/>
       <c r="C432" s="14"/>
@@ -6440,7 +6804,7 @@
       <c r="G432" s="14"/>
       <c r="H432" s="15"/>
     </row>
-    <row r="433" ht="17" customHeight="1">
+    <row r="433" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A433" s="15"/>
       <c r="B433" s="15"/>
       <c r="C433" s="14"/>
@@ -6450,7 +6814,7 @@
       <c r="G433" s="14"/>
       <c r="H433" s="15"/>
     </row>
-    <row r="434" ht="17" customHeight="1">
+    <row r="434" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A434" s="15"/>
       <c r="B434" s="15"/>
       <c r="C434" s="14"/>
@@ -6460,7 +6824,7 @@
       <c r="G434" s="14"/>
       <c r="H434" s="15"/>
     </row>
-    <row r="435" ht="17" customHeight="1">
+    <row r="435" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A435" s="15"/>
       <c r="B435" s="15"/>
       <c r="C435" s="14"/>
@@ -6470,7 +6834,7 @@
       <c r="G435" s="14"/>
       <c r="H435" s="15"/>
     </row>
-    <row r="436" ht="17" customHeight="1">
+    <row r="436" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A436" s="15"/>
       <c r="B436" s="15"/>
       <c r="C436" s="14"/>
@@ -6480,7 +6844,7 @@
       <c r="G436" s="14"/>
       <c r="H436" s="15"/>
     </row>
-    <row r="437" ht="17" customHeight="1">
+    <row r="437" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A437" s="15"/>
       <c r="B437" s="15"/>
       <c r="C437" s="14"/>
@@ -6490,7 +6854,7 @@
       <c r="G437" s="14"/>
       <c r="H437" s="15"/>
     </row>
-    <row r="438" ht="17" customHeight="1">
+    <row r="438" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A438" s="15"/>
       <c r="B438" s="15"/>
       <c r="C438" s="14"/>
@@ -6500,7 +6864,7 @@
       <c r="G438" s="14"/>
       <c r="H438" s="15"/>
     </row>
-    <row r="439" ht="17" customHeight="1">
+    <row r="439" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A439" s="15"/>
       <c r="B439" s="15"/>
       <c r="C439" s="14"/>
@@ -6510,7 +6874,7 @@
       <c r="G439" s="14"/>
       <c r="H439" s="15"/>
     </row>
-    <row r="440" ht="17" customHeight="1">
+    <row r="440" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A440" s="15"/>
       <c r="B440" s="15"/>
       <c r="C440" s="14"/>
@@ -6520,7 +6884,7 @@
       <c r="G440" s="14"/>
       <c r="H440" s="15"/>
     </row>
-    <row r="441" ht="17" customHeight="1">
+    <row r="441" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A441" s="15"/>
       <c r="B441" s="15"/>
       <c r="C441" s="14"/>
@@ -6530,7 +6894,7 @@
       <c r="G441" s="14"/>
       <c r="H441" s="15"/>
     </row>
-    <row r="442" ht="17" customHeight="1">
+    <row r="442" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A442" s="15"/>
       <c r="B442" s="15"/>
       <c r="C442" s="14"/>
@@ -6540,7 +6904,7 @@
       <c r="G442" s="14"/>
       <c r="H442" s="15"/>
     </row>
-    <row r="443" ht="17" customHeight="1">
+    <row r="443" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A443" s="15"/>
       <c r="B443" s="15"/>
       <c r="C443" s="14"/>
@@ -6550,7 +6914,7 @@
       <c r="G443" s="14"/>
       <c r="H443" s="15"/>
     </row>
-    <row r="444" ht="17" customHeight="1">
+    <row r="444" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A444" s="15"/>
       <c r="B444" s="15"/>
       <c r="C444" s="14"/>
@@ -6560,7 +6924,7 @@
       <c r="G444" s="14"/>
       <c r="H444" s="15"/>
     </row>
-    <row r="445" ht="17" customHeight="1">
+    <row r="445" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A445" s="15"/>
       <c r="B445" s="15"/>
       <c r="C445" s="14"/>
@@ -6570,7 +6934,7 @@
       <c r="G445" s="14"/>
       <c r="H445" s="15"/>
     </row>
-    <row r="446" ht="17" customHeight="1">
+    <row r="446" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A446" s="15"/>
       <c r="B446" s="15"/>
       <c r="C446" s="14"/>
@@ -6580,7 +6944,7 @@
       <c r="G446" s="14"/>
       <c r="H446" s="15"/>
     </row>
-    <row r="447" ht="17" customHeight="1">
+    <row r="447" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A447" s="15"/>
       <c r="B447" s="15"/>
       <c r="C447" s="14"/>
@@ -6590,7 +6954,7 @@
       <c r="G447" s="14"/>
       <c r="H447" s="15"/>
     </row>
-    <row r="448" ht="17" customHeight="1">
+    <row r="448" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A448" s="15"/>
       <c r="B448" s="15"/>
       <c r="C448" s="14"/>
@@ -6600,7 +6964,7 @@
       <c r="G448" s="14"/>
       <c r="H448" s="15"/>
     </row>
-    <row r="449" ht="17" customHeight="1">
+    <row r="449" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A449" s="15"/>
       <c r="B449" s="15"/>
       <c r="C449" s="14"/>
@@ -6610,7 +6974,7 @@
       <c r="G449" s="14"/>
       <c r="H449" s="15"/>
     </row>
-    <row r="450" ht="17" customHeight="1">
+    <row r="450" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A450" s="15"/>
       <c r="B450" s="15"/>
       <c r="C450" s="14"/>
@@ -6620,7 +6984,7 @@
       <c r="G450" s="14"/>
       <c r="H450" s="15"/>
     </row>
-    <row r="451" ht="17" customHeight="1">
+    <row r="451" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A451" s="15"/>
       <c r="B451" s="15"/>
       <c r="C451" s="14"/>
@@ -6630,7 +6994,7 @@
       <c r="G451" s="14"/>
       <c r="H451" s="15"/>
     </row>
-    <row r="452" ht="17" customHeight="1">
+    <row r="452" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A452" s="15"/>
       <c r="B452" s="15"/>
       <c r="C452" s="14"/>
@@ -6640,7 +7004,7 @@
       <c r="G452" s="14"/>
       <c r="H452" s="15"/>
     </row>
-    <row r="453" ht="17" customHeight="1">
+    <row r="453" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A453" s="15"/>
       <c r="B453" s="15"/>
       <c r="C453" s="14"/>
@@ -6650,7 +7014,7 @@
       <c r="G453" s="14"/>
       <c r="H453" s="15"/>
     </row>
-    <row r="454" ht="17" customHeight="1">
+    <row r="454" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A454" s="15"/>
       <c r="B454" s="15"/>
       <c r="C454" s="14"/>
@@ -6660,7 +7024,7 @@
       <c r="G454" s="14"/>
       <c r="H454" s="15"/>
     </row>
-    <row r="455" ht="17" customHeight="1">
+    <row r="455" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A455" s="15"/>
       <c r="B455" s="15"/>
       <c r="C455" s="14"/>
@@ -6670,7 +7034,7 @@
       <c r="G455" s="14"/>
       <c r="H455" s="15"/>
     </row>
-    <row r="456" ht="17" customHeight="1">
+    <row r="456" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="14"/>
@@ -6680,7 +7044,7 @@
       <c r="G456" s="14"/>
       <c r="H456" s="15"/>
     </row>
-    <row r="457" ht="17" customHeight="1">
+    <row r="457" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A457" s="15"/>
       <c r="B457" s="15"/>
       <c r="C457" s="14"/>
@@ -6690,7 +7054,7 @@
       <c r="G457" s="14"/>
       <c r="H457" s="15"/>
     </row>
-    <row r="458" ht="17" customHeight="1">
+    <row r="458" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A458" s="15"/>
       <c r="B458" s="15"/>
       <c r="C458" s="14"/>
@@ -6700,7 +7064,7 @@
       <c r="G458" s="14"/>
       <c r="H458" s="15"/>
     </row>
-    <row r="459" ht="17" customHeight="1">
+    <row r="459" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A459" s="15"/>
       <c r="B459" s="15"/>
       <c r="C459" s="14"/>
@@ -6710,7 +7074,7 @@
       <c r="G459" s="14"/>
       <c r="H459" s="15"/>
     </row>
-    <row r="460" ht="17" customHeight="1">
+    <row r="460" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A460" s="15"/>
       <c r="B460" s="15"/>
       <c r="C460" s="14"/>
@@ -6720,7 +7084,7 @@
       <c r="G460" s="14"/>
       <c r="H460" s="15"/>
     </row>
-    <row r="461" ht="17" customHeight="1">
+    <row r="461" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A461" s="15"/>
       <c r="B461" s="15"/>
       <c r="C461" s="14"/>
@@ -6730,7 +7094,7 @@
       <c r="G461" s="14"/>
       <c r="H461" s="15"/>
     </row>
-    <row r="462" ht="17" customHeight="1">
+    <row r="462" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A462" s="15"/>
       <c r="B462" s="15"/>
       <c r="C462" s="14"/>
@@ -6740,7 +7104,7 @@
       <c r="G462" s="14"/>
       <c r="H462" s="15"/>
     </row>
-    <row r="463" ht="17" customHeight="1">
+    <row r="463" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A463" s="15"/>
       <c r="B463" s="15"/>
       <c r="C463" s="14"/>
@@ -6750,7 +7114,7 @@
       <c r="G463" s="14"/>
       <c r="H463" s="15"/>
     </row>
-    <row r="464" ht="17" customHeight="1">
+    <row r="464" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A464" s="15"/>
       <c r="B464" s="15"/>
       <c r="C464" s="14"/>
@@ -6760,7 +7124,7 @@
       <c r="G464" s="14"/>
       <c r="H464" s="15"/>
     </row>
-    <row r="465" ht="17" customHeight="1">
+    <row r="465" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A465" s="15"/>
       <c r="B465" s="15"/>
       <c r="C465" s="14"/>
@@ -6770,7 +7134,7 @@
       <c r="G465" s="14"/>
       <c r="H465" s="15"/>
     </row>
-    <row r="466" ht="17" customHeight="1">
+    <row r="466" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A466" s="15"/>
       <c r="B466" s="15"/>
       <c r="C466" s="14"/>
@@ -6780,7 +7144,7 @@
       <c r="G466" s="14"/>
       <c r="H466" s="15"/>
     </row>
-    <row r="467" ht="17" customHeight="1">
+    <row r="467" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A467" s="15"/>
       <c r="B467" s="15"/>
       <c r="C467" s="14"/>
@@ -6790,7 +7154,7 @@
       <c r="G467" s="14"/>
       <c r="H467" s="15"/>
     </row>
-    <row r="468" ht="17" customHeight="1">
+    <row r="468" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A468" s="15"/>
       <c r="B468" s="15"/>
       <c r="C468" s="14"/>
@@ -6800,7 +7164,7 @@
       <c r="G468" s="14"/>
       <c r="H468" s="15"/>
     </row>
-    <row r="469" ht="17" customHeight="1">
+    <row r="469" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A469" s="15"/>
       <c r="B469" s="15"/>
       <c r="C469" s="14"/>
@@ -6810,7 +7174,7 @@
       <c r="G469" s="14"/>
       <c r="H469" s="15"/>
     </row>
-    <row r="470" ht="17" customHeight="1">
+    <row r="470" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A470" s="15"/>
       <c r="B470" s="15"/>
       <c r="C470" s="14"/>
@@ -6820,7 +7184,7 @@
       <c r="G470" s="14"/>
       <c r="H470" s="15"/>
     </row>
-    <row r="471" ht="17" customHeight="1">
+    <row r="471" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A471" s="15"/>
       <c r="B471" s="15"/>
       <c r="C471" s="14"/>
@@ -6830,7 +7194,7 @@
       <c r="G471" s="14"/>
       <c r="H471" s="15"/>
     </row>
-    <row r="472" ht="17" customHeight="1">
+    <row r="472" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A472" s="15"/>
       <c r="B472" s="15"/>
       <c r="C472" s="14"/>
@@ -6840,7 +7204,7 @@
       <c r="G472" s="14"/>
       <c r="H472" s="15"/>
     </row>
-    <row r="473" ht="17" customHeight="1">
+    <row r="473" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A473" s="15"/>
       <c r="B473" s="15"/>
       <c r="C473" s="14"/>
@@ -6850,7 +7214,7 @@
       <c r="G473" s="14"/>
       <c r="H473" s="15"/>
     </row>
-    <row r="474" ht="17" customHeight="1">
+    <row r="474" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A474" s="15"/>
       <c r="B474" s="15"/>
       <c r="C474" s="14"/>
@@ -6860,7 +7224,7 @@
       <c r="G474" s="14"/>
       <c r="H474" s="15"/>
     </row>
-    <row r="475" ht="17" customHeight="1">
+    <row r="475" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A475" s="15"/>
       <c r="B475" s="15"/>
       <c r="C475" s="14"/>
@@ -6870,7 +7234,7 @@
       <c r="G475" s="14"/>
       <c r="H475" s="15"/>
     </row>
-    <row r="476" ht="17" customHeight="1">
+    <row r="476" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A476" s="15"/>
       <c r="B476" s="15"/>
       <c r="C476" s="14"/>
@@ -6880,7 +7244,7 @@
       <c r="G476" s="14"/>
       <c r="H476" s="15"/>
     </row>
-    <row r="477" ht="17" customHeight="1">
+    <row r="477" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A477" s="15"/>
       <c r="B477" s="15"/>
       <c r="C477" s="14"/>
@@ -6890,7 +7254,7 @@
       <c r="G477" s="14"/>
       <c r="H477" s="15"/>
     </row>
-    <row r="478" ht="17" customHeight="1">
+    <row r="478" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A478" s="15"/>
       <c r="B478" s="15"/>
       <c r="C478" s="14"/>
@@ -6900,7 +7264,7 @@
       <c r="G478" s="14"/>
       <c r="H478" s="15"/>
     </row>
-    <row r="479" ht="17" customHeight="1">
+    <row r="479" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A479" s="15"/>
       <c r="B479" s="15"/>
       <c r="C479" s="14"/>
@@ -6910,7 +7274,7 @@
       <c r="G479" s="14"/>
       <c r="H479" s="15"/>
     </row>
-    <row r="480" ht="17" customHeight="1">
+    <row r="480" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A480" s="15"/>
       <c r="B480" s="15"/>
       <c r="C480" s="14"/>
@@ -6920,7 +7284,7 @@
       <c r="G480" s="14"/>
       <c r="H480" s="15"/>
     </row>
-    <row r="481" ht="17" customHeight="1">
+    <row r="481" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A481" s="15"/>
       <c r="B481" s="15"/>
       <c r="C481" s="14"/>
@@ -6930,7 +7294,7 @@
       <c r="G481" s="14"/>
       <c r="H481" s="15"/>
     </row>
-    <row r="482" ht="17" customHeight="1">
+    <row r="482" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A482" s="15"/>
       <c r="B482" s="15"/>
       <c r="C482" s="14"/>
@@ -6940,7 +7304,7 @@
       <c r="G482" s="14"/>
       <c r="H482" s="15"/>
     </row>
-    <row r="483" ht="17" customHeight="1">
+    <row r="483" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A483" s="15"/>
       <c r="B483" s="15"/>
       <c r="C483" s="14"/>
@@ -6950,7 +7314,7 @@
       <c r="G483" s="14"/>
       <c r="H483" s="15"/>
     </row>
-    <row r="484" ht="17" customHeight="1">
+    <row r="484" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A484" s="15"/>
       <c r="B484" s="15"/>
       <c r="C484" s="14"/>
@@ -6960,7 +7324,7 @@
       <c r="G484" s="14"/>
       <c r="H484" s="15"/>
     </row>
-    <row r="485" ht="17" customHeight="1">
+    <row r="485" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A485" s="15"/>
       <c r="B485" s="15"/>
       <c r="C485" s="14"/>
@@ -6970,7 +7334,7 @@
       <c r="G485" s="14"/>
       <c r="H485" s="15"/>
     </row>
-    <row r="486" ht="17" customHeight="1">
+    <row r="486" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A486" s="15"/>
       <c r="B486" s="15"/>
       <c r="C486" s="14"/>
@@ -6980,7 +7344,7 @@
       <c r="G486" s="14"/>
       <c r="H486" s="15"/>
     </row>
-    <row r="487" ht="17" customHeight="1">
+    <row r="487" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A487" s="15"/>
       <c r="B487" s="15"/>
       <c r="C487" s="14"/>
@@ -6990,7 +7354,7 @@
       <c r="G487" s="14"/>
       <c r="H487" s="15"/>
     </row>
-    <row r="488" ht="17" customHeight="1">
+    <row r="488" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A488" s="15"/>
       <c r="B488" s="15"/>
       <c r="C488" s="14"/>
@@ -7000,7 +7364,7 @@
       <c r="G488" s="14"/>
       <c r="H488" s="15"/>
     </row>
-    <row r="489" ht="17" customHeight="1">
+    <row r="489" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A489" s="15"/>
       <c r="B489" s="15"/>
       <c r="C489" s="14"/>
@@ -7010,7 +7374,7 @@
       <c r="G489" s="14"/>
       <c r="H489" s="15"/>
     </row>
-    <row r="490" ht="17" customHeight="1">
+    <row r="490" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A490" s="15"/>
       <c r="B490" s="15"/>
       <c r="C490" s="14"/>
@@ -7020,7 +7384,7 @@
       <c r="G490" s="14"/>
       <c r="H490" s="15"/>
     </row>
-    <row r="491" ht="17" customHeight="1">
+    <row r="491" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A491" s="15"/>
       <c r="B491" s="15"/>
       <c r="C491" s="14"/>
@@ -7030,7 +7394,7 @@
       <c r="G491" s="14"/>
       <c r="H491" s="15"/>
     </row>
-    <row r="492" ht="17" customHeight="1">
+    <row r="492" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A492" s="15"/>
       <c r="B492" s="15"/>
       <c r="C492" s="14"/>
@@ -7040,7 +7404,7 @@
       <c r="G492" s="14"/>
       <c r="H492" s="15"/>
     </row>
-    <row r="493" ht="17" customHeight="1">
+    <row r="493" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A493" s="15"/>
       <c r="B493" s="15"/>
       <c r="C493" s="14"/>
@@ -7050,7 +7414,7 @@
       <c r="G493" s="14"/>
       <c r="H493" s="15"/>
     </row>
-    <row r="494" ht="17" customHeight="1">
+    <row r="494" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A494" s="15"/>
       <c r="B494" s="15"/>
       <c r="C494" s="14"/>
@@ -7060,7 +7424,7 @@
       <c r="G494" s="14"/>
       <c r="H494" s="15"/>
     </row>
-    <row r="495" ht="17" customHeight="1">
+    <row r="495" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="14"/>
@@ -7070,7 +7434,7 @@
       <c r="G495" s="14"/>
       <c r="H495" s="15"/>
     </row>
-    <row r="496" ht="17" customHeight="1">
+    <row r="496" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A496" s="15"/>
       <c r="B496" s="15"/>
       <c r="C496" s="14"/>
@@ -7080,7 +7444,7 @@
       <c r="G496" s="14"/>
       <c r="H496" s="15"/>
     </row>
-    <row r="497" ht="17" customHeight="1">
+    <row r="497" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A497" s="15"/>
       <c r="B497" s="15"/>
       <c r="C497" s="14"/>
@@ -7090,7 +7454,7 @@
       <c r="G497" s="14"/>
       <c r="H497" s="15"/>
     </row>
-    <row r="498" ht="17" customHeight="1">
+    <row r="498" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A498" s="15"/>
       <c r="B498" s="15"/>
       <c r="C498" s="14"/>
@@ -7100,7 +7464,7 @@
       <c r="G498" s="14"/>
       <c r="H498" s="15"/>
     </row>
-    <row r="499" ht="17" customHeight="1">
+    <row r="499" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A499" s="15"/>
       <c r="B499" s="15"/>
       <c r="C499" s="14"/>
@@ -7110,7 +7474,7 @@
       <c r="G499" s="14"/>
       <c r="H499" s="15"/>
     </row>
-    <row r="500" ht="17" customHeight="1">
+    <row r="500" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A500" s="15"/>
       <c r="B500" s="15"/>
       <c r="C500" s="14"/>
@@ -7120,7 +7484,7 @@
       <c r="G500" s="14"/>
       <c r="H500" s="15"/>
     </row>
-    <row r="501" ht="17" customHeight="1">
+    <row r="501" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A501" s="15"/>
       <c r="B501" s="15"/>
       <c r="C501" s="14"/>
@@ -7130,7 +7494,7 @@
       <c r="G501" s="14"/>
       <c r="H501" s="15"/>
     </row>
-    <row r="502" ht="17" customHeight="1">
+    <row r="502" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A502" s="15"/>
       <c r="B502" s="15"/>
       <c r="C502" s="14"/>
@@ -7140,7 +7504,7 @@
       <c r="G502" s="14"/>
       <c r="H502" s="15"/>
     </row>
-    <row r="503" ht="17" customHeight="1">
+    <row r="503" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A503" s="15"/>
       <c r="B503" s="15"/>
       <c r="C503" s="14"/>
@@ -7150,7 +7514,7 @@
       <c r="G503" s="14"/>
       <c r="H503" s="15"/>
     </row>
-    <row r="504" ht="17" customHeight="1">
+    <row r="504" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A504" s="15"/>
       <c r="B504" s="15"/>
       <c r="C504" s="14"/>
@@ -7160,7 +7524,7 @@
       <c r="G504" s="14"/>
       <c r="H504" s="15"/>
     </row>
-    <row r="505" ht="17" customHeight="1">
+    <row r="505" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A505" s="15"/>
       <c r="B505" s="15"/>
       <c r="C505" s="14"/>
@@ -7170,7 +7534,7 @@
       <c r="G505" s="14"/>
       <c r="H505" s="15"/>
     </row>
-    <row r="506" ht="17" customHeight="1">
+    <row r="506" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A506" s="15"/>
       <c r="B506" s="15"/>
       <c r="C506" s="14"/>
@@ -7180,7 +7544,7 @@
       <c r="G506" s="14"/>
       <c r="H506" s="15"/>
     </row>
-    <row r="507" ht="17" customHeight="1">
+    <row r="507" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A507" s="15"/>
       <c r="B507" s="15"/>
       <c r="C507" s="14"/>
@@ -7190,7 +7554,7 @@
       <c r="G507" s="14"/>
       <c r="H507" s="15"/>
     </row>
-    <row r="508" ht="17" customHeight="1">
+    <row r="508" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A508" s="15"/>
       <c r="B508" s="15"/>
       <c r="C508" s="14"/>
@@ -7200,7 +7564,7 @@
       <c r="G508" s="14"/>
       <c r="H508" s="15"/>
     </row>
-    <row r="509" ht="17" customHeight="1">
+    <row r="509" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A509" s="15"/>
       <c r="B509" s="15"/>
       <c r="C509" s="14"/>
@@ -7210,7 +7574,7 @@
       <c r="G509" s="14"/>
       <c r="H509" s="15"/>
     </row>
-    <row r="510" ht="17" customHeight="1">
+    <row r="510" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A510" s="15"/>
       <c r="B510" s="15"/>
       <c r="C510" s="14"/>
@@ -7220,7 +7584,7 @@
       <c r="G510" s="14"/>
       <c r="H510" s="15"/>
     </row>
-    <row r="511" ht="17" customHeight="1">
+    <row r="511" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A511" s="15"/>
       <c r="B511" s="15"/>
       <c r="C511" s="14"/>
@@ -7230,7 +7594,7 @@
       <c r="G511" s="14"/>
       <c r="H511" s="15"/>
     </row>
-    <row r="512" ht="17" customHeight="1">
+    <row r="512" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A512" s="15"/>
       <c r="B512" s="15"/>
       <c r="C512" s="14"/>
@@ -7240,7 +7604,7 @@
       <c r="G512" s="14"/>
       <c r="H512" s="15"/>
     </row>
-    <row r="513" ht="17" customHeight="1">
+    <row r="513" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A513" s="15"/>
       <c r="B513" s="15"/>
       <c r="C513" s="14"/>
@@ -7250,7 +7614,7 @@
       <c r="G513" s="14"/>
       <c r="H513" s="15"/>
     </row>
-    <row r="514" ht="17" customHeight="1">
+    <row r="514" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A514" s="15"/>
       <c r="B514" s="15"/>
       <c r="C514" s="14"/>
@@ -7260,7 +7624,7 @@
       <c r="G514" s="14"/>
       <c r="H514" s="15"/>
     </row>
-    <row r="515" ht="17" customHeight="1">
+    <row r="515" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A515" s="15"/>
       <c r="B515" s="15"/>
       <c r="C515" s="14"/>
@@ -7270,7 +7634,7 @@
       <c r="G515" s="14"/>
       <c r="H515" s="15"/>
     </row>
-    <row r="516" ht="17" customHeight="1">
+    <row r="516" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A516" s="15"/>
       <c r="B516" s="15"/>
       <c r="C516" s="14"/>
@@ -7280,7 +7644,7 @@
       <c r="G516" s="14"/>
       <c r="H516" s="15"/>
     </row>
-    <row r="517" ht="17" customHeight="1">
+    <row r="517" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A517" s="15"/>
       <c r="B517" s="15"/>
       <c r="C517" s="14"/>
@@ -7290,7 +7654,7 @@
       <c r="G517" s="14"/>
       <c r="H517" s="15"/>
     </row>
-    <row r="518" ht="17" customHeight="1">
+    <row r="518" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A518" s="15"/>
       <c r="B518" s="15"/>
       <c r="C518" s="14"/>
@@ -7300,7 +7664,7 @@
       <c r="G518" s="14"/>
       <c r="H518" s="15"/>
     </row>
-    <row r="519" ht="17" customHeight="1">
+    <row r="519" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A519" s="15"/>
       <c r="B519" s="15"/>
       <c r="C519" s="14"/>
@@ -7310,7 +7674,7 @@
       <c r="G519" s="14"/>
       <c r="H519" s="15"/>
     </row>
-    <row r="520" ht="17" customHeight="1">
+    <row r="520" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A520" s="15"/>
       <c r="B520" s="15"/>
       <c r="C520" s="14"/>
@@ -7320,7 +7684,7 @@
       <c r="G520" s="14"/>
       <c r="H520" s="15"/>
     </row>
-    <row r="521" ht="17" customHeight="1">
+    <row r="521" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A521" s="15"/>
       <c r="B521" s="15"/>
       <c r="C521" s="14"/>
@@ -7330,7 +7694,7 @@
       <c r="G521" s="14"/>
       <c r="H521" s="15"/>
     </row>
-    <row r="522" ht="17" customHeight="1">
+    <row r="522" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A522" s="15"/>
       <c r="B522" s="15"/>
       <c r="C522" s="14"/>
@@ -7340,7 +7704,7 @@
       <c r="G522" s="14"/>
       <c r="H522" s="15"/>
     </row>
-    <row r="523" ht="17" customHeight="1">
+    <row r="523" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A523" s="15"/>
       <c r="B523" s="15"/>
       <c r="C523" s="14"/>
@@ -7350,7 +7714,7 @@
       <c r="G523" s="14"/>
       <c r="H523" s="15"/>
     </row>
-    <row r="524" ht="17" customHeight="1">
+    <row r="524" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A524" s="15"/>
       <c r="B524" s="15"/>
       <c r="C524" s="14"/>
@@ -7360,7 +7724,7 @@
       <c r="G524" s="14"/>
       <c r="H524" s="15"/>
     </row>
-    <row r="525" ht="17" customHeight="1">
+    <row r="525" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A525" s="15"/>
       <c r="B525" s="15"/>
       <c r="C525" s="14"/>
@@ -7370,7 +7734,7 @@
       <c r="G525" s="14"/>
       <c r="H525" s="15"/>
     </row>
-    <row r="526" ht="17" customHeight="1">
+    <row r="526" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A526" s="15"/>
       <c r="B526" s="15"/>
       <c r="C526" s="14"/>
@@ -7380,7 +7744,7 @@
       <c r="G526" s="14"/>
       <c r="H526" s="15"/>
     </row>
-    <row r="527" ht="17" customHeight="1">
+    <row r="527" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A527" s="15"/>
       <c r="B527" s="15"/>
       <c r="C527" s="14"/>
@@ -7390,7 +7754,7 @@
       <c r="G527" s="14"/>
       <c r="H527" s="15"/>
     </row>
-    <row r="528" ht="17" customHeight="1">
+    <row r="528" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A528" s="15"/>
       <c r="B528" s="15"/>
       <c r="C528" s="14"/>
@@ -7400,7 +7764,7 @@
       <c r="G528" s="14"/>
       <c r="H528" s="15"/>
     </row>
-    <row r="529" ht="17" customHeight="1">
+    <row r="529" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A529" s="15"/>
       <c r="B529" s="15"/>
       <c r="C529" s="14"/>
@@ -7410,7 +7774,7 @@
       <c r="G529" s="14"/>
       <c r="H529" s="15"/>
     </row>
-    <row r="530" ht="17" customHeight="1">
+    <row r="530" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A530" s="15"/>
       <c r="B530" s="15"/>
       <c r="C530" s="14"/>
@@ -7420,7 +7784,7 @@
       <c r="G530" s="14"/>
       <c r="H530" s="15"/>
     </row>
-    <row r="531" ht="17" customHeight="1">
+    <row r="531" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A531" s="15"/>
       <c r="B531" s="15"/>
       <c r="C531" s="14"/>
@@ -7430,7 +7794,7 @@
       <c r="G531" s="14"/>
       <c r="H531" s="15"/>
     </row>
-    <row r="532" ht="17" customHeight="1">
+    <row r="532" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A532" s="15"/>
       <c r="B532" s="15"/>
       <c r="C532" s="14"/>
@@ -7440,7 +7804,7 @@
       <c r="G532" s="14"/>
       <c r="H532" s="15"/>
     </row>
-    <row r="533" ht="17" customHeight="1">
+    <row r="533" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A533" s="15"/>
       <c r="B533" s="15"/>
       <c r="C533" s="14"/>
@@ -7450,7 +7814,7 @@
       <c r="G533" s="14"/>
       <c r="H533" s="15"/>
     </row>
-    <row r="534" ht="17" customHeight="1">
+    <row r="534" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="14"/>
@@ -7460,7 +7824,7 @@
       <c r="G534" s="14"/>
       <c r="H534" s="15"/>
     </row>
-    <row r="535" ht="17" customHeight="1">
+    <row r="535" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A535" s="15"/>
       <c r="B535" s="15"/>
       <c r="C535" s="14"/>
@@ -7470,7 +7834,7 @@
       <c r="G535" s="14"/>
       <c r="H535" s="15"/>
     </row>
-    <row r="536" ht="17" customHeight="1">
+    <row r="536" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A536" s="15"/>
       <c r="B536" s="15"/>
       <c r="C536" s="14"/>
@@ -7480,7 +7844,7 @@
       <c r="G536" s="14"/>
       <c r="H536" s="15"/>
     </row>
-    <row r="537" ht="17" customHeight="1">
+    <row r="537" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A537" s="15"/>
       <c r="B537" s="15"/>
       <c r="C537" s="14"/>
@@ -7490,7 +7854,7 @@
       <c r="G537" s="14"/>
       <c r="H537" s="15"/>
     </row>
-    <row r="538" ht="17" customHeight="1">
+    <row r="538" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A538" s="15"/>
       <c r="B538" s="15"/>
       <c r="C538" s="14"/>
@@ -7500,7 +7864,7 @@
       <c r="G538" s="14"/>
       <c r="H538" s="15"/>
     </row>
-    <row r="539" ht="17" customHeight="1">
+    <row r="539" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A539" s="15"/>
       <c r="B539" s="15"/>
       <c r="C539" s="14"/>
@@ -7510,7 +7874,7 @@
       <c r="G539" s="14"/>
       <c r="H539" s="15"/>
     </row>
-    <row r="540" ht="17" customHeight="1">
+    <row r="540" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A540" s="15"/>
       <c r="B540" s="15"/>
       <c r="C540" s="14"/>
@@ -7520,7 +7884,7 @@
       <c r="G540" s="14"/>
       <c r="H540" s="15"/>
     </row>
-    <row r="541" ht="17" customHeight="1">
+    <row r="541" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A541" s="15"/>
       <c r="B541" s="15"/>
       <c r="C541" s="14"/>
@@ -7530,7 +7894,7 @@
       <c r="G541" s="14"/>
       <c r="H541" s="15"/>
     </row>
-    <row r="542" ht="17" customHeight="1">
+    <row r="542" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A542" s="15"/>
       <c r="B542" s="15"/>
       <c r="C542" s="14"/>
@@ -7540,7 +7904,7 @@
       <c r="G542" s="14"/>
       <c r="H542" s="15"/>
     </row>
-    <row r="543" ht="17" customHeight="1">
+    <row r="543" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A543" s="15"/>
       <c r="B543" s="15"/>
       <c r="C543" s="14"/>
@@ -7550,7 +7914,7 @@
       <c r="G543" s="14"/>
       <c r="H543" s="15"/>
     </row>
-    <row r="544" ht="17" customHeight="1">
+    <row r="544" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A544" s="15"/>
       <c r="B544" s="15"/>
       <c r="C544" s="14"/>
@@ -7560,7 +7924,7 @@
       <c r="G544" s="14"/>
       <c r="H544" s="15"/>
     </row>
-    <row r="545" ht="17" customHeight="1">
+    <row r="545" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A545" s="15"/>
       <c r="B545" s="15"/>
       <c r="C545" s="14"/>
@@ -7570,7 +7934,7 @@
       <c r="G545" s="14"/>
       <c r="H545" s="15"/>
     </row>
-    <row r="546" ht="17" customHeight="1">
+    <row r="546" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A546" s="15"/>
       <c r="B546" s="15"/>
       <c r="C546" s="14"/>
@@ -7580,7 +7944,7 @@
       <c r="G546" s="14"/>
       <c r="H546" s="15"/>
     </row>
-    <row r="547" ht="17" customHeight="1">
+    <row r="547" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A547" s="15"/>
       <c r="B547" s="15"/>
       <c r="C547" s="14"/>
@@ -7590,7 +7954,7 @@
       <c r="G547" s="14"/>
       <c r="H547" s="15"/>
     </row>
-    <row r="548" ht="17" customHeight="1">
+    <row r="548" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A548" s="15"/>
       <c r="B548" s="15"/>
       <c r="C548" s="14"/>
@@ -7600,7 +7964,7 @@
       <c r="G548" s="14"/>
       <c r="H548" s="15"/>
     </row>
-    <row r="549" ht="17" customHeight="1">
+    <row r="549" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A549" s="15"/>
       <c r="B549" s="15"/>
       <c r="C549" s="14"/>
@@ -7610,7 +7974,7 @@
       <c r="G549" s="14"/>
       <c r="H549" s="15"/>
     </row>
-    <row r="550" ht="17" customHeight="1">
+    <row r="550" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A550" s="15"/>
       <c r="B550" s="15"/>
       <c r="C550" s="14"/>
@@ -7620,7 +7984,7 @@
       <c r="G550" s="14"/>
       <c r="H550" s="15"/>
     </row>
-    <row r="551" ht="17" customHeight="1">
+    <row r="551" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A551" s="15"/>
       <c r="B551" s="15"/>
       <c r="C551" s="14"/>
@@ -7630,7 +7994,7 @@
       <c r="G551" s="14"/>
       <c r="H551" s="15"/>
     </row>
-    <row r="552" ht="17" customHeight="1">
+    <row r="552" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A552" s="15"/>
       <c r="B552" s="15"/>
       <c r="C552" s="14"/>
@@ -7640,7 +8004,7 @@
       <c r="G552" s="14"/>
       <c r="H552" s="15"/>
     </row>
-    <row r="553" ht="17" customHeight="1">
+    <row r="553" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A553" s="15"/>
       <c r="B553" s="15"/>
       <c r="C553" s="14"/>
@@ -7650,7 +8014,7 @@
       <c r="G553" s="14"/>
       <c r="H553" s="15"/>
     </row>
-    <row r="554" ht="17" customHeight="1">
+    <row r="554" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A554" s="15"/>
       <c r="B554" s="15"/>
       <c r="C554" s="14"/>
@@ -7660,7 +8024,7 @@
       <c r="G554" s="14"/>
       <c r="H554" s="15"/>
     </row>
-    <row r="555" ht="17" customHeight="1">
+    <row r="555" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A555" s="15"/>
       <c r="B555" s="15"/>
       <c r="C555" s="14"/>
@@ -7670,7 +8034,7 @@
       <c r="G555" s="14"/>
       <c r="H555" s="15"/>
     </row>
-    <row r="556" ht="17" customHeight="1">
+    <row r="556" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A556" s="15"/>
       <c r="B556" s="15"/>
       <c r="C556" s="14"/>
@@ -7680,7 +8044,7 @@
       <c r="G556" s="14"/>
       <c r="H556" s="15"/>
     </row>
-    <row r="557" ht="17" customHeight="1">
+    <row r="557" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A557" s="15"/>
       <c r="B557" s="15"/>
       <c r="C557" s="14"/>
@@ -7690,7 +8054,7 @@
       <c r="G557" s="14"/>
       <c r="H557" s="15"/>
     </row>
-    <row r="558" ht="17" customHeight="1">
+    <row r="558" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="14"/>
@@ -7700,7 +8064,7 @@
       <c r="G558" s="14"/>
       <c r="H558" s="15"/>
     </row>
-    <row r="559" ht="17" customHeight="1">
+    <row r="559" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A559" s="15"/>
       <c r="B559" s="15"/>
       <c r="C559" s="14"/>
@@ -7710,7 +8074,7 @@
       <c r="G559" s="14"/>
       <c r="H559" s="15"/>
     </row>
-    <row r="560" ht="17" customHeight="1">
+    <row r="560" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A560" s="15"/>
       <c r="B560" s="15"/>
       <c r="C560" s="14"/>
@@ -7720,7 +8084,7 @@
       <c r="G560" s="14"/>
       <c r="H560" s="15"/>
     </row>
-    <row r="561" ht="17" customHeight="1">
+    <row r="561" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A561" s="15"/>
       <c r="B561" s="15"/>
       <c r="C561" s="14"/>
@@ -7730,7 +8094,7 @@
       <c r="G561" s="14"/>
       <c r="H561" s="15"/>
     </row>
-    <row r="562" ht="17" customHeight="1">
+    <row r="562" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A562" s="15"/>
       <c r="B562" s="15"/>
       <c r="C562" s="14"/>
@@ -7740,7 +8104,7 @@
       <c r="G562" s="14"/>
       <c r="H562" s="15"/>
     </row>
-    <row r="563" ht="17" customHeight="1">
+    <row r="563" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A563" s="15"/>
       <c r="B563" s="15"/>
       <c r="C563" s="14"/>
@@ -7750,7 +8114,7 @@
       <c r="G563" s="14"/>
       <c r="H563" s="15"/>
     </row>
-    <row r="564" ht="17" customHeight="1">
+    <row r="564" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A564" s="15"/>
       <c r="B564" s="15"/>
       <c r="C564" s="14"/>
@@ -7760,7 +8124,7 @@
       <c r="G564" s="14"/>
       <c r="H564" s="15"/>
     </row>
-    <row r="565" ht="17" customHeight="1">
+    <row r="565" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A565" s="15"/>
       <c r="B565" s="15"/>
       <c r="C565" s="14"/>
@@ -7770,7 +8134,7 @@
       <c r="G565" s="14"/>
       <c r="H565" s="15"/>
     </row>
-    <row r="566" ht="17" customHeight="1">
+    <row r="566" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A566" s="15"/>
       <c r="B566" s="15"/>
       <c r="C566" s="14"/>
@@ -7780,7 +8144,7 @@
       <c r="G566" s="14"/>
       <c r="H566" s="15"/>
     </row>
-    <row r="567" ht="17" customHeight="1">
+    <row r="567" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A567" s="15"/>
       <c r="B567" s="15"/>
       <c r="C567" s="14"/>
@@ -7790,7 +8154,7 @@
       <c r="G567" s="14"/>
       <c r="H567" s="15"/>
     </row>
-    <row r="568" ht="17" customHeight="1">
+    <row r="568" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A568" s="15"/>
       <c r="B568" s="15"/>
       <c r="C568" s="14"/>
@@ -7800,7 +8164,7 @@
       <c r="G568" s="14"/>
       <c r="H568" s="15"/>
     </row>
-    <row r="569" ht="17" customHeight="1">
+    <row r="569" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A569" s="15"/>
       <c r="B569" s="15"/>
       <c r="C569" s="14"/>
@@ -7810,7 +8174,7 @@
       <c r="G569" s="14"/>
       <c r="H569" s="15"/>
     </row>
-    <row r="570" ht="17" customHeight="1">
+    <row r="570" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A570" s="15"/>
       <c r="B570" s="15"/>
       <c r="C570" s="14"/>
@@ -7820,7 +8184,7 @@
       <c r="G570" s="14"/>
       <c r="H570" s="15"/>
     </row>
-    <row r="571" ht="17" customHeight="1">
+    <row r="571" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A571" s="15"/>
       <c r="B571" s="15"/>
       <c r="C571" s="14"/>
@@ -7830,7 +8194,7 @@
       <c r="G571" s="14"/>
       <c r="H571" s="15"/>
     </row>
-    <row r="572" ht="17" customHeight="1">
+    <row r="572" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A572" s="15"/>
       <c r="B572" s="15"/>
       <c r="C572" s="14"/>
@@ -7840,7 +8204,7 @@
       <c r="G572" s="14"/>
       <c r="H572" s="15"/>
     </row>
-    <row r="573" ht="17" customHeight="1">
+    <row r="573" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A573" s="15"/>
       <c r="B573" s="15"/>
       <c r="C573" s="14"/>
@@ -7850,7 +8214,7 @@
       <c r="G573" s="14"/>
       <c r="H573" s="15"/>
     </row>
-    <row r="574" ht="17" customHeight="1">
+    <row r="574" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A574" s="15"/>
       <c r="B574" s="15"/>
       <c r="C574" s="14"/>
@@ -7860,7 +8224,7 @@
       <c r="G574" s="14"/>
       <c r="H574" s="15"/>
     </row>
-    <row r="575" ht="17" customHeight="1">
+    <row r="575" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A575" s="15"/>
       <c r="B575" s="15"/>
       <c r="C575" s="14"/>
@@ -7870,7 +8234,7 @@
       <c r="G575" s="14"/>
       <c r="H575" s="15"/>
     </row>
-    <row r="576" ht="17" customHeight="1">
+    <row r="576" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A576" s="15"/>
       <c r="B576" s="15"/>
       <c r="C576" s="14"/>
@@ -7880,7 +8244,7 @@
       <c r="G576" s="14"/>
       <c r="H576" s="15"/>
     </row>
-    <row r="577" ht="17" customHeight="1">
+    <row r="577" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A577" s="15"/>
       <c r="B577" s="15"/>
       <c r="C577" s="14"/>
@@ -7890,7 +8254,7 @@
       <c r="G577" s="14"/>
       <c r="H577" s="15"/>
     </row>
-    <row r="578" ht="17" customHeight="1">
+    <row r="578" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A578" s="15"/>
       <c r="B578" s="15"/>
       <c r="C578" s="14"/>
@@ -7900,7 +8264,7 @@
       <c r="G578" s="14"/>
       <c r="H578" s="15"/>
     </row>
-    <row r="579" ht="17" customHeight="1">
+    <row r="579" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A579" s="15"/>
       <c r="B579" s="15"/>
       <c r="C579" s="14"/>
@@ -7910,7 +8274,7 @@
       <c r="G579" s="14"/>
       <c r="H579" s="15"/>
     </row>
-    <row r="580" ht="17" customHeight="1">
+    <row r="580" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A580" s="15"/>
       <c r="B580" s="15"/>
       <c r="C580" s="14"/>
@@ -7920,7 +8284,7 @@
       <c r="G580" s="14"/>
       <c r="H580" s="15"/>
     </row>
-    <row r="581" ht="17" customHeight="1">
+    <row r="581" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A581" s="15"/>
       <c r="B581" s="15"/>
       <c r="C581" s="14"/>
@@ -7930,7 +8294,7 @@
       <c r="G581" s="14"/>
       <c r="H581" s="15"/>
     </row>
-    <row r="582" ht="17" customHeight="1">
+    <row r="582" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="14"/>
@@ -7940,7 +8304,7 @@
       <c r="G582" s="14"/>
       <c r="H582" s="15"/>
     </row>
-    <row r="583" ht="17" customHeight="1">
+    <row r="583" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A583" s="15"/>
       <c r="B583" s="15"/>
       <c r="C583" s="14"/>
@@ -7950,7 +8314,7 @@
       <c r="G583" s="14"/>
       <c r="H583" s="15"/>
     </row>
-    <row r="584" ht="17" customHeight="1">
+    <row r="584" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A584" s="15"/>
       <c r="B584" s="15"/>
       <c r="C584" s="14"/>
@@ -7960,7 +8324,7 @@
       <c r="G584" s="14"/>
       <c r="H584" s="15"/>
     </row>
-    <row r="585" ht="17" customHeight="1">
+    <row r="585" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A585" s="15"/>
       <c r="B585" s="15"/>
       <c r="C585" s="14"/>
@@ -7970,7 +8334,7 @@
       <c r="G585" s="14"/>
       <c r="H585" s="15"/>
     </row>
-    <row r="586" ht="17" customHeight="1">
+    <row r="586" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A586" s="15"/>
       <c r="B586" s="15"/>
       <c r="C586" s="14"/>
@@ -7980,7 +8344,7 @@
       <c r="G586" s="14"/>
       <c r="H586" s="15"/>
     </row>
-    <row r="587" ht="17" customHeight="1">
+    <row r="587" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A587" s="15"/>
       <c r="B587" s="15"/>
       <c r="C587" s="14"/>
@@ -7990,7 +8354,7 @@
       <c r="G587" s="14"/>
       <c r="H587" s="15"/>
     </row>
-    <row r="588" ht="17" customHeight="1">
+    <row r="588" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A588" s="15"/>
       <c r="B588" s="15"/>
       <c r="C588" s="14"/>
@@ -8000,7 +8364,7 @@
       <c r="G588" s="14"/>
       <c r="H588" s="15"/>
     </row>
-    <row r="589" ht="17" customHeight="1">
+    <row r="589" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A589" s="15"/>
       <c r="B589" s="15"/>
       <c r="C589" s="14"/>
@@ -8010,7 +8374,7 @@
       <c r="G589" s="14"/>
       <c r="H589" s="15"/>
     </row>
-    <row r="590" ht="17" customHeight="1">
+    <row r="590" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A590" s="15"/>
       <c r="B590" s="15"/>
       <c r="C590" s="14"/>
@@ -8020,7 +8384,7 @@
       <c r="G590" s="14"/>
       <c r="H590" s="15"/>
     </row>
-    <row r="591" ht="17" customHeight="1">
+    <row r="591" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A591" s="15"/>
       <c r="B591" s="15"/>
       <c r="C591" s="14"/>
@@ -8030,7 +8394,7 @@
       <c r="G591" s="14"/>
       <c r="H591" s="15"/>
     </row>
-    <row r="592" ht="17" customHeight="1">
+    <row r="592" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A592" s="15"/>
       <c r="B592" s="15"/>
       <c r="C592" s="14"/>
@@ -8040,7 +8404,7 @@
       <c r="G592" s="14"/>
       <c r="H592" s="15"/>
     </row>
-    <row r="593" ht="17" customHeight="1">
+    <row r="593" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A593" s="15"/>
       <c r="B593" s="15"/>
       <c r="C593" s="14"/>
@@ -8050,7 +8414,7 @@
       <c r="G593" s="14"/>
       <c r="H593" s="15"/>
     </row>
-    <row r="594" ht="17" customHeight="1">
+    <row r="594" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A594" s="15"/>
       <c r="B594" s="15"/>
       <c r="C594" s="14"/>
@@ -8060,7 +8424,7 @@
       <c r="G594" s="14"/>
       <c r="H594" s="15"/>
     </row>
-    <row r="595" ht="17" customHeight="1">
+    <row r="595" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A595" s="15"/>
       <c r="B595" s="15"/>
       <c r="C595" s="14"/>
@@ -8070,7 +8434,7 @@
       <c r="G595" s="14"/>
       <c r="H595" s="15"/>
     </row>
-    <row r="596" ht="17" customHeight="1">
+    <row r="596" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A596" s="15"/>
       <c r="B596" s="15"/>
       <c r="C596" s="14"/>
@@ -8080,7 +8444,7 @@
       <c r="G596" s="14"/>
       <c r="H596" s="15"/>
     </row>
-    <row r="597" ht="17" customHeight="1">
+    <row r="597" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A597" s="15"/>
       <c r="B597" s="15"/>
       <c r="C597" s="14"/>
@@ -8090,7 +8454,7 @@
       <c r="G597" s="14"/>
       <c r="H597" s="15"/>
     </row>
-    <row r="598" ht="17" customHeight="1">
+    <row r="598" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A598" s="15"/>
       <c r="B598" s="15"/>
       <c r="C598" s="14"/>
@@ -8100,7 +8464,7 @@
       <c r="G598" s="14"/>
       <c r="H598" s="15"/>
     </row>
-    <row r="599" ht="17" customHeight="1">
+    <row r="599" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A599" s="15"/>
       <c r="B599" s="15"/>
       <c r="C599" s="14"/>
@@ -8110,7 +8474,7 @@
       <c r="G599" s="14"/>
       <c r="H599" s="15"/>
     </row>
-    <row r="600" ht="17" customHeight="1">
+    <row r="600" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A600" s="15"/>
       <c r="B600" s="15"/>
       <c r="C600" s="14"/>
@@ -8120,7 +8484,7 @@
       <c r="G600" s="14"/>
       <c r="H600" s="15"/>
     </row>
-    <row r="601" ht="17" customHeight="1">
+    <row r="601" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A601" s="15"/>
       <c r="B601" s="15"/>
       <c r="C601" s="14"/>
@@ -8130,7 +8494,7 @@
       <c r="G601" s="14"/>
       <c r="H601" s="15"/>
     </row>
-    <row r="602" ht="17" customHeight="1">
+    <row r="602" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A602" s="15"/>
       <c r="B602" s="15"/>
       <c r="C602" s="14"/>
@@ -8141,21 +8505,21 @@
       <c r="H602" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C602 E2:E602 G2:G602">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:C602 G2:G602 E2:E602">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C602 E2:E602 G2:G602">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C602 G2:G602 E2:E602" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/etc/Acceptance_Test_Plan.xlsx
+++ b/etc/Acceptance_Test_Plan.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girls Who Code\IdeaProjects\team-project-2195-swen-261-08-c-hess\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19A584-6ECD-42B9-A990-5ADE3BBC2EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83872749-47C4-448F-9E34-9433B9588EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
   <si>
     <t>Instructions</t>
   </si>
@@ -69,6 +79,9 @@
     <t>Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>RM; 2/24/2020; PASS</t>
   </si>
   <si>
@@ -108,9 +121,24 @@
     <t>Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>NL; 2/29/2020; FAIL - We are unable to bring up a functioning board.</t>
+  </si>
+  <si>
+    <t>MW; 3/30/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
   </si>
   <si>
+    <t>ED; 2/29/2020; FAIL - We are unable to bring up a working board that connects both players.</t>
+  </si>
+  <si>
+    <t>ED; 3/30/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
   </si>
   <si>
@@ -123,9 +151,15 @@
     <t>Given a valid, initial game board when I drag a piece to a white space then the piece should not be droppable.</t>
   </si>
   <si>
+    <t>Pieces are not dragable yet</t>
+  </si>
+  <si>
     <t>Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
   </si>
   <si>
+    <t>NL; 4/5/2020; PASS RM; 4/5/2020; PASS</t>
+  </si>
+  <si>
     <t>Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
   </si>
   <si>
@@ -150,7 +184,7 @@
     <t xml:space="preserve">Given that it’s my turn when I click and hold on to one of my pieces then I expect to be able to pick up that piece. </t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>WH; 2/29/2020; PASS</t>
   </si>
   <si>
     <t>Given that I’m currently holding a piece when I drop a piece in an invalid spot then I expect that piece to go back to its original position and my turn is still ongoing</t>
@@ -159,6 +193,9 @@
     <t>Given that I’m currently holding my piece when I stop holding my mouse button then I expect to be able to drop that piece</t>
   </si>
   <si>
+    <t>MW; 2/29/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I'm currently holding my piece when I move it over to any valid spot then I expect to be able to visually see that spot turn a different shade.</t>
   </si>
   <si>
@@ -171,15 +208,27 @@
     <t xml:space="preserve">Given that it is my turn when I pick up a piece and place it in a valid empty spot then I expect the piece to be there when I drop it. </t>
   </si>
   <si>
+    <t>NL; 3/30/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that it is my turn when I make a successful move then my opponent should be able to see my move.</t>
   </si>
   <si>
+    <t>ED; 4/1/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that it is not my turn when I make any move then the system should not carry out my move.</t>
   </si>
   <si>
+    <t>WH;4/1/2020; PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that it is my turn when I move a piece on top of a piece then I expect the system to reject my move. </t>
   </si>
   <si>
+    <t>RM; 4/5/2020; We catch this error, but so does the javascript which throws it's own error.</t>
+  </si>
+  <si>
     <t>Given that it is my turn when I move a piece to an invalid spot then I expect the piece to return to its original spot and it’s still my turn.</t>
   </si>
   <si>
@@ -195,12 +244,21 @@
     <t>Given that I have the opportunity to make a jump when I try to make a move other than jumping a piece then I expect my piece to move back to its original spot and my turn is still ongoing.</t>
   </si>
   <si>
+    <t>WH; 4/5/2020: PASS</t>
+  </si>
+  <si>
     <t>Given that I have the opportunity to make a jump when I try to jump a piece then I expect the system to accept my move.</t>
   </si>
   <si>
+    <t>WH; 4/2/2020: PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that I am not a king and have a jump available “behind” a piece when I try to make that jump using that piece then I expect the system to reject my move </t>
   </si>
   <si>
+    <t>NL; 4/2/2020: PASS</t>
+  </si>
+  <si>
     <t>Given that I am a king and a jump is available when I try to make a move besides any valid jump then I expect the system to reject my move.</t>
   </si>
   <si>
@@ -210,6 +268,9 @@
     <t>Given that I have no available jumps when I try to make a jump then my piece returns to it’s original position</t>
   </si>
   <si>
+    <t>ED; 4/3/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that there are two pieces in one of my diagonals when I try to do a simple move then I expect the system to accept my move</t>
   </si>
   <si>
@@ -219,30 +280,54 @@
     <t>Given that I am a piece when I choose to make multiple valid jumps then I expect the piece to execute the jumps and take the opponent pieces</t>
   </si>
   <si>
+    <t>WH; 4/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I am a piece when I am able to make different multiple jumps then I expect the user to be able to pick a jump to execute.</t>
   </si>
   <si>
+    <t>MW; 4/5/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I am a piece when I am able to make multiple jumps then I expect to not be able to make a simple move.</t>
   </si>
   <si>
+    <t>NL; 4/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I am a normal piece when I choose to make backward multiple jumps then I expect the system to reject my moves and for it to still be my turn.</t>
   </si>
   <si>
     <t>Given that I am a piece when I make an invalid multiple jump then I expect the system to reject my move and for it to still be my turn.</t>
   </si>
   <si>
+    <t>MW; 4/2/2020; PASS</t>
+  </si>
+  <si>
     <t>As a player, I want to get to the king row so that I can become a king.</t>
   </si>
   <si>
     <t xml:space="preserve">Given that any of my pieces end up on the opposite side of the board when it lands on the opposite row then I expect my piece to visually become a king (two pieces stacked on each other) and my turn ends. </t>
   </si>
   <si>
+    <t>RM; 4/2/2020; PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Player, I want to be able to move my king in any direction (diagonally) so that I can capture more pieces. </t>
   </si>
   <si>
+    <t xml:space="preserve">Given that my piece has become a king when I make a move then I expect to be able to make a simple move in any diagonal direction. </t>
+  </si>
+  <si>
+    <t>RM; 4/3/2020; PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that my piece has become a king when I make multiple jumps then I expect to be able jump in any direction. </t>
   </si>
   <si>
+    <t xml:space="preserve">MW; 4/3/2020; PASS </t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that my piece has become a king when I make a simple jump then I expect to be able to jump in any direction </t>
   </si>
   <si>
@@ -252,6 +337,9 @@
     <t>Given that it is my turn when I try to make a valid move then I expect the system to accept that move.</t>
   </si>
   <si>
+    <t>ED; 3/31/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that it is not my turn when I try to make any move then I expect to not even be able to pick up my piece</t>
   </si>
   <si>
@@ -267,6 +355,9 @@
     <t xml:space="preserve">Given that all of my opponent’s pieces are gone when I clear their final piece then I expect a message to pop up saying I won’ the game and a button to redirect me back to the homepage. </t>
   </si>
   <si>
+    <t>no message</t>
+  </si>
+  <si>
     <t>Given that my opponent is unable to make a move when it is their turn then I expect a message to popup saying I won the game and a button to redirect me back to the homepage.</t>
   </si>
   <si>
@@ -277,87 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve">Given that I am unable to make a move when it is my turn then I expect a message to pop up saying I lost the game and a button to redirect myself back to the homepage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that my piece has become a king when I make a move then I expect to be able to make a simple move in any diagonal direction. </t>
-  </si>
-  <si>
-    <t>no message</t>
-  </si>
-  <si>
-    <t>MW; 3/30/2020; PASS</t>
-  </si>
-  <si>
-    <t>ED; 3/30/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 4/5/2020; PASS RM; 4/5/2020; PASS</t>
-  </si>
-  <si>
-    <t>WH; 2/29/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 2/29/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 3/30/2020; PASS</t>
-  </si>
-  <si>
-    <t>ED; 4/1/2020; PASS</t>
-  </si>
-  <si>
-    <t>WH;4/1/2020; PASS</t>
-  </si>
-  <si>
-    <t>RM; 4/5/2020; We catch this error, but so does the javascript which throws it's own error.</t>
-  </si>
-  <si>
-    <t>WH; 4/5/2020: PASS</t>
-  </si>
-  <si>
-    <t>NL; 4/2/2020: PASS</t>
-  </si>
-  <si>
-    <t>WH; 4/2/2020: PASS</t>
-  </si>
-  <si>
-    <t>ED; 4/3/2020; PASS</t>
-  </si>
-  <si>
-    <t>WH; 4/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 4/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 4/2/2020; PASS</t>
-  </si>
-  <si>
-    <t>RM; 4/2/2020; PASS</t>
-  </si>
-  <si>
-    <t>RM; 4/3/2020; PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW; 4/3/2020; PASS </t>
-  </si>
-  <si>
-    <t>ED; 3/31/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 4/5/2020; PASS</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pieces are not dragable yet</t>
-  </si>
-  <si>
-    <t>NL; 2/29/2020; FAIL - We are unable to bring up a functioning board.</t>
-  </si>
-  <si>
-    <t>ED; 2/29/2020; FAIL - We are unable to bring up a working board that connects both players.</t>
   </si>
   <si>
     <t xml:space="preserve">As a Player I want to resign so that I can play another game.
@@ -367,32 +377,53 @@
     <t>Given I press the resign button when I press resign then I am sent to the home page</t>
   </si>
   <si>
+    <t>ED; 3/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given I resign when I exit the game then my player statistics are updated confirming that I lost a game</t>
   </si>
   <si>
+    <t>NL; 3/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given my opponent has resigned when it is not my turn then the game will alert me that the game is over, my opponent resigned, and I can exit the game</t>
   </si>
   <si>
+    <t>MW; 3/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given my opponent has resigned when it is my turn then the game will alert me that my turn is over, the game has ended, my opponent resigned, and I can exit the game.</t>
   </si>
   <si>
-    <t>ED; 3/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 3/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 3/4/2020; PASS</t>
-  </si>
-  <si>
     <t>RM; 3/4/2020; PASS</t>
+  </si>
+  <si>
+    <t>As a Player, I want to see all ongoing active games so that I can decide what game I want to spectate.</t>
+  </si>
+  <si>
+    <t>Given that there are ongoing active games when I go to the home page then I expect to see a list of active games I can spectate.</t>
+  </si>
+  <si>
+    <t>Given that I've clicked on an ongoing page when my page refreshes then I expect to see the current state of the game.</t>
+  </si>
+  <si>
+    <t>Given that I am spectating a game when I try to move a piece then I expect to get an error message.</t>
+  </si>
+  <si>
+    <t>As a Spectator, I want the page to update after each player makes their move so that I can see how the game is progressing.</t>
+  </si>
+  <si>
+    <t>Given that a player submits their turn when the page refreshes then I expect to see that move.</t>
+  </si>
+  <si>
+    <t>Given that a player wins/loses a game when the page refreshes then I expect to be redirected to the home screen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -415,8 +446,14 @@
       <color indexed="18"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +496,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -668,11 +711,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,12 +839,45 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,14 +2096,14 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="106.875" style="1" customWidth="1"/>
     <col min="3" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="220.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2027,14 +2114,14 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2132,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2056,42 +2143,42 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2109,13 +2196,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV602"/>
+  <dimension ref="A1:IV604"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="54" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="54" workbookViewId="0">
+      <selection activeCell="A64" sqref="A59:A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" style="8" customWidth="1"/>
     <col min="2" max="2" width="60" style="8" customWidth="1"/>
@@ -2128,7 +2215,7 @@
     <col min="9" max="256" width="10.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2154,7 +2241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2162,987 +2249,987 @@
         <v>13</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="63" customHeight="1" thickBot="1">
       <c r="A4" s="15"/>
       <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="78.75" customHeight="1" thickBot="1">
       <c r="A5" s="15"/>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" ht="63" customHeight="1" thickBot="1">
       <c r="A6" s="15"/>
       <c r="B6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
       <c r="A7" s="15"/>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="47.65" customHeight="1" thickBot="1">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" thickBot="1">
       <c r="A9" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="47.25" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="47.25" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="94.5" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="31.5" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="31.5" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="63" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="47.65" customHeight="1" thickBot="1">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
       <c r="A17" s="32" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" ht="45" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="43"/>
+        <v>14</v>
+      </c>
+      <c r="F19" s="42"/>
       <c r="G19" s="40" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" ht="45" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="43"/>
+        <v>14</v>
+      </c>
+      <c r="F20" s="42"/>
       <c r="G20" s="40" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" ht="31.15" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="43"/>
+        <v>14</v>
+      </c>
+      <c r="F21" s="42"/>
       <c r="G21" s="40" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" ht="45" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="43"/>
+        <v>14</v>
+      </c>
+      <c r="F22" s="42"/>
       <c r="G22" s="40" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" ht="31.15" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="43"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="42"/>
       <c r="G23" s="40" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" ht="45" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="31.15" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
       <c r="E25" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" ht="31.15" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
       <c r="E26" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" ht="31.15" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
       <c r="E27" s="38" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" ht="31.15" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" ht="31.15" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="31.15" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="38" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="59.1" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="38" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" ht="31.15" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="11" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" ht="45" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" ht="45" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="11" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="38" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" ht="31.15" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="11" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" ht="31.15" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="11" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
       <c r="E36" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" ht="31.15" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="11" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
       <c r="E37" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" ht="59.1" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
       <c r="E38" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" ht="31.15" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="11" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" ht="31.15" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" ht="45" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" ht="31.15" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="11" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" ht="59.1" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" ht="59.1" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" ht="31.15" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="11" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" ht="31.15" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="11" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" ht="45" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" ht="31.15" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="11" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="14"/>
     </row>
-    <row r="49" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" ht="31.15" customHeight="1">
       <c r="A49" s="14"/>
       <c r="B49" s="11" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" ht="45" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" s="11" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" ht="59.1" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="37" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="G51" s="54"/>
       <c r="H51" s="14"/>
     </row>
-    <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" ht="45" customHeight="1">
       <c r="A52" s="14"/>
       <c r="B52" s="11" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="37" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="14"/>
     </row>
-    <row r="53" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" ht="59.1" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="37" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" ht="45" customHeight="1">
       <c r="A54" s="14"/>
       <c r="B54" s="11" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="37" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="14"/>
     </row>
-    <row r="55" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A55" s="47" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="44"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="14"/>
       <c r="E55" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A56" s="55"/>
       <c r="B56" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A57" s="55"/>
       <c r="B57" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="14"/>
       <c r="E57" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="14"/>
     </row>
-    <row r="58" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A58" s="48"/>
       <c r="B58" s="14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="14"/>
       <c r="E58" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>119</v>
@@ -3150,107 +3237,121 @@
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
     </row>
-    <row r="59" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="13"/>
+    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A59" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="50"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="13"/>
+      <c r="E59" s="50"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="13"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="45"/>
+    </row>
+    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A60" s="49"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="13"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A61" s="49"/>
+      <c r="B61" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="50"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="13"/>
+      <c r="E61" s="50"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="13"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="45"/>
+    </row>
+    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A62" s="49"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="13"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="13"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="46"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A63" s="49"/>
+      <c r="B63" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="50"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="13"/>
+      <c r="E63" s="50"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="45"/>
+    </row>
+    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="13"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="13"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="46"/>
+    </row>
+    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A65" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="50"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="13"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="45"/>
+    </row>
+    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A66" s="49"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="13"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="46"/>
+    </row>
+    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A67" s="49"/>
+      <c r="B67" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="50"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="13"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="14"/>
-    </row>
-    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="45"/>
+    </row>
+    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="13"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G68" s="53"/>
+      <c r="H68" s="46"/>
+    </row>
+    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="13"/>
@@ -3260,7 +3361,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="14"/>
     </row>
-    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="13"/>
@@ -3270,7 +3371,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="13"/>
@@ -3280,7 +3381,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="13"/>
@@ -3290,7 +3391,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="13"/>
@@ -3300,7 +3401,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="14"/>
     </row>
-    <row r="74" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="13"/>
@@ -3310,7 +3411,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="13"/>
@@ -3320,7 +3421,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="13"/>
@@ -3330,7 +3431,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="14"/>
     </row>
-    <row r="77" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="13"/>
@@ -3340,7 +3441,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="13"/>
@@ -3350,7 +3451,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="13"/>
@@ -3360,7 +3461,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="13"/>
@@ -3370,7 +3471,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="13"/>
@@ -3380,7 +3481,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="13"/>
@@ -3390,7 +3491,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="13"/>
@@ -3400,7 +3501,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="13"/>
@@ -3410,7 +3511,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="14"/>
     </row>
-    <row r="85" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="13"/>
@@ -3420,7 +3521,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="13"/>
@@ -3430,7 +3531,7 @@
       <c r="G86" s="13"/>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="13"/>
@@ -3440,7 +3541,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="13"/>
@@ -3450,7 +3551,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="13"/>
@@ -3460,7 +3561,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="13"/>
@@ -3470,7 +3571,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="13"/>
@@ -3480,7 +3581,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="13"/>
@@ -3490,7 +3591,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="13"/>
@@ -3500,7 +3601,7 @@
       <c r="G93" s="13"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="13"/>
@@ -3510,7 +3611,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="13"/>
@@ -3520,7 +3621,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="13"/>
@@ -3530,7 +3631,7 @@
       <c r="G96" s="13"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="13"/>
@@ -3540,7 +3641,7 @@
       <c r="G97" s="13"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="13"/>
@@ -3550,7 +3651,7 @@
       <c r="G98" s="13"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="13"/>
@@ -3560,7 +3661,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="13"/>
@@ -3570,7 +3671,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="13"/>
@@ -3580,7 +3681,7 @@
       <c r="G101" s="13"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="13"/>
@@ -3590,7 +3691,7 @@
       <c r="G102" s="13"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="13"/>
@@ -3600,7 +3701,7 @@
       <c r="G103" s="13"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="13"/>
@@ -3610,7 +3711,7 @@
       <c r="G104" s="13"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="13"/>
@@ -3620,7 +3721,7 @@
       <c r="G105" s="13"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="13"/>
@@ -3630,7 +3731,7 @@
       <c r="G106" s="13"/>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="13"/>
@@ -3640,7 +3741,7 @@
       <c r="G107" s="13"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="13"/>
@@ -3650,7 +3751,7 @@
       <c r="G108" s="13"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="13"/>
@@ -3660,7 +3761,7 @@
       <c r="G109" s="13"/>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -3670,7 +3771,7 @@
       <c r="G110" s="13"/>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
@@ -3680,7 +3781,7 @@
       <c r="G111" s="13"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="13"/>
@@ -3690,7 +3791,7 @@
       <c r="G112" s="13"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="13"/>
@@ -3700,7 +3801,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="13"/>
@@ -3710,7 +3811,7 @@
       <c r="G114" s="13"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="13"/>
@@ -3720,7 +3821,7 @@
       <c r="G115" s="13"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="13"/>
@@ -3730,7 +3831,7 @@
       <c r="G116" s="13"/>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="13"/>
@@ -3740,7 +3841,7 @@
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="13"/>
@@ -3750,7 +3851,7 @@
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="13"/>
@@ -3760,7 +3861,7 @@
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="13"/>
@@ -3770,7 +3871,7 @@
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="13"/>
@@ -3780,7 +3881,7 @@
       <c r="G121" s="13"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="13"/>
@@ -3790,7 +3891,7 @@
       <c r="G122" s="13"/>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="13"/>
@@ -3800,7 +3901,7 @@
       <c r="G123" s="13"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="13"/>
@@ -3810,7 +3911,7 @@
       <c r="G124" s="13"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="13"/>
@@ -3820,7 +3921,7 @@
       <c r="G125" s="13"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="13"/>
@@ -3830,7 +3931,7 @@
       <c r="G126" s="13"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="13"/>
@@ -3840,7 +3941,7 @@
       <c r="G127" s="13"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="13"/>
@@ -3850,7 +3951,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="13"/>
@@ -3860,7 +3961,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="13"/>
@@ -3870,7 +3971,7 @@
       <c r="G130" s="13"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="13"/>
@@ -3880,7 +3981,7 @@
       <c r="G131" s="13"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="13"/>
@@ -3890,7 +3991,7 @@
       <c r="G132" s="13"/>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="13"/>
@@ -3900,7 +4001,7 @@
       <c r="G133" s="13"/>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="13"/>
@@ -3910,7 +4011,7 @@
       <c r="G134" s="13"/>
       <c r="H134" s="14"/>
     </row>
-    <row r="135" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="13"/>
@@ -3920,7 +4021,7 @@
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="13"/>
@@ -3930,7 +4031,7 @@
       <c r="G136" s="13"/>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="13"/>
@@ -3940,7 +4041,7 @@
       <c r="G137" s="13"/>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="13"/>
@@ -3950,7 +4051,7 @@
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="13"/>
@@ -3960,7 +4061,7 @@
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="13"/>
@@ -3970,7 +4071,7 @@
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
-    <row r="141" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="13"/>
@@ -3980,7 +4081,7 @@
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="13"/>
@@ -3990,7 +4091,7 @@
       <c r="G142" s="13"/>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="13"/>
@@ -4000,7 +4101,7 @@
       <c r="G143" s="13"/>
       <c r="H143" s="14"/>
     </row>
-    <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="13"/>
@@ -4010,7 +4111,7 @@
       <c r="G144" s="13"/>
       <c r="H144" s="14"/>
     </row>
-    <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="13"/>
@@ -4020,7 +4121,7 @@
       <c r="G145" s="13"/>
       <c r="H145" s="14"/>
     </row>
-    <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="13"/>
@@ -4030,7 +4131,7 @@
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
-    <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="13"/>
@@ -4040,7 +4141,7 @@
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
-    <row r="148" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="13"/>
@@ -4050,7 +4151,7 @@
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="13"/>
@@ -4060,7 +4161,7 @@
       <c r="G149" s="13"/>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="13"/>
@@ -4070,7 +4171,7 @@
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
-    <row r="151" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="13"/>
@@ -4080,7 +4181,7 @@
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
-    <row r="152" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="13"/>
@@ -4090,7 +4191,7 @@
       <c r="G152" s="13"/>
       <c r="H152" s="14"/>
     </row>
-    <row r="153" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="13"/>
@@ -4100,7 +4201,7 @@
       <c r="G153" s="13"/>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="13"/>
@@ -4110,7 +4211,7 @@
       <c r="G154" s="13"/>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="13"/>
@@ -4120,7 +4221,7 @@
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="13"/>
@@ -4130,7 +4231,7 @@
       <c r="G156" s="13"/>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="13"/>
@@ -4140,7 +4241,7 @@
       <c r="G157" s="13"/>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="13"/>
@@ -4150,7 +4251,7 @@
       <c r="G158" s="13"/>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="13"/>
@@ -4160,7 +4261,7 @@
       <c r="G159" s="13"/>
       <c r="H159" s="14"/>
     </row>
-    <row r="160" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="13"/>
@@ -4170,7 +4271,7 @@
       <c r="G160" s="13"/>
       <c r="H160" s="14"/>
     </row>
-    <row r="161" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="13"/>
@@ -4180,7 +4281,7 @@
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="13"/>
@@ -4190,7 +4291,7 @@
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="13"/>
@@ -4200,7 +4301,7 @@
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="13"/>
@@ -4210,7 +4311,7 @@
       <c r="G164" s="13"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="13"/>
@@ -4220,7 +4321,7 @@
       <c r="G165" s="13"/>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="13"/>
@@ -4230,7 +4331,7 @@
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
-    <row r="167" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="13"/>
@@ -4240,7 +4341,7 @@
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="13"/>
@@ -4250,7 +4351,7 @@
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="13"/>
@@ -4260,7 +4361,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="13"/>
@@ -4270,7 +4371,7 @@
       <c r="G170" s="13"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="13"/>
@@ -4280,7 +4381,7 @@
       <c r="G171" s="13"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="13"/>
@@ -4290,7 +4391,7 @@
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
-    <row r="173" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="13"/>
@@ -4300,7 +4401,7 @@
       <c r="G173" s="13"/>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="13"/>
@@ -4310,7 +4411,7 @@
       <c r="G174" s="13"/>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="13"/>
@@ -4320,7 +4421,7 @@
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="13"/>
@@ -4330,7 +4431,7 @@
       <c r="G176" s="13"/>
       <c r="H176" s="14"/>
     </row>
-    <row r="177" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="13"/>
@@ -4340,7 +4441,7 @@
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
     </row>
-    <row r="178" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="13"/>
@@ -4350,7 +4451,7 @@
       <c r="G178" s="13"/>
       <c r="H178" s="14"/>
     </row>
-    <row r="179" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="13"/>
@@ -4360,7 +4461,7 @@
       <c r="G179" s="13"/>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="13"/>
@@ -4370,7 +4471,7 @@
       <c r="G180" s="13"/>
       <c r="H180" s="14"/>
     </row>
-    <row r="181" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="13"/>
@@ -4380,7 +4481,7 @@
       <c r="G181" s="13"/>
       <c r="H181" s="14"/>
     </row>
-    <row r="182" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="13"/>
@@ -4390,7 +4491,7 @@
       <c r="G182" s="13"/>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="13"/>
@@ -4400,7 +4501,7 @@
       <c r="G183" s="13"/>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="13"/>
@@ -4410,7 +4511,7 @@
       <c r="G184" s="13"/>
       <c r="H184" s="14"/>
     </row>
-    <row r="185" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="13"/>
@@ -4420,7 +4521,7 @@
       <c r="G185" s="13"/>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="13"/>
@@ -4430,7 +4531,7 @@
       <c r="G186" s="13"/>
       <c r="H186" s="14"/>
     </row>
-    <row r="187" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="13"/>
@@ -4440,7 +4541,7 @@
       <c r="G187" s="13"/>
       <c r="H187" s="14"/>
     </row>
-    <row r="188" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="13"/>
@@ -4450,7 +4551,7 @@
       <c r="G188" s="13"/>
       <c r="H188" s="14"/>
     </row>
-    <row r="189" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="13"/>
@@ -4460,7 +4561,7 @@
       <c r="G189" s="13"/>
       <c r="H189" s="14"/>
     </row>
-    <row r="190" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="13"/>
@@ -4470,7 +4571,7 @@
       <c r="G190" s="13"/>
       <c r="H190" s="14"/>
     </row>
-    <row r="191" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="13"/>
@@ -4480,7 +4581,7 @@
       <c r="G191" s="13"/>
       <c r="H191" s="14"/>
     </row>
-    <row r="192" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="13"/>
@@ -4490,7 +4591,7 @@
       <c r="G192" s="13"/>
       <c r="H192" s="14"/>
     </row>
-    <row r="193" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="13"/>
@@ -4500,7 +4601,7 @@
       <c r="G193" s="13"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="13"/>
@@ -4510,7 +4611,7 @@
       <c r="G194" s="13"/>
       <c r="H194" s="14"/>
     </row>
-    <row r="195" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="13"/>
@@ -4520,7 +4621,7 @@
       <c r="G195" s="13"/>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="13"/>
@@ -4530,7 +4631,7 @@
       <c r="G196" s="13"/>
       <c r="H196" s="14"/>
     </row>
-    <row r="197" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="13"/>
@@ -4540,7 +4641,7 @@
       <c r="G197" s="13"/>
       <c r="H197" s="14"/>
     </row>
-    <row r="198" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="13"/>
@@ -4550,7 +4651,7 @@
       <c r="G198" s="13"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="13"/>
@@ -4560,7 +4661,7 @@
       <c r="G199" s="13"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="13"/>
@@ -4570,7 +4671,7 @@
       <c r="G200" s="13"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="13"/>
@@ -4580,7 +4681,7 @@
       <c r="G201" s="13"/>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="13"/>
@@ -4590,7 +4691,7 @@
       <c r="G202" s="13"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="13"/>
@@ -4600,7 +4701,7 @@
       <c r="G203" s="13"/>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="13"/>
@@ -4610,7 +4711,7 @@
       <c r="G204" s="13"/>
       <c r="H204" s="14"/>
     </row>
-    <row r="205" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="13"/>
@@ -4620,7 +4721,7 @@
       <c r="G205" s="13"/>
       <c r="H205" s="14"/>
     </row>
-    <row r="206" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="13"/>
@@ -4630,7 +4731,7 @@
       <c r="G206" s="13"/>
       <c r="H206" s="14"/>
     </row>
-    <row r="207" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="13"/>
@@ -4640,7 +4741,7 @@
       <c r="G207" s="13"/>
       <c r="H207" s="14"/>
     </row>
-    <row r="208" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="13"/>
@@ -4650,7 +4751,7 @@
       <c r="G208" s="13"/>
       <c r="H208" s="14"/>
     </row>
-    <row r="209" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="13"/>
@@ -4660,7 +4761,7 @@
       <c r="G209" s="13"/>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="13"/>
@@ -4670,7 +4771,7 @@
       <c r="G210" s="13"/>
       <c r="H210" s="14"/>
     </row>
-    <row r="211" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="13"/>
@@ -4680,7 +4781,7 @@
       <c r="G211" s="13"/>
       <c r="H211" s="14"/>
     </row>
-    <row r="212" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="13"/>
@@ -4690,7 +4791,7 @@
       <c r="G212" s="13"/>
       <c r="H212" s="14"/>
     </row>
-    <row r="213" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="13"/>
@@ -4700,7 +4801,7 @@
       <c r="G213" s="13"/>
       <c r="H213" s="14"/>
     </row>
-    <row r="214" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="13"/>
@@ -4710,7 +4811,7 @@
       <c r="G214" s="13"/>
       <c r="H214" s="14"/>
     </row>
-    <row r="215" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="13"/>
@@ -4720,7 +4821,7 @@
       <c r="G215" s="13"/>
       <c r="H215" s="14"/>
     </row>
-    <row r="216" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="13"/>
@@ -4730,7 +4831,7 @@
       <c r="G216" s="13"/>
       <c r="H216" s="14"/>
     </row>
-    <row r="217" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="13"/>
@@ -4740,7 +4841,7 @@
       <c r="G217" s="13"/>
       <c r="H217" s="14"/>
     </row>
-    <row r="218" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="13"/>
@@ -4750,7 +4851,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="14"/>
     </row>
-    <row r="219" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="13"/>
@@ -4760,7 +4861,7 @@
       <c r="G219" s="13"/>
       <c r="H219" s="14"/>
     </row>
-    <row r="220" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="13"/>
@@ -4770,7 +4871,7 @@
       <c r="G220" s="13"/>
       <c r="H220" s="14"/>
     </row>
-    <row r="221" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="13"/>
@@ -4780,7 +4881,7 @@
       <c r="G221" s="13"/>
       <c r="H221" s="14"/>
     </row>
-    <row r="222" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="13"/>
@@ -4790,7 +4891,7 @@
       <c r="G222" s="13"/>
       <c r="H222" s="14"/>
     </row>
-    <row r="223" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" s="13"/>
@@ -4800,7 +4901,7 @@
       <c r="G223" s="13"/>
       <c r="H223" s="14"/>
     </row>
-    <row r="224" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="13"/>
@@ -4810,7 +4911,7 @@
       <c r="G224" s="13"/>
       <c r="H224" s="14"/>
     </row>
-    <row r="225" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="13"/>
@@ -4820,7 +4921,7 @@
       <c r="G225" s="13"/>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="13"/>
@@ -4830,7 +4931,7 @@
       <c r="G226" s="13"/>
       <c r="H226" s="14"/>
     </row>
-    <row r="227" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" s="13"/>
@@ -4840,7 +4941,7 @@
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="13"/>
@@ -4850,7 +4951,7 @@
       <c r="G228" s="13"/>
       <c r="H228" s="14"/>
     </row>
-    <row r="229" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="13"/>
@@ -4860,7 +4961,7 @@
       <c r="G229" s="13"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="13"/>
@@ -4870,7 +4971,7 @@
       <c r="G230" s="13"/>
       <c r="H230" s="14"/>
     </row>
-    <row r="231" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="13"/>
@@ -4880,7 +4981,7 @@
       <c r="G231" s="13"/>
       <c r="H231" s="14"/>
     </row>
-    <row r="232" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="13"/>
@@ -4890,7 +4991,7 @@
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
-    <row r="233" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" s="13"/>
@@ -4900,7 +5001,7 @@
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
-    <row r="234" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" s="13"/>
@@ -4910,7 +5011,7 @@
       <c r="G234" s="13"/>
       <c r="H234" s="14"/>
     </row>
-    <row r="235" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" s="13"/>
@@ -4920,7 +5021,7 @@
       <c r="G235" s="13"/>
       <c r="H235" s="14"/>
     </row>
-    <row r="236" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" s="13"/>
@@ -4930,7 +5031,7 @@
       <c r="G236" s="13"/>
       <c r="H236" s="14"/>
     </row>
-    <row r="237" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="13"/>
@@ -4940,7 +5041,7 @@
       <c r="G237" s="13"/>
       <c r="H237" s="14"/>
     </row>
-    <row r="238" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="13"/>
@@ -4950,7 +5051,7 @@
       <c r="G238" s="13"/>
       <c r="H238" s="14"/>
     </row>
-    <row r="239" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="13"/>
@@ -4960,7 +5061,7 @@
       <c r="G239" s="13"/>
       <c r="H239" s="14"/>
     </row>
-    <row r="240" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" s="13"/>
@@ -4970,7 +5071,7 @@
       <c r="G240" s="13"/>
       <c r="H240" s="14"/>
     </row>
-    <row r="241" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="13"/>
@@ -4980,7 +5081,7 @@
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
-    <row r="242" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="13"/>
@@ -4990,7 +5091,7 @@
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
-    <row r="243" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="13"/>
@@ -5000,7 +5101,7 @@
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" s="13"/>
@@ -5010,7 +5111,7 @@
       <c r="G244" s="13"/>
       <c r="H244" s="14"/>
     </row>
-    <row r="245" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="13"/>
@@ -5020,7 +5121,7 @@
       <c r="G245" s="13"/>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="13"/>
@@ -5030,7 +5131,7 @@
       <c r="G246" s="13"/>
       <c r="H246" s="14"/>
     </row>
-    <row r="247" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="13"/>
@@ -5040,7 +5141,7 @@
       <c r="G247" s="13"/>
       <c r="H247" s="14"/>
     </row>
-    <row r="248" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" s="13"/>
@@ -5050,7 +5151,7 @@
       <c r="G248" s="13"/>
       <c r="H248" s="14"/>
     </row>
-    <row r="249" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="13"/>
@@ -5060,7 +5161,7 @@
       <c r="G249" s="13"/>
       <c r="H249" s="14"/>
     </row>
-    <row r="250" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="13"/>
@@ -5070,7 +5171,7 @@
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="13"/>
@@ -5080,7 +5181,7 @@
       <c r="G251" s="13"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" s="13"/>
@@ -5090,7 +5191,7 @@
       <c r="G252" s="13"/>
       <c r="H252" s="14"/>
     </row>
-    <row r="253" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="13"/>
@@ -5100,7 +5201,7 @@
       <c r="G253" s="13"/>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="13"/>
@@ -5110,7 +5211,7 @@
       <c r="G254" s="13"/>
       <c r="H254" s="14"/>
     </row>
-    <row r="255" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="13"/>
@@ -5120,7 +5221,7 @@
       <c r="G255" s="13"/>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="13"/>
@@ -5130,7 +5231,7 @@
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
-    <row r="257" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="13"/>
@@ -5140,7 +5241,7 @@
       <c r="G257" s="13"/>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="13"/>
@@ -5150,7 +5251,7 @@
       <c r="G258" s="13"/>
       <c r="H258" s="14"/>
     </row>
-    <row r="259" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="13"/>
@@ -5160,7 +5261,7 @@
       <c r="G259" s="13"/>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="13"/>
@@ -5170,7 +5271,7 @@
       <c r="G260" s="13"/>
       <c r="H260" s="14"/>
     </row>
-    <row r="261" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="13"/>
@@ -5180,7 +5281,7 @@
       <c r="G261" s="13"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="13"/>
@@ -5190,7 +5291,7 @@
       <c r="G262" s="13"/>
       <c r="H262" s="14"/>
     </row>
-    <row r="263" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="13"/>
@@ -5200,7 +5301,7 @@
       <c r="G263" s="13"/>
       <c r="H263" s="14"/>
     </row>
-    <row r="264" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" s="13"/>
@@ -5210,7 +5311,7 @@
       <c r="G264" s="13"/>
       <c r="H264" s="14"/>
     </row>
-    <row r="265" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="13"/>
@@ -5220,7 +5321,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="13"/>
@@ -5230,7 +5331,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="14"/>
     </row>
-    <row r="267" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="13"/>
@@ -5240,7 +5341,7 @@
       <c r="G267" s="13"/>
       <c r="H267" s="14"/>
     </row>
-    <row r="268" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" s="13"/>
@@ -5250,7 +5351,7 @@
       <c r="G268" s="13"/>
       <c r="H268" s="14"/>
     </row>
-    <row r="269" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="13"/>
@@ -5260,7 +5361,7 @@
       <c r="G269" s="13"/>
       <c r="H269" s="14"/>
     </row>
-    <row r="270" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="13"/>
@@ -5270,7 +5371,7 @@
       <c r="G270" s="13"/>
       <c r="H270" s="14"/>
     </row>
-    <row r="271" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="13"/>
@@ -5280,7 +5381,7 @@
       <c r="G271" s="13"/>
       <c r="H271" s="14"/>
     </row>
-    <row r="272" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" s="13"/>
@@ -5290,7 +5391,7 @@
       <c r="G272" s="13"/>
       <c r="H272" s="14"/>
     </row>
-    <row r="273" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="13"/>
@@ -5300,7 +5401,7 @@
       <c r="G273" s="13"/>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="13"/>
@@ -5310,7 +5411,7 @@
       <c r="G274" s="13"/>
       <c r="H274" s="14"/>
     </row>
-    <row r="275" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="13"/>
@@ -5320,7 +5421,7 @@
       <c r="G275" s="13"/>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" s="13"/>
@@ -5330,7 +5431,7 @@
       <c r="G276" s="13"/>
       <c r="H276" s="14"/>
     </row>
-    <row r="277" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="13"/>
@@ -5340,7 +5441,7 @@
       <c r="G277" s="13"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="13"/>
@@ -5350,7 +5451,7 @@
       <c r="G278" s="13"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="13"/>
@@ -5360,7 +5461,7 @@
       <c r="G279" s="13"/>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" s="13"/>
@@ -5370,7 +5471,7 @@
       <c r="G280" s="13"/>
       <c r="H280" s="14"/>
     </row>
-    <row r="281" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="13"/>
@@ -5380,7 +5481,7 @@
       <c r="G281" s="13"/>
       <c r="H281" s="14"/>
     </row>
-    <row r="282" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="13"/>
@@ -5390,7 +5491,7 @@
       <c r="G282" s="13"/>
       <c r="H282" s="14"/>
     </row>
-    <row r="283" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="13"/>
@@ -5400,7 +5501,7 @@
       <c r="G283" s="13"/>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" s="13"/>
@@ -5410,7 +5511,7 @@
       <c r="G284" s="13"/>
       <c r="H284" s="14"/>
     </row>
-    <row r="285" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" s="13"/>
@@ -5420,7 +5521,7 @@
       <c r="G285" s="13"/>
       <c r="H285" s="14"/>
     </row>
-    <row r="286" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" s="13"/>
@@ -5430,7 +5531,7 @@
       <c r="G286" s="13"/>
       <c r="H286" s="14"/>
     </row>
-    <row r="287" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" s="13"/>
@@ -5440,7 +5541,7 @@
       <c r="G287" s="13"/>
       <c r="H287" s="14"/>
     </row>
-    <row r="288" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="13"/>
@@ -5450,7 +5551,7 @@
       <c r="G288" s="13"/>
       <c r="H288" s="14"/>
     </row>
-    <row r="289" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="13"/>
@@ -5460,7 +5561,7 @@
       <c r="G289" s="13"/>
       <c r="H289" s="14"/>
     </row>
-    <row r="290" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="13"/>
@@ -5470,7 +5571,7 @@
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
-    <row r="291" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" s="13"/>
@@ -5480,7 +5581,7 @@
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="13"/>
@@ -5490,7 +5591,7 @@
       <c r="G292" s="13"/>
       <c r="H292" s="14"/>
     </row>
-    <row r="293" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="13"/>
@@ -5500,7 +5601,7 @@
       <c r="G293" s="13"/>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="13"/>
@@ -5510,7 +5611,7 @@
       <c r="G294" s="13"/>
       <c r="H294" s="14"/>
     </row>
-    <row r="295" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" s="13"/>
@@ -5520,7 +5621,7 @@
       <c r="G295" s="13"/>
       <c r="H295" s="14"/>
     </row>
-    <row r="296" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" s="13"/>
@@ -5530,7 +5631,7 @@
       <c r="G296" s="13"/>
       <c r="H296" s="14"/>
     </row>
-    <row r="297" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" s="13"/>
@@ -5540,7 +5641,7 @@
       <c r="G297" s="13"/>
       <c r="H297" s="14"/>
     </row>
-    <row r="298" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" s="13"/>
@@ -5550,7 +5651,7 @@
       <c r="G298" s="13"/>
       <c r="H298" s="14"/>
     </row>
-    <row r="299" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="13"/>
@@ -5560,7 +5661,7 @@
       <c r="G299" s="13"/>
       <c r="H299" s="14"/>
     </row>
-    <row r="300" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="13"/>
@@ -5570,7 +5671,7 @@
       <c r="G300" s="13"/>
       <c r="H300" s="14"/>
     </row>
-    <row r="301" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="13"/>
@@ -5580,7 +5681,7 @@
       <c r="G301" s="13"/>
       <c r="H301" s="14"/>
     </row>
-    <row r="302" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" s="13"/>
@@ -5590,7 +5691,7 @@
       <c r="G302" s="13"/>
       <c r="H302" s="14"/>
     </row>
-    <row r="303" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="13"/>
@@ -5600,7 +5701,7 @@
       <c r="G303" s="13"/>
       <c r="H303" s="14"/>
     </row>
-    <row r="304" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="13"/>
@@ -5610,7 +5711,7 @@
       <c r="G304" s="13"/>
       <c r="H304" s="14"/>
     </row>
-    <row r="305" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="13"/>
@@ -5620,7 +5721,7 @@
       <c r="G305" s="13"/>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="13"/>
@@ -5630,7 +5731,7 @@
       <c r="G306" s="13"/>
       <c r="H306" s="14"/>
     </row>
-    <row r="307" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="13"/>
@@ -5640,7 +5741,7 @@
       <c r="G307" s="13"/>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="13"/>
@@ -5650,7 +5751,7 @@
       <c r="G308" s="13"/>
       <c r="H308" s="14"/>
     </row>
-    <row r="309" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="13"/>
@@ -5660,7 +5761,7 @@
       <c r="G309" s="13"/>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="13"/>
@@ -5670,7 +5771,7 @@
       <c r="G310" s="13"/>
       <c r="H310" s="14"/>
     </row>
-    <row r="311" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="13"/>
@@ -5680,7 +5781,7 @@
       <c r="G311" s="13"/>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="13"/>
@@ -5690,7 +5791,7 @@
       <c r="G312" s="13"/>
       <c r="H312" s="14"/>
     </row>
-    <row r="313" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="13"/>
@@ -5700,7 +5801,7 @@
       <c r="G313" s="13"/>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="13"/>
@@ -5710,7 +5811,7 @@
       <c r="G314" s="13"/>
       <c r="H314" s="14"/>
     </row>
-    <row r="315" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="13"/>
@@ -5720,7 +5821,7 @@
       <c r="G315" s="13"/>
       <c r="H315" s="14"/>
     </row>
-    <row r="316" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="13"/>
@@ -5730,7 +5831,7 @@
       <c r="G316" s="13"/>
       <c r="H316" s="14"/>
     </row>
-    <row r="317" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="13"/>
@@ -5740,7 +5841,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="14"/>
     </row>
-    <row r="318" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="13"/>
@@ -5750,7 +5851,7 @@
       <c r="G318" s="13"/>
       <c r="H318" s="14"/>
     </row>
-    <row r="319" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
       <c r="C319" s="13"/>
@@ -5760,7 +5861,7 @@
       <c r="G319" s="13"/>
       <c r="H319" s="14"/>
     </row>
-    <row r="320" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
       <c r="C320" s="13"/>
@@ -5770,7 +5871,7 @@
       <c r="G320" s="13"/>
       <c r="H320" s="14"/>
     </row>
-    <row r="321" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="13"/>
@@ -5780,7 +5881,7 @@
       <c r="G321" s="13"/>
       <c r="H321" s="14"/>
     </row>
-    <row r="322" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="13"/>
@@ -5790,7 +5891,7 @@
       <c r="G322" s="13"/>
       <c r="H322" s="14"/>
     </row>
-    <row r="323" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="13"/>
@@ -5800,7 +5901,7 @@
       <c r="G323" s="13"/>
       <c r="H323" s="14"/>
     </row>
-    <row r="324" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="13"/>
@@ -5810,7 +5911,7 @@
       <c r="G324" s="13"/>
       <c r="H324" s="14"/>
     </row>
-    <row r="325" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
       <c r="C325" s="13"/>
@@ -5820,7 +5921,7 @@
       <c r="G325" s="13"/>
       <c r="H325" s="14"/>
     </row>
-    <row r="326" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A326" s="14"/>
       <c r="B326" s="14"/>
       <c r="C326" s="13"/>
@@ -5830,7 +5931,7 @@
       <c r="G326" s="13"/>
       <c r="H326" s="14"/>
     </row>
-    <row r="327" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
       <c r="C327" s="13"/>
@@ -5840,7 +5941,7 @@
       <c r="G327" s="13"/>
       <c r="H327" s="14"/>
     </row>
-    <row r="328" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="13"/>
@@ -5850,7 +5951,7 @@
       <c r="G328" s="13"/>
       <c r="H328" s="14"/>
     </row>
-    <row r="329" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="13"/>
@@ -5860,7 +5961,7 @@
       <c r="G329" s="13"/>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="13"/>
@@ -5870,7 +5971,7 @@
       <c r="G330" s="13"/>
       <c r="H330" s="14"/>
     </row>
-    <row r="331" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="13"/>
@@ -5880,7 +5981,7 @@
       <c r="G331" s="13"/>
       <c r="H331" s="14"/>
     </row>
-    <row r="332" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
       <c r="C332" s="13"/>
@@ -5890,7 +5991,7 @@
       <c r="G332" s="13"/>
       <c r="H332" s="14"/>
     </row>
-    <row r="333" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
       <c r="C333" s="13"/>
@@ -5900,7 +6001,7 @@
       <c r="G333" s="13"/>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="13"/>
@@ -5910,7 +6011,7 @@
       <c r="G334" s="13"/>
       <c r="H334" s="14"/>
     </row>
-    <row r="335" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="13"/>
@@ -5920,7 +6021,7 @@
       <c r="G335" s="13"/>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="13"/>
@@ -5930,7 +6031,7 @@
       <c r="G336" s="13"/>
       <c r="H336" s="14"/>
     </row>
-    <row r="337" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="13"/>
@@ -5940,7 +6041,7 @@
       <c r="G337" s="13"/>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="13"/>
@@ -5950,7 +6051,7 @@
       <c r="G338" s="13"/>
       <c r="H338" s="14"/>
     </row>
-    <row r="339" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" s="13"/>
@@ -5960,7 +6061,7 @@
       <c r="G339" s="13"/>
       <c r="H339" s="14"/>
     </row>
-    <row r="340" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="13"/>
@@ -5970,7 +6071,7 @@
       <c r="G340" s="13"/>
       <c r="H340" s="14"/>
     </row>
-    <row r="341" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="13"/>
@@ -5980,7 +6081,7 @@
       <c r="G341" s="13"/>
       <c r="H341" s="14"/>
     </row>
-    <row r="342" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" s="13"/>
@@ -5990,7 +6091,7 @@
       <c r="G342" s="13"/>
       <c r="H342" s="14"/>
     </row>
-    <row r="343" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="13"/>
@@ -6000,7 +6101,7 @@
       <c r="G343" s="13"/>
       <c r="H343" s="14"/>
     </row>
-    <row r="344" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A344" s="14"/>
       <c r="B344" s="14"/>
       <c r="C344" s="13"/>
@@ -6010,7 +6111,7 @@
       <c r="G344" s="13"/>
       <c r="H344" s="14"/>
     </row>
-    <row r="345" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" s="13"/>
@@ -6020,7 +6121,7 @@
       <c r="G345" s="13"/>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="13"/>
@@ -6030,7 +6131,7 @@
       <c r="G346" s="13"/>
       <c r="H346" s="14"/>
     </row>
-    <row r="347" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" s="13"/>
@@ -6040,7 +6141,7 @@
       <c r="G347" s="13"/>
       <c r="H347" s="14"/>
     </row>
-    <row r="348" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" s="13"/>
@@ -6050,7 +6151,7 @@
       <c r="G348" s="13"/>
       <c r="H348" s="14"/>
     </row>
-    <row r="349" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" s="13"/>
@@ -6060,7 +6161,7 @@
       <c r="G349" s="13"/>
       <c r="H349" s="14"/>
     </row>
-    <row r="350" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" s="13"/>
@@ -6070,7 +6171,7 @@
       <c r="G350" s="13"/>
       <c r="H350" s="14"/>
     </row>
-    <row r="351" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="13"/>
@@ -6080,7 +6181,7 @@
       <c r="G351" s="13"/>
       <c r="H351" s="14"/>
     </row>
-    <row r="352" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="13"/>
@@ -6090,7 +6191,7 @@
       <c r="G352" s="13"/>
       <c r="H352" s="14"/>
     </row>
-    <row r="353" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" s="13"/>
@@ -6100,7 +6201,7 @@
       <c r="G353" s="13"/>
       <c r="H353" s="14"/>
     </row>
-    <row r="354" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="13"/>
@@ -6110,7 +6211,7 @@
       <c r="G354" s="13"/>
       <c r="H354" s="14"/>
     </row>
-    <row r="355" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="13"/>
@@ -6120,7 +6221,7 @@
       <c r="G355" s="13"/>
       <c r="H355" s="14"/>
     </row>
-    <row r="356" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
       <c r="C356" s="13"/>
@@ -6130,7 +6231,7 @@
       <c r="G356" s="13"/>
       <c r="H356" s="14"/>
     </row>
-    <row r="357" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" s="13"/>
@@ -6140,7 +6241,7 @@
       <c r="G357" s="13"/>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" s="13"/>
@@ -6150,7 +6251,7 @@
       <c r="G358" s="13"/>
       <c r="H358" s="14"/>
     </row>
-    <row r="359" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" s="13"/>
@@ -6160,7 +6261,7 @@
       <c r="G359" s="13"/>
       <c r="H359" s="14"/>
     </row>
-    <row r="360" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" s="13"/>
@@ -6170,7 +6271,7 @@
       <c r="G360" s="13"/>
       <c r="H360" s="14"/>
     </row>
-    <row r="361" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" s="13"/>
@@ -6180,7 +6281,7 @@
       <c r="G361" s="13"/>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
       <c r="C362" s="13"/>
@@ -6190,7 +6291,7 @@
       <c r="G362" s="13"/>
       <c r="H362" s="14"/>
     </row>
-    <row r="363" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
       <c r="C363" s="13"/>
@@ -6200,7 +6301,7 @@
       <c r="G363" s="13"/>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
       <c r="C364" s="13"/>
@@ -6210,7 +6311,7 @@
       <c r="G364" s="13"/>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
       <c r="C365" s="13"/>
@@ -6220,7 +6321,7 @@
       <c r="G365" s="13"/>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" s="13"/>
@@ -6230,7 +6331,7 @@
       <c r="G366" s="13"/>
       <c r="H366" s="14"/>
     </row>
-    <row r="367" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" s="13"/>
@@ -6240,7 +6341,7 @@
       <c r="G367" s="13"/>
       <c r="H367" s="14"/>
     </row>
-    <row r="368" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" s="13"/>
@@ -6250,7 +6351,7 @@
       <c r="G368" s="13"/>
       <c r="H368" s="14"/>
     </row>
-    <row r="369" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" s="13"/>
@@ -6260,7 +6361,7 @@
       <c r="G369" s="13"/>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" s="13"/>
@@ -6270,7 +6371,7 @@
       <c r="G370" s="13"/>
       <c r="H370" s="14"/>
     </row>
-    <row r="371" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
       <c r="C371" s="13"/>
@@ -6280,7 +6381,7 @@
       <c r="G371" s="13"/>
       <c r="H371" s="14"/>
     </row>
-    <row r="372" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
       <c r="C372" s="13"/>
@@ -6290,7 +6391,7 @@
       <c r="G372" s="13"/>
       <c r="H372" s="14"/>
     </row>
-    <row r="373" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
       <c r="C373" s="13"/>
@@ -6300,7 +6401,7 @@
       <c r="G373" s="13"/>
       <c r="H373" s="14"/>
     </row>
-    <row r="374" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A374" s="14"/>
       <c r="B374" s="14"/>
       <c r="C374" s="13"/>
@@ -6310,7 +6411,7 @@
       <c r="G374" s="13"/>
       <c r="H374" s="14"/>
     </row>
-    <row r="375" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A375" s="14"/>
       <c r="B375" s="14"/>
       <c r="C375" s="13"/>
@@ -6320,7 +6421,7 @@
       <c r="G375" s="13"/>
       <c r="H375" s="14"/>
     </row>
-    <row r="376" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A376" s="14"/>
       <c r="B376" s="14"/>
       <c r="C376" s="13"/>
@@ -6330,7 +6431,7 @@
       <c r="G376" s="13"/>
       <c r="H376" s="14"/>
     </row>
-    <row r="377" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A377" s="14"/>
       <c r="B377" s="14"/>
       <c r="C377" s="13"/>
@@ -6340,7 +6441,7 @@
       <c r="G377" s="13"/>
       <c r="H377" s="14"/>
     </row>
-    <row r="378" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
       <c r="C378" s="13"/>
@@ -6350,7 +6451,7 @@
       <c r="G378" s="13"/>
       <c r="H378" s="14"/>
     </row>
-    <row r="379" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
       <c r="C379" s="13"/>
@@ -6360,7 +6461,7 @@
       <c r="G379" s="13"/>
       <c r="H379" s="14"/>
     </row>
-    <row r="380" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A380" s="14"/>
       <c r="B380" s="14"/>
       <c r="C380" s="13"/>
@@ -6370,7 +6471,7 @@
       <c r="G380" s="13"/>
       <c r="H380" s="14"/>
     </row>
-    <row r="381" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A381" s="14"/>
       <c r="B381" s="14"/>
       <c r="C381" s="13"/>
@@ -6380,7 +6481,7 @@
       <c r="G381" s="13"/>
       <c r="H381" s="14"/>
     </row>
-    <row r="382" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A382" s="14"/>
       <c r="B382" s="14"/>
       <c r="C382" s="13"/>
@@ -6390,7 +6491,7 @@
       <c r="G382" s="13"/>
       <c r="H382" s="14"/>
     </row>
-    <row r="383" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
       <c r="C383" s="13"/>
@@ -6400,7 +6501,7 @@
       <c r="G383" s="13"/>
       <c r="H383" s="14"/>
     </row>
-    <row r="384" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A384" s="14"/>
       <c r="B384" s="14"/>
       <c r="C384" s="13"/>
@@ -6410,7 +6511,7 @@
       <c r="G384" s="13"/>
       <c r="H384" s="14"/>
     </row>
-    <row r="385" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A385" s="14"/>
       <c r="B385" s="14"/>
       <c r="C385" s="13"/>
@@ -6420,7 +6521,7 @@
       <c r="G385" s="13"/>
       <c r="H385" s="14"/>
     </row>
-    <row r="386" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A386" s="14"/>
       <c r="B386" s="14"/>
       <c r="C386" s="13"/>
@@ -6430,7 +6531,7 @@
       <c r="G386" s="13"/>
       <c r="H386" s="14"/>
     </row>
-    <row r="387" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A387" s="14"/>
       <c r="B387" s="14"/>
       <c r="C387" s="13"/>
@@ -6440,7 +6541,7 @@
       <c r="G387" s="13"/>
       <c r="H387" s="14"/>
     </row>
-    <row r="388" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" s="13"/>
@@ -6450,7 +6551,7 @@
       <c r="G388" s="13"/>
       <c r="H388" s="14"/>
     </row>
-    <row r="389" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A389" s="14"/>
       <c r="B389" s="14"/>
       <c r="C389" s="13"/>
@@ -6460,7 +6561,7 @@
       <c r="G389" s="13"/>
       <c r="H389" s="14"/>
     </row>
-    <row r="390" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A390" s="14"/>
       <c r="B390" s="14"/>
       <c r="C390" s="13"/>
@@ -6470,7 +6571,7 @@
       <c r="G390" s="13"/>
       <c r="H390" s="14"/>
     </row>
-    <row r="391" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A391" s="14"/>
       <c r="B391" s="14"/>
       <c r="C391" s="13"/>
@@ -6480,7 +6581,7 @@
       <c r="G391" s="13"/>
       <c r="H391" s="14"/>
     </row>
-    <row r="392" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A392" s="14"/>
       <c r="B392" s="14"/>
       <c r="C392" s="13"/>
@@ -6490,7 +6591,7 @@
       <c r="G392" s="13"/>
       <c r="H392" s="14"/>
     </row>
-    <row r="393" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
       <c r="C393" s="13"/>
@@ -6500,7 +6601,7 @@
       <c r="G393" s="13"/>
       <c r="H393" s="14"/>
     </row>
-    <row r="394" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A394" s="14"/>
       <c r="B394" s="14"/>
       <c r="C394" s="13"/>
@@ -6510,7 +6611,7 @@
       <c r="G394" s="13"/>
       <c r="H394" s="14"/>
     </row>
-    <row r="395" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A395" s="14"/>
       <c r="B395" s="14"/>
       <c r="C395" s="13"/>
@@ -6520,7 +6621,7 @@
       <c r="G395" s="13"/>
       <c r="H395" s="14"/>
     </row>
-    <row r="396" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A396" s="14"/>
       <c r="B396" s="14"/>
       <c r="C396" s="13"/>
@@ -6530,7 +6631,7 @@
       <c r="G396" s="13"/>
       <c r="H396" s="14"/>
     </row>
-    <row r="397" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
       <c r="C397" s="13"/>
@@ -6540,7 +6641,7 @@
       <c r="G397" s="13"/>
       <c r="H397" s="14"/>
     </row>
-    <row r="398" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
       <c r="C398" s="13"/>
@@ -6550,7 +6651,7 @@
       <c r="G398" s="13"/>
       <c r="H398" s="14"/>
     </row>
-    <row r="399" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A399" s="14"/>
       <c r="B399" s="14"/>
       <c r="C399" s="13"/>
@@ -6560,7 +6661,7 @@
       <c r="G399" s="13"/>
       <c r="H399" s="14"/>
     </row>
-    <row r="400" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
       <c r="C400" s="13"/>
@@ -6570,7 +6671,7 @@
       <c r="G400" s="13"/>
       <c r="H400" s="14"/>
     </row>
-    <row r="401" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A401" s="14"/>
       <c r="B401" s="14"/>
       <c r="C401" s="13"/>
@@ -6580,7 +6681,7 @@
       <c r="G401" s="13"/>
       <c r="H401" s="14"/>
     </row>
-    <row r="402" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" s="13"/>
@@ -6590,7 +6691,7 @@
       <c r="G402" s="13"/>
       <c r="H402" s="14"/>
     </row>
-    <row r="403" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" s="13"/>
@@ -6600,7 +6701,7 @@
       <c r="G403" s="13"/>
       <c r="H403" s="14"/>
     </row>
-    <row r="404" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" s="13"/>
@@ -6610,7 +6711,7 @@
       <c r="G404" s="13"/>
       <c r="H404" s="14"/>
     </row>
-    <row r="405" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
       <c r="C405" s="13"/>
@@ -6620,7 +6721,7 @@
       <c r="G405" s="13"/>
       <c r="H405" s="14"/>
     </row>
-    <row r="406" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" s="13"/>
@@ -6630,7 +6731,7 @@
       <c r="G406" s="13"/>
       <c r="H406" s="14"/>
     </row>
-    <row r="407" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" s="13"/>
@@ -6640,7 +6741,7 @@
       <c r="G407" s="13"/>
       <c r="H407" s="14"/>
     </row>
-    <row r="408" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" s="13"/>
@@ -6650,7 +6751,7 @@
       <c r="G408" s="13"/>
       <c r="H408" s="14"/>
     </row>
-    <row r="409" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" s="13"/>
@@ -6660,7 +6761,7 @@
       <c r="G409" s="13"/>
       <c r="H409" s="14"/>
     </row>
-    <row r="410" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" s="13"/>
@@ -6670,7 +6771,7 @@
       <c r="G410" s="13"/>
       <c r="H410" s="14"/>
     </row>
-    <row r="411" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A411" s="14"/>
       <c r="B411" s="14"/>
       <c r="C411" s="13"/>
@@ -6680,7 +6781,7 @@
       <c r="G411" s="13"/>
       <c r="H411" s="14"/>
     </row>
-    <row r="412" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A412" s="14"/>
       <c r="B412" s="14"/>
       <c r="C412" s="13"/>
@@ -6690,7 +6791,7 @@
       <c r="G412" s="13"/>
       <c r="H412" s="14"/>
     </row>
-    <row r="413" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A413" s="14"/>
       <c r="B413" s="14"/>
       <c r="C413" s="13"/>
@@ -6700,7 +6801,7 @@
       <c r="G413" s="13"/>
       <c r="H413" s="14"/>
     </row>
-    <row r="414" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A414" s="14"/>
       <c r="B414" s="14"/>
       <c r="C414" s="13"/>
@@ -6710,7 +6811,7 @@
       <c r="G414" s="13"/>
       <c r="H414" s="14"/>
     </row>
-    <row r="415" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A415" s="14"/>
       <c r="B415" s="14"/>
       <c r="C415" s="13"/>
@@ -6720,7 +6821,7 @@
       <c r="G415" s="13"/>
       <c r="H415" s="14"/>
     </row>
-    <row r="416" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A416" s="14"/>
       <c r="B416" s="14"/>
       <c r="C416" s="13"/>
@@ -6730,7 +6831,7 @@
       <c r="G416" s="13"/>
       <c r="H416" s="14"/>
     </row>
-    <row r="417" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A417" s="14"/>
       <c r="B417" s="14"/>
       <c r="C417" s="13"/>
@@ -6740,7 +6841,7 @@
       <c r="G417" s="13"/>
       <c r="H417" s="14"/>
     </row>
-    <row r="418" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A418" s="14"/>
       <c r="B418" s="14"/>
       <c r="C418" s="13"/>
@@ -6750,7 +6851,7 @@
       <c r="G418" s="13"/>
       <c r="H418" s="14"/>
     </row>
-    <row r="419" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A419" s="14"/>
       <c r="B419" s="14"/>
       <c r="C419" s="13"/>
@@ -6760,7 +6861,7 @@
       <c r="G419" s="13"/>
       <c r="H419" s="14"/>
     </row>
-    <row r="420" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A420" s="14"/>
       <c r="B420" s="14"/>
       <c r="C420" s="13"/>
@@ -6770,7 +6871,7 @@
       <c r="G420" s="13"/>
       <c r="H420" s="14"/>
     </row>
-    <row r="421" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A421" s="14"/>
       <c r="B421" s="14"/>
       <c r="C421" s="13"/>
@@ -6780,7 +6881,7 @@
       <c r="G421" s="13"/>
       <c r="H421" s="14"/>
     </row>
-    <row r="422" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A422" s="14"/>
       <c r="B422" s="14"/>
       <c r="C422" s="13"/>
@@ -6790,7 +6891,7 @@
       <c r="G422" s="13"/>
       <c r="H422" s="14"/>
     </row>
-    <row r="423" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A423" s="14"/>
       <c r="B423" s="14"/>
       <c r="C423" s="13"/>
@@ -6800,7 +6901,7 @@
       <c r="G423" s="13"/>
       <c r="H423" s="14"/>
     </row>
-    <row r="424" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A424" s="14"/>
       <c r="B424" s="14"/>
       <c r="C424" s="13"/>
@@ -6810,7 +6911,7 @@
       <c r="G424" s="13"/>
       <c r="H424" s="14"/>
     </row>
-    <row r="425" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A425" s="14"/>
       <c r="B425" s="14"/>
       <c r="C425" s="13"/>
@@ -6820,7 +6921,7 @@
       <c r="G425" s="13"/>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
       <c r="C426" s="13"/>
@@ -6830,7 +6931,7 @@
       <c r="G426" s="13"/>
       <c r="H426" s="14"/>
     </row>
-    <row r="427" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A427" s="14"/>
       <c r="B427" s="14"/>
       <c r="C427" s="13"/>
@@ -6840,7 +6941,7 @@
       <c r="G427" s="13"/>
       <c r="H427" s="14"/>
     </row>
-    <row r="428" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
       <c r="C428" s="13"/>
@@ -6850,7 +6951,7 @@
       <c r="G428" s="13"/>
       <c r="H428" s="14"/>
     </row>
-    <row r="429" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A429" s="14"/>
       <c r="B429" s="14"/>
       <c r="C429" s="13"/>
@@ -6860,7 +6961,7 @@
       <c r="G429" s="13"/>
       <c r="H429" s="14"/>
     </row>
-    <row r="430" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A430" s="14"/>
       <c r="B430" s="14"/>
       <c r="C430" s="13"/>
@@ -6870,7 +6971,7 @@
       <c r="G430" s="13"/>
       <c r="H430" s="14"/>
     </row>
-    <row r="431" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A431" s="14"/>
       <c r="B431" s="14"/>
       <c r="C431" s="13"/>
@@ -6880,7 +6981,7 @@
       <c r="G431" s="13"/>
       <c r="H431" s="14"/>
     </row>
-    <row r="432" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A432" s="14"/>
       <c r="B432" s="14"/>
       <c r="C432" s="13"/>
@@ -6890,7 +6991,7 @@
       <c r="G432" s="13"/>
       <c r="H432" s="14"/>
     </row>
-    <row r="433" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A433" s="14"/>
       <c r="B433" s="14"/>
       <c r="C433" s="13"/>
@@ -6900,7 +7001,7 @@
       <c r="G433" s="13"/>
       <c r="H433" s="14"/>
     </row>
-    <row r="434" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="13"/>
@@ -6910,7 +7011,7 @@
       <c r="G434" s="13"/>
       <c r="H434" s="14"/>
     </row>
-    <row r="435" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A435" s="14"/>
       <c r="B435" s="14"/>
       <c r="C435" s="13"/>
@@ -6920,7 +7021,7 @@
       <c r="G435" s="13"/>
       <c r="H435" s="14"/>
     </row>
-    <row r="436" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A436" s="14"/>
       <c r="B436" s="14"/>
       <c r="C436" s="13"/>
@@ -6930,7 +7031,7 @@
       <c r="G436" s="13"/>
       <c r="H436" s="14"/>
     </row>
-    <row r="437" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A437" s="14"/>
       <c r="B437" s="14"/>
       <c r="C437" s="13"/>
@@ -6940,7 +7041,7 @@
       <c r="G437" s="13"/>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A438" s="14"/>
       <c r="B438" s="14"/>
       <c r="C438" s="13"/>
@@ -6950,7 +7051,7 @@
       <c r="G438" s="13"/>
       <c r="H438" s="14"/>
     </row>
-    <row r="439" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A439" s="14"/>
       <c r="B439" s="14"/>
       <c r="C439" s="13"/>
@@ -6960,7 +7061,7 @@
       <c r="G439" s="13"/>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A440" s="14"/>
       <c r="B440" s="14"/>
       <c r="C440" s="13"/>
@@ -6970,7 +7071,7 @@
       <c r="G440" s="13"/>
       <c r="H440" s="14"/>
     </row>
-    <row r="441" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A441" s="14"/>
       <c r="B441" s="14"/>
       <c r="C441" s="13"/>
@@ -6980,7 +7081,7 @@
       <c r="G441" s="13"/>
       <c r="H441" s="14"/>
     </row>
-    <row r="442" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A442" s="14"/>
       <c r="B442" s="14"/>
       <c r="C442" s="13"/>
@@ -6990,7 +7091,7 @@
       <c r="G442" s="13"/>
       <c r="H442" s="14"/>
     </row>
-    <row r="443" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="13"/>
@@ -7000,7 +7101,7 @@
       <c r="G443" s="13"/>
       <c r="H443" s="14"/>
     </row>
-    <row r="444" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="13"/>
@@ -7010,7 +7111,7 @@
       <c r="G444" s="13"/>
       <c r="H444" s="14"/>
     </row>
-    <row r="445" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="13"/>
@@ -7020,7 +7121,7 @@
       <c r="G445" s="13"/>
       <c r="H445" s="14"/>
     </row>
-    <row r="446" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A446" s="14"/>
       <c r="B446" s="14"/>
       <c r="C446" s="13"/>
@@ -7030,7 +7131,7 @@
       <c r="G446" s="13"/>
       <c r="H446" s="14"/>
     </row>
-    <row r="447" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A447" s="14"/>
       <c r="B447" s="14"/>
       <c r="C447" s="13"/>
@@ -7040,7 +7141,7 @@
       <c r="G447" s="13"/>
       <c r="H447" s="14"/>
     </row>
-    <row r="448" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A448" s="14"/>
       <c r="B448" s="14"/>
       <c r="C448" s="13"/>
@@ -7050,7 +7151,7 @@
       <c r="G448" s="13"/>
       <c r="H448" s="14"/>
     </row>
-    <row r="449" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A449" s="14"/>
       <c r="B449" s="14"/>
       <c r="C449" s="13"/>
@@ -7060,7 +7161,7 @@
       <c r="G449" s="13"/>
       <c r="H449" s="14"/>
     </row>
-    <row r="450" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A450" s="14"/>
       <c r="B450" s="14"/>
       <c r="C450" s="13"/>
@@ -7070,7 +7171,7 @@
       <c r="G450" s="13"/>
       <c r="H450" s="14"/>
     </row>
-    <row r="451" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A451" s="14"/>
       <c r="B451" s="14"/>
       <c r="C451" s="13"/>
@@ -7080,7 +7181,7 @@
       <c r="G451" s="13"/>
       <c r="H451" s="14"/>
     </row>
-    <row r="452" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A452" s="14"/>
       <c r="B452" s="14"/>
       <c r="C452" s="13"/>
@@ -7090,7 +7191,7 @@
       <c r="G452" s="13"/>
       <c r="H452" s="14"/>
     </row>
-    <row r="453" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A453" s="14"/>
       <c r="B453" s="14"/>
       <c r="C453" s="13"/>
@@ -7100,7 +7201,7 @@
       <c r="G453" s="13"/>
       <c r="H453" s="14"/>
     </row>
-    <row r="454" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A454" s="14"/>
       <c r="B454" s="14"/>
       <c r="C454" s="13"/>
@@ -7110,7 +7211,7 @@
       <c r="G454" s="13"/>
       <c r="H454" s="14"/>
     </row>
-    <row r="455" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A455" s="14"/>
       <c r="B455" s="14"/>
       <c r="C455" s="13"/>
@@ -7120,7 +7221,7 @@
       <c r="G455" s="13"/>
       <c r="H455" s="14"/>
     </row>
-    <row r="456" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A456" s="14"/>
       <c r="B456" s="14"/>
       <c r="C456" s="13"/>
@@ -7130,7 +7231,7 @@
       <c r="G456" s="13"/>
       <c r="H456" s="14"/>
     </row>
-    <row r="457" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
       <c r="C457" s="13"/>
@@ -7140,7 +7241,7 @@
       <c r="G457" s="13"/>
       <c r="H457" s="14"/>
     </row>
-    <row r="458" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
       <c r="C458" s="13"/>
@@ -7150,7 +7251,7 @@
       <c r="G458" s="13"/>
       <c r="H458" s="14"/>
     </row>
-    <row r="459" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A459" s="14"/>
       <c r="B459" s="14"/>
       <c r="C459" s="13"/>
@@ -7160,7 +7261,7 @@
       <c r="G459" s="13"/>
       <c r="H459" s="14"/>
     </row>
-    <row r="460" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A460" s="14"/>
       <c r="B460" s="14"/>
       <c r="C460" s="13"/>
@@ -7170,7 +7271,7 @@
       <c r="G460" s="13"/>
       <c r="H460" s="14"/>
     </row>
-    <row r="461" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
       <c r="C461" s="13"/>
@@ -7180,7 +7281,7 @@
       <c r="G461" s="13"/>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A462" s="14"/>
       <c r="B462" s="14"/>
       <c r="C462" s="13"/>
@@ -7190,7 +7291,7 @@
       <c r="G462" s="13"/>
       <c r="H462" s="14"/>
     </row>
-    <row r="463" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A463" s="14"/>
       <c r="B463" s="14"/>
       <c r="C463" s="13"/>
@@ -7200,7 +7301,7 @@
       <c r="G463" s="13"/>
       <c r="H463" s="14"/>
     </row>
-    <row r="464" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A464" s="14"/>
       <c r="B464" s="14"/>
       <c r="C464" s="13"/>
@@ -7210,7 +7311,7 @@
       <c r="G464" s="13"/>
       <c r="H464" s="14"/>
     </row>
-    <row r="465" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A465" s="14"/>
       <c r="B465" s="14"/>
       <c r="C465" s="13"/>
@@ -7220,7 +7321,7 @@
       <c r="G465" s="13"/>
       <c r="H465" s="14"/>
     </row>
-    <row r="466" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A466" s="14"/>
       <c r="B466" s="14"/>
       <c r="C466" s="13"/>
@@ -7230,7 +7331,7 @@
       <c r="G466" s="13"/>
       <c r="H466" s="14"/>
     </row>
-    <row r="467" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A467" s="14"/>
       <c r="B467" s="14"/>
       <c r="C467" s="13"/>
@@ -7240,7 +7341,7 @@
       <c r="G467" s="13"/>
       <c r="H467" s="14"/>
     </row>
-    <row r="468" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A468" s="14"/>
       <c r="B468" s="14"/>
       <c r="C468" s="13"/>
@@ -7250,7 +7351,7 @@
       <c r="G468" s="13"/>
       <c r="H468" s="14"/>
     </row>
-    <row r="469" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A469" s="14"/>
       <c r="B469" s="14"/>
       <c r="C469" s="13"/>
@@ -7260,7 +7361,7 @@
       <c r="G469" s="13"/>
       <c r="H469" s="14"/>
     </row>
-    <row r="470" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A470" s="14"/>
       <c r="B470" s="14"/>
       <c r="C470" s="13"/>
@@ -7270,7 +7371,7 @@
       <c r="G470" s="13"/>
       <c r="H470" s="14"/>
     </row>
-    <row r="471" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A471" s="14"/>
       <c r="B471" s="14"/>
       <c r="C471" s="13"/>
@@ -7280,7 +7381,7 @@
       <c r="G471" s="13"/>
       <c r="H471" s="14"/>
     </row>
-    <row r="472" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="14"/>
       <c r="B472" s="14"/>
       <c r="C472" s="13"/>
@@ -7290,7 +7391,7 @@
       <c r="G472" s="13"/>
       <c r="H472" s="14"/>
     </row>
-    <row r="473" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A473" s="14"/>
       <c r="B473" s="14"/>
       <c r="C473" s="13"/>
@@ -7300,7 +7401,7 @@
       <c r="G473" s="13"/>
       <c r="H473" s="14"/>
     </row>
-    <row r="474" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A474" s="14"/>
       <c r="B474" s="14"/>
       <c r="C474" s="13"/>
@@ -7310,7 +7411,7 @@
       <c r="G474" s="13"/>
       <c r="H474" s="14"/>
     </row>
-    <row r="475" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A475" s="14"/>
       <c r="B475" s="14"/>
       <c r="C475" s="13"/>
@@ -7320,7 +7421,7 @@
       <c r="G475" s="13"/>
       <c r="H475" s="14"/>
     </row>
-    <row r="476" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A476" s="14"/>
       <c r="B476" s="14"/>
       <c r="C476" s="13"/>
@@ -7330,7 +7431,7 @@
       <c r="G476" s="13"/>
       <c r="H476" s="14"/>
     </row>
-    <row r="477" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A477" s="14"/>
       <c r="B477" s="14"/>
       <c r="C477" s="13"/>
@@ -7340,7 +7441,7 @@
       <c r="G477" s="13"/>
       <c r="H477" s="14"/>
     </row>
-    <row r="478" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A478" s="14"/>
       <c r="B478" s="14"/>
       <c r="C478" s="13"/>
@@ -7350,7 +7451,7 @@
       <c r="G478" s="13"/>
       <c r="H478" s="14"/>
     </row>
-    <row r="479" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A479" s="14"/>
       <c r="B479" s="14"/>
       <c r="C479" s="13"/>
@@ -7360,7 +7461,7 @@
       <c r="G479" s="13"/>
       <c r="H479" s="14"/>
     </row>
-    <row r="480" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A480" s="14"/>
       <c r="B480" s="14"/>
       <c r="C480" s="13"/>
@@ -7370,7 +7471,7 @@
       <c r="G480" s="13"/>
       <c r="H480" s="14"/>
     </row>
-    <row r="481" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A481" s="14"/>
       <c r="B481" s="14"/>
       <c r="C481" s="13"/>
@@ -7380,7 +7481,7 @@
       <c r="G481" s="13"/>
       <c r="H481" s="14"/>
     </row>
-    <row r="482" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A482" s="14"/>
       <c r="B482" s="14"/>
       <c r="C482" s="13"/>
@@ -7390,7 +7491,7 @@
       <c r="G482" s="13"/>
       <c r="H482" s="14"/>
     </row>
-    <row r="483" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A483" s="14"/>
       <c r="B483" s="14"/>
       <c r="C483" s="13"/>
@@ -7400,7 +7501,7 @@
       <c r="G483" s="13"/>
       <c r="H483" s="14"/>
     </row>
-    <row r="484" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A484" s="14"/>
       <c r="B484" s="14"/>
       <c r="C484" s="13"/>
@@ -7410,7 +7511,7 @@
       <c r="G484" s="13"/>
       <c r="H484" s="14"/>
     </row>
-    <row r="485" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A485" s="14"/>
       <c r="B485" s="14"/>
       <c r="C485" s="13"/>
@@ -7420,7 +7521,7 @@
       <c r="G485" s="13"/>
       <c r="H485" s="14"/>
     </row>
-    <row r="486" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A486" s="14"/>
       <c r="B486" s="14"/>
       <c r="C486" s="13"/>
@@ -7430,7 +7531,7 @@
       <c r="G486" s="13"/>
       <c r="H486" s="14"/>
     </row>
-    <row r="487" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A487" s="14"/>
       <c r="B487" s="14"/>
       <c r="C487" s="13"/>
@@ -7440,7 +7541,7 @@
       <c r="G487" s="13"/>
       <c r="H487" s="14"/>
     </row>
-    <row r="488" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A488" s="14"/>
       <c r="B488" s="14"/>
       <c r="C488" s="13"/>
@@ -7450,7 +7551,7 @@
       <c r="G488" s="13"/>
       <c r="H488" s="14"/>
     </row>
-    <row r="489" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A489" s="14"/>
       <c r="B489" s="14"/>
       <c r="C489" s="13"/>
@@ -7460,7 +7561,7 @@
       <c r="G489" s="13"/>
       <c r="H489" s="14"/>
     </row>
-    <row r="490" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A490" s="14"/>
       <c r="B490" s="14"/>
       <c r="C490" s="13"/>
@@ -7470,7 +7571,7 @@
       <c r="G490" s="13"/>
       <c r="H490" s="14"/>
     </row>
-    <row r="491" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A491" s="14"/>
       <c r="B491" s="14"/>
       <c r="C491" s="13"/>
@@ -7480,7 +7581,7 @@
       <c r="G491" s="13"/>
       <c r="H491" s="14"/>
     </row>
-    <row r="492" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A492" s="14"/>
       <c r="B492" s="14"/>
       <c r="C492" s="13"/>
@@ -7490,7 +7591,7 @@
       <c r="G492" s="13"/>
       <c r="H492" s="14"/>
     </row>
-    <row r="493" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A493" s="14"/>
       <c r="B493" s="14"/>
       <c r="C493" s="13"/>
@@ -7500,7 +7601,7 @@
       <c r="G493" s="13"/>
       <c r="H493" s="14"/>
     </row>
-    <row r="494" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A494" s="14"/>
       <c r="B494" s="14"/>
       <c r="C494" s="13"/>
@@ -7510,7 +7611,7 @@
       <c r="G494" s="13"/>
       <c r="H494" s="14"/>
     </row>
-    <row r="495" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A495" s="14"/>
       <c r="B495" s="14"/>
       <c r="C495" s="13"/>
@@ -7520,7 +7621,7 @@
       <c r="G495" s="13"/>
       <c r="H495" s="14"/>
     </row>
-    <row r="496" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A496" s="14"/>
       <c r="B496" s="14"/>
       <c r="C496" s="13"/>
@@ -7530,7 +7631,7 @@
       <c r="G496" s="13"/>
       <c r="H496" s="14"/>
     </row>
-    <row r="497" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A497" s="14"/>
       <c r="B497" s="14"/>
       <c r="C497" s="13"/>
@@ -7540,7 +7641,7 @@
       <c r="G497" s="13"/>
       <c r="H497" s="14"/>
     </row>
-    <row r="498" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A498" s="14"/>
       <c r="B498" s="14"/>
       <c r="C498" s="13"/>
@@ -7550,7 +7651,7 @@
       <c r="G498" s="13"/>
       <c r="H498" s="14"/>
     </row>
-    <row r="499" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A499" s="14"/>
       <c r="B499" s="14"/>
       <c r="C499" s="13"/>
@@ -7560,7 +7661,7 @@
       <c r="G499" s="13"/>
       <c r="H499" s="14"/>
     </row>
-    <row r="500" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A500" s="14"/>
       <c r="B500" s="14"/>
       <c r="C500" s="13"/>
@@ -7570,7 +7671,7 @@
       <c r="G500" s="13"/>
       <c r="H500" s="14"/>
     </row>
-    <row r="501" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A501" s="14"/>
       <c r="B501" s="14"/>
       <c r="C501" s="13"/>
@@ -7580,7 +7681,7 @@
       <c r="G501" s="13"/>
       <c r="H501" s="14"/>
     </row>
-    <row r="502" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A502" s="14"/>
       <c r="B502" s="14"/>
       <c r="C502" s="13"/>
@@ -7590,7 +7691,7 @@
       <c r="G502" s="13"/>
       <c r="H502" s="14"/>
     </row>
-    <row r="503" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A503" s="14"/>
       <c r="B503" s="14"/>
       <c r="C503" s="13"/>
@@ -7600,7 +7701,7 @@
       <c r="G503" s="13"/>
       <c r="H503" s="14"/>
     </row>
-    <row r="504" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A504" s="14"/>
       <c r="B504" s="14"/>
       <c r="C504" s="13"/>
@@ -7610,7 +7711,7 @@
       <c r="G504" s="13"/>
       <c r="H504" s="14"/>
     </row>
-    <row r="505" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A505" s="14"/>
       <c r="B505" s="14"/>
       <c r="C505" s="13"/>
@@ -7620,7 +7721,7 @@
       <c r="G505" s="13"/>
       <c r="H505" s="14"/>
     </row>
-    <row r="506" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A506" s="14"/>
       <c r="B506" s="14"/>
       <c r="C506" s="13"/>
@@ -7630,7 +7731,7 @@
       <c r="G506" s="13"/>
       <c r="H506" s="14"/>
     </row>
-    <row r="507" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A507" s="14"/>
       <c r="B507" s="14"/>
       <c r="C507" s="13"/>
@@ -7640,7 +7741,7 @@
       <c r="G507" s="13"/>
       <c r="H507" s="14"/>
     </row>
-    <row r="508" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A508" s="14"/>
       <c r="B508" s="14"/>
       <c r="C508" s="13"/>
@@ -7650,7 +7751,7 @@
       <c r="G508" s="13"/>
       <c r="H508" s="14"/>
     </row>
-    <row r="509" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A509" s="14"/>
       <c r="B509" s="14"/>
       <c r="C509" s="13"/>
@@ -7660,7 +7761,7 @@
       <c r="G509" s="13"/>
       <c r="H509" s="14"/>
     </row>
-    <row r="510" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A510" s="14"/>
       <c r="B510" s="14"/>
       <c r="C510" s="13"/>
@@ -7670,7 +7771,7 @@
       <c r="G510" s="13"/>
       <c r="H510" s="14"/>
     </row>
-    <row r="511" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A511" s="14"/>
       <c r="B511" s="14"/>
       <c r="C511" s="13"/>
@@ -7680,7 +7781,7 @@
       <c r="G511" s="13"/>
       <c r="H511" s="14"/>
     </row>
-    <row r="512" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A512" s="14"/>
       <c r="B512" s="14"/>
       <c r="C512" s="13"/>
@@ -7690,7 +7791,7 @@
       <c r="G512" s="13"/>
       <c r="H512" s="14"/>
     </row>
-    <row r="513" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A513" s="14"/>
       <c r="B513" s="14"/>
       <c r="C513" s="13"/>
@@ -7700,7 +7801,7 @@
       <c r="G513" s="13"/>
       <c r="H513" s="14"/>
     </row>
-    <row r="514" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A514" s="14"/>
       <c r="B514" s="14"/>
       <c r="C514" s="13"/>
@@ -7710,7 +7811,7 @@
       <c r="G514" s="13"/>
       <c r="H514" s="14"/>
     </row>
-    <row r="515" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A515" s="14"/>
       <c r="B515" s="14"/>
       <c r="C515" s="13"/>
@@ -7720,7 +7821,7 @@
       <c r="G515" s="13"/>
       <c r="H515" s="14"/>
     </row>
-    <row r="516" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A516" s="14"/>
       <c r="B516" s="14"/>
       <c r="C516" s="13"/>
@@ -7730,7 +7831,7 @@
       <c r="G516" s="13"/>
       <c r="H516" s="14"/>
     </row>
-    <row r="517" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A517" s="14"/>
       <c r="B517" s="14"/>
       <c r="C517" s="13"/>
@@ -7740,7 +7841,7 @@
       <c r="G517" s="13"/>
       <c r="H517" s="14"/>
     </row>
-    <row r="518" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A518" s="14"/>
       <c r="B518" s="14"/>
       <c r="C518" s="13"/>
@@ -7750,7 +7851,7 @@
       <c r="G518" s="13"/>
       <c r="H518" s="14"/>
     </row>
-    <row r="519" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A519" s="14"/>
       <c r="B519" s="14"/>
       <c r="C519" s="13"/>
@@ -7760,7 +7861,7 @@
       <c r="G519" s="13"/>
       <c r="H519" s="14"/>
     </row>
-    <row r="520" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A520" s="14"/>
       <c r="B520" s="14"/>
       <c r="C520" s="13"/>
@@ -7770,7 +7871,7 @@
       <c r="G520" s="13"/>
       <c r="H520" s="14"/>
     </row>
-    <row r="521" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A521" s="14"/>
       <c r="B521" s="14"/>
       <c r="C521" s="13"/>
@@ -7780,7 +7881,7 @@
       <c r="G521" s="13"/>
       <c r="H521" s="14"/>
     </row>
-    <row r="522" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A522" s="14"/>
       <c r="B522" s="14"/>
       <c r="C522" s="13"/>
@@ -7790,7 +7891,7 @@
       <c r="G522" s="13"/>
       <c r="H522" s="14"/>
     </row>
-    <row r="523" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A523" s="14"/>
       <c r="B523" s="14"/>
       <c r="C523" s="13"/>
@@ -7800,7 +7901,7 @@
       <c r="G523" s="13"/>
       <c r="H523" s="14"/>
     </row>
-    <row r="524" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A524" s="14"/>
       <c r="B524" s="14"/>
       <c r="C524" s="13"/>
@@ -7810,7 +7911,7 @@
       <c r="G524" s="13"/>
       <c r="H524" s="14"/>
     </row>
-    <row r="525" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A525" s="14"/>
       <c r="B525" s="14"/>
       <c r="C525" s="13"/>
@@ -7820,7 +7921,7 @@
       <c r="G525" s="13"/>
       <c r="H525" s="14"/>
     </row>
-    <row r="526" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A526" s="14"/>
       <c r="B526" s="14"/>
       <c r="C526" s="13"/>
@@ -7830,7 +7931,7 @@
       <c r="G526" s="13"/>
       <c r="H526" s="14"/>
     </row>
-    <row r="527" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A527" s="14"/>
       <c r="B527" s="14"/>
       <c r="C527" s="13"/>
@@ -7840,7 +7941,7 @@
       <c r="G527" s="13"/>
       <c r="H527" s="14"/>
     </row>
-    <row r="528" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A528" s="14"/>
       <c r="B528" s="14"/>
       <c r="C528" s="13"/>
@@ -7850,7 +7951,7 @@
       <c r="G528" s="13"/>
       <c r="H528" s="14"/>
     </row>
-    <row r="529" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A529" s="14"/>
       <c r="B529" s="14"/>
       <c r="C529" s="13"/>
@@ -7860,7 +7961,7 @@
       <c r="G529" s="13"/>
       <c r="H529" s="14"/>
     </row>
-    <row r="530" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A530" s="14"/>
       <c r="B530" s="14"/>
       <c r="C530" s="13"/>
@@ -7870,7 +7971,7 @@
       <c r="G530" s="13"/>
       <c r="H530" s="14"/>
     </row>
-    <row r="531" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A531" s="14"/>
       <c r="B531" s="14"/>
       <c r="C531" s="13"/>
@@ -7880,7 +7981,7 @@
       <c r="G531" s="13"/>
       <c r="H531" s="14"/>
     </row>
-    <row r="532" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A532" s="14"/>
       <c r="B532" s="14"/>
       <c r="C532" s="13"/>
@@ -7890,7 +7991,7 @@
       <c r="G532" s="13"/>
       <c r="H532" s="14"/>
     </row>
-    <row r="533" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A533" s="14"/>
       <c r="B533" s="14"/>
       <c r="C533" s="13"/>
@@ -7900,7 +8001,7 @@
       <c r="G533" s="13"/>
       <c r="H533" s="14"/>
     </row>
-    <row r="534" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A534" s="14"/>
       <c r="B534" s="14"/>
       <c r="C534" s="13"/>
@@ -7910,7 +8011,7 @@
       <c r="G534" s="13"/>
       <c r="H534" s="14"/>
     </row>
-    <row r="535" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A535" s="14"/>
       <c r="B535" s="14"/>
       <c r="C535" s="13"/>
@@ -7920,7 +8021,7 @@
       <c r="G535" s="13"/>
       <c r="H535" s="14"/>
     </row>
-    <row r="536" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A536" s="14"/>
       <c r="B536" s="14"/>
       <c r="C536" s="13"/>
@@ -7930,7 +8031,7 @@
       <c r="G536" s="13"/>
       <c r="H536" s="14"/>
     </row>
-    <row r="537" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A537" s="14"/>
       <c r="B537" s="14"/>
       <c r="C537" s="13"/>
@@ -7940,7 +8041,7 @@
       <c r="G537" s="13"/>
       <c r="H537" s="14"/>
     </row>
-    <row r="538" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A538" s="14"/>
       <c r="B538" s="14"/>
       <c r="C538" s="13"/>
@@ -7950,7 +8051,7 @@
       <c r="G538" s="13"/>
       <c r="H538" s="14"/>
     </row>
-    <row r="539" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A539" s="14"/>
       <c r="B539" s="14"/>
       <c r="C539" s="13"/>
@@ -7960,7 +8061,7 @@
       <c r="G539" s="13"/>
       <c r="H539" s="14"/>
     </row>
-    <row r="540" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="C540" s="13"/>
@@ -7970,7 +8071,7 @@
       <c r="G540" s="13"/>
       <c r="H540" s="14"/>
     </row>
-    <row r="541" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A541" s="14"/>
       <c r="B541" s="14"/>
       <c r="C541" s="13"/>
@@ -7980,7 +8081,7 @@
       <c r="G541" s="13"/>
       <c r="H541" s="14"/>
     </row>
-    <row r="542" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A542" s="14"/>
       <c r="B542" s="14"/>
       <c r="C542" s="13"/>
@@ -7990,7 +8091,7 @@
       <c r="G542" s="13"/>
       <c r="H542" s="14"/>
     </row>
-    <row r="543" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A543" s="14"/>
       <c r="B543" s="14"/>
       <c r="C543" s="13"/>
@@ -8000,7 +8101,7 @@
       <c r="G543" s="13"/>
       <c r="H543" s="14"/>
     </row>
-    <row r="544" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A544" s="14"/>
       <c r="B544" s="14"/>
       <c r="C544" s="13"/>
@@ -8010,7 +8111,7 @@
       <c r="G544" s="13"/>
       <c r="H544" s="14"/>
     </row>
-    <row r="545" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A545" s="14"/>
       <c r="B545" s="14"/>
       <c r="C545" s="13"/>
@@ -8020,7 +8121,7 @@
       <c r="G545" s="13"/>
       <c r="H545" s="14"/>
     </row>
-    <row r="546" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A546" s="14"/>
       <c r="B546" s="14"/>
       <c r="C546" s="13"/>
@@ -8030,7 +8131,7 @@
       <c r="G546" s="13"/>
       <c r="H546" s="14"/>
     </row>
-    <row r="547" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A547" s="14"/>
       <c r="B547" s="14"/>
       <c r="C547" s="13"/>
@@ -8040,7 +8141,7 @@
       <c r="G547" s="13"/>
       <c r="H547" s="14"/>
     </row>
-    <row r="548" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A548" s="14"/>
       <c r="B548" s="14"/>
       <c r="C548" s="13"/>
@@ -8050,7 +8151,7 @@
       <c r="G548" s="13"/>
       <c r="H548" s="14"/>
     </row>
-    <row r="549" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A549" s="14"/>
       <c r="B549" s="14"/>
       <c r="C549" s="13"/>
@@ -8060,7 +8161,7 @@
       <c r="G549" s="13"/>
       <c r="H549" s="14"/>
     </row>
-    <row r="550" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A550" s="14"/>
       <c r="B550" s="14"/>
       <c r="C550" s="13"/>
@@ -8070,7 +8171,7 @@
       <c r="G550" s="13"/>
       <c r="H550" s="14"/>
     </row>
-    <row r="551" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A551" s="14"/>
       <c r="B551" s="14"/>
       <c r="C551" s="13"/>
@@ -8080,7 +8181,7 @@
       <c r="G551" s="13"/>
       <c r="H551" s="14"/>
     </row>
-    <row r="552" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A552" s="14"/>
       <c r="B552" s="14"/>
       <c r="C552" s="13"/>
@@ -8090,7 +8191,7 @@
       <c r="G552" s="13"/>
       <c r="H552" s="14"/>
     </row>
-    <row r="553" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A553" s="14"/>
       <c r="B553" s="14"/>
       <c r="C553" s="13"/>
@@ -8100,7 +8201,7 @@
       <c r="G553" s="13"/>
       <c r="H553" s="14"/>
     </row>
-    <row r="554" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A554" s="14"/>
       <c r="B554" s="14"/>
       <c r="C554" s="13"/>
@@ -8110,7 +8211,7 @@
       <c r="G554" s="13"/>
       <c r="H554" s="14"/>
     </row>
-    <row r="555" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A555" s="14"/>
       <c r="B555" s="14"/>
       <c r="C555" s="13"/>
@@ -8120,7 +8221,7 @@
       <c r="G555" s="13"/>
       <c r="H555" s="14"/>
     </row>
-    <row r="556" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A556" s="14"/>
       <c r="B556" s="14"/>
       <c r="C556" s="13"/>
@@ -8130,7 +8231,7 @@
       <c r="G556" s="13"/>
       <c r="H556" s="14"/>
     </row>
-    <row r="557" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A557" s="14"/>
       <c r="B557" s="14"/>
       <c r="C557" s="13"/>
@@ -8140,7 +8241,7 @@
       <c r="G557" s="13"/>
       <c r="H557" s="14"/>
     </row>
-    <row r="558" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A558" s="14"/>
       <c r="B558" s="14"/>
       <c r="C558" s="13"/>
@@ -8150,7 +8251,7 @@
       <c r="G558" s="13"/>
       <c r="H558" s="14"/>
     </row>
-    <row r="559" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A559" s="14"/>
       <c r="B559" s="14"/>
       <c r="C559" s="13"/>
@@ -8160,7 +8261,7 @@
       <c r="G559" s="13"/>
       <c r="H559" s="14"/>
     </row>
-    <row r="560" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A560" s="14"/>
       <c r="B560" s="14"/>
       <c r="C560" s="13"/>
@@ -8170,7 +8271,7 @@
       <c r="G560" s="13"/>
       <c r="H560" s="14"/>
     </row>
-    <row r="561" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A561" s="14"/>
       <c r="B561" s="14"/>
       <c r="C561" s="13"/>
@@ -8180,7 +8281,7 @@
       <c r="G561" s="13"/>
       <c r="H561" s="14"/>
     </row>
-    <row r="562" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A562" s="14"/>
       <c r="B562" s="14"/>
       <c r="C562" s="13"/>
@@ -8190,7 +8291,7 @@
       <c r="G562" s="13"/>
       <c r="H562" s="14"/>
     </row>
-    <row r="563" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A563" s="14"/>
       <c r="B563" s="14"/>
       <c r="C563" s="13"/>
@@ -8200,7 +8301,7 @@
       <c r="G563" s="13"/>
       <c r="H563" s="14"/>
     </row>
-    <row r="564" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A564" s="14"/>
       <c r="B564" s="14"/>
       <c r="C564" s="13"/>
@@ -8210,7 +8311,7 @@
       <c r="G564" s="13"/>
       <c r="H564" s="14"/>
     </row>
-    <row r="565" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A565" s="14"/>
       <c r="B565" s="14"/>
       <c r="C565" s="13"/>
@@ -8220,7 +8321,7 @@
       <c r="G565" s="13"/>
       <c r="H565" s="14"/>
     </row>
-    <row r="566" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A566" s="14"/>
       <c r="B566" s="14"/>
       <c r="C566" s="13"/>
@@ -8230,7 +8331,7 @@
       <c r="G566" s="13"/>
       <c r="H566" s="14"/>
     </row>
-    <row r="567" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A567" s="14"/>
       <c r="B567" s="14"/>
       <c r="C567" s="13"/>
@@ -8240,7 +8341,7 @@
       <c r="G567" s="13"/>
       <c r="H567" s="14"/>
     </row>
-    <row r="568" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A568" s="14"/>
       <c r="B568" s="14"/>
       <c r="C568" s="13"/>
@@ -8250,7 +8351,7 @@
       <c r="G568" s="13"/>
       <c r="H568" s="14"/>
     </row>
-    <row r="569" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A569" s="14"/>
       <c r="B569" s="14"/>
       <c r="C569" s="13"/>
@@ -8260,7 +8361,7 @@
       <c r="G569" s="13"/>
       <c r="H569" s="14"/>
     </row>
-    <row r="570" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A570" s="14"/>
       <c r="B570" s="14"/>
       <c r="C570" s="13"/>
@@ -8270,7 +8371,7 @@
       <c r="G570" s="13"/>
       <c r="H570" s="14"/>
     </row>
-    <row r="571" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A571" s="14"/>
       <c r="B571" s="14"/>
       <c r="C571" s="13"/>
@@ -8280,7 +8381,7 @@
       <c r="G571" s="13"/>
       <c r="H571" s="14"/>
     </row>
-    <row r="572" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A572" s="14"/>
       <c r="B572" s="14"/>
       <c r="C572" s="13"/>
@@ -8290,7 +8391,7 @@
       <c r="G572" s="13"/>
       <c r="H572" s="14"/>
     </row>
-    <row r="573" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A573" s="14"/>
       <c r="B573" s="14"/>
       <c r="C573" s="13"/>
@@ -8300,7 +8401,7 @@
       <c r="G573" s="13"/>
       <c r="H573" s="14"/>
     </row>
-    <row r="574" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A574" s="14"/>
       <c r="B574" s="14"/>
       <c r="C574" s="13"/>
@@ -8310,7 +8411,7 @@
       <c r="G574" s="13"/>
       <c r="H574" s="14"/>
     </row>
-    <row r="575" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A575" s="14"/>
       <c r="B575" s="14"/>
       <c r="C575" s="13"/>
@@ -8320,7 +8421,7 @@
       <c r="G575" s="13"/>
       <c r="H575" s="14"/>
     </row>
-    <row r="576" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A576" s="14"/>
       <c r="B576" s="14"/>
       <c r="C576" s="13"/>
@@ -8330,7 +8431,7 @@
       <c r="G576" s="13"/>
       <c r="H576" s="14"/>
     </row>
-    <row r="577" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A577" s="14"/>
       <c r="B577" s="14"/>
       <c r="C577" s="13"/>
@@ -8340,7 +8441,7 @@
       <c r="G577" s="13"/>
       <c r="H577" s="14"/>
     </row>
-    <row r="578" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A578" s="14"/>
       <c r="B578" s="14"/>
       <c r="C578" s="13"/>
@@ -8350,7 +8451,7 @@
       <c r="G578" s="13"/>
       <c r="H578" s="14"/>
     </row>
-    <row r="579" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A579" s="14"/>
       <c r="B579" s="14"/>
       <c r="C579" s="13"/>
@@ -8360,7 +8461,7 @@
       <c r="G579" s="13"/>
       <c r="H579" s="14"/>
     </row>
-    <row r="580" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A580" s="14"/>
       <c r="B580" s="14"/>
       <c r="C580" s="13"/>
@@ -8370,7 +8471,7 @@
       <c r="G580" s="13"/>
       <c r="H580" s="14"/>
     </row>
-    <row r="581" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A581" s="14"/>
       <c r="B581" s="14"/>
       <c r="C581" s="13"/>
@@ -8380,7 +8481,7 @@
       <c r="G581" s="13"/>
       <c r="H581" s="14"/>
     </row>
-    <row r="582" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A582" s="14"/>
       <c r="B582" s="14"/>
       <c r="C582" s="13"/>
@@ -8390,7 +8491,7 @@
       <c r="G582" s="13"/>
       <c r="H582" s="14"/>
     </row>
-    <row r="583" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A583" s="14"/>
       <c r="B583" s="14"/>
       <c r="C583" s="13"/>
@@ -8400,7 +8501,7 @@
       <c r="G583" s="13"/>
       <c r="H583" s="14"/>
     </row>
-    <row r="584" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A584" s="14"/>
       <c r="B584" s="14"/>
       <c r="C584" s="13"/>
@@ -8410,7 +8511,7 @@
       <c r="G584" s="13"/>
       <c r="H584" s="14"/>
     </row>
-    <row r="585" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A585" s="14"/>
       <c r="B585" s="14"/>
       <c r="C585" s="13"/>
@@ -8420,7 +8521,7 @@
       <c r="G585" s="13"/>
       <c r="H585" s="14"/>
     </row>
-    <row r="586" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A586" s="14"/>
       <c r="B586" s="14"/>
       <c r="C586" s="13"/>
@@ -8430,7 +8531,7 @@
       <c r="G586" s="13"/>
       <c r="H586" s="14"/>
     </row>
-    <row r="587" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A587" s="14"/>
       <c r="B587" s="14"/>
       <c r="C587" s="13"/>
@@ -8440,7 +8541,7 @@
       <c r="G587" s="13"/>
       <c r="H587" s="14"/>
     </row>
-    <row r="588" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A588" s="14"/>
       <c r="B588" s="14"/>
       <c r="C588" s="13"/>
@@ -8450,7 +8551,7 @@
       <c r="G588" s="13"/>
       <c r="H588" s="14"/>
     </row>
-    <row r="589" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A589" s="14"/>
       <c r="B589" s="14"/>
       <c r="C589" s="13"/>
@@ -8460,7 +8561,7 @@
       <c r="G589" s="13"/>
       <c r="H589" s="14"/>
     </row>
-    <row r="590" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A590" s="14"/>
       <c r="B590" s="14"/>
       <c r="C590" s="13"/>
@@ -8470,7 +8571,7 @@
       <c r="G590" s="13"/>
       <c r="H590" s="14"/>
     </row>
-    <row r="591" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A591" s="14"/>
       <c r="B591" s="14"/>
       <c r="C591" s="13"/>
@@ -8480,7 +8581,7 @@
       <c r="G591" s="13"/>
       <c r="H591" s="14"/>
     </row>
-    <row r="592" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A592" s="14"/>
       <c r="B592" s="14"/>
       <c r="C592" s="13"/>
@@ -8490,7 +8591,7 @@
       <c r="G592" s="13"/>
       <c r="H592" s="14"/>
     </row>
-    <row r="593" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A593" s="14"/>
       <c r="B593" s="14"/>
       <c r="C593" s="13"/>
@@ -8500,7 +8601,7 @@
       <c r="G593" s="13"/>
       <c r="H593" s="14"/>
     </row>
-    <row r="594" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A594" s="14"/>
       <c r="B594" s="14"/>
       <c r="C594" s="13"/>
@@ -8510,7 +8611,7 @@
       <c r="G594" s="13"/>
       <c r="H594" s="14"/>
     </row>
-    <row r="595" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A595" s="14"/>
       <c r="B595" s="14"/>
       <c r="C595" s="13"/>
@@ -8520,7 +8621,7 @@
       <c r="G595" s="13"/>
       <c r="H595" s="14"/>
     </row>
-    <row r="596" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A596" s="14"/>
       <c r="B596" s="14"/>
       <c r="C596" s="13"/>
@@ -8530,7 +8631,7 @@
       <c r="G596" s="13"/>
       <c r="H596" s="14"/>
     </row>
-    <row r="597" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A597" s="14"/>
       <c r="B597" s="14"/>
       <c r="C597" s="13"/>
@@ -8540,7 +8641,7 @@
       <c r="G597" s="13"/>
       <c r="H597" s="14"/>
     </row>
-    <row r="598" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A598" s="14"/>
       <c r="B598" s="14"/>
       <c r="C598" s="13"/>
@@ -8550,7 +8651,7 @@
       <c r="G598" s="13"/>
       <c r="H598" s="14"/>
     </row>
-    <row r="599" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A599" s="14"/>
       <c r="B599" s="14"/>
       <c r="C599" s="13"/>
@@ -8560,7 +8661,7 @@
       <c r="G599" s="13"/>
       <c r="H599" s="14"/>
     </row>
-    <row r="600" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A600" s="14"/>
       <c r="B600" s="14"/>
       <c r="C600" s="13"/>
@@ -8570,7 +8671,7 @@
       <c r="G600" s="13"/>
       <c r="H600" s="14"/>
     </row>
-    <row r="601" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A601" s="14"/>
       <c r="B601" s="14"/>
       <c r="C601" s="13"/>
@@ -8580,7 +8681,7 @@
       <c r="G601" s="13"/>
       <c r="H601" s="14"/>
     </row>
-    <row r="602" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A602" s="14"/>
       <c r="B602" s="14"/>
       <c r="C602" s="13"/>
@@ -8590,8 +8691,44 @@
       <c r="G602" s="13"/>
       <c r="H602" s="14"/>
     </row>
+    <row r="603" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B603" s="14"/>
+    </row>
+    <row r="604" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B604" s="14"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G602 E2:E602 C2:C602">
+  <mergeCells count="28">
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A64"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:G59 E2:E59 C2:C59 C61 C63 C65 C67 C69:C602 E61 E63 E65 E67 E69:E602 G61 G63 G65 G67 G69:G602">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -8600,7 +8737,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E602 G2:G602 C2:C602" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C602 E69:E602 C2:C59 C61 C63 C65 C67 E2:E59 E61 E63 E65 E67 G2:G59 G61 G63 G65 G67 G69:G602" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/Acceptance_Test_Plan.xlsx
+++ b/etc/Acceptance_Test_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girls Who Code\IdeaProjects\team-project-2195-swen-261-08-c-hess\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83872749-47C4-448F-9E34-9433B9588EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC701E7-DEA1-49CA-810B-0DF3FE5EA740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,12 @@
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="132">
   <si>
     <t>Instructions</t>
   </si>
@@ -418,12 +416,27 @@
   <si>
     <t>Given that a player wins/loses a game when the page refreshes then I expect to be redirected to the home screen.</t>
   </si>
+  <si>
+    <t>ED; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>WH; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>RM; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>NL; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>MW; 4/12/2020; PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -726,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,9 +786,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -790,9 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -846,20 +853,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -867,23 +874,45 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2096,14 +2125,14 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="106.875" style="1" customWidth="1"/>
     <col min="3" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="220.5" customHeight="1">
+    <row r="1" spans="1:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2114,14 +2143,14 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2161,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2143,42 +2172,42 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2196,13 +2225,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV604"/>
+  <dimension ref="A1:IV1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="54" workbookViewId="0">
-      <selection activeCell="A64" sqref="A59:A64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="54" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65:H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="30" style="8" customWidth="1"/>
     <col min="2" max="2" width="60" style="8" customWidth="1"/>
@@ -2215,7 +2244,7 @@
     <col min="9" max="256" width="10.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2241,7 +2270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2254,14 +2283,16 @@
       <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="G2" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15"/>
       <c r="B3" s="11" t="s">
         <v>16</v>
@@ -2272,14 +2303,16 @@
       <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="63" customHeight="1" thickBot="1">
+    <row r="4" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15"/>
       <c r="B4" s="11" t="s">
         <v>18</v>
@@ -2290,14 +2323,16 @@
       <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="78.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15"/>
       <c r="B5" s="11" t="s">
         <v>19</v>
@@ -2308,14 +2343,16 @@
       <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="63" customHeight="1" thickBot="1">
+    <row r="6" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -2326,14 +2363,16 @@
       <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15"/>
       <c r="B7" s="11" t="s">
         <v>23</v>
@@ -2344,14 +2383,16 @@
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="47.65" customHeight="1" thickBot="1">
+    <row r="8" spans="1:8" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>25</v>
@@ -2362,152 +2403,168 @@
       <c r="D8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" ht="47.25" customHeight="1">
+      <c r="G9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="15"/>
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="47.25" customHeight="1">
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="15"/>
       <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="94.5" customHeight="1">
+    <row r="12" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="15"/>
       <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1">
+    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15"/>
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="31.5" customHeight="1">
+    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="63" customHeight="1">
+    <row r="15" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="15"/>
       <c r="B15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="47.65" customHeight="1" thickBot="1">
+    <row r="16" spans="1:8" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>42</v>
@@ -2518,18 +2575,20 @@
       <c r="D16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -2538,14 +2597,16 @@
       <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -2556,629 +2617,701 @@
       <c r="D18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1">
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40" t="s">
+      <c r="E19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1">
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40" t="s">
+      <c r="E20" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="31.15" customHeight="1">
+    <row r="21" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="40" t="s">
+      <c r="E21" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1">
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="40" t="s">
+      <c r="E22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="31.15" customHeight="1">
+    <row r="23" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="45" customHeight="1">
+    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="44" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" ht="31.15" customHeight="1">
+    <row r="25" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14"/>
       <c r="B25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="33" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="31.15" customHeight="1">
+    <row r="26" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="14"/>
       <c r="B26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="33" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" ht="31.15" customHeight="1">
+    <row r="27" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="14"/>
       <c r="B27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="38" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="36" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" ht="31.15" customHeight="1">
+    <row r="28" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="14"/>
       <c r="B28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="33" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="31.15" customHeight="1">
+    <row r="29" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="14"/>
       <c r="B29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="33" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="31.15" customHeight="1">
+    <row r="30" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="14"/>
       <c r="B30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="38" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="36" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="59.1" customHeight="1">
+    <row r="31" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="38" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="36" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8" ht="31.15" customHeight="1">
+    <row r="32" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="14"/>
       <c r="B32" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="33" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8" ht="45" customHeight="1">
+    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="14"/>
       <c r="B33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="33" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8" ht="45" customHeight="1">
+    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="14"/>
       <c r="B34" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="38" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="36" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8" ht="31.15" customHeight="1">
+    <row r="35" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="14"/>
       <c r="B35" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="33" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8" ht="31.15" customHeight="1">
+    <row r="36" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="14"/>
       <c r="B36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="33" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8" ht="31.15" customHeight="1">
+    <row r="37" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="14"/>
       <c r="B37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="33" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8" ht="59.1" customHeight="1">
+    <row r="38" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="33" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8" ht="31.15" customHeight="1">
+    <row r="39" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="14"/>
       <c r="B39" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="33" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8" ht="31.15" customHeight="1">
+    <row r="40" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="14"/>
       <c r="B40" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="33" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8" ht="45" customHeight="1">
+    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="14"/>
       <c r="B41" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="33" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" ht="31.15" customHeight="1">
+    <row r="42" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="14"/>
       <c r="B42" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="33" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="59.1" customHeight="1">
+    <row r="43" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="33" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8" ht="59.1" customHeight="1">
+    <row r="44" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="33" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8" ht="31.15" customHeight="1">
+    <row r="45" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="14"/>
       <c r="B45" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="33" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" ht="31.15" customHeight="1">
+    <row r="46" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="14"/>
       <c r="B46" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="33" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="13"/>
+      <c r="G46" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" ht="45" customHeight="1">
+    <row r="47" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="33" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G47" s="13"/>
+      <c r="G47" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8" ht="31.15" customHeight="1">
+    <row r="48" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="14"/>
       <c r="B48" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="33" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="13"/>
+      <c r="G48" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H48" s="14"/>
     </row>
-    <row r="49" spans="1:8" ht="31.15" customHeight="1">
+    <row r="49" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="14"/>
       <c r="B49" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="33" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G49" s="13"/>
+      <c r="G49" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8" ht="45" customHeight="1">
+    <row r="50" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="14"/>
       <c r="B50" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="33" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="13"/>
+      <c r="G50" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" ht="59.1" customHeight="1">
+    <row r="51" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="37" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="1:8" ht="45" customHeight="1">
+      <c r="G51" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="14"/>
       <c r="B52" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="37" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="1:8" ht="59.1" customHeight="1">
+      <c r="G52" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="37" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" ht="45" customHeight="1">
+      <c r="G53" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="14"/>
       <c r="B54" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="37" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="14"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A55" s="47" t="s">
+      <c r="G54" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="51" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="43"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="14"/>
       <c r="E55" s="13" t="s">
         <v>14</v>
@@ -3186,15 +3319,17 @@
       <c r="F55" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="13"/>
+      <c r="G55" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A56" s="55"/>
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="52"/>
       <c r="B56" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="37"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
         <v>14</v>
@@ -3202,15 +3337,17 @@
       <c r="F56" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="13"/>
+      <c r="G56" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A57" s="55"/>
+    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="52"/>
       <c r="B57" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="37"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="14"/>
       <c r="E57" s="13" t="s">
         <v>14</v>
@@ -3218,15 +3355,17 @@
       <c r="F57" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H57" s="14"/>
     </row>
-    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A58" s="48"/>
+    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="53"/>
       <c r="B58" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="14"/>
       <c r="E58" s="13" t="s">
         <v>14</v>
@@ -3234,124 +3373,146 @@
       <c r="F58" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="14"/>
     </row>
-    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A59" s="45" t="s">
+    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="50"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="45"/>
-    </row>
-    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="51"/>
+      <c r="G59" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="50"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="51"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="46"/>
-    </row>
-    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="45" t="s">
+      <c r="G60" s="47"/>
+      <c r="H60" s="45"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="50"/>
+      <c r="B61" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="50"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="45"/>
-    </row>
-    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="51"/>
+      <c r="G61" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="50"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="51"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="46"/>
-    </row>
-    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="45" t="s">
+      <c r="G62" s="47"/>
+      <c r="H62" s="45"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="50"/>
+      <c r="B63" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="50"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="45"/>
-    </row>
-    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="51"/>
+      <c r="G63" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="51"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="46"/>
-    </row>
-    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A65" s="45" t="s">
+      <c r="G64" s="47"/>
+      <c r="H64" s="45"/>
+    </row>
+    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="50"/>
+      <c r="C65" s="48"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="45"/>
-    </row>
-    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="51"/>
+      <c r="G65" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="50"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="51"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="46"/>
-    </row>
-    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A67" s="49"/>
-      <c r="B67" s="45" t="s">
+      <c r="G66" s="47"/>
+      <c r="H66" s="45"/>
+    </row>
+    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="50"/>
+      <c r="B67" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="50"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="50"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="45"/>
-    </row>
-    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="51"/>
+      <c r="G67" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="51"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="46"/>
-    </row>
-    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="G68" s="47"/>
+      <c r="H68" s="45"/>
+    </row>
+    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="13"/>
@@ -3361,7 +3522,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="14"/>
     </row>
-    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="13"/>
@@ -3371,7 +3532,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="71" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="13"/>
@@ -3381,7 +3542,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="72" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="13"/>
@@ -3391,7 +3552,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="73" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="13"/>
@@ -3401,7 +3562,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="14"/>
     </row>
-    <row r="74" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="74" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="13"/>
@@ -3411,7 +3572,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="75" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="13"/>
@@ -3421,7 +3582,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="13"/>
@@ -3431,7 +3592,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="14"/>
     </row>
-    <row r="77" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="77" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="13"/>
@@ -3441,7 +3602,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="13"/>
@@ -3451,7 +3612,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="13"/>
@@ -3461,7 +3622,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="13"/>
@@ -3471,7 +3632,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="81" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="13"/>
@@ -3481,7 +3642,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="82" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="13"/>
@@ -3491,7 +3652,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="83" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="13"/>
@@ -3501,7 +3662,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="84" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="13"/>
@@ -3511,7 +3672,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="14"/>
     </row>
-    <row r="85" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="85" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="13"/>
@@ -3521,7 +3682,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="86" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="13"/>
@@ -3531,7 +3692,7 @@
       <c r="G86" s="13"/>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="87" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="13"/>
@@ -3541,7 +3702,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="88" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="13"/>
@@ -3551,7 +3712,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="89" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="13"/>
@@ -3561,7 +3722,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="90" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="13"/>
@@ -3571,7 +3732,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="91" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="13"/>
@@ -3581,7 +3742,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="92" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="13"/>
@@ -3591,7 +3752,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="93" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="13"/>
@@ -3601,7 +3762,7 @@
       <c r="G93" s="13"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="94" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="13"/>
@@ -3611,7 +3772,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="95" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="13"/>
@@ -3621,7 +3782,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="96" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="13"/>
@@ -3631,7 +3792,7 @@
       <c r="G96" s="13"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="97" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="13"/>
@@ -3641,7 +3802,7 @@
       <c r="G97" s="13"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="98" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="13"/>
@@ -3651,7 +3812,7 @@
       <c r="G98" s="13"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="99" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="13"/>
@@ -3661,7 +3822,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="100" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="13"/>
@@ -3671,7 +3832,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="101" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="13"/>
@@ -3681,7 +3842,7 @@
       <c r="G101" s="13"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="102" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="13"/>
@@ -3691,7 +3852,7 @@
       <c r="G102" s="13"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="103" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="13"/>
@@ -3701,7 +3862,7 @@
       <c r="G103" s="13"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="104" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="13"/>
@@ -3711,7 +3872,7 @@
       <c r="G104" s="13"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="105" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="13"/>
@@ -3721,7 +3882,7 @@
       <c r="G105" s="13"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="106" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="13"/>
@@ -3731,7 +3892,7 @@
       <c r="G106" s="13"/>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="107" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="13"/>
@@ -3741,7 +3902,7 @@
       <c r="G107" s="13"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="108" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="13"/>
@@ -3751,7 +3912,7 @@
       <c r="G108" s="13"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="109" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="13"/>
@@ -3761,7 +3922,7 @@
       <c r="G109" s="13"/>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="110" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -3771,7 +3932,7 @@
       <c r="G110" s="13"/>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="111" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
@@ -3781,7 +3942,7 @@
       <c r="G111" s="13"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="112" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="13"/>
@@ -3791,7 +3952,7 @@
       <c r="G112" s="13"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="113" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="13"/>
@@ -3801,7 +3962,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="114" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="13"/>
@@ -3811,7 +3972,7 @@
       <c r="G114" s="13"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="115" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="13"/>
@@ -3821,7 +3982,7 @@
       <c r="G115" s="13"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="13"/>
@@ -3831,7 +3992,7 @@
       <c r="G116" s="13"/>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="13"/>
@@ -3841,7 +4002,7 @@
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="13"/>
@@ -3851,7 +4012,7 @@
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="13"/>
@@ -3861,7 +4022,7 @@
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="120" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="13"/>
@@ -3871,7 +4032,7 @@
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="121" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="13"/>
@@ -3881,7 +4042,7 @@
       <c r="G121" s="13"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="122" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="13"/>
@@ -3891,7 +4052,7 @@
       <c r="G122" s="13"/>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="123" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="13"/>
@@ -3901,7 +4062,7 @@
       <c r="G123" s="13"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="124" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="13"/>
@@ -3911,7 +4072,7 @@
       <c r="G124" s="13"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="125" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="13"/>
@@ -3921,7 +4082,7 @@
       <c r="G125" s="13"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="126" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="13"/>
@@ -3931,7 +4092,7 @@
       <c r="G126" s="13"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="127" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="13"/>
@@ -3941,7 +4102,7 @@
       <c r="G127" s="13"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="128" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="13"/>
@@ -3951,7 +4112,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="13"/>
@@ -3961,7 +4122,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="13"/>
@@ -3971,7 +4132,7 @@
       <c r="G130" s="13"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="13"/>
@@ -3981,7 +4142,7 @@
       <c r="G131" s="13"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="13"/>
@@ -3991,7 +4152,7 @@
       <c r="G132" s="13"/>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="13"/>
@@ -4001,7 +4162,7 @@
       <c r="G133" s="13"/>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="13"/>
@@ -4011,7 +4172,7 @@
       <c r="G134" s="13"/>
       <c r="H134" s="14"/>
     </row>
-    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="13"/>
@@ -4021,7 +4182,7 @@
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="13"/>
@@ -4031,7 +4192,7 @@
       <c r="G136" s="13"/>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="13"/>
@@ -4041,7 +4202,7 @@
       <c r="G137" s="13"/>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="13"/>
@@ -4051,7 +4212,7 @@
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="13"/>
@@ -4061,7 +4222,7 @@
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="13"/>
@@ -4071,7 +4232,7 @@
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
-    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="13"/>
@@ -4081,7 +4242,7 @@
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="13"/>
@@ -4091,7 +4252,7 @@
       <c r="G142" s="13"/>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="13"/>
@@ -4101,7 +4262,7 @@
       <c r="G143" s="13"/>
       <c r="H143" s="14"/>
     </row>
-    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="13"/>
@@ -4111,7 +4272,7 @@
       <c r="G144" s="13"/>
       <c r="H144" s="14"/>
     </row>
-    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="13"/>
@@ -4121,7 +4282,7 @@
       <c r="G145" s="13"/>
       <c r="H145" s="14"/>
     </row>
-    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="13"/>
@@ -4131,7 +4292,7 @@
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
-    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="13"/>
@@ -4141,7 +4302,7 @@
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
-    <row r="148" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="148" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="13"/>
@@ -4151,7 +4312,7 @@
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="149" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="13"/>
@@ -4161,7 +4322,7 @@
       <c r="G149" s="13"/>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="150" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="13"/>
@@ -4171,7 +4332,7 @@
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
-    <row r="151" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="151" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="13"/>
@@ -4181,7 +4342,7 @@
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
-    <row r="152" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="152" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="13"/>
@@ -4191,7 +4352,7 @@
       <c r="G152" s="13"/>
       <c r="H152" s="14"/>
     </row>
-    <row r="153" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="153" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="13"/>
@@ -4201,7 +4362,7 @@
       <c r="G153" s="13"/>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="154" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="13"/>
@@ -4211,7 +4372,7 @@
       <c r="G154" s="13"/>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="155" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="13"/>
@@ -4221,7 +4382,7 @@
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="156" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="13"/>
@@ -4231,7 +4392,7 @@
       <c r="G156" s="13"/>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="157" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="13"/>
@@ -4241,7 +4402,7 @@
       <c r="G157" s="13"/>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="158" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="13"/>
@@ -4251,7 +4412,7 @@
       <c r="G158" s="13"/>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="159" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="13"/>
@@ -4261,7 +4422,7 @@
       <c r="G159" s="13"/>
       <c r="H159" s="14"/>
     </row>
-    <row r="160" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="160" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="13"/>
@@ -4271,7 +4432,7 @@
       <c r="G160" s="13"/>
       <c r="H160" s="14"/>
     </row>
-    <row r="161" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="161" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="13"/>
@@ -4281,7 +4442,7 @@
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="162" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="13"/>
@@ -4291,7 +4452,7 @@
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="163" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="13"/>
@@ -4301,7 +4462,7 @@
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="164" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="13"/>
@@ -4311,7 +4472,7 @@
       <c r="G164" s="13"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="165" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="13"/>
@@ -4321,7 +4482,7 @@
       <c r="G165" s="13"/>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="166" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="13"/>
@@ -4331,7 +4492,7 @@
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
-    <row r="167" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="167" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="13"/>
@@ -4341,7 +4502,7 @@
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="168" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="13"/>
@@ -4351,7 +4512,7 @@
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="169" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="13"/>
@@ -4361,7 +4522,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="170" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="13"/>
@@ -4371,7 +4532,7 @@
       <c r="G170" s="13"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="171" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="13"/>
@@ -4381,7 +4542,7 @@
       <c r="G171" s="13"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="172" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="13"/>
@@ -4391,7 +4552,7 @@
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
-    <row r="173" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="173" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="13"/>
@@ -4401,7 +4562,7 @@
       <c r="G173" s="13"/>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="174" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="13"/>
@@ -4411,7 +4572,7 @@
       <c r="G174" s="13"/>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="175" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="13"/>
@@ -4421,7 +4582,7 @@
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="176" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="13"/>
@@ -4431,7 +4592,7 @@
       <c r="G176" s="13"/>
       <c r="H176" s="14"/>
     </row>
-    <row r="177" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="177" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="13"/>
@@ -4441,7 +4602,7 @@
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
     </row>
-    <row r="178" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="178" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="13"/>
@@ -4451,7 +4612,7 @@
       <c r="G178" s="13"/>
       <c r="H178" s="14"/>
     </row>
-    <row r="179" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="179" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="13"/>
@@ -4461,7 +4622,7 @@
       <c r="G179" s="13"/>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="180" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="13"/>
@@ -4471,7 +4632,7 @@
       <c r="G180" s="13"/>
       <c r="H180" s="14"/>
     </row>
-    <row r="181" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="181" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="13"/>
@@ -4481,7 +4642,7 @@
       <c r="G181" s="13"/>
       <c r="H181" s="14"/>
     </row>
-    <row r="182" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="182" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="13"/>
@@ -4491,7 +4652,7 @@
       <c r="G182" s="13"/>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="183" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="13"/>
@@ -4501,7 +4662,7 @@
       <c r="G183" s="13"/>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="184" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="13"/>
@@ -4511,7 +4672,7 @@
       <c r="G184" s="13"/>
       <c r="H184" s="14"/>
     </row>
-    <row r="185" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="185" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="13"/>
@@ -4521,7 +4682,7 @@
       <c r="G185" s="13"/>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="186" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="13"/>
@@ -4531,7 +4692,7 @@
       <c r="G186" s="13"/>
       <c r="H186" s="14"/>
     </row>
-    <row r="187" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="187" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="13"/>
@@ -4541,7 +4702,7 @@
       <c r="G187" s="13"/>
       <c r="H187" s="14"/>
     </row>
-    <row r="188" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="188" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="13"/>
@@ -4551,7 +4712,7 @@
       <c r="G188" s="13"/>
       <c r="H188" s="14"/>
     </row>
-    <row r="189" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="189" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="13"/>
@@ -4561,7 +4722,7 @@
       <c r="G189" s="13"/>
       <c r="H189" s="14"/>
     </row>
-    <row r="190" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="190" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="13"/>
@@ -4571,7 +4732,7 @@
       <c r="G190" s="13"/>
       <c r="H190" s="14"/>
     </row>
-    <row r="191" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="191" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="13"/>
@@ -4581,7 +4742,7 @@
       <c r="G191" s="13"/>
       <c r="H191" s="14"/>
     </row>
-    <row r="192" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="192" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="13"/>
@@ -4591,7 +4752,7 @@
       <c r="G192" s="13"/>
       <c r="H192" s="14"/>
     </row>
-    <row r="193" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="193" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="13"/>
@@ -4601,7 +4762,7 @@
       <c r="G193" s="13"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="194" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="13"/>
@@ -4611,7 +4772,7 @@
       <c r="G194" s="13"/>
       <c r="H194" s="14"/>
     </row>
-    <row r="195" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="195" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="13"/>
@@ -4621,7 +4782,7 @@
       <c r="G195" s="13"/>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="196" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="13"/>
@@ -4631,7 +4792,7 @@
       <c r="G196" s="13"/>
       <c r="H196" s="14"/>
     </row>
-    <row r="197" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="197" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="13"/>
@@ -4641,7 +4802,7 @@
       <c r="G197" s="13"/>
       <c r="H197" s="14"/>
     </row>
-    <row r="198" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="198" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="13"/>
@@ -4651,7 +4812,7 @@
       <c r="G198" s="13"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="199" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="13"/>
@@ -4661,7 +4822,7 @@
       <c r="G199" s="13"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="200" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="13"/>
@@ -4671,7 +4832,7 @@
       <c r="G200" s="13"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="201" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="13"/>
@@ -4681,7 +4842,7 @@
       <c r="G201" s="13"/>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="202" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="13"/>
@@ -4691,7 +4852,7 @@
       <c r="G202" s="13"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="203" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="13"/>
@@ -4701,7 +4862,7 @@
       <c r="G203" s="13"/>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="204" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="13"/>
@@ -4711,7 +4872,7 @@
       <c r="G204" s="13"/>
       <c r="H204" s="14"/>
     </row>
-    <row r="205" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="205" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="13"/>
@@ -4721,7 +4882,7 @@
       <c r="G205" s="13"/>
       <c r="H205" s="14"/>
     </row>
-    <row r="206" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="206" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="13"/>
@@ -4731,7 +4892,7 @@
       <c r="G206" s="13"/>
       <c r="H206" s="14"/>
     </row>
-    <row r="207" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="207" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="13"/>
@@ -4741,7 +4902,7 @@
       <c r="G207" s="13"/>
       <c r="H207" s="14"/>
     </row>
-    <row r="208" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="208" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="13"/>
@@ -4751,7 +4912,7 @@
       <c r="G208" s="13"/>
       <c r="H208" s="14"/>
     </row>
-    <row r="209" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="209" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="13"/>
@@ -4761,7 +4922,7 @@
       <c r="G209" s="13"/>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="210" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="13"/>
@@ -4771,7 +4932,7 @@
       <c r="G210" s="13"/>
       <c r="H210" s="14"/>
     </row>
-    <row r="211" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="211" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="13"/>
@@ -4781,7 +4942,7 @@
       <c r="G211" s="13"/>
       <c r="H211" s="14"/>
     </row>
-    <row r="212" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="212" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="13"/>
@@ -4791,7 +4952,7 @@
       <c r="G212" s="13"/>
       <c r="H212" s="14"/>
     </row>
-    <row r="213" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="213" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="13"/>
@@ -4801,7 +4962,7 @@
       <c r="G213" s="13"/>
       <c r="H213" s="14"/>
     </row>
-    <row r="214" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="214" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="13"/>
@@ -4811,7 +4972,7 @@
       <c r="G214" s="13"/>
       <c r="H214" s="14"/>
     </row>
-    <row r="215" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="215" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="13"/>
@@ -4821,7 +4982,7 @@
       <c r="G215" s="13"/>
       <c r="H215" s="14"/>
     </row>
-    <row r="216" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="216" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="13"/>
@@ -4831,7 +4992,7 @@
       <c r="G216" s="13"/>
       <c r="H216" s="14"/>
     </row>
-    <row r="217" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="217" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="13"/>
@@ -4841,7 +5002,7 @@
       <c r="G217" s="13"/>
       <c r="H217" s="14"/>
     </row>
-    <row r="218" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="218" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="13"/>
@@ -4851,7 +5012,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="14"/>
     </row>
-    <row r="219" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="219" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="13"/>
@@ -4861,7 +5022,7 @@
       <c r="G219" s="13"/>
       <c r="H219" s="14"/>
     </row>
-    <row r="220" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="220" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="13"/>
@@ -4871,7 +5032,7 @@
       <c r="G220" s="13"/>
       <c r="H220" s="14"/>
     </row>
-    <row r="221" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="221" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="13"/>
@@ -4881,7 +5042,7 @@
       <c r="G221" s="13"/>
       <c r="H221" s="14"/>
     </row>
-    <row r="222" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="222" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="13"/>
@@ -4891,7 +5052,7 @@
       <c r="G222" s="13"/>
       <c r="H222" s="14"/>
     </row>
-    <row r="223" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="223" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" s="13"/>
@@ -4901,7 +5062,7 @@
       <c r="G223" s="13"/>
       <c r="H223" s="14"/>
     </row>
-    <row r="224" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="224" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="13"/>
@@ -4911,7 +5072,7 @@
       <c r="G224" s="13"/>
       <c r="H224" s="14"/>
     </row>
-    <row r="225" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="225" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="13"/>
@@ -4921,7 +5082,7 @@
       <c r="G225" s="13"/>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="226" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="13"/>
@@ -4931,7 +5092,7 @@
       <c r="G226" s="13"/>
       <c r="H226" s="14"/>
     </row>
-    <row r="227" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="227" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" s="13"/>
@@ -4941,7 +5102,7 @@
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="228" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="13"/>
@@ -4951,7 +5112,7 @@
       <c r="G228" s="13"/>
       <c r="H228" s="14"/>
     </row>
-    <row r="229" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="229" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="13"/>
@@ -4961,7 +5122,7 @@
       <c r="G229" s="13"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="230" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="13"/>
@@ -4971,7 +5132,7 @@
       <c r="G230" s="13"/>
       <c r="H230" s="14"/>
     </row>
-    <row r="231" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="231" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="13"/>
@@ -4981,7 +5142,7 @@
       <c r="G231" s="13"/>
       <c r="H231" s="14"/>
     </row>
-    <row r="232" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="232" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="13"/>
@@ -4991,7 +5152,7 @@
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
-    <row r="233" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="233" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" s="13"/>
@@ -5001,7 +5162,7 @@
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
-    <row r="234" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="234" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" s="13"/>
@@ -5011,7 +5172,7 @@
       <c r="G234" s="13"/>
       <c r="H234" s="14"/>
     </row>
-    <row r="235" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="235" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" s="13"/>
@@ -5021,7 +5182,7 @@
       <c r="G235" s="13"/>
       <c r="H235" s="14"/>
     </row>
-    <row r="236" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="236" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" s="13"/>
@@ -5031,7 +5192,7 @@
       <c r="G236" s="13"/>
       <c r="H236" s="14"/>
     </row>
-    <row r="237" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="237" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="13"/>
@@ -5041,7 +5202,7 @@
       <c r="G237" s="13"/>
       <c r="H237" s="14"/>
     </row>
-    <row r="238" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="238" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="13"/>
@@ -5051,7 +5212,7 @@
       <c r="G238" s="13"/>
       <c r="H238" s="14"/>
     </row>
-    <row r="239" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="239" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="13"/>
@@ -5061,7 +5222,7 @@
       <c r="G239" s="13"/>
       <c r="H239" s="14"/>
     </row>
-    <row r="240" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="240" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" s="13"/>
@@ -5071,7 +5232,7 @@
       <c r="G240" s="13"/>
       <c r="H240" s="14"/>
     </row>
-    <row r="241" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="241" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="13"/>
@@ -5081,7 +5242,7 @@
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
-    <row r="242" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="242" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="13"/>
@@ -5091,7 +5252,7 @@
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
-    <row r="243" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="243" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="13"/>
@@ -5101,7 +5262,7 @@
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="244" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" s="13"/>
@@ -5111,7 +5272,7 @@
       <c r="G244" s="13"/>
       <c r="H244" s="14"/>
     </row>
-    <row r="245" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="245" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="13"/>
@@ -5121,7 +5282,7 @@
       <c r="G245" s="13"/>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="246" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="13"/>
@@ -5131,7 +5292,7 @@
       <c r="G246" s="13"/>
       <c r="H246" s="14"/>
     </row>
-    <row r="247" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="247" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="13"/>
@@ -5141,7 +5302,7 @@
       <c r="G247" s="13"/>
       <c r="H247" s="14"/>
     </row>
-    <row r="248" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="248" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" s="13"/>
@@ -5151,7 +5312,7 @@
       <c r="G248" s="13"/>
       <c r="H248" s="14"/>
     </row>
-    <row r="249" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="249" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="13"/>
@@ -5161,7 +5322,7 @@
       <c r="G249" s="13"/>
       <c r="H249" s="14"/>
     </row>
-    <row r="250" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="250" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="13"/>
@@ -5171,7 +5332,7 @@
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="251" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="13"/>
@@ -5181,7 +5342,7 @@
       <c r="G251" s="13"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="252" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" s="13"/>
@@ -5191,7 +5352,7 @@
       <c r="G252" s="13"/>
       <c r="H252" s="14"/>
     </row>
-    <row r="253" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="253" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="13"/>
@@ -5201,7 +5362,7 @@
       <c r="G253" s="13"/>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="254" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="13"/>
@@ -5211,7 +5372,7 @@
       <c r="G254" s="13"/>
       <c r="H254" s="14"/>
     </row>
-    <row r="255" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="255" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="13"/>
@@ -5221,7 +5382,7 @@
       <c r="G255" s="13"/>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="256" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="13"/>
@@ -5231,7 +5392,7 @@
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
-    <row r="257" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="257" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="13"/>
@@ -5241,7 +5402,7 @@
       <c r="G257" s="13"/>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="258" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="13"/>
@@ -5251,7 +5412,7 @@
       <c r="G258" s="13"/>
       <c r="H258" s="14"/>
     </row>
-    <row r="259" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="259" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="13"/>
@@ -5261,7 +5422,7 @@
       <c r="G259" s="13"/>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="260" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="13"/>
@@ -5271,7 +5432,7 @@
       <c r="G260" s="13"/>
       <c r="H260" s="14"/>
     </row>
-    <row r="261" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="261" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="13"/>
@@ -5281,7 +5442,7 @@
       <c r="G261" s="13"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="262" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="13"/>
@@ -5291,7 +5452,7 @@
       <c r="G262" s="13"/>
       <c r="H262" s="14"/>
     </row>
-    <row r="263" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="263" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="13"/>
@@ -5301,7 +5462,7 @@
       <c r="G263" s="13"/>
       <c r="H263" s="14"/>
     </row>
-    <row r="264" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="264" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" s="13"/>
@@ -5311,7 +5472,7 @@
       <c r="G264" s="13"/>
       <c r="H264" s="14"/>
     </row>
-    <row r="265" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="265" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="13"/>
@@ -5321,7 +5482,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="266" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="13"/>
@@ -5331,7 +5492,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="14"/>
     </row>
-    <row r="267" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="267" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="13"/>
@@ -5341,7 +5502,7 @@
       <c r="G267" s="13"/>
       <c r="H267" s="14"/>
     </row>
-    <row r="268" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="268" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" s="13"/>
@@ -5351,7 +5512,7 @@
       <c r="G268" s="13"/>
       <c r="H268" s="14"/>
     </row>
-    <row r="269" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="269" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="13"/>
@@ -5361,7 +5522,7 @@
       <c r="G269" s="13"/>
       <c r="H269" s="14"/>
     </row>
-    <row r="270" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="270" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="13"/>
@@ -5371,7 +5532,7 @@
       <c r="G270" s="13"/>
       <c r="H270" s="14"/>
     </row>
-    <row r="271" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="271" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="13"/>
@@ -5381,7 +5542,7 @@
       <c r="G271" s="13"/>
       <c r="H271" s="14"/>
     </row>
-    <row r="272" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="272" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" s="13"/>
@@ -5391,7 +5552,7 @@
       <c r="G272" s="13"/>
       <c r="H272" s="14"/>
     </row>
-    <row r="273" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="273" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="13"/>
@@ -5401,7 +5562,7 @@
       <c r="G273" s="13"/>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="274" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="13"/>
@@ -5411,7 +5572,7 @@
       <c r="G274" s="13"/>
       <c r="H274" s="14"/>
     </row>
-    <row r="275" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="275" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="13"/>
@@ -5421,7 +5582,7 @@
       <c r="G275" s="13"/>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="276" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" s="13"/>
@@ -5431,7 +5592,7 @@
       <c r="G276" s="13"/>
       <c r="H276" s="14"/>
     </row>
-    <row r="277" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="277" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="13"/>
@@ -5441,7 +5602,7 @@
       <c r="G277" s="13"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="278" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="13"/>
@@ -5451,7 +5612,7 @@
       <c r="G278" s="13"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="279" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="13"/>
@@ -5461,7 +5622,7 @@
       <c r="G279" s="13"/>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="280" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" s="13"/>
@@ -5471,7 +5632,7 @@
       <c r="G280" s="13"/>
       <c r="H280" s="14"/>
     </row>
-    <row r="281" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="281" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="13"/>
@@ -5481,7 +5642,7 @@
       <c r="G281" s="13"/>
       <c r="H281" s="14"/>
     </row>
-    <row r="282" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="282" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="13"/>
@@ -5491,7 +5652,7 @@
       <c r="G282" s="13"/>
       <c r="H282" s="14"/>
     </row>
-    <row r="283" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="283" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="13"/>
@@ -5501,7 +5662,7 @@
       <c r="G283" s="13"/>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="284" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" s="13"/>
@@ -5511,7 +5672,7 @@
       <c r="G284" s="13"/>
       <c r="H284" s="14"/>
     </row>
-    <row r="285" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="285" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" s="13"/>
@@ -5521,7 +5682,7 @@
       <c r="G285" s="13"/>
       <c r="H285" s="14"/>
     </row>
-    <row r="286" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="286" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" s="13"/>
@@ -5531,7 +5692,7 @@
       <c r="G286" s="13"/>
       <c r="H286" s="14"/>
     </row>
-    <row r="287" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="287" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" s="13"/>
@@ -5541,7 +5702,7 @@
       <c r="G287" s="13"/>
       <c r="H287" s="14"/>
     </row>
-    <row r="288" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="288" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="13"/>
@@ -5551,7 +5712,7 @@
       <c r="G288" s="13"/>
       <c r="H288" s="14"/>
     </row>
-    <row r="289" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="289" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="13"/>
@@ -5561,7 +5722,7 @@
       <c r="G289" s="13"/>
       <c r="H289" s="14"/>
     </row>
-    <row r="290" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="290" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="13"/>
@@ -5571,7 +5732,7 @@
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
-    <row r="291" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="291" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" s="13"/>
@@ -5581,7 +5742,7 @@
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="292" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="13"/>
@@ -5591,7 +5752,7 @@
       <c r="G292" s="13"/>
       <c r="H292" s="14"/>
     </row>
-    <row r="293" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="293" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="13"/>
@@ -5601,7 +5762,7 @@
       <c r="G293" s="13"/>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="294" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="13"/>
@@ -5611,7 +5772,7 @@
       <c r="G294" s="13"/>
       <c r="H294" s="14"/>
     </row>
-    <row r="295" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="295" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" s="13"/>
@@ -5621,7 +5782,7 @@
       <c r="G295" s="13"/>
       <c r="H295" s="14"/>
     </row>
-    <row r="296" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="296" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" s="13"/>
@@ -5631,7 +5792,7 @@
       <c r="G296" s="13"/>
       <c r="H296" s="14"/>
     </row>
-    <row r="297" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="297" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" s="13"/>
@@ -5641,7 +5802,7 @@
       <c r="G297" s="13"/>
       <c r="H297" s="14"/>
     </row>
-    <row r="298" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="298" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" s="13"/>
@@ -5651,7 +5812,7 @@
       <c r="G298" s="13"/>
       <c r="H298" s="14"/>
     </row>
-    <row r="299" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="299" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="13"/>
@@ -5661,7 +5822,7 @@
       <c r="G299" s="13"/>
       <c r="H299" s="14"/>
     </row>
-    <row r="300" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="300" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="13"/>
@@ -5671,7 +5832,7 @@
       <c r="G300" s="13"/>
       <c r="H300" s="14"/>
     </row>
-    <row r="301" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="301" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="13"/>
@@ -5681,7 +5842,7 @@
       <c r="G301" s="13"/>
       <c r="H301" s="14"/>
     </row>
-    <row r="302" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="302" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" s="13"/>
@@ -5691,7 +5852,7 @@
       <c r="G302" s="13"/>
       <c r="H302" s="14"/>
     </row>
-    <row r="303" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="303" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="13"/>
@@ -5701,7 +5862,7 @@
       <c r="G303" s="13"/>
       <c r="H303" s="14"/>
     </row>
-    <row r="304" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="304" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="13"/>
@@ -5711,7 +5872,7 @@
       <c r="G304" s="13"/>
       <c r="H304" s="14"/>
     </row>
-    <row r="305" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="305" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="13"/>
@@ -5721,7 +5882,7 @@
       <c r="G305" s="13"/>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="306" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="13"/>
@@ -5731,7 +5892,7 @@
       <c r="G306" s="13"/>
       <c r="H306" s="14"/>
     </row>
-    <row r="307" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="307" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="13"/>
@@ -5741,7 +5902,7 @@
       <c r="G307" s="13"/>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="308" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="13"/>
@@ -5751,7 +5912,7 @@
       <c r="G308" s="13"/>
       <c r="H308" s="14"/>
     </row>
-    <row r="309" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="309" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="13"/>
@@ -5761,7 +5922,7 @@
       <c r="G309" s="13"/>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="310" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="13"/>
@@ -5771,7 +5932,7 @@
       <c r="G310" s="13"/>
       <c r="H310" s="14"/>
     </row>
-    <row r="311" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="311" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="13"/>
@@ -5781,7 +5942,7 @@
       <c r="G311" s="13"/>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="312" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="13"/>
@@ -5791,7 +5952,7 @@
       <c r="G312" s="13"/>
       <c r="H312" s="14"/>
     </row>
-    <row r="313" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="313" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="13"/>
@@ -5801,7 +5962,7 @@
       <c r="G313" s="13"/>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="314" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="13"/>
@@ -5811,7 +5972,7 @@
       <c r="G314" s="13"/>
       <c r="H314" s="14"/>
     </row>
-    <row r="315" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="315" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="13"/>
@@ -5821,7 +5982,7 @@
       <c r="G315" s="13"/>
       <c r="H315" s="14"/>
     </row>
-    <row r="316" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="316" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="13"/>
@@ -5831,7 +5992,7 @@
       <c r="G316" s="13"/>
       <c r="H316" s="14"/>
     </row>
-    <row r="317" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="317" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="13"/>
@@ -5841,7 +6002,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="14"/>
     </row>
-    <row r="318" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="318" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="13"/>
@@ -5851,7 +6012,7 @@
       <c r="G318" s="13"/>
       <c r="H318" s="14"/>
     </row>
-    <row r="319" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="319" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
       <c r="C319" s="13"/>
@@ -5861,7 +6022,7 @@
       <c r="G319" s="13"/>
       <c r="H319" s="14"/>
     </row>
-    <row r="320" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="320" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
       <c r="C320" s="13"/>
@@ -5871,7 +6032,7 @@
       <c r="G320" s="13"/>
       <c r="H320" s="14"/>
     </row>
-    <row r="321" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="321" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="13"/>
@@ -5881,7 +6042,7 @@
       <c r="G321" s="13"/>
       <c r="H321" s="14"/>
     </row>
-    <row r="322" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="322" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="13"/>
@@ -5891,7 +6052,7 @@
       <c r="G322" s="13"/>
       <c r="H322" s="14"/>
     </row>
-    <row r="323" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="323" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="13"/>
@@ -5901,7 +6062,7 @@
       <c r="G323" s="13"/>
       <c r="H323" s="14"/>
     </row>
-    <row r="324" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="324" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="13"/>
@@ -5911,7 +6072,7 @@
       <c r="G324" s="13"/>
       <c r="H324" s="14"/>
     </row>
-    <row r="325" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="325" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
       <c r="C325" s="13"/>
@@ -5921,7 +6082,7 @@
       <c r="G325" s="13"/>
       <c r="H325" s="14"/>
     </row>
-    <row r="326" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="326" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A326" s="14"/>
       <c r="B326" s="14"/>
       <c r="C326" s="13"/>
@@ -5931,7 +6092,7 @@
       <c r="G326" s="13"/>
       <c r="H326" s="14"/>
     </row>
-    <row r="327" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="327" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
       <c r="C327" s="13"/>
@@ -5941,7 +6102,7 @@
       <c r="G327" s="13"/>
       <c r="H327" s="14"/>
     </row>
-    <row r="328" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="328" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="13"/>
@@ -5951,7 +6112,7 @@
       <c r="G328" s="13"/>
       <c r="H328" s="14"/>
     </row>
-    <row r="329" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="329" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="13"/>
@@ -5961,7 +6122,7 @@
       <c r="G329" s="13"/>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="330" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="13"/>
@@ -5971,7 +6132,7 @@
       <c r="G330" s="13"/>
       <c r="H330" s="14"/>
     </row>
-    <row r="331" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="331" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="13"/>
@@ -5981,7 +6142,7 @@
       <c r="G331" s="13"/>
       <c r="H331" s="14"/>
     </row>
-    <row r="332" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="332" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
       <c r="C332" s="13"/>
@@ -5991,7 +6152,7 @@
       <c r="G332" s="13"/>
       <c r="H332" s="14"/>
     </row>
-    <row r="333" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="333" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
       <c r="C333" s="13"/>
@@ -6001,7 +6162,7 @@
       <c r="G333" s="13"/>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="334" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="13"/>
@@ -6011,7 +6172,7 @@
       <c r="G334" s="13"/>
       <c r="H334" s="14"/>
     </row>
-    <row r="335" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="335" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="13"/>
@@ -6021,7 +6182,7 @@
       <c r="G335" s="13"/>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="336" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="13"/>
@@ -6031,7 +6192,7 @@
       <c r="G336" s="13"/>
       <c r="H336" s="14"/>
     </row>
-    <row r="337" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="337" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="13"/>
@@ -6041,7 +6202,7 @@
       <c r="G337" s="13"/>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="338" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="13"/>
@@ -6051,7 +6212,7 @@
       <c r="G338" s="13"/>
       <c r="H338" s="14"/>
     </row>
-    <row r="339" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="339" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" s="13"/>
@@ -6061,7 +6222,7 @@
       <c r="G339" s="13"/>
       <c r="H339" s="14"/>
     </row>
-    <row r="340" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="340" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="13"/>
@@ -6071,7 +6232,7 @@
       <c r="G340" s="13"/>
       <c r="H340" s="14"/>
     </row>
-    <row r="341" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="341" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="13"/>
@@ -6081,7 +6242,7 @@
       <c r="G341" s="13"/>
       <c r="H341" s="14"/>
     </row>
-    <row r="342" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="342" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" s="13"/>
@@ -6091,7 +6252,7 @@
       <c r="G342" s="13"/>
       <c r="H342" s="14"/>
     </row>
-    <row r="343" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="343" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="13"/>
@@ -6101,7 +6262,7 @@
       <c r="G343" s="13"/>
       <c r="H343" s="14"/>
     </row>
-    <row r="344" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="344" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A344" s="14"/>
       <c r="B344" s="14"/>
       <c r="C344" s="13"/>
@@ -6111,7 +6272,7 @@
       <c r="G344" s="13"/>
       <c r="H344" s="14"/>
     </row>
-    <row r="345" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="345" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" s="13"/>
@@ -6121,7 +6282,7 @@
       <c r="G345" s="13"/>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="346" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="13"/>
@@ -6131,7 +6292,7 @@
       <c r="G346" s="13"/>
       <c r="H346" s="14"/>
     </row>
-    <row r="347" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="347" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" s="13"/>
@@ -6141,7 +6302,7 @@
       <c r="G347" s="13"/>
       <c r="H347" s="14"/>
     </row>
-    <row r="348" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="348" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" s="13"/>
@@ -6151,7 +6312,7 @@
       <c r="G348" s="13"/>
       <c r="H348" s="14"/>
     </row>
-    <row r="349" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="349" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" s="13"/>
@@ -6161,7 +6322,7 @@
       <c r="G349" s="13"/>
       <c r="H349" s="14"/>
     </row>
-    <row r="350" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="350" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" s="13"/>
@@ -6171,7 +6332,7 @@
       <c r="G350" s="13"/>
       <c r="H350" s="14"/>
     </row>
-    <row r="351" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="351" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="13"/>
@@ -6181,7 +6342,7 @@
       <c r="G351" s="13"/>
       <c r="H351" s="14"/>
     </row>
-    <row r="352" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="352" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="13"/>
@@ -6191,7 +6352,7 @@
       <c r="G352" s="13"/>
       <c r="H352" s="14"/>
     </row>
-    <row r="353" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="353" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" s="13"/>
@@ -6201,7 +6362,7 @@
       <c r="G353" s="13"/>
       <c r="H353" s="14"/>
     </row>
-    <row r="354" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="354" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="13"/>
@@ -6211,7 +6372,7 @@
       <c r="G354" s="13"/>
       <c r="H354" s="14"/>
     </row>
-    <row r="355" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="355" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="13"/>
@@ -6221,7 +6382,7 @@
       <c r="G355" s="13"/>
       <c r="H355" s="14"/>
     </row>
-    <row r="356" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="356" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
       <c r="C356" s="13"/>
@@ -6231,7 +6392,7 @@
       <c r="G356" s="13"/>
       <c r="H356" s="14"/>
     </row>
-    <row r="357" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="357" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" s="13"/>
@@ -6241,7 +6402,7 @@
       <c r="G357" s="13"/>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="358" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" s="13"/>
@@ -6251,7 +6412,7 @@
       <c r="G358" s="13"/>
       <c r="H358" s="14"/>
     </row>
-    <row r="359" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="359" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" s="13"/>
@@ -6261,7 +6422,7 @@
       <c r="G359" s="13"/>
       <c r="H359" s="14"/>
     </row>
-    <row r="360" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="360" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" s="13"/>
@@ -6271,7 +6432,7 @@
       <c r="G360" s="13"/>
       <c r="H360" s="14"/>
     </row>
-    <row r="361" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="361" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" s="13"/>
@@ -6281,7 +6442,7 @@
       <c r="G361" s="13"/>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="362" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
       <c r="C362" s="13"/>
@@ -6291,7 +6452,7 @@
       <c r="G362" s="13"/>
       <c r="H362" s="14"/>
     </row>
-    <row r="363" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="363" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
       <c r="C363" s="13"/>
@@ -6301,7 +6462,7 @@
       <c r="G363" s="13"/>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="364" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
       <c r="C364" s="13"/>
@@ -6311,7 +6472,7 @@
       <c r="G364" s="13"/>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="365" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
       <c r="C365" s="13"/>
@@ -6321,7 +6482,7 @@
       <c r="G365" s="13"/>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="366" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" s="13"/>
@@ -6331,7 +6492,7 @@
       <c r="G366" s="13"/>
       <c r="H366" s="14"/>
     </row>
-    <row r="367" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="367" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" s="13"/>
@@ -6341,7 +6502,7 @@
       <c r="G367" s="13"/>
       <c r="H367" s="14"/>
     </row>
-    <row r="368" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="368" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" s="13"/>
@@ -6351,7 +6512,7 @@
       <c r="G368" s="13"/>
       <c r="H368" s="14"/>
     </row>
-    <row r="369" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="369" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" s="13"/>
@@ -6361,7 +6522,7 @@
       <c r="G369" s="13"/>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="370" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" s="13"/>
@@ -6371,7 +6532,7 @@
       <c r="G370" s="13"/>
       <c r="H370" s="14"/>
     </row>
-    <row r="371" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="371" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
       <c r="C371" s="13"/>
@@ -6381,7 +6542,7 @@
       <c r="G371" s="13"/>
       <c r="H371" s="14"/>
     </row>
-    <row r="372" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="372" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
       <c r="C372" s="13"/>
@@ -6391,7 +6552,7 @@
       <c r="G372" s="13"/>
       <c r="H372" s="14"/>
     </row>
-    <row r="373" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="373" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
       <c r="C373" s="13"/>
@@ -6401,7 +6562,7 @@
       <c r="G373" s="13"/>
       <c r="H373" s="14"/>
     </row>
-    <row r="374" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="374" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A374" s="14"/>
       <c r="B374" s="14"/>
       <c r="C374" s="13"/>
@@ -6411,7 +6572,7 @@
       <c r="G374" s="13"/>
       <c r="H374" s="14"/>
     </row>
-    <row r="375" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="375" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A375" s="14"/>
       <c r="B375" s="14"/>
       <c r="C375" s="13"/>
@@ -6421,7 +6582,7 @@
       <c r="G375" s="13"/>
       <c r="H375" s="14"/>
     </row>
-    <row r="376" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="376" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A376" s="14"/>
       <c r="B376" s="14"/>
       <c r="C376" s="13"/>
@@ -6431,7 +6592,7 @@
       <c r="G376" s="13"/>
       <c r="H376" s="14"/>
     </row>
-    <row r="377" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="377" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A377" s="14"/>
       <c r="B377" s="14"/>
       <c r="C377" s="13"/>
@@ -6441,7 +6602,7 @@
       <c r="G377" s="13"/>
       <c r="H377" s="14"/>
     </row>
-    <row r="378" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="378" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
       <c r="C378" s="13"/>
@@ -6451,7 +6612,7 @@
       <c r="G378" s="13"/>
       <c r="H378" s="14"/>
     </row>
-    <row r="379" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="379" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
       <c r="C379" s="13"/>
@@ -6461,7 +6622,7 @@
       <c r="G379" s="13"/>
       <c r="H379" s="14"/>
     </row>
-    <row r="380" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="380" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A380" s="14"/>
       <c r="B380" s="14"/>
       <c r="C380" s="13"/>
@@ -6471,7 +6632,7 @@
       <c r="G380" s="13"/>
       <c r="H380" s="14"/>
     </row>
-    <row r="381" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="381" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A381" s="14"/>
       <c r="B381" s="14"/>
       <c r="C381" s="13"/>
@@ -6481,7 +6642,7 @@
       <c r="G381" s="13"/>
       <c r="H381" s="14"/>
     </row>
-    <row r="382" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="382" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A382" s="14"/>
       <c r="B382" s="14"/>
       <c r="C382" s="13"/>
@@ -6491,7 +6652,7 @@
       <c r="G382" s="13"/>
       <c r="H382" s="14"/>
     </row>
-    <row r="383" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="383" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
       <c r="C383" s="13"/>
@@ -6501,7 +6662,7 @@
       <c r="G383" s="13"/>
       <c r="H383" s="14"/>
     </row>
-    <row r="384" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="384" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A384" s="14"/>
       <c r="B384" s="14"/>
       <c r="C384" s="13"/>
@@ -6511,7 +6672,7 @@
       <c r="G384" s="13"/>
       <c r="H384" s="14"/>
     </row>
-    <row r="385" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="385" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A385" s="14"/>
       <c r="B385" s="14"/>
       <c r="C385" s="13"/>
@@ -6521,7 +6682,7 @@
       <c r="G385" s="13"/>
       <c r="H385" s="14"/>
     </row>
-    <row r="386" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="386" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A386" s="14"/>
       <c r="B386" s="14"/>
       <c r="C386" s="13"/>
@@ -6531,7 +6692,7 @@
       <c r="G386" s="13"/>
       <c r="H386" s="14"/>
     </row>
-    <row r="387" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="387" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A387" s="14"/>
       <c r="B387" s="14"/>
       <c r="C387" s="13"/>
@@ -6541,7 +6702,7 @@
       <c r="G387" s="13"/>
       <c r="H387" s="14"/>
     </row>
-    <row r="388" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="388" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" s="13"/>
@@ -6551,7 +6712,7 @@
       <c r="G388" s="13"/>
       <c r="H388" s="14"/>
     </row>
-    <row r="389" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="389" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A389" s="14"/>
       <c r="B389" s="14"/>
       <c r="C389" s="13"/>
@@ -6561,7 +6722,7 @@
       <c r="G389" s="13"/>
       <c r="H389" s="14"/>
     </row>
-    <row r="390" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="390" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A390" s="14"/>
       <c r="B390" s="14"/>
       <c r="C390" s="13"/>
@@ -6571,7 +6732,7 @@
       <c r="G390" s="13"/>
       <c r="H390" s="14"/>
     </row>
-    <row r="391" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="391" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A391" s="14"/>
       <c r="B391" s="14"/>
       <c r="C391" s="13"/>
@@ -6581,7 +6742,7 @@
       <c r="G391" s="13"/>
       <c r="H391" s="14"/>
     </row>
-    <row r="392" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="392" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A392" s="14"/>
       <c r="B392" s="14"/>
       <c r="C392" s="13"/>
@@ -6591,7 +6752,7 @@
       <c r="G392" s="13"/>
       <c r="H392" s="14"/>
     </row>
-    <row r="393" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="393" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
       <c r="C393" s="13"/>
@@ -6601,7 +6762,7 @@
       <c r="G393" s="13"/>
       <c r="H393" s="14"/>
     </row>
-    <row r="394" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="394" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A394" s="14"/>
       <c r="B394" s="14"/>
       <c r="C394" s="13"/>
@@ -6611,7 +6772,7 @@
       <c r="G394" s="13"/>
       <c r="H394" s="14"/>
     </row>
-    <row r="395" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="395" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A395" s="14"/>
       <c r="B395" s="14"/>
       <c r="C395" s="13"/>
@@ -6621,7 +6782,7 @@
       <c r="G395" s="13"/>
       <c r="H395" s="14"/>
     </row>
-    <row r="396" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="396" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A396" s="14"/>
       <c r="B396" s="14"/>
       <c r="C396" s="13"/>
@@ -6631,7 +6792,7 @@
       <c r="G396" s="13"/>
       <c r="H396" s="14"/>
     </row>
-    <row r="397" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="397" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
       <c r="C397" s="13"/>
@@ -6641,7 +6802,7 @@
       <c r="G397" s="13"/>
       <c r="H397" s="14"/>
     </row>
-    <row r="398" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="398" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
       <c r="C398" s="13"/>
@@ -6651,7 +6812,7 @@
       <c r="G398" s="13"/>
       <c r="H398" s="14"/>
     </row>
-    <row r="399" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="399" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A399" s="14"/>
       <c r="B399" s="14"/>
       <c r="C399" s="13"/>
@@ -6661,7 +6822,7 @@
       <c r="G399" s="13"/>
       <c r="H399" s="14"/>
     </row>
-    <row r="400" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="400" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
       <c r="C400" s="13"/>
@@ -6671,7 +6832,7 @@
       <c r="G400" s="13"/>
       <c r="H400" s="14"/>
     </row>
-    <row r="401" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="401" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A401" s="14"/>
       <c r="B401" s="14"/>
       <c r="C401" s="13"/>
@@ -6681,7 +6842,7 @@
       <c r="G401" s="13"/>
       <c r="H401" s="14"/>
     </row>
-    <row r="402" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="402" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" s="13"/>
@@ -6691,7 +6852,7 @@
       <c r="G402" s="13"/>
       <c r="H402" s="14"/>
     </row>
-    <row r="403" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="403" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" s="13"/>
@@ -6701,7 +6862,7 @@
       <c r="G403" s="13"/>
       <c r="H403" s="14"/>
     </row>
-    <row r="404" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="404" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" s="13"/>
@@ -6711,7 +6872,7 @@
       <c r="G404" s="13"/>
       <c r="H404" s="14"/>
     </row>
-    <row r="405" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="405" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
       <c r="C405" s="13"/>
@@ -6721,7 +6882,7 @@
       <c r="G405" s="13"/>
       <c r="H405" s="14"/>
     </row>
-    <row r="406" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="406" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" s="13"/>
@@ -6731,7 +6892,7 @@
       <c r="G406" s="13"/>
       <c r="H406" s="14"/>
     </row>
-    <row r="407" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="407" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" s="13"/>
@@ -6741,7 +6902,7 @@
       <c r="G407" s="13"/>
       <c r="H407" s="14"/>
     </row>
-    <row r="408" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="408" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" s="13"/>
@@ -6751,7 +6912,7 @@
       <c r="G408" s="13"/>
       <c r="H408" s="14"/>
     </row>
-    <row r="409" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="409" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" s="13"/>
@@ -6761,7 +6922,7 @@
       <c r="G409" s="13"/>
       <c r="H409" s="14"/>
     </row>
-    <row r="410" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="410" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" s="13"/>
@@ -6771,7 +6932,7 @@
       <c r="G410" s="13"/>
       <c r="H410" s="14"/>
     </row>
-    <row r="411" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="411" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A411" s="14"/>
       <c r="B411" s="14"/>
       <c r="C411" s="13"/>
@@ -6781,7 +6942,7 @@
       <c r="G411" s="13"/>
       <c r="H411" s="14"/>
     </row>
-    <row r="412" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="412" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A412" s="14"/>
       <c r="B412" s="14"/>
       <c r="C412" s="13"/>
@@ -6791,7 +6952,7 @@
       <c r="G412" s="13"/>
       <c r="H412" s="14"/>
     </row>
-    <row r="413" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="413" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A413" s="14"/>
       <c r="B413" s="14"/>
       <c r="C413" s="13"/>
@@ -6801,7 +6962,7 @@
       <c r="G413" s="13"/>
       <c r="H413" s="14"/>
     </row>
-    <row r="414" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="414" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A414" s="14"/>
       <c r="B414" s="14"/>
       <c r="C414" s="13"/>
@@ -6811,7 +6972,7 @@
       <c r="G414" s="13"/>
       <c r="H414" s="14"/>
     </row>
-    <row r="415" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="415" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A415" s="14"/>
       <c r="B415" s="14"/>
       <c r="C415" s="13"/>
@@ -6821,7 +6982,7 @@
       <c r="G415" s="13"/>
       <c r="H415" s="14"/>
     </row>
-    <row r="416" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="416" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A416" s="14"/>
       <c r="B416" s="14"/>
       <c r="C416" s="13"/>
@@ -6831,7 +6992,7 @@
       <c r="G416" s="13"/>
       <c r="H416" s="14"/>
     </row>
-    <row r="417" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="417" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A417" s="14"/>
       <c r="B417" s="14"/>
       <c r="C417" s="13"/>
@@ -6841,7 +7002,7 @@
       <c r="G417" s="13"/>
       <c r="H417" s="14"/>
     </row>
-    <row r="418" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="418" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A418" s="14"/>
       <c r="B418" s="14"/>
       <c r="C418" s="13"/>
@@ -6851,7 +7012,7 @@
       <c r="G418" s="13"/>
       <c r="H418" s="14"/>
     </row>
-    <row r="419" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="419" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A419" s="14"/>
       <c r="B419" s="14"/>
       <c r="C419" s="13"/>
@@ -6861,7 +7022,7 @@
       <c r="G419" s="13"/>
       <c r="H419" s="14"/>
     </row>
-    <row r="420" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="420" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A420" s="14"/>
       <c r="B420" s="14"/>
       <c r="C420" s="13"/>
@@ -6871,7 +7032,7 @@
       <c r="G420" s="13"/>
       <c r="H420" s="14"/>
     </row>
-    <row r="421" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="421" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A421" s="14"/>
       <c r="B421" s="14"/>
       <c r="C421" s="13"/>
@@ -6881,7 +7042,7 @@
       <c r="G421" s="13"/>
       <c r="H421" s="14"/>
     </row>
-    <row r="422" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="422" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A422" s="14"/>
       <c r="B422" s="14"/>
       <c r="C422" s="13"/>
@@ -6891,7 +7052,7 @@
       <c r="G422" s="13"/>
       <c r="H422" s="14"/>
     </row>
-    <row r="423" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="423" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A423" s="14"/>
       <c r="B423" s="14"/>
       <c r="C423" s="13"/>
@@ -6901,7 +7062,7 @@
       <c r="G423" s="13"/>
       <c r="H423" s="14"/>
     </row>
-    <row r="424" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="424" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A424" s="14"/>
       <c r="B424" s="14"/>
       <c r="C424" s="13"/>
@@ -6911,7 +7072,7 @@
       <c r="G424" s="13"/>
       <c r="H424" s="14"/>
     </row>
-    <row r="425" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="425" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A425" s="14"/>
       <c r="B425" s="14"/>
       <c r="C425" s="13"/>
@@ -6921,7 +7082,7 @@
       <c r="G425" s="13"/>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="426" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
       <c r="C426" s="13"/>
@@ -6931,7 +7092,7 @@
       <c r="G426" s="13"/>
       <c r="H426" s="14"/>
     </row>
-    <row r="427" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="427" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A427" s="14"/>
       <c r="B427" s="14"/>
       <c r="C427" s="13"/>
@@ -6941,7 +7102,7 @@
       <c r="G427" s="13"/>
       <c r="H427" s="14"/>
     </row>
-    <row r="428" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="428" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
       <c r="C428" s="13"/>
@@ -6951,7 +7112,7 @@
       <c r="G428" s="13"/>
       <c r="H428" s="14"/>
     </row>
-    <row r="429" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="429" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A429" s="14"/>
       <c r="B429" s="14"/>
       <c r="C429" s="13"/>
@@ -6961,7 +7122,7 @@
       <c r="G429" s="13"/>
       <c r="H429" s="14"/>
     </row>
-    <row r="430" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="430" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A430" s="14"/>
       <c r="B430" s="14"/>
       <c r="C430" s="13"/>
@@ -6971,7 +7132,7 @@
       <c r="G430" s="13"/>
       <c r="H430" s="14"/>
     </row>
-    <row r="431" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="431" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A431" s="14"/>
       <c r="B431" s="14"/>
       <c r="C431" s="13"/>
@@ -6981,7 +7142,7 @@
       <c r="G431" s="13"/>
       <c r="H431" s="14"/>
     </row>
-    <row r="432" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="432" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A432" s="14"/>
       <c r="B432" s="14"/>
       <c r="C432" s="13"/>
@@ -6991,7 +7152,7 @@
       <c r="G432" s="13"/>
       <c r="H432" s="14"/>
     </row>
-    <row r="433" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="433" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A433" s="14"/>
       <c r="B433" s="14"/>
       <c r="C433" s="13"/>
@@ -7001,7 +7162,7 @@
       <c r="G433" s="13"/>
       <c r="H433" s="14"/>
     </row>
-    <row r="434" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="434" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="13"/>
@@ -7011,7 +7172,7 @@
       <c r="G434" s="13"/>
       <c r="H434" s="14"/>
     </row>
-    <row r="435" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="435" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A435" s="14"/>
       <c r="B435" s="14"/>
       <c r="C435" s="13"/>
@@ -7021,7 +7182,7 @@
       <c r="G435" s="13"/>
       <c r="H435" s="14"/>
     </row>
-    <row r="436" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="436" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A436" s="14"/>
       <c r="B436" s="14"/>
       <c r="C436" s="13"/>
@@ -7031,7 +7192,7 @@
       <c r="G436" s="13"/>
       <c r="H436" s="14"/>
     </row>
-    <row r="437" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="437" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A437" s="14"/>
       <c r="B437" s="14"/>
       <c r="C437" s="13"/>
@@ -7041,7 +7202,7 @@
       <c r="G437" s="13"/>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="438" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A438" s="14"/>
       <c r="B438" s="14"/>
       <c r="C438" s="13"/>
@@ -7051,7 +7212,7 @@
       <c r="G438" s="13"/>
       <c r="H438" s="14"/>
     </row>
-    <row r="439" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="439" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A439" s="14"/>
       <c r="B439" s="14"/>
       <c r="C439" s="13"/>
@@ -7061,7 +7222,7 @@
       <c r="G439" s="13"/>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="440" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A440" s="14"/>
       <c r="B440" s="14"/>
       <c r="C440" s="13"/>
@@ -7071,7 +7232,7 @@
       <c r="G440" s="13"/>
       <c r="H440" s="14"/>
     </row>
-    <row r="441" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="441" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A441" s="14"/>
       <c r="B441" s="14"/>
       <c r="C441" s="13"/>
@@ -7081,7 +7242,7 @@
       <c r="G441" s="13"/>
       <c r="H441" s="14"/>
     </row>
-    <row r="442" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="442" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A442" s="14"/>
       <c r="B442" s="14"/>
       <c r="C442" s="13"/>
@@ -7091,7 +7252,7 @@
       <c r="G442" s="13"/>
       <c r="H442" s="14"/>
     </row>
-    <row r="443" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="443" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="13"/>
@@ -7101,7 +7262,7 @@
       <c r="G443" s="13"/>
       <c r="H443" s="14"/>
     </row>
-    <row r="444" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="444" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="13"/>
@@ -7111,7 +7272,7 @@
       <c r="G444" s="13"/>
       <c r="H444" s="14"/>
     </row>
-    <row r="445" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="445" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="13"/>
@@ -7121,7 +7282,7 @@
       <c r="G445" s="13"/>
       <c r="H445" s="14"/>
     </row>
-    <row r="446" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="446" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A446" s="14"/>
       <c r="B446" s="14"/>
       <c r="C446" s="13"/>
@@ -7131,7 +7292,7 @@
       <c r="G446" s="13"/>
       <c r="H446" s="14"/>
     </row>
-    <row r="447" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="447" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A447" s="14"/>
       <c r="B447" s="14"/>
       <c r="C447" s="13"/>
@@ -7141,7 +7302,7 @@
       <c r="G447" s="13"/>
       <c r="H447" s="14"/>
     </row>
-    <row r="448" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="448" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A448" s="14"/>
       <c r="B448" s="14"/>
       <c r="C448" s="13"/>
@@ -7151,7 +7312,7 @@
       <c r="G448" s="13"/>
       <c r="H448" s="14"/>
     </row>
-    <row r="449" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="449" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A449" s="14"/>
       <c r="B449" s="14"/>
       <c r="C449" s="13"/>
@@ -7161,7 +7322,7 @@
       <c r="G449" s="13"/>
       <c r="H449" s="14"/>
     </row>
-    <row r="450" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="450" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A450" s="14"/>
       <c r="B450" s="14"/>
       <c r="C450" s="13"/>
@@ -7171,7 +7332,7 @@
       <c r="G450" s="13"/>
       <c r="H450" s="14"/>
     </row>
-    <row r="451" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="451" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A451" s="14"/>
       <c r="B451" s="14"/>
       <c r="C451" s="13"/>
@@ -7181,7 +7342,7 @@
       <c r="G451" s="13"/>
       <c r="H451" s="14"/>
     </row>
-    <row r="452" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="452" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A452" s="14"/>
       <c r="B452" s="14"/>
       <c r="C452" s="13"/>
@@ -7191,7 +7352,7 @@
       <c r="G452" s="13"/>
       <c r="H452" s="14"/>
     </row>
-    <row r="453" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="453" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A453" s="14"/>
       <c r="B453" s="14"/>
       <c r="C453" s="13"/>
@@ -7201,7 +7362,7 @@
       <c r="G453" s="13"/>
       <c r="H453" s="14"/>
     </row>
-    <row r="454" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="454" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A454" s="14"/>
       <c r="B454" s="14"/>
       <c r="C454" s="13"/>
@@ -7211,7 +7372,7 @@
       <c r="G454" s="13"/>
       <c r="H454" s="14"/>
     </row>
-    <row r="455" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="455" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A455" s="14"/>
       <c r="B455" s="14"/>
       <c r="C455" s="13"/>
@@ -7221,7 +7382,7 @@
       <c r="G455" s="13"/>
       <c r="H455" s="14"/>
     </row>
-    <row r="456" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="456" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A456" s="14"/>
       <c r="B456" s="14"/>
       <c r="C456" s="13"/>
@@ -7231,7 +7392,7 @@
       <c r="G456" s="13"/>
       <c r="H456" s="14"/>
     </row>
-    <row r="457" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="457" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
       <c r="C457" s="13"/>
@@ -7241,7 +7402,7 @@
       <c r="G457" s="13"/>
       <c r="H457" s="14"/>
     </row>
-    <row r="458" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="458" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
       <c r="C458" s="13"/>
@@ -7251,7 +7412,7 @@
       <c r="G458" s="13"/>
       <c r="H458" s="14"/>
     </row>
-    <row r="459" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="459" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A459" s="14"/>
       <c r="B459" s="14"/>
       <c r="C459" s="13"/>
@@ -7261,7 +7422,7 @@
       <c r="G459" s="13"/>
       <c r="H459" s="14"/>
     </row>
-    <row r="460" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="460" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A460" s="14"/>
       <c r="B460" s="14"/>
       <c r="C460" s="13"/>
@@ -7271,7 +7432,7 @@
       <c r="G460" s="13"/>
       <c r="H460" s="14"/>
     </row>
-    <row r="461" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="461" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
       <c r="C461" s="13"/>
@@ -7281,7 +7442,7 @@
       <c r="G461" s="13"/>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="462" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A462" s="14"/>
       <c r="B462" s="14"/>
       <c r="C462" s="13"/>
@@ -7291,7 +7452,7 @@
       <c r="G462" s="13"/>
       <c r="H462" s="14"/>
     </row>
-    <row r="463" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="463" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A463" s="14"/>
       <c r="B463" s="14"/>
       <c r="C463" s="13"/>
@@ -7301,7 +7462,7 @@
       <c r="G463" s="13"/>
       <c r="H463" s="14"/>
     </row>
-    <row r="464" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="464" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A464" s="14"/>
       <c r="B464" s="14"/>
       <c r="C464" s="13"/>
@@ -7311,7 +7472,7 @@
       <c r="G464" s="13"/>
       <c r="H464" s="14"/>
     </row>
-    <row r="465" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="465" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A465" s="14"/>
       <c r="B465" s="14"/>
       <c r="C465" s="13"/>
@@ -7321,7 +7482,7 @@
       <c r="G465" s="13"/>
       <c r="H465" s="14"/>
     </row>
-    <row r="466" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="466" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A466" s="14"/>
       <c r="B466" s="14"/>
       <c r="C466" s="13"/>
@@ -7331,7 +7492,7 @@
       <c r="G466" s="13"/>
       <c r="H466" s="14"/>
     </row>
-    <row r="467" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="467" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A467" s="14"/>
       <c r="B467" s="14"/>
       <c r="C467" s="13"/>
@@ -7341,7 +7502,7 @@
       <c r="G467" s="13"/>
       <c r="H467" s="14"/>
     </row>
-    <row r="468" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="468" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A468" s="14"/>
       <c r="B468" s="14"/>
       <c r="C468" s="13"/>
@@ -7351,7 +7512,7 @@
       <c r="G468" s="13"/>
       <c r="H468" s="14"/>
     </row>
-    <row r="469" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="469" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A469" s="14"/>
       <c r="B469" s="14"/>
       <c r="C469" s="13"/>
@@ -7361,7 +7522,7 @@
       <c r="G469" s="13"/>
       <c r="H469" s="14"/>
     </row>
-    <row r="470" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="470" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A470" s="14"/>
       <c r="B470" s="14"/>
       <c r="C470" s="13"/>
@@ -7371,7 +7532,7 @@
       <c r="G470" s="13"/>
       <c r="H470" s="14"/>
     </row>
-    <row r="471" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="471" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A471" s="14"/>
       <c r="B471" s="14"/>
       <c r="C471" s="13"/>
@@ -7381,7 +7542,7 @@
       <c r="G471" s="13"/>
       <c r="H471" s="14"/>
     </row>
-    <row r="472" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="472" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A472" s="14"/>
       <c r="B472" s="14"/>
       <c r="C472" s="13"/>
@@ -7391,7 +7552,7 @@
       <c r="G472" s="13"/>
       <c r="H472" s="14"/>
     </row>
-    <row r="473" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="473" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A473" s="14"/>
       <c r="B473" s="14"/>
       <c r="C473" s="13"/>
@@ -7401,7 +7562,7 @@
       <c r="G473" s="13"/>
       <c r="H473" s="14"/>
     </row>
-    <row r="474" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="474" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A474" s="14"/>
       <c r="B474" s="14"/>
       <c r="C474" s="13"/>
@@ -7411,7 +7572,7 @@
       <c r="G474" s="13"/>
       <c r="H474" s="14"/>
     </row>
-    <row r="475" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="475" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A475" s="14"/>
       <c r="B475" s="14"/>
       <c r="C475" s="13"/>
@@ -7421,7 +7582,7 @@
       <c r="G475" s="13"/>
       <c r="H475" s="14"/>
     </row>
-    <row r="476" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="476" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A476" s="14"/>
       <c r="B476" s="14"/>
       <c r="C476" s="13"/>
@@ -7431,7 +7592,7 @@
       <c r="G476" s="13"/>
       <c r="H476" s="14"/>
     </row>
-    <row r="477" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="477" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A477" s="14"/>
       <c r="B477" s="14"/>
       <c r="C477" s="13"/>
@@ -7441,7 +7602,7 @@
       <c r="G477" s="13"/>
       <c r="H477" s="14"/>
     </row>
-    <row r="478" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="478" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A478" s="14"/>
       <c r="B478" s="14"/>
       <c r="C478" s="13"/>
@@ -7451,7 +7612,7 @@
       <c r="G478" s="13"/>
       <c r="H478" s="14"/>
     </row>
-    <row r="479" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="479" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A479" s="14"/>
       <c r="B479" s="14"/>
       <c r="C479" s="13"/>
@@ -7461,7 +7622,7 @@
       <c r="G479" s="13"/>
       <c r="H479" s="14"/>
     </row>
-    <row r="480" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="480" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A480" s="14"/>
       <c r="B480" s="14"/>
       <c r="C480" s="13"/>
@@ -7471,7 +7632,7 @@
       <c r="G480" s="13"/>
       <c r="H480" s="14"/>
     </row>
-    <row r="481" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="481" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A481" s="14"/>
       <c r="B481" s="14"/>
       <c r="C481" s="13"/>
@@ -7481,7 +7642,7 @@
       <c r="G481" s="13"/>
       <c r="H481" s="14"/>
     </row>
-    <row r="482" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="482" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A482" s="14"/>
       <c r="B482" s="14"/>
       <c r="C482" s="13"/>
@@ -7491,7 +7652,7 @@
       <c r="G482" s="13"/>
       <c r="H482" s="14"/>
     </row>
-    <row r="483" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="483" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A483" s="14"/>
       <c r="B483" s="14"/>
       <c r="C483" s="13"/>
@@ -7501,7 +7662,7 @@
       <c r="G483" s="13"/>
       <c r="H483" s="14"/>
     </row>
-    <row r="484" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="484" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A484" s="14"/>
       <c r="B484" s="14"/>
       <c r="C484" s="13"/>
@@ -7511,7 +7672,7 @@
       <c r="G484" s="13"/>
       <c r="H484" s="14"/>
     </row>
-    <row r="485" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="485" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A485" s="14"/>
       <c r="B485" s="14"/>
       <c r="C485" s="13"/>
@@ -7521,7 +7682,7 @@
       <c r="G485" s="13"/>
       <c r="H485" s="14"/>
     </row>
-    <row r="486" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="486" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A486" s="14"/>
       <c r="B486" s="14"/>
       <c r="C486" s="13"/>
@@ -7531,7 +7692,7 @@
       <c r="G486" s="13"/>
       <c r="H486" s="14"/>
     </row>
-    <row r="487" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="487" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A487" s="14"/>
       <c r="B487" s="14"/>
       <c r="C487" s="13"/>
@@ -7541,7 +7702,7 @@
       <c r="G487" s="13"/>
       <c r="H487" s="14"/>
     </row>
-    <row r="488" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="488" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A488" s="14"/>
       <c r="B488" s="14"/>
       <c r="C488" s="13"/>
@@ -7551,7 +7712,7 @@
       <c r="G488" s="13"/>
       <c r="H488" s="14"/>
     </row>
-    <row r="489" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="489" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A489" s="14"/>
       <c r="B489" s="14"/>
       <c r="C489" s="13"/>
@@ -7561,7 +7722,7 @@
       <c r="G489" s="13"/>
       <c r="H489" s="14"/>
     </row>
-    <row r="490" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="490" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A490" s="14"/>
       <c r="B490" s="14"/>
       <c r="C490" s="13"/>
@@ -7571,7 +7732,7 @@
       <c r="G490" s="13"/>
       <c r="H490" s="14"/>
     </row>
-    <row r="491" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="491" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A491" s="14"/>
       <c r="B491" s="14"/>
       <c r="C491" s="13"/>
@@ -7581,7 +7742,7 @@
       <c r="G491" s="13"/>
       <c r="H491" s="14"/>
     </row>
-    <row r="492" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="492" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A492" s="14"/>
       <c r="B492" s="14"/>
       <c r="C492" s="13"/>
@@ -7591,7 +7752,7 @@
       <c r="G492" s="13"/>
       <c r="H492" s="14"/>
     </row>
-    <row r="493" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="493" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A493" s="14"/>
       <c r="B493" s="14"/>
       <c r="C493" s="13"/>
@@ -7601,7 +7762,7 @@
       <c r="G493" s="13"/>
       <c r="H493" s="14"/>
     </row>
-    <row r="494" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="494" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A494" s="14"/>
       <c r="B494" s="14"/>
       <c r="C494" s="13"/>
@@ -7611,7 +7772,7 @@
       <c r="G494" s="13"/>
       <c r="H494" s="14"/>
     </row>
-    <row r="495" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="495" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A495" s="14"/>
       <c r="B495" s="14"/>
       <c r="C495" s="13"/>
@@ -7621,7 +7782,7 @@
       <c r="G495" s="13"/>
       <c r="H495" s="14"/>
     </row>
-    <row r="496" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="496" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A496" s="14"/>
       <c r="B496" s="14"/>
       <c r="C496" s="13"/>
@@ -7631,7 +7792,7 @@
       <c r="G496" s="13"/>
       <c r="H496" s="14"/>
     </row>
-    <row r="497" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="497" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A497" s="14"/>
       <c r="B497" s="14"/>
       <c r="C497" s="13"/>
@@ -7641,7 +7802,7 @@
       <c r="G497" s="13"/>
       <c r="H497" s="14"/>
     </row>
-    <row r="498" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="498" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A498" s="14"/>
       <c r="B498" s="14"/>
       <c r="C498" s="13"/>
@@ -7651,7 +7812,7 @@
       <c r="G498" s="13"/>
       <c r="H498" s="14"/>
     </row>
-    <row r="499" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="499" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A499" s="14"/>
       <c r="B499" s="14"/>
       <c r="C499" s="13"/>
@@ -7661,7 +7822,7 @@
       <c r="G499" s="13"/>
       <c r="H499" s="14"/>
     </row>
-    <row r="500" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="500" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A500" s="14"/>
       <c r="B500" s="14"/>
       <c r="C500" s="13"/>
@@ -7671,7 +7832,7 @@
       <c r="G500" s="13"/>
       <c r="H500" s="14"/>
     </row>
-    <row r="501" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="501" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A501" s="14"/>
       <c r="B501" s="14"/>
       <c r="C501" s="13"/>
@@ -7681,7 +7842,7 @@
       <c r="G501" s="13"/>
       <c r="H501" s="14"/>
     </row>
-    <row r="502" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="502" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A502" s="14"/>
       <c r="B502" s="14"/>
       <c r="C502" s="13"/>
@@ -7691,7 +7852,7 @@
       <c r="G502" s="13"/>
       <c r="H502" s="14"/>
     </row>
-    <row r="503" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="503" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A503" s="14"/>
       <c r="B503" s="14"/>
       <c r="C503" s="13"/>
@@ -7701,7 +7862,7 @@
       <c r="G503" s="13"/>
       <c r="H503" s="14"/>
     </row>
-    <row r="504" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="504" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A504" s="14"/>
       <c r="B504" s="14"/>
       <c r="C504" s="13"/>
@@ -7711,7 +7872,7 @@
       <c r="G504" s="13"/>
       <c r="H504" s="14"/>
     </row>
-    <row r="505" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="505" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A505" s="14"/>
       <c r="B505" s="14"/>
       <c r="C505" s="13"/>
@@ -7721,7 +7882,7 @@
       <c r="G505" s="13"/>
       <c r="H505" s="14"/>
     </row>
-    <row r="506" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="506" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A506" s="14"/>
       <c r="B506" s="14"/>
       <c r="C506" s="13"/>
@@ -7731,7 +7892,7 @@
       <c r="G506" s="13"/>
       <c r="H506" s="14"/>
     </row>
-    <row r="507" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="507" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A507" s="14"/>
       <c r="B507" s="14"/>
       <c r="C507" s="13"/>
@@ -7741,7 +7902,7 @@
       <c r="G507" s="13"/>
       <c r="H507" s="14"/>
     </row>
-    <row r="508" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="508" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A508" s="14"/>
       <c r="B508" s="14"/>
       <c r="C508" s="13"/>
@@ -7751,7 +7912,7 @@
       <c r="G508" s="13"/>
       <c r="H508" s="14"/>
     </row>
-    <row r="509" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="509" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A509" s="14"/>
       <c r="B509" s="14"/>
       <c r="C509" s="13"/>
@@ -7761,7 +7922,7 @@
       <c r="G509" s="13"/>
       <c r="H509" s="14"/>
     </row>
-    <row r="510" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="510" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A510" s="14"/>
       <c r="B510" s="14"/>
       <c r="C510" s="13"/>
@@ -7771,7 +7932,7 @@
       <c r="G510" s="13"/>
       <c r="H510" s="14"/>
     </row>
-    <row r="511" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="511" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A511" s="14"/>
       <c r="B511" s="14"/>
       <c r="C511" s="13"/>
@@ -7781,7 +7942,7 @@
       <c r="G511" s="13"/>
       <c r="H511" s="14"/>
     </row>
-    <row r="512" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="512" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A512" s="14"/>
       <c r="B512" s="14"/>
       <c r="C512" s="13"/>
@@ -7791,7 +7952,7 @@
       <c r="G512" s="13"/>
       <c r="H512" s="14"/>
     </row>
-    <row r="513" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="513" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A513" s="14"/>
       <c r="B513" s="14"/>
       <c r="C513" s="13"/>
@@ -7801,7 +7962,7 @@
       <c r="G513" s="13"/>
       <c r="H513" s="14"/>
     </row>
-    <row r="514" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="514" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A514" s="14"/>
       <c r="B514" s="14"/>
       <c r="C514" s="13"/>
@@ -7811,7 +7972,7 @@
       <c r="G514" s="13"/>
       <c r="H514" s="14"/>
     </row>
-    <row r="515" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="515" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A515" s="14"/>
       <c r="B515" s="14"/>
       <c r="C515" s="13"/>
@@ -7821,7 +7982,7 @@
       <c r="G515" s="13"/>
       <c r="H515" s="14"/>
     </row>
-    <row r="516" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="516" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A516" s="14"/>
       <c r="B516" s="14"/>
       <c r="C516" s="13"/>
@@ -7831,7 +7992,7 @@
       <c r="G516" s="13"/>
       <c r="H516" s="14"/>
     </row>
-    <row r="517" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="517" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A517" s="14"/>
       <c r="B517" s="14"/>
       <c r="C517" s="13"/>
@@ -7841,7 +8002,7 @@
       <c r="G517" s="13"/>
       <c r="H517" s="14"/>
     </row>
-    <row r="518" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="518" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A518" s="14"/>
       <c r="B518" s="14"/>
       <c r="C518" s="13"/>
@@ -7851,7 +8012,7 @@
       <c r="G518" s="13"/>
       <c r="H518" s="14"/>
     </row>
-    <row r="519" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="519" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A519" s="14"/>
       <c r="B519" s="14"/>
       <c r="C519" s="13"/>
@@ -7861,7 +8022,7 @@
       <c r="G519" s="13"/>
       <c r="H519" s="14"/>
     </row>
-    <row r="520" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="520" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A520" s="14"/>
       <c r="B520" s="14"/>
       <c r="C520" s="13"/>
@@ -7871,7 +8032,7 @@
       <c r="G520" s="13"/>
       <c r="H520" s="14"/>
     </row>
-    <row r="521" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="521" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A521" s="14"/>
       <c r="B521" s="14"/>
       <c r="C521" s="13"/>
@@ -7881,7 +8042,7 @@
       <c r="G521" s="13"/>
       <c r="H521" s="14"/>
     </row>
-    <row r="522" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="522" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A522" s="14"/>
       <c r="B522" s="14"/>
       <c r="C522" s="13"/>
@@ -7891,7 +8052,7 @@
       <c r="G522" s="13"/>
       <c r="H522" s="14"/>
     </row>
-    <row r="523" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="523" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A523" s="14"/>
       <c r="B523" s="14"/>
       <c r="C523" s="13"/>
@@ -7901,7 +8062,7 @@
       <c r="G523" s="13"/>
       <c r="H523" s="14"/>
     </row>
-    <row r="524" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="524" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A524" s="14"/>
       <c r="B524" s="14"/>
       <c r="C524" s="13"/>
@@ -7911,7 +8072,7 @@
       <c r="G524" s="13"/>
       <c r="H524" s="14"/>
     </row>
-    <row r="525" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="525" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A525" s="14"/>
       <c r="B525" s="14"/>
       <c r="C525" s="13"/>
@@ -7921,7 +8082,7 @@
       <c r="G525" s="13"/>
       <c r="H525" s="14"/>
     </row>
-    <row r="526" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="526" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A526" s="14"/>
       <c r="B526" s="14"/>
       <c r="C526" s="13"/>
@@ -7931,7 +8092,7 @@
       <c r="G526" s="13"/>
       <c r="H526" s="14"/>
     </row>
-    <row r="527" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="527" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A527" s="14"/>
       <c r="B527" s="14"/>
       <c r="C527" s="13"/>
@@ -7941,7 +8102,7 @@
       <c r="G527" s="13"/>
       <c r="H527" s="14"/>
     </row>
-    <row r="528" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="528" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A528" s="14"/>
       <c r="B528" s="14"/>
       <c r="C528" s="13"/>
@@ -7951,7 +8112,7 @@
       <c r="G528" s="13"/>
       <c r="H528" s="14"/>
     </row>
-    <row r="529" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="529" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A529" s="14"/>
       <c r="B529" s="14"/>
       <c r="C529" s="13"/>
@@ -7961,7 +8122,7 @@
       <c r="G529" s="13"/>
       <c r="H529" s="14"/>
     </row>
-    <row r="530" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="530" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A530" s="14"/>
       <c r="B530" s="14"/>
       <c r="C530" s="13"/>
@@ -7971,7 +8132,7 @@
       <c r="G530" s="13"/>
       <c r="H530" s="14"/>
     </row>
-    <row r="531" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="531" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A531" s="14"/>
       <c r="B531" s="14"/>
       <c r="C531" s="13"/>
@@ -7981,7 +8142,7 @@
       <c r="G531" s="13"/>
       <c r="H531" s="14"/>
     </row>
-    <row r="532" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="532" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A532" s="14"/>
       <c r="B532" s="14"/>
       <c r="C532" s="13"/>
@@ -7991,7 +8152,7 @@
       <c r="G532" s="13"/>
       <c r="H532" s="14"/>
     </row>
-    <row r="533" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="533" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A533" s="14"/>
       <c r="B533" s="14"/>
       <c r="C533" s="13"/>
@@ -8001,7 +8162,7 @@
       <c r="G533" s="13"/>
       <c r="H533" s="14"/>
     </row>
-    <row r="534" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="534" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A534" s="14"/>
       <c r="B534" s="14"/>
       <c r="C534" s="13"/>
@@ -8011,7 +8172,7 @@
       <c r="G534" s="13"/>
       <c r="H534" s="14"/>
     </row>
-    <row r="535" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="535" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A535" s="14"/>
       <c r="B535" s="14"/>
       <c r="C535" s="13"/>
@@ -8021,7 +8182,7 @@
       <c r="G535" s="13"/>
       <c r="H535" s="14"/>
     </row>
-    <row r="536" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="536" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A536" s="14"/>
       <c r="B536" s="14"/>
       <c r="C536" s="13"/>
@@ -8031,7 +8192,7 @@
       <c r="G536" s="13"/>
       <c r="H536" s="14"/>
     </row>
-    <row r="537" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="537" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A537" s="14"/>
       <c r="B537" s="14"/>
       <c r="C537" s="13"/>
@@ -8041,7 +8202,7 @@
       <c r="G537" s="13"/>
       <c r="H537" s="14"/>
     </row>
-    <row r="538" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="538" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A538" s="14"/>
       <c r="B538" s="14"/>
       <c r="C538" s="13"/>
@@ -8051,7 +8212,7 @@
       <c r="G538" s="13"/>
       <c r="H538" s="14"/>
     </row>
-    <row r="539" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="539" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A539" s="14"/>
       <c r="B539" s="14"/>
       <c r="C539" s="13"/>
@@ -8061,7 +8222,7 @@
       <c r="G539" s="13"/>
       <c r="H539" s="14"/>
     </row>
-    <row r="540" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="540" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="C540" s="13"/>
@@ -8071,7 +8232,7 @@
       <c r="G540" s="13"/>
       <c r="H540" s="14"/>
     </row>
-    <row r="541" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="541" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A541" s="14"/>
       <c r="B541" s="14"/>
       <c r="C541" s="13"/>
@@ -8081,7 +8242,7 @@
       <c r="G541" s="13"/>
       <c r="H541" s="14"/>
     </row>
-    <row r="542" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="542" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A542" s="14"/>
       <c r="B542" s="14"/>
       <c r="C542" s="13"/>
@@ -8091,7 +8252,7 @@
       <c r="G542" s="13"/>
       <c r="H542" s="14"/>
     </row>
-    <row r="543" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="543" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A543" s="14"/>
       <c r="B543" s="14"/>
       <c r="C543" s="13"/>
@@ -8101,7 +8262,7 @@
       <c r="G543" s="13"/>
       <c r="H543" s="14"/>
     </row>
-    <row r="544" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="544" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A544" s="14"/>
       <c r="B544" s="14"/>
       <c r="C544" s="13"/>
@@ -8111,7 +8272,7 @@
       <c r="G544" s="13"/>
       <c r="H544" s="14"/>
     </row>
-    <row r="545" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="545" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A545" s="14"/>
       <c r="B545" s="14"/>
       <c r="C545" s="13"/>
@@ -8121,7 +8282,7 @@
       <c r="G545" s="13"/>
       <c r="H545" s="14"/>
     </row>
-    <row r="546" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="546" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A546" s="14"/>
       <c r="B546" s="14"/>
       <c r="C546" s="13"/>
@@ -8131,7 +8292,7 @@
       <c r="G546" s="13"/>
       <c r="H546" s="14"/>
     </row>
-    <row r="547" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="547" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A547" s="14"/>
       <c r="B547" s="14"/>
       <c r="C547" s="13"/>
@@ -8141,7 +8302,7 @@
       <c r="G547" s="13"/>
       <c r="H547" s="14"/>
     </row>
-    <row r="548" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="548" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A548" s="14"/>
       <c r="B548" s="14"/>
       <c r="C548" s="13"/>
@@ -8151,7 +8312,7 @@
       <c r="G548" s="13"/>
       <c r="H548" s="14"/>
     </row>
-    <row r="549" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="549" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A549" s="14"/>
       <c r="B549" s="14"/>
       <c r="C549" s="13"/>
@@ -8161,7 +8322,7 @@
       <c r="G549" s="13"/>
       <c r="H549" s="14"/>
     </row>
-    <row r="550" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="550" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A550" s="14"/>
       <c r="B550" s="14"/>
       <c r="C550" s="13"/>
@@ -8171,7 +8332,7 @@
       <c r="G550" s="13"/>
       <c r="H550" s="14"/>
     </row>
-    <row r="551" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="551" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A551" s="14"/>
       <c r="B551" s="14"/>
       <c r="C551" s="13"/>
@@ -8181,7 +8342,7 @@
       <c r="G551" s="13"/>
       <c r="H551" s="14"/>
     </row>
-    <row r="552" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="552" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A552" s="14"/>
       <c r="B552" s="14"/>
       <c r="C552" s="13"/>
@@ -8191,7 +8352,7 @@
       <c r="G552" s="13"/>
       <c r="H552" s="14"/>
     </row>
-    <row r="553" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="553" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A553" s="14"/>
       <c r="B553" s="14"/>
       <c r="C553" s="13"/>
@@ -8201,7 +8362,7 @@
       <c r="G553" s="13"/>
       <c r="H553" s="14"/>
     </row>
-    <row r="554" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="554" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A554" s="14"/>
       <c r="B554" s="14"/>
       <c r="C554" s="13"/>
@@ -8211,7 +8372,7 @@
       <c r="G554" s="13"/>
       <c r="H554" s="14"/>
     </row>
-    <row r="555" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="555" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A555" s="14"/>
       <c r="B555" s="14"/>
       <c r="C555" s="13"/>
@@ -8221,7 +8382,7 @@
       <c r="G555" s="13"/>
       <c r="H555" s="14"/>
     </row>
-    <row r="556" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="556" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A556" s="14"/>
       <c r="B556" s="14"/>
       <c r="C556" s="13"/>
@@ -8231,7 +8392,7 @@
       <c r="G556" s="13"/>
       <c r="H556" s="14"/>
     </row>
-    <row r="557" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="557" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A557" s="14"/>
       <c r="B557" s="14"/>
       <c r="C557" s="13"/>
@@ -8241,7 +8402,7 @@
       <c r="G557" s="13"/>
       <c r="H557" s="14"/>
     </row>
-    <row r="558" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="558" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A558" s="14"/>
       <c r="B558" s="14"/>
       <c r="C558" s="13"/>
@@ -8251,7 +8412,7 @@
       <c r="G558" s="13"/>
       <c r="H558" s="14"/>
     </row>
-    <row r="559" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="559" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A559" s="14"/>
       <c r="B559" s="14"/>
       <c r="C559" s="13"/>
@@ -8261,7 +8422,7 @@
       <c r="G559" s="13"/>
       <c r="H559" s="14"/>
     </row>
-    <row r="560" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="560" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A560" s="14"/>
       <c r="B560" s="14"/>
       <c r="C560" s="13"/>
@@ -8271,7 +8432,7 @@
       <c r="G560" s="13"/>
       <c r="H560" s="14"/>
     </row>
-    <row r="561" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="561" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A561" s="14"/>
       <c r="B561" s="14"/>
       <c r="C561" s="13"/>
@@ -8281,7 +8442,7 @@
       <c r="G561" s="13"/>
       <c r="H561" s="14"/>
     </row>
-    <row r="562" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="562" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A562" s="14"/>
       <c r="B562" s="14"/>
       <c r="C562" s="13"/>
@@ -8291,7 +8452,7 @@
       <c r="G562" s="13"/>
       <c r="H562" s="14"/>
     </row>
-    <row r="563" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="563" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A563" s="14"/>
       <c r="B563" s="14"/>
       <c r="C563" s="13"/>
@@ -8301,7 +8462,7 @@
       <c r="G563" s="13"/>
       <c r="H563" s="14"/>
     </row>
-    <row r="564" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="564" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A564" s="14"/>
       <c r="B564" s="14"/>
       <c r="C564" s="13"/>
@@ -8311,7 +8472,7 @@
       <c r="G564" s="13"/>
       <c r="H564" s="14"/>
     </row>
-    <row r="565" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="565" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A565" s="14"/>
       <c r="B565" s="14"/>
       <c r="C565" s="13"/>
@@ -8321,7 +8482,7 @@
       <c r="G565" s="13"/>
       <c r="H565" s="14"/>
     </row>
-    <row r="566" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="566" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A566" s="14"/>
       <c r="B566" s="14"/>
       <c r="C566" s="13"/>
@@ -8331,7 +8492,7 @@
       <c r="G566" s="13"/>
       <c r="H566" s="14"/>
     </row>
-    <row r="567" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="567" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A567" s="14"/>
       <c r="B567" s="14"/>
       <c r="C567" s="13"/>
@@ -8341,7 +8502,7 @@
       <c r="G567" s="13"/>
       <c r="H567" s="14"/>
     </row>
-    <row r="568" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="568" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A568" s="14"/>
       <c r="B568" s="14"/>
       <c r="C568" s="13"/>
@@ -8351,7 +8512,7 @@
       <c r="G568" s="13"/>
       <c r="H568" s="14"/>
     </row>
-    <row r="569" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="569" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A569" s="14"/>
       <c r="B569" s="14"/>
       <c r="C569" s="13"/>
@@ -8361,7 +8522,7 @@
       <c r="G569" s="13"/>
       <c r="H569" s="14"/>
     </row>
-    <row r="570" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="570" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A570" s="14"/>
       <c r="B570" s="14"/>
       <c r="C570" s="13"/>
@@ -8371,7 +8532,7 @@
       <c r="G570" s="13"/>
       <c r="H570" s="14"/>
     </row>
-    <row r="571" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="571" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A571" s="14"/>
       <c r="B571" s="14"/>
       <c r="C571" s="13"/>
@@ -8381,7 +8542,7 @@
       <c r="G571" s="13"/>
       <c r="H571" s="14"/>
     </row>
-    <row r="572" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="572" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A572" s="14"/>
       <c r="B572" s="14"/>
       <c r="C572" s="13"/>
@@ -8391,7 +8552,7 @@
       <c r="G572" s="13"/>
       <c r="H572" s="14"/>
     </row>
-    <row r="573" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="573" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A573" s="14"/>
       <c r="B573" s="14"/>
       <c r="C573" s="13"/>
@@ -8401,7 +8562,7 @@
       <c r="G573" s="13"/>
       <c r="H573" s="14"/>
     </row>
-    <row r="574" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="574" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A574" s="14"/>
       <c r="B574" s="14"/>
       <c r="C574" s="13"/>
@@ -8411,7 +8572,7 @@
       <c r="G574" s="13"/>
       <c r="H574" s="14"/>
     </row>
-    <row r="575" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="575" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A575" s="14"/>
       <c r="B575" s="14"/>
       <c r="C575" s="13"/>
@@ -8421,7 +8582,7 @@
       <c r="G575" s="13"/>
       <c r="H575" s="14"/>
     </row>
-    <row r="576" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="576" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A576" s="14"/>
       <c r="B576" s="14"/>
       <c r="C576" s="13"/>
@@ -8431,7 +8592,7 @@
       <c r="G576" s="13"/>
       <c r="H576" s="14"/>
     </row>
-    <row r="577" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="577" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A577" s="14"/>
       <c r="B577" s="14"/>
       <c r="C577" s="13"/>
@@ -8441,7 +8602,7 @@
       <c r="G577" s="13"/>
       <c r="H577" s="14"/>
     </row>
-    <row r="578" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="578" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A578" s="14"/>
       <c r="B578" s="14"/>
       <c r="C578" s="13"/>
@@ -8451,7 +8612,7 @@
       <c r="G578" s="13"/>
       <c r="H578" s="14"/>
     </row>
-    <row r="579" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="579" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A579" s="14"/>
       <c r="B579" s="14"/>
       <c r="C579" s="13"/>
@@ -8461,7 +8622,7 @@
       <c r="G579" s="13"/>
       <c r="H579" s="14"/>
     </row>
-    <row r="580" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="580" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A580" s="14"/>
       <c r="B580" s="14"/>
       <c r="C580" s="13"/>
@@ -8471,7 +8632,7 @@
       <c r="G580" s="13"/>
       <c r="H580" s="14"/>
     </row>
-    <row r="581" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="581" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A581" s="14"/>
       <c r="B581" s="14"/>
       <c r="C581" s="13"/>
@@ -8481,7 +8642,7 @@
       <c r="G581" s="13"/>
       <c r="H581" s="14"/>
     </row>
-    <row r="582" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="582" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A582" s="14"/>
       <c r="B582" s="14"/>
       <c r="C582" s="13"/>
@@ -8491,7 +8652,7 @@
       <c r="G582" s="13"/>
       <c r="H582" s="14"/>
     </row>
-    <row r="583" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="583" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A583" s="14"/>
       <c r="B583" s="14"/>
       <c r="C583" s="13"/>
@@ -8501,7 +8662,7 @@
       <c r="G583" s="13"/>
       <c r="H583" s="14"/>
     </row>
-    <row r="584" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="584" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A584" s="14"/>
       <c r="B584" s="14"/>
       <c r="C584" s="13"/>
@@ -8511,7 +8672,7 @@
       <c r="G584" s="13"/>
       <c r="H584" s="14"/>
     </row>
-    <row r="585" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="585" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A585" s="14"/>
       <c r="B585" s="14"/>
       <c r="C585" s="13"/>
@@ -8521,7 +8682,7 @@
       <c r="G585" s="13"/>
       <c r="H585" s="14"/>
     </row>
-    <row r="586" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="586" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A586" s="14"/>
       <c r="B586" s="14"/>
       <c r="C586" s="13"/>
@@ -8531,7 +8692,7 @@
       <c r="G586" s="13"/>
       <c r="H586" s="14"/>
     </row>
-    <row r="587" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="587" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A587" s="14"/>
       <c r="B587" s="14"/>
       <c r="C587" s="13"/>
@@ -8541,7 +8702,7 @@
       <c r="G587" s="13"/>
       <c r="H587" s="14"/>
     </row>
-    <row r="588" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="588" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A588" s="14"/>
       <c r="B588" s="14"/>
       <c r="C588" s="13"/>
@@ -8551,7 +8712,7 @@
       <c r="G588" s="13"/>
       <c r="H588" s="14"/>
     </row>
-    <row r="589" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="589" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A589" s="14"/>
       <c r="B589" s="14"/>
       <c r="C589" s="13"/>
@@ -8561,7 +8722,7 @@
       <c r="G589" s="13"/>
       <c r="H589" s="14"/>
     </row>
-    <row r="590" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="590" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A590" s="14"/>
       <c r="B590" s="14"/>
       <c r="C590" s="13"/>
@@ -8571,7 +8732,7 @@
       <c r="G590" s="13"/>
       <c r="H590" s="14"/>
     </row>
-    <row r="591" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="591" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A591" s="14"/>
       <c r="B591" s="14"/>
       <c r="C591" s="13"/>
@@ -8581,7 +8742,7 @@
       <c r="G591" s="13"/>
       <c r="H591" s="14"/>
     </row>
-    <row r="592" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="592" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A592" s="14"/>
       <c r="B592" s="14"/>
       <c r="C592" s="13"/>
@@ -8591,7 +8752,7 @@
       <c r="G592" s="13"/>
       <c r="H592" s="14"/>
     </row>
-    <row r="593" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="593" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A593" s="14"/>
       <c r="B593" s="14"/>
       <c r="C593" s="13"/>
@@ -8601,7 +8762,7 @@
       <c r="G593" s="13"/>
       <c r="H593" s="14"/>
     </row>
-    <row r="594" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="594" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A594" s="14"/>
       <c r="B594" s="14"/>
       <c r="C594" s="13"/>
@@ -8611,7 +8772,7 @@
       <c r="G594" s="13"/>
       <c r="H594" s="14"/>
     </row>
-    <row r="595" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="595" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A595" s="14"/>
       <c r="B595" s="14"/>
       <c r="C595" s="13"/>
@@ -8621,7 +8782,7 @@
       <c r="G595" s="13"/>
       <c r="H595" s="14"/>
     </row>
-    <row r="596" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="596" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A596" s="14"/>
       <c r="B596" s="14"/>
       <c r="C596" s="13"/>
@@ -8631,7 +8792,7 @@
       <c r="G596" s="13"/>
       <c r="H596" s="14"/>
     </row>
-    <row r="597" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="597" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A597" s="14"/>
       <c r="B597" s="14"/>
       <c r="C597" s="13"/>
@@ -8641,7 +8802,7 @@
       <c r="G597" s="13"/>
       <c r="H597" s="14"/>
     </row>
-    <row r="598" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="598" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A598" s="14"/>
       <c r="B598" s="14"/>
       <c r="C598" s="13"/>
@@ -8651,7 +8812,7 @@
       <c r="G598" s="13"/>
       <c r="H598" s="14"/>
     </row>
-    <row r="599" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="599" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A599" s="14"/>
       <c r="B599" s="14"/>
       <c r="C599" s="13"/>
@@ -8661,7 +8822,7 @@
       <c r="G599" s="13"/>
       <c r="H599" s="14"/>
     </row>
-    <row r="600" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="600" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A600" s="14"/>
       <c r="B600" s="14"/>
       <c r="C600" s="13"/>
@@ -8671,7 +8832,7 @@
       <c r="G600" s="13"/>
       <c r="H600" s="14"/>
     </row>
-    <row r="601" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="601" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A601" s="14"/>
       <c r="B601" s="14"/>
       <c r="C601" s="13"/>
@@ -8681,7 +8842,7 @@
       <c r="G601" s="13"/>
       <c r="H601" s="14"/>
     </row>
-    <row r="602" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="602" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A602" s="14"/>
       <c r="B602" s="14"/>
       <c r="C602" s="13"/>
@@ -8691,44 +8852,57 @@
       <c r="G602" s="13"/>
       <c r="H602" s="14"/>
     </row>
-    <row r="603" spans="1:8" ht="15.75" customHeight="1">
+    <row r="603" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B603" s="14"/>
     </row>
-    <row r="604" spans="1:8" ht="15.75" customHeight="1">
+    <row r="604" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B604" s="14"/>
+    </row>
+    <row r="1048576" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G1048576" s="32" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A64"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G59 E2:E59 C2:C59 C61 C63 C65 C67 C69:C602 E61 E63 E65 E67 E69:E602 G61 G63 G65 G67 G69:G602">
+  <conditionalFormatting sqref="E2:E59 C2:C59 C61 C63 C65 C67 C69:C602 E61 E63 E65 E67 E69:E602 G61 G63 G65 G67 G69:G602 G2:G59">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -8737,7 +8911,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C602 E69:E602 C2:C59 C61 C63 C65 C67 E2:E59 E61 E63 E65 E67 G2:G59 G61 G63 G65 G67 G69:G602" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C602 E69:E602 C2:C59 C61 C63 C65 C67 E2:E59 E61 E63 E65 E67 G69:G602 G61 G63 G65 G67 G1048576 G2:G59" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/Acceptance_Test_Plan.xlsx
+++ b/etc/Acceptance_Test_Plan.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girls Who Code\IdeaProjects\team-project-2195-swen-261-08-c-hess\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19A584-6ECD-42B9-A990-5ADE3BBC2EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3598DE-1377-438F-9164-0231D0C1C037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="132">
   <si>
     <t>Instructions</t>
   </si>
@@ -69,6 +77,9 @@
     <t>Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>RM; 2/24/2020; PASS</t>
   </si>
   <si>
@@ -108,9 +119,24 @@
     <t>Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>NL; 2/29/2020; FAIL - We are unable to bring up a functioning board.</t>
+  </si>
+  <si>
+    <t>MW; 3/30/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
   </si>
   <si>
+    <t>ED; 2/29/2020; FAIL - We are unable to bring up a working board that connects both players.</t>
+  </si>
+  <si>
+    <t>ED; 3/30/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
   </si>
   <si>
@@ -123,9 +149,15 @@
     <t>Given a valid, initial game board when I drag a piece to a white space then the piece should not be droppable.</t>
   </si>
   <si>
+    <t>Pieces are not dragable yet</t>
+  </si>
+  <si>
     <t>Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
   </si>
   <si>
+    <t>NL; 4/5/2020; PASS RM; 4/5/2020; PASS</t>
+  </si>
+  <si>
     <t>Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
   </si>
   <si>
@@ -150,7 +182,7 @@
     <t xml:space="preserve">Given that it’s my turn when I click and hold on to one of my pieces then I expect to be able to pick up that piece. </t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>WH; 2/29/2020; PASS</t>
   </si>
   <si>
     <t>Given that I’m currently holding a piece when I drop a piece in an invalid spot then I expect that piece to go back to its original position and my turn is still ongoing</t>
@@ -159,6 +191,9 @@
     <t>Given that I’m currently holding my piece when I stop holding my mouse button then I expect to be able to drop that piece</t>
   </si>
   <si>
+    <t>MW; 2/29/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I'm currently holding my piece when I move it over to any valid spot then I expect to be able to visually see that spot turn a different shade.</t>
   </si>
   <si>
@@ -171,15 +206,27 @@
     <t xml:space="preserve">Given that it is my turn when I pick up a piece and place it in a valid empty spot then I expect the piece to be there when I drop it. </t>
   </si>
   <si>
+    <t>NL; 3/30/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that it is my turn when I make a successful move then my opponent should be able to see my move.</t>
   </si>
   <si>
+    <t>ED; 4/1/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that it is not my turn when I make any move then the system should not carry out my move.</t>
   </si>
   <si>
+    <t>WH;4/1/2020; PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that it is my turn when I move a piece on top of a piece then I expect the system to reject my move. </t>
   </si>
   <si>
+    <t>RM; 4/5/2020; We catch this error, but so does the javascript which throws it's own error.</t>
+  </si>
+  <si>
     <t>Given that it is my turn when I move a piece to an invalid spot then I expect the piece to return to its original spot and it’s still my turn.</t>
   </si>
   <si>
@@ -195,12 +242,21 @@
     <t>Given that I have the opportunity to make a jump when I try to make a move other than jumping a piece then I expect my piece to move back to its original spot and my turn is still ongoing.</t>
   </si>
   <si>
+    <t>WH; 4/5/2020: PASS</t>
+  </si>
+  <si>
     <t>Given that I have the opportunity to make a jump when I try to jump a piece then I expect the system to accept my move.</t>
   </si>
   <si>
+    <t>WH; 4/2/2020: PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that I am not a king and have a jump available “behind” a piece when I try to make that jump using that piece then I expect the system to reject my move </t>
   </si>
   <si>
+    <t>NL; 4/2/2020: PASS</t>
+  </si>
+  <si>
     <t>Given that I am a king and a jump is available when I try to make a move besides any valid jump then I expect the system to reject my move.</t>
   </si>
   <si>
@@ -210,6 +266,9 @@
     <t>Given that I have no available jumps when I try to make a jump then my piece returns to it’s original position</t>
   </si>
   <si>
+    <t>ED; 4/3/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that there are two pieces in one of my diagonals when I try to do a simple move then I expect the system to accept my move</t>
   </si>
   <si>
@@ -219,30 +278,54 @@
     <t>Given that I am a piece when I choose to make multiple valid jumps then I expect the piece to execute the jumps and take the opponent pieces</t>
   </si>
   <si>
+    <t>WH; 4/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I am a piece when I am able to make different multiple jumps then I expect the user to be able to pick a jump to execute.</t>
   </si>
   <si>
+    <t>MW; 4/5/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I am a piece when I am able to make multiple jumps then I expect to not be able to make a simple move.</t>
   </si>
   <si>
+    <t>NL; 4/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that I am a normal piece when I choose to make backward multiple jumps then I expect the system to reject my moves and for it to still be my turn.</t>
   </si>
   <si>
     <t>Given that I am a piece when I make an invalid multiple jump then I expect the system to reject my move and for it to still be my turn.</t>
   </si>
   <si>
+    <t>MW; 4/2/2020; PASS</t>
+  </si>
+  <si>
     <t>As a player, I want to get to the king row so that I can become a king.</t>
   </si>
   <si>
     <t xml:space="preserve">Given that any of my pieces end up on the opposite side of the board when it lands on the opposite row then I expect my piece to visually become a king (two pieces stacked on each other) and my turn ends. </t>
   </si>
   <si>
+    <t>RM; 4/2/2020; PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Player, I want to be able to move my king in any direction (diagonally) so that I can capture more pieces. </t>
   </si>
   <si>
+    <t xml:space="preserve">Given that my piece has become a king when I make a move then I expect to be able to make a simple move in any diagonal direction. </t>
+  </si>
+  <si>
+    <t>RM; 4/3/2020; PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that my piece has become a king when I make multiple jumps then I expect to be able jump in any direction. </t>
   </si>
   <si>
+    <t xml:space="preserve">MW; 4/3/2020; PASS </t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that my piece has become a king when I make a simple jump then I expect to be able to jump in any direction </t>
   </si>
   <si>
@@ -252,6 +335,9 @@
     <t>Given that it is my turn when I try to make a valid move then I expect the system to accept that move.</t>
   </si>
   <si>
+    <t>ED; 3/31/2020; PASS</t>
+  </si>
+  <si>
     <t>Given that it is not my turn when I try to make any move then I expect to not even be able to pick up my piece</t>
   </si>
   <si>
@@ -267,6 +353,9 @@
     <t xml:space="preserve">Given that all of my opponent’s pieces are gone when I clear their final piece then I expect a message to pop up saying I won’ the game and a button to redirect me back to the homepage. </t>
   </si>
   <si>
+    <t>no message</t>
+  </si>
+  <si>
     <t>Given that my opponent is unable to make a move when it is their turn then I expect a message to popup saying I won the game and a button to redirect me back to the homepage.</t>
   </si>
   <si>
@@ -277,87 +366,6 @@
   </si>
   <si>
     <t xml:space="preserve">Given that I am unable to make a move when it is my turn then I expect a message to pop up saying I lost the game and a button to redirect myself back to the homepage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that my piece has become a king when I make a move then I expect to be able to make a simple move in any diagonal direction. </t>
-  </si>
-  <si>
-    <t>no message</t>
-  </si>
-  <si>
-    <t>MW; 3/30/2020; PASS</t>
-  </si>
-  <si>
-    <t>ED; 3/30/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 4/5/2020; PASS RM; 4/5/2020; PASS</t>
-  </si>
-  <si>
-    <t>WH; 2/29/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 2/29/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 3/30/2020; PASS</t>
-  </si>
-  <si>
-    <t>ED; 4/1/2020; PASS</t>
-  </si>
-  <si>
-    <t>WH;4/1/2020; PASS</t>
-  </si>
-  <si>
-    <t>RM; 4/5/2020; We catch this error, but so does the javascript which throws it's own error.</t>
-  </si>
-  <si>
-    <t>WH; 4/5/2020: PASS</t>
-  </si>
-  <si>
-    <t>NL; 4/2/2020: PASS</t>
-  </si>
-  <si>
-    <t>WH; 4/2/2020: PASS</t>
-  </si>
-  <si>
-    <t>ED; 4/3/2020; PASS</t>
-  </si>
-  <si>
-    <t>WH; 4/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 4/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 4/2/2020; PASS</t>
-  </si>
-  <si>
-    <t>RM; 4/2/2020; PASS</t>
-  </si>
-  <si>
-    <t>RM; 4/3/2020; PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW; 4/3/2020; PASS </t>
-  </si>
-  <si>
-    <t>ED; 3/31/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 4/5/2020; PASS</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pieces are not dragable yet</t>
-  </si>
-  <si>
-    <t>NL; 2/29/2020; FAIL - We are unable to bring up a functioning board.</t>
-  </si>
-  <si>
-    <t>ED; 2/29/2020; FAIL - We are unable to bring up a working board that connects both players.</t>
   </si>
   <si>
     <t xml:space="preserve">As a Player I want to resign so that I can play another game.
@@ -367,32 +375,68 @@
     <t>Given I press the resign button when I press resign then I am sent to the home page</t>
   </si>
   <si>
+    <t>ED; 3/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given I resign when I exit the game then my player statistics are updated confirming that I lost a game</t>
   </si>
   <si>
+    <t>NL; 3/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given my opponent has resigned when it is not my turn then the game will alert me that the game is over, my opponent resigned, and I can exit the game</t>
   </si>
   <si>
+    <t>MW; 3/4/2020; PASS</t>
+  </si>
+  <si>
     <t>Given my opponent has resigned when it is my turn then the game will alert me that my turn is over, the game has ended, my opponent resigned, and I can exit the game.</t>
   </si>
   <si>
-    <t>ED; 3/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>NL; 3/4/2020; PASS</t>
-  </si>
-  <si>
-    <t>MW; 3/4/2020; PASS</t>
-  </si>
-  <si>
     <t>RM; 3/4/2020; PASS</t>
+  </si>
+  <si>
+    <t>As a Player, I want to see all ongoing active games so that I can decide what game I want to spectate.</t>
+  </si>
+  <si>
+    <t>Given that there are ongoing active games when I go to the home page then I expect to see a list of active games I can spectate.</t>
+  </si>
+  <si>
+    <t>Given that I've clicked on an ongoing page when my page refreshes then I expect to see the current state of the game.</t>
+  </si>
+  <si>
+    <t>Given that I am spectating a game when I try to move a piece then I expect to get an error message.</t>
+  </si>
+  <si>
+    <t>As a Spectator, I want the page to update after each player makes their move so that I can see how the game is progressing.</t>
+  </si>
+  <si>
+    <t>Given that a player submits their turn when the page refreshes then I expect to see that move.</t>
+  </si>
+  <si>
+    <t>Given that a player wins/loses a game when the page refreshes then I expect to be redirected to the home screen.</t>
+  </si>
+  <si>
+    <t>ED; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>WH; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>RM; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>NL; 4/12/2020; PASS</t>
+  </si>
+  <si>
+    <t>MW; 4/12/2020; PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -415,8 +459,14 @@
       <color indexed="18"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +509,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -668,11 +724,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,9 +786,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -736,9 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -785,18 +846,73 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2027,14 +2143,14 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2161,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2056,42 +2172,42 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2109,26 +2225,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV602"/>
+  <dimension ref="A1:IV1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="54" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="30" style="8" customWidth="1"/>
     <col min="2" max="2" width="60" style="8" customWidth="1"/>
     <col min="3" max="3" width="9" style="8" customWidth="1"/>
-    <col min="4" max="4" width="60" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="9" style="8" customWidth="1"/>
-    <col min="6" max="6" width="60" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="9" style="8" customWidth="1"/>
     <col min="8" max="8" width="60" style="8" customWidth="1"/>
     <col min="9" max="256" width="10.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2162,1095 +2278,1241 @@
         <v>13</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="G2" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15"/>
       <c r="B3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15"/>
       <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>41</v>
+      <c r="E4" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15"/>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15"/>
       <c r="B6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15"/>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>41</v>
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="15"/>
       <c r="B10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="15"/>
       <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="36"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="15"/>
       <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15"/>
       <c r="B13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="15"/>
       <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>37</v>
+      <c r="A17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="40" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="40" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="40" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="40" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="40" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="33" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14"/>
       <c r="B25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="33" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="14"/>
       <c r="B26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="33" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="14"/>
       <c r="B27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="38" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="14"/>
       <c r="B28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="33" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="14"/>
       <c r="B29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="33" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="14"/>
       <c r="B30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="38" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="38" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="14"/>
       <c r="B32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="33" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="14"/>
       <c r="B33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="33" t="s">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="14"/>
       <c r="B34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="38" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="14"/>
       <c r="B35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="33" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="14"/>
       <c r="B36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="33" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="14"/>
       <c r="B37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="33" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="33" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="14"/>
       <c r="B39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="33" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="14"/>
       <c r="B40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="33" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="14"/>
       <c r="B41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="33" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="14"/>
       <c r="B42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="33" t="s">
-        <v>41</v>
+        <v>87</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="33" t="s">
-        <v>41</v>
+        <v>90</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="33" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="14"/>
       <c r="B45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="33" t="s">
-        <v>41</v>
+        <v>95</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="14"/>
       <c r="B46" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="33" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="33" t="s">
-        <v>41</v>
+        <v>99</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="14"/>
       <c r="B48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="33" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H48" s="14"/>
     </row>
-    <row r="49" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="14"/>
       <c r="B49" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="33" t="s">
-        <v>41</v>
+        <v>102</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="14"/>
       <c r="B50" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="33" t="s">
-        <v>41</v>
+        <v>103</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="14"/>
       <c r="B52" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="37" t="s">
         <v>107</v>
       </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G52" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
+      <c r="G53" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="14"/>
       <c r="B54" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="37" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="14" t="s">
+      <c r="G54" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="51" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="44"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="14"/>
       <c r="E55" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="52"/>
       <c r="B56" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="37"/>
+        <v>114</v>
+      </c>
+      <c r="C56" s="35"/>
       <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="52"/>
       <c r="B57" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="37"/>
+        <v>116</v>
+      </c>
+      <c r="C57" s="35"/>
       <c r="D57" s="14"/>
       <c r="E57" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F57" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="53"/>
+      <c r="B58" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="14"/>
       <c r="E58" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="14"/>
     </row>
-    <row r="59" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="13"/>
+    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="48"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="13"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="13"/>
+      <c r="G59" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="50"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="13"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="45"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="50"/>
+      <c r="B61" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="48"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="13"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="13"/>
+      <c r="G61" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="50"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="13"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="13"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="45"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="50"/>
+      <c r="B63" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="48"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="13"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13"/>
+      <c r="G63" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="13"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="13"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="45"/>
+    </row>
+    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="48"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="13"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13"/>
+      <c r="G65" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="50"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="13"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="45"/>
+    </row>
+    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="50"/>
+      <c r="B67" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="48"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="13"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="14"/>
-    </row>
-    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13"/>
+      <c r="G67" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="13"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G68" s="47"/>
+      <c r="H68" s="45"/>
+    </row>
+    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="13"/>
@@ -3260,7 +3522,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="14"/>
     </row>
-    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="13"/>
@@ -3270,7 +3532,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="13"/>
@@ -3280,7 +3542,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="13"/>
@@ -3290,7 +3552,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="13"/>
@@ -3300,7 +3562,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="14"/>
     </row>
-    <row r="74" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="13"/>
@@ -3310,7 +3572,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="13"/>
@@ -3320,7 +3582,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="13"/>
@@ -3330,7 +3592,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="14"/>
     </row>
-    <row r="77" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="13"/>
@@ -3340,7 +3602,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="13"/>
@@ -3350,7 +3612,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="13"/>
@@ -3360,7 +3622,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="13"/>
@@ -3370,7 +3632,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="13"/>
@@ -3380,7 +3642,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="13"/>
@@ -3390,7 +3652,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="13"/>
@@ -3400,7 +3662,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="13"/>
@@ -3410,7 +3672,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="14"/>
     </row>
-    <row r="85" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="13"/>
@@ -3420,7 +3682,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="13"/>
@@ -3430,7 +3692,7 @@
       <c r="G86" s="13"/>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="13"/>
@@ -3440,7 +3702,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="13"/>
@@ -3450,7 +3712,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="13"/>
@@ -3460,7 +3722,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="13"/>
@@ -3470,7 +3732,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="13"/>
@@ -3480,7 +3742,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="13"/>
@@ -3490,7 +3752,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="13"/>
@@ -3500,7 +3762,7 @@
       <c r="G93" s="13"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="13"/>
@@ -3510,7 +3772,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="13"/>
@@ -3520,7 +3782,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="13"/>
@@ -3530,7 +3792,7 @@
       <c r="G96" s="13"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="13"/>
@@ -3540,7 +3802,7 @@
       <c r="G97" s="13"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="13"/>
@@ -3550,7 +3812,7 @@
       <c r="G98" s="13"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="13"/>
@@ -3560,7 +3822,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="13"/>
@@ -3570,7 +3832,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="13"/>
@@ -3580,7 +3842,7 @@
       <c r="G101" s="13"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="13"/>
@@ -3590,7 +3852,7 @@
       <c r="G102" s="13"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="13"/>
@@ -3600,7 +3862,7 @@
       <c r="G103" s="13"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="13"/>
@@ -3610,7 +3872,7 @@
       <c r="G104" s="13"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="13"/>
@@ -3620,7 +3882,7 @@
       <c r="G105" s="13"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="13"/>
@@ -3630,7 +3892,7 @@
       <c r="G106" s="13"/>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="13"/>
@@ -3640,7 +3902,7 @@
       <c r="G107" s="13"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="13"/>
@@ -3650,7 +3912,7 @@
       <c r="G108" s="13"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="13"/>
@@ -3660,7 +3922,7 @@
       <c r="G109" s="13"/>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -3670,7 +3932,7 @@
       <c r="G110" s="13"/>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
@@ -3680,7 +3942,7 @@
       <c r="G111" s="13"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="13"/>
@@ -3690,7 +3952,7 @@
       <c r="G112" s="13"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="13"/>
@@ -3700,7 +3962,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="13"/>
@@ -3710,7 +3972,7 @@
       <c r="G114" s="13"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="13"/>
@@ -3720,7 +3982,7 @@
       <c r="G115" s="13"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="13"/>
@@ -3730,7 +3992,7 @@
       <c r="G116" s="13"/>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="13"/>
@@ -3740,7 +4002,7 @@
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="13"/>
@@ -3750,7 +4012,7 @@
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="13"/>
@@ -3760,7 +4022,7 @@
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="13"/>
@@ -3770,7 +4032,7 @@
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="13"/>
@@ -3780,7 +4042,7 @@
       <c r="G121" s="13"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="13"/>
@@ -3790,7 +4052,7 @@
       <c r="G122" s="13"/>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="13"/>
@@ -3800,7 +4062,7 @@
       <c r="G123" s="13"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="13"/>
@@ -3810,7 +4072,7 @@
       <c r="G124" s="13"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="13"/>
@@ -3820,7 +4082,7 @@
       <c r="G125" s="13"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="13"/>
@@ -3830,7 +4092,7 @@
       <c r="G126" s="13"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="13"/>
@@ -3840,7 +4102,7 @@
       <c r="G127" s="13"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="13"/>
@@ -3850,7 +4112,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="13"/>
@@ -3860,7 +4122,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="13"/>
@@ -3870,7 +4132,7 @@
       <c r="G130" s="13"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="13"/>
@@ -3880,7 +4142,7 @@
       <c r="G131" s="13"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="13"/>
@@ -3890,7 +4152,7 @@
       <c r="G132" s="13"/>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="13"/>
@@ -3900,7 +4162,7 @@
       <c r="G133" s="13"/>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="13"/>
@@ -3910,7 +4172,7 @@
       <c r="G134" s="13"/>
       <c r="H134" s="14"/>
     </row>
-    <row r="135" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="13"/>
@@ -3920,7 +4182,7 @@
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="13"/>
@@ -3930,7 +4192,7 @@
       <c r="G136" s="13"/>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="13"/>
@@ -3940,7 +4202,7 @@
       <c r="G137" s="13"/>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="13"/>
@@ -3950,7 +4212,7 @@
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="13"/>
@@ -3960,7 +4222,7 @@
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="13"/>
@@ -3970,7 +4232,7 @@
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
-    <row r="141" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="13"/>
@@ -3980,7 +4242,7 @@
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="13"/>
@@ -3990,7 +4252,7 @@
       <c r="G142" s="13"/>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="13"/>
@@ -4000,7 +4262,7 @@
       <c r="G143" s="13"/>
       <c r="H143" s="14"/>
     </row>
-    <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="13"/>
@@ -4010,7 +4272,7 @@
       <c r="G144" s="13"/>
       <c r="H144" s="14"/>
     </row>
-    <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="13"/>
@@ -4020,7 +4282,7 @@
       <c r="G145" s="13"/>
       <c r="H145" s="14"/>
     </row>
-    <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="13"/>
@@ -4030,7 +4292,7 @@
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
-    <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="13"/>
@@ -4040,7 +4302,7 @@
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
-    <row r="148" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="13"/>
@@ -4050,7 +4312,7 @@
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="13"/>
@@ -4060,7 +4322,7 @@
       <c r="G149" s="13"/>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="13"/>
@@ -4070,7 +4332,7 @@
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
-    <row r="151" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="13"/>
@@ -4080,7 +4342,7 @@
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
-    <row r="152" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="13"/>
@@ -4090,7 +4352,7 @@
       <c r="G152" s="13"/>
       <c r="H152" s="14"/>
     </row>
-    <row r="153" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="13"/>
@@ -4100,7 +4362,7 @@
       <c r="G153" s="13"/>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="13"/>
@@ -4110,7 +4372,7 @@
       <c r="G154" s="13"/>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="13"/>
@@ -4120,7 +4382,7 @@
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="13"/>
@@ -4130,7 +4392,7 @@
       <c r="G156" s="13"/>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="13"/>
@@ -4140,7 +4402,7 @@
       <c r="G157" s="13"/>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="13"/>
@@ -4150,7 +4412,7 @@
       <c r="G158" s="13"/>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="13"/>
@@ -4160,7 +4422,7 @@
       <c r="G159" s="13"/>
       <c r="H159" s="14"/>
     </row>
-    <row r="160" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="13"/>
@@ -4170,7 +4432,7 @@
       <c r="G160" s="13"/>
       <c r="H160" s="14"/>
     </row>
-    <row r="161" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="13"/>
@@ -4180,7 +4442,7 @@
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="13"/>
@@ -4190,7 +4452,7 @@
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="13"/>
@@ -4200,7 +4462,7 @@
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="13"/>
@@ -4210,7 +4472,7 @@
       <c r="G164" s="13"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="13"/>
@@ -4220,7 +4482,7 @@
       <c r="G165" s="13"/>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="13"/>
@@ -4230,7 +4492,7 @@
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
-    <row r="167" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="13"/>
@@ -4240,7 +4502,7 @@
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="13"/>
@@ -4250,7 +4512,7 @@
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="13"/>
@@ -4260,7 +4522,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="13"/>
@@ -4270,7 +4532,7 @@
       <c r="G170" s="13"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="13"/>
@@ -4280,7 +4542,7 @@
       <c r="G171" s="13"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="13"/>
@@ -4290,7 +4552,7 @@
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
-    <row r="173" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="13"/>
@@ -4300,7 +4562,7 @@
       <c r="G173" s="13"/>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="13"/>
@@ -4310,7 +4572,7 @@
       <c r="G174" s="13"/>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="13"/>
@@ -4320,7 +4582,7 @@
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="13"/>
@@ -4330,7 +4592,7 @@
       <c r="G176" s="13"/>
       <c r="H176" s="14"/>
     </row>
-    <row r="177" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="13"/>
@@ -4340,7 +4602,7 @@
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
     </row>
-    <row r="178" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="13"/>
@@ -4350,7 +4612,7 @@
       <c r="G178" s="13"/>
       <c r="H178" s="14"/>
     </row>
-    <row r="179" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="13"/>
@@ -4360,7 +4622,7 @@
       <c r="G179" s="13"/>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="13"/>
@@ -4370,7 +4632,7 @@
       <c r="G180" s="13"/>
       <c r="H180" s="14"/>
     </row>
-    <row r="181" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="13"/>
@@ -4380,7 +4642,7 @@
       <c r="G181" s="13"/>
       <c r="H181" s="14"/>
     </row>
-    <row r="182" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="13"/>
@@ -4390,7 +4652,7 @@
       <c r="G182" s="13"/>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="13"/>
@@ -4400,7 +4662,7 @@
       <c r="G183" s="13"/>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="13"/>
@@ -4410,7 +4672,7 @@
       <c r="G184" s="13"/>
       <c r="H184" s="14"/>
     </row>
-    <row r="185" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="13"/>
@@ -4420,7 +4682,7 @@
       <c r="G185" s="13"/>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="13"/>
@@ -4430,7 +4692,7 @@
       <c r="G186" s="13"/>
       <c r="H186" s="14"/>
     </row>
-    <row r="187" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="13"/>
@@ -4440,7 +4702,7 @@
       <c r="G187" s="13"/>
       <c r="H187" s="14"/>
     </row>
-    <row r="188" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="13"/>
@@ -4450,7 +4712,7 @@
       <c r="G188" s="13"/>
       <c r="H188" s="14"/>
     </row>
-    <row r="189" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="13"/>
@@ -4460,7 +4722,7 @@
       <c r="G189" s="13"/>
       <c r="H189" s="14"/>
     </row>
-    <row r="190" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="13"/>
@@ -4470,7 +4732,7 @@
       <c r="G190" s="13"/>
       <c r="H190" s="14"/>
     </row>
-    <row r="191" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="13"/>
@@ -4480,7 +4742,7 @@
       <c r="G191" s="13"/>
       <c r="H191" s="14"/>
     </row>
-    <row r="192" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="13"/>
@@ -4490,7 +4752,7 @@
       <c r="G192" s="13"/>
       <c r="H192" s="14"/>
     </row>
-    <row r="193" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="13"/>
@@ -4500,7 +4762,7 @@
       <c r="G193" s="13"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="13"/>
@@ -4510,7 +4772,7 @@
       <c r="G194" s="13"/>
       <c r="H194" s="14"/>
     </row>
-    <row r="195" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="13"/>
@@ -4520,7 +4782,7 @@
       <c r="G195" s="13"/>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="13"/>
@@ -4530,7 +4792,7 @@
       <c r="G196" s="13"/>
       <c r="H196" s="14"/>
     </row>
-    <row r="197" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="13"/>
@@ -4540,7 +4802,7 @@
       <c r="G197" s="13"/>
       <c r="H197" s="14"/>
     </row>
-    <row r="198" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="13"/>
@@ -4550,7 +4812,7 @@
       <c r="G198" s="13"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="13"/>
@@ -4560,7 +4822,7 @@
       <c r="G199" s="13"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="13"/>
@@ -4570,7 +4832,7 @@
       <c r="G200" s="13"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="13"/>
@@ -4580,7 +4842,7 @@
       <c r="G201" s="13"/>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="13"/>
@@ -4590,7 +4852,7 @@
       <c r="G202" s="13"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="13"/>
@@ -4600,7 +4862,7 @@
       <c r="G203" s="13"/>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="13"/>
@@ -4610,7 +4872,7 @@
       <c r="G204" s="13"/>
       <c r="H204" s="14"/>
     </row>
-    <row r="205" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="13"/>
@@ -4620,7 +4882,7 @@
       <c r="G205" s="13"/>
       <c r="H205" s="14"/>
     </row>
-    <row r="206" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="13"/>
@@ -4630,7 +4892,7 @@
       <c r="G206" s="13"/>
       <c r="H206" s="14"/>
     </row>
-    <row r="207" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="13"/>
@@ -4640,7 +4902,7 @@
       <c r="G207" s="13"/>
       <c r="H207" s="14"/>
     </row>
-    <row r="208" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="13"/>
@@ -4650,7 +4912,7 @@
       <c r="G208" s="13"/>
       <c r="H208" s="14"/>
     </row>
-    <row r="209" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="13"/>
@@ -4660,7 +4922,7 @@
       <c r="G209" s="13"/>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="13"/>
@@ -4670,7 +4932,7 @@
       <c r="G210" s="13"/>
       <c r="H210" s="14"/>
     </row>
-    <row r="211" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="13"/>
@@ -4680,7 +4942,7 @@
       <c r="G211" s="13"/>
       <c r="H211" s="14"/>
     </row>
-    <row r="212" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="13"/>
@@ -4690,7 +4952,7 @@
       <c r="G212" s="13"/>
       <c r="H212" s="14"/>
     </row>
-    <row r="213" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="13"/>
@@ -4700,7 +4962,7 @@
       <c r="G213" s="13"/>
       <c r="H213" s="14"/>
     </row>
-    <row r="214" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="13"/>
@@ -4710,7 +4972,7 @@
       <c r="G214" s="13"/>
       <c r="H214" s="14"/>
     </row>
-    <row r="215" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="13"/>
@@ -4720,7 +4982,7 @@
       <c r="G215" s="13"/>
       <c r="H215" s="14"/>
     </row>
-    <row r="216" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="13"/>
@@ -4730,7 +4992,7 @@
       <c r="G216" s="13"/>
       <c r="H216" s="14"/>
     </row>
-    <row r="217" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="13"/>
@@ -4740,7 +5002,7 @@
       <c r="G217" s="13"/>
       <c r="H217" s="14"/>
     </row>
-    <row r="218" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="13"/>
@@ -4750,7 +5012,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="14"/>
     </row>
-    <row r="219" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="13"/>
@@ -4760,7 +5022,7 @@
       <c r="G219" s="13"/>
       <c r="H219" s="14"/>
     </row>
-    <row r="220" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="13"/>
@@ -4770,7 +5032,7 @@
       <c r="G220" s="13"/>
       <c r="H220" s="14"/>
     </row>
-    <row r="221" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="13"/>
@@ -4780,7 +5042,7 @@
       <c r="G221" s="13"/>
       <c r="H221" s="14"/>
     </row>
-    <row r="222" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="13"/>
@@ -4790,7 +5052,7 @@
       <c r="G222" s="13"/>
       <c r="H222" s="14"/>
     </row>
-    <row r="223" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" s="13"/>
@@ -4800,7 +5062,7 @@
       <c r="G223" s="13"/>
       <c r="H223" s="14"/>
     </row>
-    <row r="224" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="13"/>
@@ -4810,7 +5072,7 @@
       <c r="G224" s="13"/>
       <c r="H224" s="14"/>
     </row>
-    <row r="225" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="13"/>
@@ -4820,7 +5082,7 @@
       <c r="G225" s="13"/>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="13"/>
@@ -4830,7 +5092,7 @@
       <c r="G226" s="13"/>
       <c r="H226" s="14"/>
     </row>
-    <row r="227" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" s="13"/>
@@ -4840,7 +5102,7 @@
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="13"/>
@@ -4850,7 +5112,7 @@
       <c r="G228" s="13"/>
       <c r="H228" s="14"/>
     </row>
-    <row r="229" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="13"/>
@@ -4860,7 +5122,7 @@
       <c r="G229" s="13"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="13"/>
@@ -4870,7 +5132,7 @@
       <c r="G230" s="13"/>
       <c r="H230" s="14"/>
     </row>
-    <row r="231" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="13"/>
@@ -4880,7 +5142,7 @@
       <c r="G231" s="13"/>
       <c r="H231" s="14"/>
     </row>
-    <row r="232" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="13"/>
@@ -4890,7 +5152,7 @@
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
-    <row r="233" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" s="13"/>
@@ -4900,7 +5162,7 @@
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
-    <row r="234" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" s="13"/>
@@ -4910,7 +5172,7 @@
       <c r="G234" s="13"/>
       <c r="H234" s="14"/>
     </row>
-    <row r="235" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" s="13"/>
@@ -4920,7 +5182,7 @@
       <c r="G235" s="13"/>
       <c r="H235" s="14"/>
     </row>
-    <row r="236" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" s="13"/>
@@ -4930,7 +5192,7 @@
       <c r="G236" s="13"/>
       <c r="H236" s="14"/>
     </row>
-    <row r="237" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="13"/>
@@ -4940,7 +5202,7 @@
       <c r="G237" s="13"/>
       <c r="H237" s="14"/>
     </row>
-    <row r="238" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="13"/>
@@ -4950,7 +5212,7 @@
       <c r="G238" s="13"/>
       <c r="H238" s="14"/>
     </row>
-    <row r="239" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="13"/>
@@ -4960,7 +5222,7 @@
       <c r="G239" s="13"/>
       <c r="H239" s="14"/>
     </row>
-    <row r="240" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" s="13"/>
@@ -4970,7 +5232,7 @@
       <c r="G240" s="13"/>
       <c r="H240" s="14"/>
     </row>
-    <row r="241" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="13"/>
@@ -4980,7 +5242,7 @@
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
-    <row r="242" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="13"/>
@@ -4990,7 +5252,7 @@
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
-    <row r="243" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="13"/>
@@ -5000,7 +5262,7 @@
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" s="13"/>
@@ -5010,7 +5272,7 @@
       <c r="G244" s="13"/>
       <c r="H244" s="14"/>
     </row>
-    <row r="245" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="13"/>
@@ -5020,7 +5282,7 @@
       <c r="G245" s="13"/>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="13"/>
@@ -5030,7 +5292,7 @@
       <c r="G246" s="13"/>
       <c r="H246" s="14"/>
     </row>
-    <row r="247" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="13"/>
@@ -5040,7 +5302,7 @@
       <c r="G247" s="13"/>
       <c r="H247" s="14"/>
     </row>
-    <row r="248" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" s="13"/>
@@ -5050,7 +5312,7 @@
       <c r="G248" s="13"/>
       <c r="H248" s="14"/>
     </row>
-    <row r="249" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="13"/>
@@ -5060,7 +5322,7 @@
       <c r="G249" s="13"/>
       <c r="H249" s="14"/>
     </row>
-    <row r="250" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="13"/>
@@ -5070,7 +5332,7 @@
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="13"/>
@@ -5080,7 +5342,7 @@
       <c r="G251" s="13"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" s="13"/>
@@ -5090,7 +5352,7 @@
       <c r="G252" s="13"/>
       <c r="H252" s="14"/>
     </row>
-    <row r="253" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="13"/>
@@ -5100,7 +5362,7 @@
       <c r="G253" s="13"/>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="13"/>
@@ -5110,7 +5372,7 @@
       <c r="G254" s="13"/>
       <c r="H254" s="14"/>
     </row>
-    <row r="255" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="13"/>
@@ -5120,7 +5382,7 @@
       <c r="G255" s="13"/>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="13"/>
@@ -5130,7 +5392,7 @@
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
-    <row r="257" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="13"/>
@@ -5140,7 +5402,7 @@
       <c r="G257" s="13"/>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="13"/>
@@ -5150,7 +5412,7 @@
       <c r="G258" s="13"/>
       <c r="H258" s="14"/>
     </row>
-    <row r="259" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="13"/>
@@ -5160,7 +5422,7 @@
       <c r="G259" s="13"/>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="13"/>
@@ -5170,7 +5432,7 @@
       <c r="G260" s="13"/>
       <c r="H260" s="14"/>
     </row>
-    <row r="261" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="13"/>
@@ -5180,7 +5442,7 @@
       <c r="G261" s="13"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="13"/>
@@ -5190,7 +5452,7 @@
       <c r="G262" s="13"/>
       <c r="H262" s="14"/>
     </row>
-    <row r="263" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="13"/>
@@ -5200,7 +5462,7 @@
       <c r="G263" s="13"/>
       <c r="H263" s="14"/>
     </row>
-    <row r="264" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" s="13"/>
@@ -5210,7 +5472,7 @@
       <c r="G264" s="13"/>
       <c r="H264" s="14"/>
     </row>
-    <row r="265" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="13"/>
@@ -5220,7 +5482,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="13"/>
@@ -5230,7 +5492,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="14"/>
     </row>
-    <row r="267" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="13"/>
@@ -5240,7 +5502,7 @@
       <c r="G267" s="13"/>
       <c r="H267" s="14"/>
     </row>
-    <row r="268" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" s="13"/>
@@ -5250,7 +5512,7 @@
       <c r="G268" s="13"/>
       <c r="H268" s="14"/>
     </row>
-    <row r="269" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="13"/>
@@ -5260,7 +5522,7 @@
       <c r="G269" s="13"/>
       <c r="H269" s="14"/>
     </row>
-    <row r="270" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="13"/>
@@ -5270,7 +5532,7 @@
       <c r="G270" s="13"/>
       <c r="H270" s="14"/>
     </row>
-    <row r="271" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="13"/>
@@ -5280,7 +5542,7 @@
       <c r="G271" s="13"/>
       <c r="H271" s="14"/>
     </row>
-    <row r="272" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" s="13"/>
@@ -5290,7 +5552,7 @@
       <c r="G272" s="13"/>
       <c r="H272" s="14"/>
     </row>
-    <row r="273" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="13"/>
@@ -5300,7 +5562,7 @@
       <c r="G273" s="13"/>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="13"/>
@@ -5310,7 +5572,7 @@
       <c r="G274" s="13"/>
       <c r="H274" s="14"/>
     </row>
-    <row r="275" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="13"/>
@@ -5320,7 +5582,7 @@
       <c r="G275" s="13"/>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" s="13"/>
@@ -5330,7 +5592,7 @@
       <c r="G276" s="13"/>
       <c r="H276" s="14"/>
     </row>
-    <row r="277" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="13"/>
@@ -5340,7 +5602,7 @@
       <c r="G277" s="13"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="13"/>
@@ -5350,7 +5612,7 @@
       <c r="G278" s="13"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="13"/>
@@ -5360,7 +5622,7 @@
       <c r="G279" s="13"/>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" s="13"/>
@@ -5370,7 +5632,7 @@
       <c r="G280" s="13"/>
       <c r="H280" s="14"/>
     </row>
-    <row r="281" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="13"/>
@@ -5380,7 +5642,7 @@
       <c r="G281" s="13"/>
       <c r="H281" s="14"/>
     </row>
-    <row r="282" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="13"/>
@@ -5390,7 +5652,7 @@
       <c r="G282" s="13"/>
       <c r="H282" s="14"/>
     </row>
-    <row r="283" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="13"/>
@@ -5400,7 +5662,7 @@
       <c r="G283" s="13"/>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" s="13"/>
@@ -5410,7 +5672,7 @@
       <c r="G284" s="13"/>
       <c r="H284" s="14"/>
     </row>
-    <row r="285" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" s="13"/>
@@ -5420,7 +5682,7 @@
       <c r="G285" s="13"/>
       <c r="H285" s="14"/>
     </row>
-    <row r="286" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" s="13"/>
@@ -5430,7 +5692,7 @@
       <c r="G286" s="13"/>
       <c r="H286" s="14"/>
     </row>
-    <row r="287" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" s="13"/>
@@ -5440,7 +5702,7 @@
       <c r="G287" s="13"/>
       <c r="H287" s="14"/>
     </row>
-    <row r="288" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="13"/>
@@ -5450,7 +5712,7 @@
       <c r="G288" s="13"/>
       <c r="H288" s="14"/>
     </row>
-    <row r="289" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="13"/>
@@ -5460,7 +5722,7 @@
       <c r="G289" s="13"/>
       <c r="H289" s="14"/>
     </row>
-    <row r="290" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="13"/>
@@ -5470,7 +5732,7 @@
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
-    <row r="291" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" s="13"/>
@@ -5480,7 +5742,7 @@
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="13"/>
@@ -5490,7 +5752,7 @@
       <c r="G292" s="13"/>
       <c r="H292" s="14"/>
     </row>
-    <row r="293" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="13"/>
@@ -5500,7 +5762,7 @@
       <c r="G293" s="13"/>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="13"/>
@@ -5510,7 +5772,7 @@
       <c r="G294" s="13"/>
       <c r="H294" s="14"/>
     </row>
-    <row r="295" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" s="13"/>
@@ -5520,7 +5782,7 @@
       <c r="G295" s="13"/>
       <c r="H295" s="14"/>
     </row>
-    <row r="296" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" s="13"/>
@@ -5530,7 +5792,7 @@
       <c r="G296" s="13"/>
       <c r="H296" s="14"/>
     </row>
-    <row r="297" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" s="13"/>
@@ -5540,7 +5802,7 @@
       <c r="G297" s="13"/>
       <c r="H297" s="14"/>
     </row>
-    <row r="298" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" s="13"/>
@@ -5550,7 +5812,7 @@
       <c r="G298" s="13"/>
       <c r="H298" s="14"/>
     </row>
-    <row r="299" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="13"/>
@@ -5560,7 +5822,7 @@
       <c r="G299" s="13"/>
       <c r="H299" s="14"/>
     </row>
-    <row r="300" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="13"/>
@@ -5570,7 +5832,7 @@
       <c r="G300" s="13"/>
       <c r="H300" s="14"/>
     </row>
-    <row r="301" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="13"/>
@@ -5580,7 +5842,7 @@
       <c r="G301" s="13"/>
       <c r="H301" s="14"/>
     </row>
-    <row r="302" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" s="13"/>
@@ -5590,7 +5852,7 @@
       <c r="G302" s="13"/>
       <c r="H302" s="14"/>
     </row>
-    <row r="303" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="13"/>
@@ -5600,7 +5862,7 @@
       <c r="G303" s="13"/>
       <c r="H303" s="14"/>
     </row>
-    <row r="304" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="13"/>
@@ -5610,7 +5872,7 @@
       <c r="G304" s="13"/>
       <c r="H304" s="14"/>
     </row>
-    <row r="305" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="13"/>
@@ -5620,7 +5882,7 @@
       <c r="G305" s="13"/>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="13"/>
@@ -5630,7 +5892,7 @@
       <c r="G306" s="13"/>
       <c r="H306" s="14"/>
     </row>
-    <row r="307" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="13"/>
@@ -5640,7 +5902,7 @@
       <c r="G307" s="13"/>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="13"/>
@@ -5650,7 +5912,7 @@
       <c r="G308" s="13"/>
       <c r="H308" s="14"/>
     </row>
-    <row r="309" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="13"/>
@@ -5660,7 +5922,7 @@
       <c r="G309" s="13"/>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="13"/>
@@ -5670,7 +5932,7 @@
       <c r="G310" s="13"/>
       <c r="H310" s="14"/>
     </row>
-    <row r="311" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="13"/>
@@ -5680,7 +5942,7 @@
       <c r="G311" s="13"/>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="13"/>
@@ -5690,7 +5952,7 @@
       <c r="G312" s="13"/>
       <c r="H312" s="14"/>
     </row>
-    <row r="313" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="13"/>
@@ -5700,7 +5962,7 @@
       <c r="G313" s="13"/>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="13"/>
@@ -5710,7 +5972,7 @@
       <c r="G314" s="13"/>
       <c r="H314" s="14"/>
     </row>
-    <row r="315" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="13"/>
@@ -5720,7 +5982,7 @@
       <c r="G315" s="13"/>
       <c r="H315" s="14"/>
     </row>
-    <row r="316" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="13"/>
@@ -5730,7 +5992,7 @@
       <c r="G316" s="13"/>
       <c r="H316" s="14"/>
     </row>
-    <row r="317" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="13"/>
@@ -5740,7 +6002,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="14"/>
     </row>
-    <row r="318" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="13"/>
@@ -5750,7 +6012,7 @@
       <c r="G318" s="13"/>
       <c r="H318" s="14"/>
     </row>
-    <row r="319" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
       <c r="C319" s="13"/>
@@ -5760,7 +6022,7 @@
       <c r="G319" s="13"/>
       <c r="H319" s="14"/>
     </row>
-    <row r="320" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
       <c r="C320" s="13"/>
@@ -5770,7 +6032,7 @@
       <c r="G320" s="13"/>
       <c r="H320" s="14"/>
     </row>
-    <row r="321" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="13"/>
@@ -5780,7 +6042,7 @@
       <c r="G321" s="13"/>
       <c r="H321" s="14"/>
     </row>
-    <row r="322" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="13"/>
@@ -5790,7 +6052,7 @@
       <c r="G322" s="13"/>
       <c r="H322" s="14"/>
     </row>
-    <row r="323" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="13"/>
@@ -5800,7 +6062,7 @@
       <c r="G323" s="13"/>
       <c r="H323" s="14"/>
     </row>
-    <row r="324" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="13"/>
@@ -5810,7 +6072,7 @@
       <c r="G324" s="13"/>
       <c r="H324" s="14"/>
     </row>
-    <row r="325" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
       <c r="C325" s="13"/>
@@ -5820,7 +6082,7 @@
       <c r="G325" s="13"/>
       <c r="H325" s="14"/>
     </row>
-    <row r="326" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A326" s="14"/>
       <c r="B326" s="14"/>
       <c r="C326" s="13"/>
@@ -5830,7 +6092,7 @@
       <c r="G326" s="13"/>
       <c r="H326" s="14"/>
     </row>
-    <row r="327" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
       <c r="C327" s="13"/>
@@ -5840,7 +6102,7 @@
       <c r="G327" s="13"/>
       <c r="H327" s="14"/>
     </row>
-    <row r="328" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="13"/>
@@ -5850,7 +6112,7 @@
       <c r="G328" s="13"/>
       <c r="H328" s="14"/>
     </row>
-    <row r="329" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="13"/>
@@ -5860,7 +6122,7 @@
       <c r="G329" s="13"/>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="13"/>
@@ -5870,7 +6132,7 @@
       <c r="G330" s="13"/>
       <c r="H330" s="14"/>
     </row>
-    <row r="331" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="13"/>
@@ -5880,7 +6142,7 @@
       <c r="G331" s="13"/>
       <c r="H331" s="14"/>
     </row>
-    <row r="332" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
       <c r="C332" s="13"/>
@@ -5890,7 +6152,7 @@
       <c r="G332" s="13"/>
       <c r="H332" s="14"/>
     </row>
-    <row r="333" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
       <c r="C333" s="13"/>
@@ -5900,7 +6162,7 @@
       <c r="G333" s="13"/>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="13"/>
@@ -5910,7 +6172,7 @@
       <c r="G334" s="13"/>
       <c r="H334" s="14"/>
     </row>
-    <row r="335" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="13"/>
@@ -5920,7 +6182,7 @@
       <c r="G335" s="13"/>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="13"/>
@@ -5930,7 +6192,7 @@
       <c r="G336" s="13"/>
       <c r="H336" s="14"/>
     </row>
-    <row r="337" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="13"/>
@@ -5940,7 +6202,7 @@
       <c r="G337" s="13"/>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="13"/>
@@ -5950,7 +6212,7 @@
       <c r="G338" s="13"/>
       <c r="H338" s="14"/>
     </row>
-    <row r="339" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" s="13"/>
@@ -5960,7 +6222,7 @@
       <c r="G339" s="13"/>
       <c r="H339" s="14"/>
     </row>
-    <row r="340" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="13"/>
@@ -5970,7 +6232,7 @@
       <c r="G340" s="13"/>
       <c r="H340" s="14"/>
     </row>
-    <row r="341" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="13"/>
@@ -5980,7 +6242,7 @@
       <c r="G341" s="13"/>
       <c r="H341" s="14"/>
     </row>
-    <row r="342" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" s="13"/>
@@ -5990,7 +6252,7 @@
       <c r="G342" s="13"/>
       <c r="H342" s="14"/>
     </row>
-    <row r="343" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="13"/>
@@ -6000,7 +6262,7 @@
       <c r="G343" s="13"/>
       <c r="H343" s="14"/>
     </row>
-    <row r="344" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A344" s="14"/>
       <c r="B344" s="14"/>
       <c r="C344" s="13"/>
@@ -6010,7 +6272,7 @@
       <c r="G344" s="13"/>
       <c r="H344" s="14"/>
     </row>
-    <row r="345" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" s="13"/>
@@ -6020,7 +6282,7 @@
       <c r="G345" s="13"/>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="13"/>
@@ -6030,7 +6292,7 @@
       <c r="G346" s="13"/>
       <c r="H346" s="14"/>
     </row>
-    <row r="347" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" s="13"/>
@@ -6040,7 +6302,7 @@
       <c r="G347" s="13"/>
       <c r="H347" s="14"/>
     </row>
-    <row r="348" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" s="13"/>
@@ -6050,7 +6312,7 @@
       <c r="G348" s="13"/>
       <c r="H348" s="14"/>
     </row>
-    <row r="349" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" s="13"/>
@@ -6060,7 +6322,7 @@
       <c r="G349" s="13"/>
       <c r="H349" s="14"/>
     </row>
-    <row r="350" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" s="13"/>
@@ -6070,7 +6332,7 @@
       <c r="G350" s="13"/>
       <c r="H350" s="14"/>
     </row>
-    <row r="351" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="13"/>
@@ -6080,7 +6342,7 @@
       <c r="G351" s="13"/>
       <c r="H351" s="14"/>
     </row>
-    <row r="352" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="13"/>
@@ -6090,7 +6352,7 @@
       <c r="G352" s="13"/>
       <c r="H352" s="14"/>
     </row>
-    <row r="353" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" s="13"/>
@@ -6100,7 +6362,7 @@
       <c r="G353" s="13"/>
       <c r="H353" s="14"/>
     </row>
-    <row r="354" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="13"/>
@@ -6110,7 +6372,7 @@
       <c r="G354" s="13"/>
       <c r="H354" s="14"/>
     </row>
-    <row r="355" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="13"/>
@@ -6120,7 +6382,7 @@
       <c r="G355" s="13"/>
       <c r="H355" s="14"/>
     </row>
-    <row r="356" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
       <c r="C356" s="13"/>
@@ -6130,7 +6392,7 @@
       <c r="G356" s="13"/>
       <c r="H356" s="14"/>
     </row>
-    <row r="357" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" s="13"/>
@@ -6140,7 +6402,7 @@
       <c r="G357" s="13"/>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" s="13"/>
@@ -6150,7 +6412,7 @@
       <c r="G358" s="13"/>
       <c r="H358" s="14"/>
     </row>
-    <row r="359" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" s="13"/>
@@ -6160,7 +6422,7 @@
       <c r="G359" s="13"/>
       <c r="H359" s="14"/>
     </row>
-    <row r="360" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" s="13"/>
@@ -6170,7 +6432,7 @@
       <c r="G360" s="13"/>
       <c r="H360" s="14"/>
     </row>
-    <row r="361" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" s="13"/>
@@ -6180,7 +6442,7 @@
       <c r="G361" s="13"/>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
       <c r="C362" s="13"/>
@@ -6190,7 +6452,7 @@
       <c r="G362" s="13"/>
       <c r="H362" s="14"/>
     </row>
-    <row r="363" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
       <c r="C363" s="13"/>
@@ -6200,7 +6462,7 @@
       <c r="G363" s="13"/>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
       <c r="C364" s="13"/>
@@ -6210,7 +6472,7 @@
       <c r="G364" s="13"/>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
       <c r="C365" s="13"/>
@@ -6220,7 +6482,7 @@
       <c r="G365" s="13"/>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" s="13"/>
@@ -6230,7 +6492,7 @@
       <c r="G366" s="13"/>
       <c r="H366" s="14"/>
     </row>
-    <row r="367" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" s="13"/>
@@ -6240,7 +6502,7 @@
       <c r="G367" s="13"/>
       <c r="H367" s="14"/>
     </row>
-    <row r="368" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" s="13"/>
@@ -6250,7 +6512,7 @@
       <c r="G368" s="13"/>
       <c r="H368" s="14"/>
     </row>
-    <row r="369" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" s="13"/>
@@ -6260,7 +6522,7 @@
       <c r="G369" s="13"/>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" s="13"/>
@@ -6270,7 +6532,7 @@
       <c r="G370" s="13"/>
       <c r="H370" s="14"/>
     </row>
-    <row r="371" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
       <c r="C371" s="13"/>
@@ -6280,7 +6542,7 @@
       <c r="G371" s="13"/>
       <c r="H371" s="14"/>
     </row>
-    <row r="372" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
       <c r="C372" s="13"/>
@@ -6290,7 +6552,7 @@
       <c r="G372" s="13"/>
       <c r="H372" s="14"/>
     </row>
-    <row r="373" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A373" s="14"/>
       <c r="B373" s="14"/>
       <c r="C373" s="13"/>
@@ -6300,7 +6562,7 @@
       <c r="G373" s="13"/>
       <c r="H373" s="14"/>
     </row>
-    <row r="374" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A374" s="14"/>
       <c r="B374" s="14"/>
       <c r="C374" s="13"/>
@@ -6310,7 +6572,7 @@
       <c r="G374" s="13"/>
       <c r="H374" s="14"/>
     </row>
-    <row r="375" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A375" s="14"/>
       <c r="B375" s="14"/>
       <c r="C375" s="13"/>
@@ -6320,7 +6582,7 @@
       <c r="G375" s="13"/>
       <c r="H375" s="14"/>
     </row>
-    <row r="376" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A376" s="14"/>
       <c r="B376" s="14"/>
       <c r="C376" s="13"/>
@@ -6330,7 +6592,7 @@
       <c r="G376" s="13"/>
       <c r="H376" s="14"/>
     </row>
-    <row r="377" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A377" s="14"/>
       <c r="B377" s="14"/>
       <c r="C377" s="13"/>
@@ -6340,7 +6602,7 @@
       <c r="G377" s="13"/>
       <c r="H377" s="14"/>
     </row>
-    <row r="378" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
       <c r="C378" s="13"/>
@@ -6350,7 +6612,7 @@
       <c r="G378" s="13"/>
       <c r="H378" s="14"/>
     </row>
-    <row r="379" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
       <c r="C379" s="13"/>
@@ -6360,7 +6622,7 @@
       <c r="G379" s="13"/>
       <c r="H379" s="14"/>
     </row>
-    <row r="380" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A380" s="14"/>
       <c r="B380" s="14"/>
       <c r="C380" s="13"/>
@@ -6370,7 +6632,7 @@
       <c r="G380" s="13"/>
       <c r="H380" s="14"/>
     </row>
-    <row r="381" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A381" s="14"/>
       <c r="B381" s="14"/>
       <c r="C381" s="13"/>
@@ -6380,7 +6642,7 @@
       <c r="G381" s="13"/>
       <c r="H381" s="14"/>
     </row>
-    <row r="382" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A382" s="14"/>
       <c r="B382" s="14"/>
       <c r="C382" s="13"/>
@@ -6390,7 +6652,7 @@
       <c r="G382" s="13"/>
       <c r="H382" s="14"/>
     </row>
-    <row r="383" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
       <c r="C383" s="13"/>
@@ -6400,7 +6662,7 @@
       <c r="G383" s="13"/>
       <c r="H383" s="14"/>
     </row>
-    <row r="384" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A384" s="14"/>
       <c r="B384" s="14"/>
       <c r="C384" s="13"/>
@@ -6410,7 +6672,7 @@
       <c r="G384" s="13"/>
       <c r="H384" s="14"/>
     </row>
-    <row r="385" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A385" s="14"/>
       <c r="B385" s="14"/>
       <c r="C385" s="13"/>
@@ -6420,7 +6682,7 @@
       <c r="G385" s="13"/>
       <c r="H385" s="14"/>
     </row>
-    <row r="386" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A386" s="14"/>
       <c r="B386" s="14"/>
       <c r="C386" s="13"/>
@@ -6430,7 +6692,7 @@
       <c r="G386" s="13"/>
       <c r="H386" s="14"/>
     </row>
-    <row r="387" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A387" s="14"/>
       <c r="B387" s="14"/>
       <c r="C387" s="13"/>
@@ -6440,7 +6702,7 @@
       <c r="G387" s="13"/>
       <c r="H387" s="14"/>
     </row>
-    <row r="388" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" s="13"/>
@@ -6450,7 +6712,7 @@
       <c r="G388" s="13"/>
       <c r="H388" s="14"/>
     </row>
-    <row r="389" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A389" s="14"/>
       <c r="B389" s="14"/>
       <c r="C389" s="13"/>
@@ -6460,7 +6722,7 @@
       <c r="G389" s="13"/>
       <c r="H389" s="14"/>
     </row>
-    <row r="390" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A390" s="14"/>
       <c r="B390" s="14"/>
       <c r="C390" s="13"/>
@@ -6470,7 +6732,7 @@
       <c r="G390" s="13"/>
       <c r="H390" s="14"/>
     </row>
-    <row r="391" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A391" s="14"/>
       <c r="B391" s="14"/>
       <c r="C391" s="13"/>
@@ -6480,7 +6742,7 @@
       <c r="G391" s="13"/>
       <c r="H391" s="14"/>
     </row>
-    <row r="392" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A392" s="14"/>
       <c r="B392" s="14"/>
       <c r="C392" s="13"/>
@@ -6490,7 +6752,7 @@
       <c r="G392" s="13"/>
       <c r="H392" s="14"/>
     </row>
-    <row r="393" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
       <c r="C393" s="13"/>
@@ -6500,7 +6762,7 @@
       <c r="G393" s="13"/>
       <c r="H393" s="14"/>
     </row>
-    <row r="394" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A394" s="14"/>
       <c r="B394" s="14"/>
       <c r="C394" s="13"/>
@@ -6510,7 +6772,7 @@
       <c r="G394" s="13"/>
       <c r="H394" s="14"/>
     </row>
-    <row r="395" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A395" s="14"/>
       <c r="B395" s="14"/>
       <c r="C395" s="13"/>
@@ -6520,7 +6782,7 @@
       <c r="G395" s="13"/>
       <c r="H395" s="14"/>
     </row>
-    <row r="396" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A396" s="14"/>
       <c r="B396" s="14"/>
       <c r="C396" s="13"/>
@@ -6530,7 +6792,7 @@
       <c r="G396" s="13"/>
       <c r="H396" s="14"/>
     </row>
-    <row r="397" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
       <c r="C397" s="13"/>
@@ -6540,7 +6802,7 @@
       <c r="G397" s="13"/>
       <c r="H397" s="14"/>
     </row>
-    <row r="398" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
       <c r="C398" s="13"/>
@@ -6550,7 +6812,7 @@
       <c r="G398" s="13"/>
       <c r="H398" s="14"/>
     </row>
-    <row r="399" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A399" s="14"/>
       <c r="B399" s="14"/>
       <c r="C399" s="13"/>
@@ -6560,7 +6822,7 @@
       <c r="G399" s="13"/>
       <c r="H399" s="14"/>
     </row>
-    <row r="400" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
       <c r="C400" s="13"/>
@@ -6570,7 +6832,7 @@
       <c r="G400" s="13"/>
       <c r="H400" s="14"/>
     </row>
-    <row r="401" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A401" s="14"/>
       <c r="B401" s="14"/>
       <c r="C401" s="13"/>
@@ -6580,7 +6842,7 @@
       <c r="G401" s="13"/>
       <c r="H401" s="14"/>
     </row>
-    <row r="402" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" s="13"/>
@@ -6590,7 +6852,7 @@
       <c r="G402" s="13"/>
       <c r="H402" s="14"/>
     </row>
-    <row r="403" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" s="13"/>
@@ -6600,7 +6862,7 @@
       <c r="G403" s="13"/>
       <c r="H403" s="14"/>
     </row>
-    <row r="404" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" s="13"/>
@@ -6610,7 +6872,7 @@
       <c r="G404" s="13"/>
       <c r="H404" s="14"/>
     </row>
-    <row r="405" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
       <c r="C405" s="13"/>
@@ -6620,7 +6882,7 @@
       <c r="G405" s="13"/>
       <c r="H405" s="14"/>
     </row>
-    <row r="406" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" s="13"/>
@@ -6630,7 +6892,7 @@
       <c r="G406" s="13"/>
       <c r="H406" s="14"/>
     </row>
-    <row r="407" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" s="13"/>
@@ -6640,7 +6902,7 @@
       <c r="G407" s="13"/>
       <c r="H407" s="14"/>
     </row>
-    <row r="408" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" s="13"/>
@@ -6650,7 +6912,7 @@
       <c r="G408" s="13"/>
       <c r="H408" s="14"/>
     </row>
-    <row r="409" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" s="13"/>
@@ -6660,7 +6922,7 @@
       <c r="G409" s="13"/>
       <c r="H409" s="14"/>
     </row>
-    <row r="410" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" s="13"/>
@@ -6670,7 +6932,7 @@
       <c r="G410" s="13"/>
       <c r="H410" s="14"/>
     </row>
-    <row r="411" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A411" s="14"/>
       <c r="B411" s="14"/>
       <c r="C411" s="13"/>
@@ -6680,7 +6942,7 @@
       <c r="G411" s="13"/>
       <c r="H411" s="14"/>
     </row>
-    <row r="412" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A412" s="14"/>
       <c r="B412" s="14"/>
       <c r="C412" s="13"/>
@@ -6690,7 +6952,7 @@
       <c r="G412" s="13"/>
       <c r="H412" s="14"/>
     </row>
-    <row r="413" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A413" s="14"/>
       <c r="B413" s="14"/>
       <c r="C413" s="13"/>
@@ -6700,7 +6962,7 @@
       <c r="G413" s="13"/>
       <c r="H413" s="14"/>
     </row>
-    <row r="414" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A414" s="14"/>
       <c r="B414" s="14"/>
       <c r="C414" s="13"/>
@@ -6710,7 +6972,7 @@
       <c r="G414" s="13"/>
       <c r="H414" s="14"/>
     </row>
-    <row r="415" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A415" s="14"/>
       <c r="B415" s="14"/>
       <c r="C415" s="13"/>
@@ -6720,7 +6982,7 @@
       <c r="G415" s="13"/>
       <c r="H415" s="14"/>
     </row>
-    <row r="416" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A416" s="14"/>
       <c r="B416" s="14"/>
       <c r="C416" s="13"/>
@@ -6730,7 +6992,7 @@
       <c r="G416" s="13"/>
       <c r="H416" s="14"/>
     </row>
-    <row r="417" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A417" s="14"/>
       <c r="B417" s="14"/>
       <c r="C417" s="13"/>
@@ -6740,7 +7002,7 @@
       <c r="G417" s="13"/>
       <c r="H417" s="14"/>
     </row>
-    <row r="418" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A418" s="14"/>
       <c r="B418" s="14"/>
       <c r="C418" s="13"/>
@@ -6750,7 +7012,7 @@
       <c r="G418" s="13"/>
       <c r="H418" s="14"/>
     </row>
-    <row r="419" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A419" s="14"/>
       <c r="B419" s="14"/>
       <c r="C419" s="13"/>
@@ -6760,7 +7022,7 @@
       <c r="G419" s="13"/>
       <c r="H419" s="14"/>
     </row>
-    <row r="420" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A420" s="14"/>
       <c r="B420" s="14"/>
       <c r="C420" s="13"/>
@@ -6770,7 +7032,7 @@
       <c r="G420" s="13"/>
       <c r="H420" s="14"/>
     </row>
-    <row r="421" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A421" s="14"/>
       <c r="B421" s="14"/>
       <c r="C421" s="13"/>
@@ -6780,7 +7042,7 @@
       <c r="G421" s="13"/>
       <c r="H421" s="14"/>
     </row>
-    <row r="422" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A422" s="14"/>
       <c r="B422" s="14"/>
       <c r="C422" s="13"/>
@@ -6790,7 +7052,7 @@
       <c r="G422" s="13"/>
       <c r="H422" s="14"/>
     </row>
-    <row r="423" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A423" s="14"/>
       <c r="B423" s="14"/>
       <c r="C423" s="13"/>
@@ -6800,7 +7062,7 @@
       <c r="G423" s="13"/>
       <c r="H423" s="14"/>
     </row>
-    <row r="424" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A424" s="14"/>
       <c r="B424" s="14"/>
       <c r="C424" s="13"/>
@@ -6810,7 +7072,7 @@
       <c r="G424" s="13"/>
       <c r="H424" s="14"/>
     </row>
-    <row r="425" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A425" s="14"/>
       <c r="B425" s="14"/>
       <c r="C425" s="13"/>
@@ -6820,7 +7082,7 @@
       <c r="G425" s="13"/>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
       <c r="C426" s="13"/>
@@ -6830,7 +7092,7 @@
       <c r="G426" s="13"/>
       <c r="H426" s="14"/>
     </row>
-    <row r="427" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A427" s="14"/>
       <c r="B427" s="14"/>
       <c r="C427" s="13"/>
@@ -6840,7 +7102,7 @@
       <c r="G427" s="13"/>
       <c r="H427" s="14"/>
     </row>
-    <row r="428" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
       <c r="C428" s="13"/>
@@ -6850,7 +7112,7 @@
       <c r="G428" s="13"/>
       <c r="H428" s="14"/>
     </row>
-    <row r="429" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A429" s="14"/>
       <c r="B429" s="14"/>
       <c r="C429" s="13"/>
@@ -6860,7 +7122,7 @@
       <c r="G429" s="13"/>
       <c r="H429" s="14"/>
     </row>
-    <row r="430" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A430" s="14"/>
       <c r="B430" s="14"/>
       <c r="C430" s="13"/>
@@ -6870,7 +7132,7 @@
       <c r="G430" s="13"/>
       <c r="H430" s="14"/>
     </row>
-    <row r="431" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A431" s="14"/>
       <c r="B431" s="14"/>
       <c r="C431" s="13"/>
@@ -6880,7 +7142,7 @@
       <c r="G431" s="13"/>
       <c r="H431" s="14"/>
     </row>
-    <row r="432" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A432" s="14"/>
       <c r="B432" s="14"/>
       <c r="C432" s="13"/>
@@ -6890,7 +7152,7 @@
       <c r="G432" s="13"/>
       <c r="H432" s="14"/>
     </row>
-    <row r="433" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A433" s="14"/>
       <c r="B433" s="14"/>
       <c r="C433" s="13"/>
@@ -6900,7 +7162,7 @@
       <c r="G433" s="13"/>
       <c r="H433" s="14"/>
     </row>
-    <row r="434" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="13"/>
@@ -6910,7 +7172,7 @@
       <c r="G434" s="13"/>
       <c r="H434" s="14"/>
     </row>
-    <row r="435" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A435" s="14"/>
       <c r="B435" s="14"/>
       <c r="C435" s="13"/>
@@ -6920,7 +7182,7 @@
       <c r="G435" s="13"/>
       <c r="H435" s="14"/>
     </row>
-    <row r="436" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A436" s="14"/>
       <c r="B436" s="14"/>
       <c r="C436" s="13"/>
@@ -6930,7 +7192,7 @@
       <c r="G436" s="13"/>
       <c r="H436" s="14"/>
     </row>
-    <row r="437" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A437" s="14"/>
       <c r="B437" s="14"/>
       <c r="C437" s="13"/>
@@ -6940,7 +7202,7 @@
       <c r="G437" s="13"/>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A438" s="14"/>
       <c r="B438" s="14"/>
       <c r="C438" s="13"/>
@@ -6950,7 +7212,7 @@
       <c r="G438" s="13"/>
       <c r="H438" s="14"/>
     </row>
-    <row r="439" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A439" s="14"/>
       <c r="B439" s="14"/>
       <c r="C439" s="13"/>
@@ -6960,7 +7222,7 @@
       <c r="G439" s="13"/>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A440" s="14"/>
       <c r="B440" s="14"/>
       <c r="C440" s="13"/>
@@ -6970,7 +7232,7 @@
       <c r="G440" s="13"/>
       <c r="H440" s="14"/>
     </row>
-    <row r="441" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A441" s="14"/>
       <c r="B441" s="14"/>
       <c r="C441" s="13"/>
@@ -6980,7 +7242,7 @@
       <c r="G441" s="13"/>
       <c r="H441" s="14"/>
     </row>
-    <row r="442" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A442" s="14"/>
       <c r="B442" s="14"/>
       <c r="C442" s="13"/>
@@ -6990,7 +7252,7 @@
       <c r="G442" s="13"/>
       <c r="H442" s="14"/>
     </row>
-    <row r="443" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="13"/>
@@ -7000,7 +7262,7 @@
       <c r="G443" s="13"/>
       <c r="H443" s="14"/>
     </row>
-    <row r="444" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="13"/>
@@ -7010,7 +7272,7 @@
       <c r="G444" s="13"/>
       <c r="H444" s="14"/>
     </row>
-    <row r="445" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="13"/>
@@ -7020,7 +7282,7 @@
       <c r="G445" s="13"/>
       <c r="H445" s="14"/>
     </row>
-    <row r="446" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A446" s="14"/>
       <c r="B446" s="14"/>
       <c r="C446" s="13"/>
@@ -7030,7 +7292,7 @@
       <c r="G446" s="13"/>
       <c r="H446" s="14"/>
     </row>
-    <row r="447" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A447" s="14"/>
       <c r="B447" s="14"/>
       <c r="C447" s="13"/>
@@ -7040,7 +7302,7 @@
       <c r="G447" s="13"/>
       <c r="H447" s="14"/>
     </row>
-    <row r="448" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A448" s="14"/>
       <c r="B448" s="14"/>
       <c r="C448" s="13"/>
@@ -7050,7 +7312,7 @@
       <c r="G448" s="13"/>
       <c r="H448" s="14"/>
     </row>
-    <row r="449" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A449" s="14"/>
       <c r="B449" s="14"/>
       <c r="C449" s="13"/>
@@ -7060,7 +7322,7 @@
       <c r="G449" s="13"/>
       <c r="H449" s="14"/>
     </row>
-    <row r="450" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A450" s="14"/>
       <c r="B450" s="14"/>
       <c r="C450" s="13"/>
@@ -7070,7 +7332,7 @@
       <c r="G450" s="13"/>
       <c r="H450" s="14"/>
     </row>
-    <row r="451" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A451" s="14"/>
       <c r="B451" s="14"/>
       <c r="C451" s="13"/>
@@ -7080,7 +7342,7 @@
       <c r="G451" s="13"/>
       <c r="H451" s="14"/>
     </row>
-    <row r="452" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A452" s="14"/>
       <c r="B452" s="14"/>
       <c r="C452" s="13"/>
@@ -7090,7 +7352,7 @@
       <c r="G452" s="13"/>
       <c r="H452" s="14"/>
     </row>
-    <row r="453" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A453" s="14"/>
       <c r="B453" s="14"/>
       <c r="C453" s="13"/>
@@ -7100,7 +7362,7 @@
       <c r="G453" s="13"/>
       <c r="H453" s="14"/>
     </row>
-    <row r="454" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A454" s="14"/>
       <c r="B454" s="14"/>
       <c r="C454" s="13"/>
@@ -7110,7 +7372,7 @@
       <c r="G454" s="13"/>
       <c r="H454" s="14"/>
     </row>
-    <row r="455" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A455" s="14"/>
       <c r="B455" s="14"/>
       <c r="C455" s="13"/>
@@ -7120,7 +7382,7 @@
       <c r="G455" s="13"/>
       <c r="H455" s="14"/>
     </row>
-    <row r="456" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A456" s="14"/>
       <c r="B456" s="14"/>
       <c r="C456" s="13"/>
@@ -7130,7 +7392,7 @@
       <c r="G456" s="13"/>
       <c r="H456" s="14"/>
     </row>
-    <row r="457" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
       <c r="C457" s="13"/>
@@ -7140,7 +7402,7 @@
       <c r="G457" s="13"/>
       <c r="H457" s="14"/>
     </row>
-    <row r="458" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
       <c r="C458" s="13"/>
@@ -7150,7 +7412,7 @@
       <c r="G458" s="13"/>
       <c r="H458" s="14"/>
     </row>
-    <row r="459" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A459" s="14"/>
       <c r="B459" s="14"/>
       <c r="C459" s="13"/>
@@ -7160,7 +7422,7 @@
       <c r="G459" s="13"/>
       <c r="H459" s="14"/>
     </row>
-    <row r="460" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A460" s="14"/>
       <c r="B460" s="14"/>
       <c r="C460" s="13"/>
@@ -7170,7 +7432,7 @@
       <c r="G460" s="13"/>
       <c r="H460" s="14"/>
     </row>
-    <row r="461" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
       <c r="C461" s="13"/>
@@ -7180,7 +7442,7 @@
       <c r="G461" s="13"/>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A462" s="14"/>
       <c r="B462" s="14"/>
       <c r="C462" s="13"/>
@@ -7190,7 +7452,7 @@
       <c r="G462" s="13"/>
       <c r="H462" s="14"/>
     </row>
-    <row r="463" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A463" s="14"/>
       <c r="B463" s="14"/>
       <c r="C463" s="13"/>
@@ -7200,7 +7462,7 @@
       <c r="G463" s="13"/>
       <c r="H463" s="14"/>
     </row>
-    <row r="464" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A464" s="14"/>
       <c r="B464" s="14"/>
       <c r="C464" s="13"/>
@@ -7210,7 +7472,7 @@
       <c r="G464" s="13"/>
       <c r="H464" s="14"/>
     </row>
-    <row r="465" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A465" s="14"/>
       <c r="B465" s="14"/>
       <c r="C465" s="13"/>
@@ -7220,7 +7482,7 @@
       <c r="G465" s="13"/>
       <c r="H465" s="14"/>
     </row>
-    <row r="466" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A466" s="14"/>
       <c r="B466" s="14"/>
       <c r="C466" s="13"/>
@@ -7230,7 +7492,7 @@
       <c r="G466" s="13"/>
       <c r="H466" s="14"/>
     </row>
-    <row r="467" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A467" s="14"/>
       <c r="B467" s="14"/>
       <c r="C467" s="13"/>
@@ -7240,7 +7502,7 @@
       <c r="G467" s="13"/>
       <c r="H467" s="14"/>
     </row>
-    <row r="468" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A468" s="14"/>
       <c r="B468" s="14"/>
       <c r="C468" s="13"/>
@@ -7250,7 +7512,7 @@
       <c r="G468" s="13"/>
       <c r="H468" s="14"/>
     </row>
-    <row r="469" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A469" s="14"/>
       <c r="B469" s="14"/>
       <c r="C469" s="13"/>
@@ -7260,7 +7522,7 @@
       <c r="G469" s="13"/>
       <c r="H469" s="14"/>
     </row>
-    <row r="470" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A470" s="14"/>
       <c r="B470" s="14"/>
       <c r="C470" s="13"/>
@@ -7270,7 +7532,7 @@
       <c r="G470" s="13"/>
       <c r="H470" s="14"/>
     </row>
-    <row r="471" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A471" s="14"/>
       <c r="B471" s="14"/>
       <c r="C471" s="13"/>
@@ -7280,7 +7542,7 @@
       <c r="G471" s="13"/>
       <c r="H471" s="14"/>
     </row>
-    <row r="472" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A472" s="14"/>
       <c r="B472" s="14"/>
       <c r="C472" s="13"/>
@@ -7290,7 +7552,7 @@
       <c r="G472" s="13"/>
       <c r="H472" s="14"/>
     </row>
-    <row r="473" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A473" s="14"/>
       <c r="B473" s="14"/>
       <c r="C473" s="13"/>
@@ -7300,7 +7562,7 @@
       <c r="G473" s="13"/>
       <c r="H473" s="14"/>
     </row>
-    <row r="474" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A474" s="14"/>
       <c r="B474" s="14"/>
       <c r="C474" s="13"/>
@@ -7310,7 +7572,7 @@
       <c r="G474" s="13"/>
       <c r="H474" s="14"/>
     </row>
-    <row r="475" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A475" s="14"/>
       <c r="B475" s="14"/>
       <c r="C475" s="13"/>
@@ -7320,7 +7582,7 @@
       <c r="G475" s="13"/>
       <c r="H475" s="14"/>
     </row>
-    <row r="476" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A476" s="14"/>
       <c r="B476" s="14"/>
       <c r="C476" s="13"/>
@@ -7330,7 +7592,7 @@
       <c r="G476" s="13"/>
       <c r="H476" s="14"/>
     </row>
-    <row r="477" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A477" s="14"/>
       <c r="B477" s="14"/>
       <c r="C477" s="13"/>
@@ -7340,7 +7602,7 @@
       <c r="G477" s="13"/>
       <c r="H477" s="14"/>
     </row>
-    <row r="478" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A478" s="14"/>
       <c r="B478" s="14"/>
       <c r="C478" s="13"/>
@@ -7350,7 +7612,7 @@
       <c r="G478" s="13"/>
       <c r="H478" s="14"/>
     </row>
-    <row r="479" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A479" s="14"/>
       <c r="B479" s="14"/>
       <c r="C479" s="13"/>
@@ -7360,7 +7622,7 @@
       <c r="G479" s="13"/>
       <c r="H479" s="14"/>
     </row>
-    <row r="480" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A480" s="14"/>
       <c r="B480" s="14"/>
       <c r="C480" s="13"/>
@@ -7370,7 +7632,7 @@
       <c r="G480" s="13"/>
       <c r="H480" s="14"/>
     </row>
-    <row r="481" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A481" s="14"/>
       <c r="B481" s="14"/>
       <c r="C481" s="13"/>
@@ -7380,7 +7642,7 @@
       <c r="G481" s="13"/>
       <c r="H481" s="14"/>
     </row>
-    <row r="482" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A482" s="14"/>
       <c r="B482" s="14"/>
       <c r="C482" s="13"/>
@@ -7390,7 +7652,7 @@
       <c r="G482" s="13"/>
       <c r="H482" s="14"/>
     </row>
-    <row r="483" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A483" s="14"/>
       <c r="B483" s="14"/>
       <c r="C483" s="13"/>
@@ -7400,7 +7662,7 @@
       <c r="G483" s="13"/>
       <c r="H483" s="14"/>
     </row>
-    <row r="484" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A484" s="14"/>
       <c r="B484" s="14"/>
       <c r="C484" s="13"/>
@@ -7410,7 +7672,7 @@
       <c r="G484" s="13"/>
       <c r="H484" s="14"/>
     </row>
-    <row r="485" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A485" s="14"/>
       <c r="B485" s="14"/>
       <c r="C485" s="13"/>
@@ -7420,7 +7682,7 @@
       <c r="G485" s="13"/>
       <c r="H485" s="14"/>
     </row>
-    <row r="486" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A486" s="14"/>
       <c r="B486" s="14"/>
       <c r="C486" s="13"/>
@@ -7430,7 +7692,7 @@
       <c r="G486" s="13"/>
       <c r="H486" s="14"/>
     </row>
-    <row r="487" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A487" s="14"/>
       <c r="B487" s="14"/>
       <c r="C487" s="13"/>
@@ -7440,7 +7702,7 @@
       <c r="G487" s="13"/>
       <c r="H487" s="14"/>
     </row>
-    <row r="488" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A488" s="14"/>
       <c r="B488" s="14"/>
       <c r="C488" s="13"/>
@@ -7450,7 +7712,7 @@
       <c r="G488" s="13"/>
       <c r="H488" s="14"/>
     </row>
-    <row r="489" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A489" s="14"/>
       <c r="B489" s="14"/>
       <c r="C489" s="13"/>
@@ -7460,7 +7722,7 @@
       <c r="G489" s="13"/>
       <c r="H489" s="14"/>
     </row>
-    <row r="490" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A490" s="14"/>
       <c r="B490" s="14"/>
       <c r="C490" s="13"/>
@@ -7470,7 +7732,7 @@
       <c r="G490" s="13"/>
       <c r="H490" s="14"/>
     </row>
-    <row r="491" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A491" s="14"/>
       <c r="B491" s="14"/>
       <c r="C491" s="13"/>
@@ -7480,7 +7742,7 @@
       <c r="G491" s="13"/>
       <c r="H491" s="14"/>
     </row>
-    <row r="492" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A492" s="14"/>
       <c r="B492" s="14"/>
       <c r="C492" s="13"/>
@@ -7490,7 +7752,7 @@
       <c r="G492" s="13"/>
       <c r="H492" s="14"/>
     </row>
-    <row r="493" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A493" s="14"/>
       <c r="B493" s="14"/>
       <c r="C493" s="13"/>
@@ -7500,7 +7762,7 @@
       <c r="G493" s="13"/>
       <c r="H493" s="14"/>
     </row>
-    <row r="494" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A494" s="14"/>
       <c r="B494" s="14"/>
       <c r="C494" s="13"/>
@@ -7510,7 +7772,7 @@
       <c r="G494" s="13"/>
       <c r="H494" s="14"/>
     </row>
-    <row r="495" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A495" s="14"/>
       <c r="B495" s="14"/>
       <c r="C495" s="13"/>
@@ -7520,7 +7782,7 @@
       <c r="G495" s="13"/>
       <c r="H495" s="14"/>
     </row>
-    <row r="496" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A496" s="14"/>
       <c r="B496" s="14"/>
       <c r="C496" s="13"/>
@@ -7530,7 +7792,7 @@
       <c r="G496" s="13"/>
       <c r="H496" s="14"/>
     </row>
-    <row r="497" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A497" s="14"/>
       <c r="B497" s="14"/>
       <c r="C497" s="13"/>
@@ -7540,7 +7802,7 @@
       <c r="G497" s="13"/>
       <c r="H497" s="14"/>
     </row>
-    <row r="498" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A498" s="14"/>
       <c r="B498" s="14"/>
       <c r="C498" s="13"/>
@@ -7550,7 +7812,7 @@
       <c r="G498" s="13"/>
       <c r="H498" s="14"/>
     </row>
-    <row r="499" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A499" s="14"/>
       <c r="B499" s="14"/>
       <c r="C499" s="13"/>
@@ -7560,7 +7822,7 @@
       <c r="G499" s="13"/>
       <c r="H499" s="14"/>
     </row>
-    <row r="500" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A500" s="14"/>
       <c r="B500" s="14"/>
       <c r="C500" s="13"/>
@@ -7570,7 +7832,7 @@
       <c r="G500" s="13"/>
       <c r="H500" s="14"/>
     </row>
-    <row r="501" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A501" s="14"/>
       <c r="B501" s="14"/>
       <c r="C501" s="13"/>
@@ -7580,7 +7842,7 @@
       <c r="G501" s="13"/>
       <c r="H501" s="14"/>
     </row>
-    <row r="502" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A502" s="14"/>
       <c r="B502" s="14"/>
       <c r="C502" s="13"/>
@@ -7590,7 +7852,7 @@
       <c r="G502" s="13"/>
       <c r="H502" s="14"/>
     </row>
-    <row r="503" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A503" s="14"/>
       <c r="B503" s="14"/>
       <c r="C503" s="13"/>
@@ -7600,7 +7862,7 @@
       <c r="G503" s="13"/>
       <c r="H503" s="14"/>
     </row>
-    <row r="504" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A504" s="14"/>
       <c r="B504" s="14"/>
       <c r="C504" s="13"/>
@@ -7610,7 +7872,7 @@
       <c r="G504" s="13"/>
       <c r="H504" s="14"/>
     </row>
-    <row r="505" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A505" s="14"/>
       <c r="B505" s="14"/>
       <c r="C505" s="13"/>
@@ -7620,7 +7882,7 @@
       <c r="G505" s="13"/>
       <c r="H505" s="14"/>
     </row>
-    <row r="506" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A506" s="14"/>
       <c r="B506" s="14"/>
       <c r="C506" s="13"/>
@@ -7630,7 +7892,7 @@
       <c r="G506" s="13"/>
       <c r="H506" s="14"/>
     </row>
-    <row r="507" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A507" s="14"/>
       <c r="B507" s="14"/>
       <c r="C507" s="13"/>
@@ -7640,7 +7902,7 @@
       <c r="G507" s="13"/>
       <c r="H507" s="14"/>
     </row>
-    <row r="508" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A508" s="14"/>
       <c r="B508" s="14"/>
       <c r="C508" s="13"/>
@@ -7650,7 +7912,7 @@
       <c r="G508" s="13"/>
       <c r="H508" s="14"/>
     </row>
-    <row r="509" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A509" s="14"/>
       <c r="B509" s="14"/>
       <c r="C509" s="13"/>
@@ -7660,7 +7922,7 @@
       <c r="G509" s="13"/>
       <c r="H509" s="14"/>
     </row>
-    <row r="510" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A510" s="14"/>
       <c r="B510" s="14"/>
       <c r="C510" s="13"/>
@@ -7670,7 +7932,7 @@
       <c r="G510" s="13"/>
       <c r="H510" s="14"/>
     </row>
-    <row r="511" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A511" s="14"/>
       <c r="B511" s="14"/>
       <c r="C511" s="13"/>
@@ -7680,7 +7942,7 @@
       <c r="G511" s="13"/>
       <c r="H511" s="14"/>
     </row>
-    <row r="512" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A512" s="14"/>
       <c r="B512" s="14"/>
       <c r="C512" s="13"/>
@@ -7690,7 +7952,7 @@
       <c r="G512" s="13"/>
       <c r="H512" s="14"/>
     </row>
-    <row r="513" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A513" s="14"/>
       <c r="B513" s="14"/>
       <c r="C513" s="13"/>
@@ -7700,7 +7962,7 @@
       <c r="G513" s="13"/>
       <c r="H513" s="14"/>
     </row>
-    <row r="514" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A514" s="14"/>
       <c r="B514" s="14"/>
       <c r="C514" s="13"/>
@@ -7710,7 +7972,7 @@
       <c r="G514" s="13"/>
       <c r="H514" s="14"/>
     </row>
-    <row r="515" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A515" s="14"/>
       <c r="B515" s="14"/>
       <c r="C515" s="13"/>
@@ -7720,7 +7982,7 @@
       <c r="G515" s="13"/>
       <c r="H515" s="14"/>
     </row>
-    <row r="516" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A516" s="14"/>
       <c r="B516" s="14"/>
       <c r="C516" s="13"/>
@@ -7730,7 +7992,7 @@
       <c r="G516" s="13"/>
       <c r="H516" s="14"/>
     </row>
-    <row r="517" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A517" s="14"/>
       <c r="B517" s="14"/>
       <c r="C517" s="13"/>
@@ -7740,7 +8002,7 @@
       <c r="G517" s="13"/>
       <c r="H517" s="14"/>
     </row>
-    <row r="518" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A518" s="14"/>
       <c r="B518" s="14"/>
       <c r="C518" s="13"/>
@@ -7750,7 +8012,7 @@
       <c r="G518" s="13"/>
       <c r="H518" s="14"/>
     </row>
-    <row r="519" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A519" s="14"/>
       <c r="B519" s="14"/>
       <c r="C519" s="13"/>
@@ -7760,7 +8022,7 @@
       <c r="G519" s="13"/>
       <c r="H519" s="14"/>
     </row>
-    <row r="520" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A520" s="14"/>
       <c r="B520" s="14"/>
       <c r="C520" s="13"/>
@@ -7770,7 +8032,7 @@
       <c r="G520" s="13"/>
       <c r="H520" s="14"/>
     </row>
-    <row r="521" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A521" s="14"/>
       <c r="B521" s="14"/>
       <c r="C521" s="13"/>
@@ -7780,7 +8042,7 @@
       <c r="G521" s="13"/>
       <c r="H521" s="14"/>
     </row>
-    <row r="522" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A522" s="14"/>
       <c r="B522" s="14"/>
       <c r="C522" s="13"/>
@@ -7790,7 +8052,7 @@
       <c r="G522" s="13"/>
       <c r="H522" s="14"/>
     </row>
-    <row r="523" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A523" s="14"/>
       <c r="B523" s="14"/>
       <c r="C523" s="13"/>
@@ -7800,7 +8062,7 @@
       <c r="G523" s="13"/>
       <c r="H523" s="14"/>
     </row>
-    <row r="524" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A524" s="14"/>
       <c r="B524" s="14"/>
       <c r="C524" s="13"/>
@@ -7810,7 +8072,7 @@
       <c r="G524" s="13"/>
       <c r="H524" s="14"/>
     </row>
-    <row r="525" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A525" s="14"/>
       <c r="B525" s="14"/>
       <c r="C525" s="13"/>
@@ -7820,7 +8082,7 @@
       <c r="G525" s="13"/>
       <c r="H525" s="14"/>
     </row>
-    <row r="526" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A526" s="14"/>
       <c r="B526" s="14"/>
       <c r="C526" s="13"/>
@@ -7830,7 +8092,7 @@
       <c r="G526" s="13"/>
       <c r="H526" s="14"/>
     </row>
-    <row r="527" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A527" s="14"/>
       <c r="B527" s="14"/>
       <c r="C527" s="13"/>
@@ -7840,7 +8102,7 @@
       <c r="G527" s="13"/>
       <c r="H527" s="14"/>
     </row>
-    <row r="528" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A528" s="14"/>
       <c r="B528" s="14"/>
       <c r="C528" s="13"/>
@@ -7850,7 +8112,7 @@
       <c r="G528" s="13"/>
       <c r="H528" s="14"/>
     </row>
-    <row r="529" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A529" s="14"/>
       <c r="B529" s="14"/>
       <c r="C529" s="13"/>
@@ -7860,7 +8122,7 @@
       <c r="G529" s="13"/>
       <c r="H529" s="14"/>
     </row>
-    <row r="530" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A530" s="14"/>
       <c r="B530" s="14"/>
       <c r="C530" s="13"/>
@@ -7870,7 +8132,7 @@
       <c r="G530" s="13"/>
       <c r="H530" s="14"/>
     </row>
-    <row r="531" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A531" s="14"/>
       <c r="B531" s="14"/>
       <c r="C531" s="13"/>
@@ -7880,7 +8142,7 @@
       <c r="G531" s="13"/>
       <c r="H531" s="14"/>
     </row>
-    <row r="532" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A532" s="14"/>
       <c r="B532" s="14"/>
       <c r="C532" s="13"/>
@@ -7890,7 +8152,7 @@
       <c r="G532" s="13"/>
       <c r="H532" s="14"/>
     </row>
-    <row r="533" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A533" s="14"/>
       <c r="B533" s="14"/>
       <c r="C533" s="13"/>
@@ -7900,7 +8162,7 @@
       <c r="G533" s="13"/>
       <c r="H533" s="14"/>
     </row>
-    <row r="534" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A534" s="14"/>
       <c r="B534" s="14"/>
       <c r="C534" s="13"/>
@@ -7910,7 +8172,7 @@
       <c r="G534" s="13"/>
       <c r="H534" s="14"/>
     </row>
-    <row r="535" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A535" s="14"/>
       <c r="B535" s="14"/>
       <c r="C535" s="13"/>
@@ -7920,7 +8182,7 @@
       <c r="G535" s="13"/>
       <c r="H535" s="14"/>
     </row>
-    <row r="536" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A536" s="14"/>
       <c r="B536" s="14"/>
       <c r="C536" s="13"/>
@@ -7930,7 +8192,7 @@
       <c r="G536" s="13"/>
       <c r="H536" s="14"/>
     </row>
-    <row r="537" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A537" s="14"/>
       <c r="B537" s="14"/>
       <c r="C537" s="13"/>
@@ -7940,7 +8202,7 @@
       <c r="G537" s="13"/>
       <c r="H537" s="14"/>
     </row>
-    <row r="538" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A538" s="14"/>
       <c r="B538" s="14"/>
       <c r="C538" s="13"/>
@@ -7950,7 +8212,7 @@
       <c r="G538" s="13"/>
       <c r="H538" s="14"/>
     </row>
-    <row r="539" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A539" s="14"/>
       <c r="B539" s="14"/>
       <c r="C539" s="13"/>
@@ -7960,7 +8222,7 @@
       <c r="G539" s="13"/>
       <c r="H539" s="14"/>
     </row>
-    <row r="540" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A540" s="14"/>
       <c r="B540" s="14"/>
       <c r="C540" s="13"/>
@@ -7970,7 +8232,7 @@
       <c r="G540" s="13"/>
       <c r="H540" s="14"/>
     </row>
-    <row r="541" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A541" s="14"/>
       <c r="B541" s="14"/>
       <c r="C541" s="13"/>
@@ -7980,7 +8242,7 @@
       <c r="G541" s="13"/>
       <c r="H541" s="14"/>
     </row>
-    <row r="542" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A542" s="14"/>
       <c r="B542" s="14"/>
       <c r="C542" s="13"/>
@@ -7990,7 +8252,7 @@
       <c r="G542" s="13"/>
       <c r="H542" s="14"/>
     </row>
-    <row r="543" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A543" s="14"/>
       <c r="B543" s="14"/>
       <c r="C543" s="13"/>
@@ -8000,7 +8262,7 @@
       <c r="G543" s="13"/>
       <c r="H543" s="14"/>
     </row>
-    <row r="544" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A544" s="14"/>
       <c r="B544" s="14"/>
       <c r="C544" s="13"/>
@@ -8010,7 +8272,7 @@
       <c r="G544" s="13"/>
       <c r="H544" s="14"/>
     </row>
-    <row r="545" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A545" s="14"/>
       <c r="B545" s="14"/>
       <c r="C545" s="13"/>
@@ -8020,7 +8282,7 @@
       <c r="G545" s="13"/>
       <c r="H545" s="14"/>
     </row>
-    <row r="546" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A546" s="14"/>
       <c r="B546" s="14"/>
       <c r="C546" s="13"/>
@@ -8030,7 +8292,7 @@
       <c r="G546" s="13"/>
       <c r="H546" s="14"/>
     </row>
-    <row r="547" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A547" s="14"/>
       <c r="B547" s="14"/>
       <c r="C547" s="13"/>
@@ -8040,7 +8302,7 @@
       <c r="G547" s="13"/>
       <c r="H547" s="14"/>
     </row>
-    <row r="548" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A548" s="14"/>
       <c r="B548" s="14"/>
       <c r="C548" s="13"/>
@@ -8050,7 +8312,7 @@
       <c r="G548" s="13"/>
       <c r="H548" s="14"/>
     </row>
-    <row r="549" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A549" s="14"/>
       <c r="B549" s="14"/>
       <c r="C549" s="13"/>
@@ -8060,7 +8322,7 @@
       <c r="G549" s="13"/>
       <c r="H549" s="14"/>
     </row>
-    <row r="550" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A550" s="14"/>
       <c r="B550" s="14"/>
       <c r="C550" s="13"/>
@@ -8070,7 +8332,7 @@
       <c r="G550" s="13"/>
       <c r="H550" s="14"/>
     </row>
-    <row r="551" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A551" s="14"/>
       <c r="B551" s="14"/>
       <c r="C551" s="13"/>
@@ -8080,7 +8342,7 @@
       <c r="G551" s="13"/>
       <c r="H551" s="14"/>
     </row>
-    <row r="552" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A552" s="14"/>
       <c r="B552" s="14"/>
       <c r="C552" s="13"/>
@@ -8090,7 +8352,7 @@
       <c r="G552" s="13"/>
       <c r="H552" s="14"/>
     </row>
-    <row r="553" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A553" s="14"/>
       <c r="B553" s="14"/>
       <c r="C553" s="13"/>
@@ -8100,7 +8362,7 @@
       <c r="G553" s="13"/>
       <c r="H553" s="14"/>
     </row>
-    <row r="554" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A554" s="14"/>
       <c r="B554" s="14"/>
       <c r="C554" s="13"/>
@@ -8110,7 +8372,7 @@
       <c r="G554" s="13"/>
       <c r="H554" s="14"/>
     </row>
-    <row r="555" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A555" s="14"/>
       <c r="B555" s="14"/>
       <c r="C555" s="13"/>
@@ -8120,7 +8382,7 @@
       <c r="G555" s="13"/>
       <c r="H555" s="14"/>
     </row>
-    <row r="556" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A556" s="14"/>
       <c r="B556" s="14"/>
       <c r="C556" s="13"/>
@@ -8130,7 +8392,7 @@
       <c r="G556" s="13"/>
       <c r="H556" s="14"/>
     </row>
-    <row r="557" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A557" s="14"/>
       <c r="B557" s="14"/>
       <c r="C557" s="13"/>
@@ -8140,7 +8402,7 @@
       <c r="G557" s="13"/>
       <c r="H557" s="14"/>
     </row>
-    <row r="558" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A558" s="14"/>
       <c r="B558" s="14"/>
       <c r="C558" s="13"/>
@@ -8150,7 +8412,7 @@
       <c r="G558" s="13"/>
       <c r="H558" s="14"/>
     </row>
-    <row r="559" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A559" s="14"/>
       <c r="B559" s="14"/>
       <c r="C559" s="13"/>
@@ -8160,7 +8422,7 @@
       <c r="G559" s="13"/>
       <c r="H559" s="14"/>
     </row>
-    <row r="560" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A560" s="14"/>
       <c r="B560" s="14"/>
       <c r="C560" s="13"/>
@@ -8170,7 +8432,7 @@
       <c r="G560" s="13"/>
       <c r="H560" s="14"/>
     </row>
-    <row r="561" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A561" s="14"/>
       <c r="B561" s="14"/>
       <c r="C561" s="13"/>
@@ -8180,7 +8442,7 @@
       <c r="G561" s="13"/>
       <c r="H561" s="14"/>
     </row>
-    <row r="562" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A562" s="14"/>
       <c r="B562" s="14"/>
       <c r="C562" s="13"/>
@@ -8190,7 +8452,7 @@
       <c r="G562" s="13"/>
       <c r="H562" s="14"/>
     </row>
-    <row r="563" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A563" s="14"/>
       <c r="B563" s="14"/>
       <c r="C563" s="13"/>
@@ -8200,7 +8462,7 @@
       <c r="G563" s="13"/>
       <c r="H563" s="14"/>
     </row>
-    <row r="564" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A564" s="14"/>
       <c r="B564" s="14"/>
       <c r="C564" s="13"/>
@@ -8210,7 +8472,7 @@
       <c r="G564" s="13"/>
       <c r="H564" s="14"/>
     </row>
-    <row r="565" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A565" s="14"/>
       <c r="B565" s="14"/>
       <c r="C565" s="13"/>
@@ -8220,7 +8482,7 @@
       <c r="G565" s="13"/>
       <c r="H565" s="14"/>
     </row>
-    <row r="566" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A566" s="14"/>
       <c r="B566" s="14"/>
       <c r="C566" s="13"/>
@@ -8230,7 +8492,7 @@
       <c r="G566" s="13"/>
       <c r="H566" s="14"/>
     </row>
-    <row r="567" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A567" s="14"/>
       <c r="B567" s="14"/>
       <c r="C567" s="13"/>
@@ -8240,7 +8502,7 @@
       <c r="G567" s="13"/>
       <c r="H567" s="14"/>
     </row>
-    <row r="568" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A568" s="14"/>
       <c r="B568" s="14"/>
       <c r="C568" s="13"/>
@@ -8250,7 +8512,7 @@
       <c r="G568" s="13"/>
       <c r="H568" s="14"/>
     </row>
-    <row r="569" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A569" s="14"/>
       <c r="B569" s="14"/>
       <c r="C569" s="13"/>
@@ -8260,7 +8522,7 @@
       <c r="G569" s="13"/>
       <c r="H569" s="14"/>
     </row>
-    <row r="570" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A570" s="14"/>
       <c r="B570" s="14"/>
       <c r="C570" s="13"/>
@@ -8270,7 +8532,7 @@
       <c r="G570" s="13"/>
       <c r="H570" s="14"/>
     </row>
-    <row r="571" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A571" s="14"/>
       <c r="B571" s="14"/>
       <c r="C571" s="13"/>
@@ -8280,7 +8542,7 @@
       <c r="G571" s="13"/>
       <c r="H571" s="14"/>
     </row>
-    <row r="572" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A572" s="14"/>
       <c r="B572" s="14"/>
       <c r="C572" s="13"/>
@@ -8290,7 +8552,7 @@
       <c r="G572" s="13"/>
       <c r="H572" s="14"/>
     </row>
-    <row r="573" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A573" s="14"/>
       <c r="B573" s="14"/>
       <c r="C573" s="13"/>
@@ -8300,7 +8562,7 @@
       <c r="G573" s="13"/>
       <c r="H573" s="14"/>
     </row>
-    <row r="574" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A574" s="14"/>
       <c r="B574" s="14"/>
       <c r="C574" s="13"/>
@@ -8310,7 +8572,7 @@
       <c r="G574" s="13"/>
       <c r="H574" s="14"/>
     </row>
-    <row r="575" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A575" s="14"/>
       <c r="B575" s="14"/>
       <c r="C575" s="13"/>
@@ -8320,7 +8582,7 @@
       <c r="G575" s="13"/>
       <c r="H575" s="14"/>
     </row>
-    <row r="576" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A576" s="14"/>
       <c r="B576" s="14"/>
       <c r="C576" s="13"/>
@@ -8330,7 +8592,7 @@
       <c r="G576" s="13"/>
       <c r="H576" s="14"/>
     </row>
-    <row r="577" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A577" s="14"/>
       <c r="B577" s="14"/>
       <c r="C577" s="13"/>
@@ -8340,7 +8602,7 @@
       <c r="G577" s="13"/>
       <c r="H577" s="14"/>
     </row>
-    <row r="578" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A578" s="14"/>
       <c r="B578" s="14"/>
       <c r="C578" s="13"/>
@@ -8350,7 +8612,7 @@
       <c r="G578" s="13"/>
       <c r="H578" s="14"/>
     </row>
-    <row r="579" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A579" s="14"/>
       <c r="B579" s="14"/>
       <c r="C579" s="13"/>
@@ -8360,7 +8622,7 @@
       <c r="G579" s="13"/>
       <c r="H579" s="14"/>
     </row>
-    <row r="580" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A580" s="14"/>
       <c r="B580" s="14"/>
       <c r="C580" s="13"/>
@@ -8370,7 +8632,7 @@
       <c r="G580" s="13"/>
       <c r="H580" s="14"/>
     </row>
-    <row r="581" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A581" s="14"/>
       <c r="B581" s="14"/>
       <c r="C581" s="13"/>
@@ -8380,7 +8642,7 @@
       <c r="G581" s="13"/>
       <c r="H581" s="14"/>
     </row>
-    <row r="582" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A582" s="14"/>
       <c r="B582" s="14"/>
       <c r="C582" s="13"/>
@@ -8390,7 +8652,7 @@
       <c r="G582" s="13"/>
       <c r="H582" s="14"/>
     </row>
-    <row r="583" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A583" s="14"/>
       <c r="B583" s="14"/>
       <c r="C583" s="13"/>
@@ -8400,7 +8662,7 @@
       <c r="G583" s="13"/>
       <c r="H583" s="14"/>
     </row>
-    <row r="584" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A584" s="14"/>
       <c r="B584" s="14"/>
       <c r="C584" s="13"/>
@@ -8410,7 +8672,7 @@
       <c r="G584" s="13"/>
       <c r="H584" s="14"/>
     </row>
-    <row r="585" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A585" s="14"/>
       <c r="B585" s="14"/>
       <c r="C585" s="13"/>
@@ -8420,7 +8682,7 @@
       <c r="G585" s="13"/>
       <c r="H585" s="14"/>
     </row>
-    <row r="586" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A586" s="14"/>
       <c r="B586" s="14"/>
       <c r="C586" s="13"/>
@@ -8430,7 +8692,7 @@
       <c r="G586" s="13"/>
       <c r="H586" s="14"/>
     </row>
-    <row r="587" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A587" s="14"/>
       <c r="B587" s="14"/>
       <c r="C587" s="13"/>
@@ -8440,7 +8702,7 @@
       <c r="G587" s="13"/>
       <c r="H587" s="14"/>
     </row>
-    <row r="588" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A588" s="14"/>
       <c r="B588" s="14"/>
       <c r="C588" s="13"/>
@@ -8450,7 +8712,7 @@
       <c r="G588" s="13"/>
       <c r="H588" s="14"/>
     </row>
-    <row r="589" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A589" s="14"/>
       <c r="B589" s="14"/>
       <c r="C589" s="13"/>
@@ -8460,7 +8722,7 @@
       <c r="G589" s="13"/>
       <c r="H589" s="14"/>
     </row>
-    <row r="590" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A590" s="14"/>
       <c r="B590" s="14"/>
       <c r="C590" s="13"/>
@@ -8470,7 +8732,7 @@
       <c r="G590" s="13"/>
       <c r="H590" s="14"/>
     </row>
-    <row r="591" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A591" s="14"/>
       <c r="B591" s="14"/>
       <c r="C591" s="13"/>
@@ -8480,7 +8742,7 @@
       <c r="G591" s="13"/>
       <c r="H591" s="14"/>
     </row>
-    <row r="592" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A592" s="14"/>
       <c r="B592" s="14"/>
       <c r="C592" s="13"/>
@@ -8490,7 +8752,7 @@
       <c r="G592" s="13"/>
       <c r="H592" s="14"/>
     </row>
-    <row r="593" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A593" s="14"/>
       <c r="B593" s="14"/>
       <c r="C593" s="13"/>
@@ -8500,7 +8762,7 @@
       <c r="G593" s="13"/>
       <c r="H593" s="14"/>
     </row>
-    <row r="594" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A594" s="14"/>
       <c r="B594" s="14"/>
       <c r="C594" s="13"/>
@@ -8510,7 +8772,7 @@
       <c r="G594" s="13"/>
       <c r="H594" s="14"/>
     </row>
-    <row r="595" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A595" s="14"/>
       <c r="B595" s="14"/>
       <c r="C595" s="13"/>
@@ -8520,7 +8782,7 @@
       <c r="G595" s="13"/>
       <c r="H595" s="14"/>
     </row>
-    <row r="596" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A596" s="14"/>
       <c r="B596" s="14"/>
       <c r="C596" s="13"/>
@@ -8530,7 +8792,7 @@
       <c r="G596" s="13"/>
       <c r="H596" s="14"/>
     </row>
-    <row r="597" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A597" s="14"/>
       <c r="B597" s="14"/>
       <c r="C597" s="13"/>
@@ -8540,7 +8802,7 @@
       <c r="G597" s="13"/>
       <c r="H597" s="14"/>
     </row>
-    <row r="598" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A598" s="14"/>
       <c r="B598" s="14"/>
       <c r="C598" s="13"/>
@@ -8550,7 +8812,7 @@
       <c r="G598" s="13"/>
       <c r="H598" s="14"/>
     </row>
-    <row r="599" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A599" s="14"/>
       <c r="B599" s="14"/>
       <c r="C599" s="13"/>
@@ -8560,7 +8822,7 @@
       <c r="G599" s="13"/>
       <c r="H599" s="14"/>
     </row>
-    <row r="600" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A600" s="14"/>
       <c r="B600" s="14"/>
       <c r="C600" s="13"/>
@@ -8570,7 +8832,7 @@
       <c r="G600" s="13"/>
       <c r="H600" s="14"/>
     </row>
-    <row r="601" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A601" s="14"/>
       <c r="B601" s="14"/>
       <c r="C601" s="13"/>
@@ -8580,7 +8842,7 @@
       <c r="G601" s="13"/>
       <c r="H601" s="14"/>
     </row>
-    <row r="602" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A602" s="14"/>
       <c r="B602" s="14"/>
       <c r="C602" s="13"/>
@@ -8590,8 +8852,57 @@
       <c r="G602" s="13"/>
       <c r="H602" s="14"/>
     </row>
+    <row r="603" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B603" s="14"/>
+    </row>
+    <row r="604" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B604" s="14"/>
+    </row>
+    <row r="1048576" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G1048576" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G602 E2:E602 C2:C602">
+  <mergeCells count="28">
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:E59 C2:C59 C61 C63 C65 C67 C69:C602 E61 E63 E65 E67 E69:E602 G61 G63 G65 G67 G69:G602 G2:G59">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -8600,7 +8911,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E602 G2:G602 C2:C602" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C602 E69:E602 C2:C59 C61 C63 C65 C67 E2:E59 E61 E63 E65 E67 G69:G602 G61 G63 G65 G67 G1048576 G2:G59" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
